--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1081,8 +1081,11 @@
       <c r="HV1" s="1" t="n">
         <v>10321</v>
       </c>
-      <c r="HW1" t="n">
+      <c r="HW1" s="1" t="n">
         <v>10323</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>10328</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1778,8 +1781,11 @@
       <c r="HV2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HW2" t="n">
+      <c r="HW2" s="1" t="n">
         <v>2020</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -2475,8 +2481,11 @@
       <c r="HV3" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HW3" t="n">
+      <c r="HW3" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3172,8 +3181,11 @@
       <c r="HV4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW4" t="n">
+      <c r="HW4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3869,8 +3881,11 @@
       <c r="HV5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW5" t="n">
+      <c r="HW5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4566,8 +4581,11 @@
       <c r="HV6" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="HW6" t="n">
+      <c r="HW6" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5263,8 +5281,11 @@
       <c r="HV7" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HW7" t="n">
+      <c r="HW7" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -5960,8 +5981,11 @@
       <c r="HV8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW8" t="n">
+      <c r="HW8" s="1" t="n">
         <v>-68</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6657,7 +6681,10 @@
       <c r="HV9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HW9" t="n">
+      <c r="HW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7354,8 +7381,11 @@
       <c r="HV10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HW10" t="n">
+      <c r="HW10" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8051,8 +8081,11 @@
       <c r="HV11" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="HW11" t="n">
+      <c r="HW11" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8748,8 +8781,11 @@
       <c r="HV12" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="HW12" t="n">
+      <c r="HW12" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9445,8 +9481,11 @@
       <c r="HV13" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="HW13" t="n">
+      <c r="HW13" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10142,8 +10181,11 @@
       <c r="HV14" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="HW14" t="n">
+      <c r="HW14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10839,8 +10881,11 @@
       <c r="HV15" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HW15" t="n">
+      <c r="HW15" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11536,8 +11581,11 @@
       <c r="HV16" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HW16" t="n">
+      <c r="HW16" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12233,8 +12281,11 @@
       <c r="HV17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HW17" t="n">
+      <c r="HW17" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -12930,8 +12981,11 @@
       <c r="HV18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HW18" t="n">
+      <c r="HW18" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13627,8 +13681,11 @@
       <c r="HV19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HW19" t="n">
+      <c r="HW19" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14324,8 +14381,11 @@
       <c r="HV20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HW20" t="n">
+      <c r="HW20" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15021,8 +15081,11 @@
       <c r="HV21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HW21" t="n">
+      <c r="HW21" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15718,8 +15781,11 @@
       <c r="HV22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW22" t="n">
+      <c r="HW22" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16415,8 +16481,11 @@
       <c r="HV23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW23" t="n">
+      <c r="HW23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17112,8 +17181,11 @@
       <c r="HV24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HW24" t="n">
+      <c r="HW24" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17809,8 +17881,11 @@
       <c r="HV25" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="HW25" t="n">
+      <c r="HW25" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18506,8 +18581,11 @@
       <c r="HV26" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="HW26" t="n">
+      <c r="HW26" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>45.14</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19203,8 +19281,11 @@
       <c r="HV27" s="1" t="n">
         <v>17.62</v>
       </c>
-      <c r="HW27" t="n">
+      <c r="HW27" s="1" t="n">
         <v>28.57</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>17.56</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -19900,8 +19981,11 @@
       <c r="HV28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HW28" t="n">
+      <c r="HW28" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20597,8 +20681,11 @@
       <c r="HV29" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HW29" t="n">
+      <c r="HW29" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21294,8 +21381,11 @@
       <c r="HV30" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HW30" t="n">
+      <c r="HW30" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -21991,8 +22081,11 @@
       <c r="HV31" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HW31" t="n">
+      <c r="HW31" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22688,8 +22781,11 @@
       <c r="HV32" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="HW32" t="n">
+      <c r="HW32" s="1" t="n">
         <v>4.29</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23385,8 +23481,11 @@
       <c r="HV33" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="HW33" t="n">
+      <c r="HW33" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>5.71</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24082,8 +24181,11 @@
       <c r="HV34" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HW34" t="n">
+      <c r="HW34" s="1" t="n">
         <v>23.3</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>42.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24779,8 +24881,11 @@
       <c r="HV35" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HW35" t="n">
+      <c r="HW35" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25476,7 +25581,10 @@
       <c r="HV36" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="HW36" t="n">
+      <c r="HW36" s="1" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="HX36" t="n">
         <v>189.3</v>
       </c>
     </row>
@@ -26173,8 +26281,11 @@
       <c r="HV37" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="HW37" t="n">
+      <c r="HW37" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -26870,8 +26981,11 @@
       <c r="HV38" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="HW38" t="n">
+      <c r="HW38" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27567,8 +27681,11 @@
       <c r="HV39" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="HW39" t="n">
+      <c r="HW39" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>94.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28264,8 +28381,11 @@
       <c r="HV40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HW40" t="n">
+      <c r="HW40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HX40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -28961,8 +29081,11 @@
       <c r="HV41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HW41" t="n">
+      <c r="HW41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -29658,7 +29781,10 @@
       <c r="HV42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW42" t="n">
+      <c r="HW42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30355,8 +30481,11 @@
       <c r="HV43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HW43" t="n">
+      <c r="HW43" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31052,8 +31181,11 @@
       <c r="HV44" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HW44" t="n">
+      <c r="HW44" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -31749,8 +31881,11 @@
       <c r="HV45" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="HW45" t="n">
+      <c r="HW45" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32446,8 +32581,11 @@
       <c r="HV46" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="HW46" t="n">
+      <c r="HW46" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33143,8 +33281,11 @@
       <c r="HV47" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="HW47" t="n">
+      <c r="HW47" s="1" t="n">
         <v>63.5</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -33840,8 +33981,11 @@
       <c r="HV48" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HW48" t="n">
+      <c r="HW48" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34537,8 +34681,11 @@
       <c r="HV49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HW49" t="n">
+      <c r="HW49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35234,7 +35381,10 @@
       <c r="HV50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HW50" t="n">
+      <c r="HW50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX50" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35931,8 +36081,11 @@
       <c r="HV51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="HW51" t="n">
+      <c r="HW51" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -36628,8 +36781,11 @@
       <c r="HV52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="HW52" t="n">
+      <c r="HW52" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37325,8 +37481,11 @@
       <c r="HV53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HW53" t="n">
+      <c r="HW53" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38022,8 +38181,11 @@
       <c r="HV54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HW54" t="n">
+      <c r="HW54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -38719,8 +38881,11 @@
       <c r="HV55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HW55" t="n">
+      <c r="HW55" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39416,8 +39581,11 @@
       <c r="HV56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HW56" t="n">
+      <c r="HW56" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40113,8 +40281,11 @@
       <c r="HV57" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="HW57" t="n">
+      <c r="HW57" s="1" t="n">
         <v>228</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -40810,8 +40981,11 @@
       <c r="HV58" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HW58" t="n">
+      <c r="HW58" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41507,8 +41681,11 @@
       <c r="HV59" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="HW59" t="n">
+      <c r="HW59" s="1" t="n">
         <v>358</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42204,8 +42381,11 @@
       <c r="HV60" s="1" t="n">
         <v>1.74</v>
       </c>
-      <c r="HW60" t="n">
+      <c r="HW60" s="1" t="n">
         <v>1.75</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -42901,8 +43081,11 @@
       <c r="HV61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HW61" t="n">
+      <c r="HW61" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43598,8 +43781,11 @@
       <c r="HV62" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HW62" t="n">
+      <c r="HW62" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44295,7 +44481,10 @@
       <c r="HV63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HW63" t="n">
+      <c r="HW63" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HX63" t="n">
         <v>19</v>
       </c>
     </row>
@@ -44992,8 +45181,11 @@
       <c r="HV64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HW64" t="n">
+      <c r="HW64" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -45689,8 +45881,11 @@
       <c r="HV65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HW65" t="n">
+      <c r="HW65" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46386,8 +46581,11 @@
       <c r="HV66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HW66" t="n">
+      <c r="HW66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47083,8 +47281,11 @@
       <c r="HV67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW67" t="n">
+      <c r="HW67" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -47780,8 +47981,11 @@
       <c r="HV68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW68" t="n">
+      <c r="HW68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48477,7 +48681,10 @@
       <c r="HV69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HW69" t="n">
+      <c r="HW69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -49174,8 +49381,11 @@
       <c r="HV70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HW70" t="n">
+      <c r="HW70" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -49871,8 +50081,11 @@
       <c r="HV71" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HW71" t="n">
+      <c r="HW71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -50568,8 +50781,11 @@
       <c r="HV72" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="HW72" t="n">
+      <c r="HW72" s="1" t="n">
         <v>23.87</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>46.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51265,8 +51481,11 @@
       <c r="HV73" s="1" t="n">
         <v>14.25</v>
       </c>
-      <c r="HW73" t="n">
+      <c r="HW73" s="1" t="n">
         <v>14.32</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>24.47</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -51962,8 +52181,11 @@
       <c r="HV74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HW74" t="n">
+      <c r="HW74" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -52659,8 +52881,11 @@
       <c r="HV75" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HW75" t="n">
+      <c r="HW75" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HX75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53356,8 +53581,11 @@
       <c r="HV76" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HW76" t="n">
+      <c r="HW76" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54053,8 +54281,11 @@
       <c r="HV77" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HW77" t="n">
+      <c r="HW77" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -54750,8 +54981,11 @@
       <c r="HV78" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="HW78" t="n">
+      <c r="HW78" s="1" t="n">
         <v>1.84</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>3.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55447,8 +55681,11 @@
       <c r="HV79" s="1" t="n">
         <v>3.45</v>
       </c>
-      <c r="HW79" t="n">
+      <c r="HW79" s="1" t="n">
         <v>3.07</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56144,8 +56381,11 @@
       <c r="HV80" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="HW80" t="n">
+      <c r="HW80" s="1" t="n">
         <v>47.8</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -56841,8 +57081,11 @@
       <c r="HV81" s="1" t="n">
         <v>28.9</v>
       </c>
-      <c r="HW81" t="n">
+      <c r="HW81" s="1" t="n">
         <v>32.6</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -57538,8 +57781,11 @@
       <c r="HV82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HW82" t="n">
+      <c r="HW82" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58235,8 +58481,11 @@
       <c r="HV83" s="1" t="n">
         <v>88.3</v>
       </c>
-      <c r="HW83" t="n">
+      <c r="HW83" s="1" t="n">
         <v>89.3</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -58932,8 +59181,11 @@
       <c r="HV84" s="1" t="n">
         <v>26.66</v>
       </c>
-      <c r="HW84" t="n">
+      <c r="HW84" s="1" t="n">
         <v>28.24</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -59629,8 +59881,11 @@
       <c r="HV85" s="1" t="n">
         <v>128.5</v>
       </c>
-      <c r="HW85" t="n">
+      <c r="HW85" s="1" t="n">
         <v>160.9</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60326,8 +60581,11 @@
       <c r="HV86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HW86" t="n">
+      <c r="HW86" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61023,7 +61281,10 @@
       <c r="HV87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HW87" t="n">
+      <c r="HW87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -61720,8 +61981,11 @@
       <c r="HV88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HW88" t="n">
+      <c r="HW88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62417,8 +62681,11 @@
       <c r="HV89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HW89" t="n">
+      <c r="HW89" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HX89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -63114,8 +63381,11 @@
       <c r="HV90" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="HW90" t="n">
+      <c r="HW90" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -63811,8 +64081,11 @@
       <c r="HV91" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="HW91" t="n">
+      <c r="HW91" s="1" t="n">
         <v>251</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -64508,8 +64781,11 @@
       <c r="HV92" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="HW92" t="n">
+      <c r="HW92" s="1" t="n">
         <v>287</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -65205,8 +65481,11 @@
       <c r="HV93" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HW93" t="n">
+      <c r="HW93" s="1" t="n">
         <v>80.2</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -65902,8 +66181,11 @@
       <c r="HV94" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HW94" t="n">
+      <c r="HW94" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -66599,8 +66881,11 @@
       <c r="HV95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HW95" t="n">
+      <c r="HW95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67296,8 +67581,11 @@
       <c r="HV96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW96" t="n">
+      <c r="HW96" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -67993,8 +68281,11 @@
       <c r="HV97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="HW97" t="n">
+      <c r="HW97" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -68690,8 +68981,11 @@
       <c r="HV98" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="HW98" t="n">
+      <c r="HW98" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69387,8 +69681,11 @@
       <c r="HV99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HW99" t="n">
+      <c r="HW99" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -70084,8 +70381,11 @@
       <c r="HV100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HW100" t="n">
+      <c r="HW100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -70781,8 +71081,11 @@
       <c r="HV101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HW101" t="n">
+      <c r="HW101" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -71478,8 +71781,11 @@
       <c r="HV102" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="HW102" t="n">
+      <c r="HW102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:HZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1087,8 +1087,11 @@
       <c r="HX1" s="1" t="n">
         <v>10328</v>
       </c>
-      <c r="HY1" t="n">
+      <c r="HY1" s="1" t="n">
         <v>10336</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>10525</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1790,7 +1793,10 @@
       <c r="HX2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HY2" t="n">
+      <c r="HY2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HZ2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2493,8 +2499,11 @@
       <c r="HX3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HY3" t="n">
+      <c r="HY3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3196,8 +3205,11 @@
       <c r="HX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HY4" t="n">
+      <c r="HY4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3899,7 +3911,10 @@
       <c r="HX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HY5" t="n">
+      <c r="HY5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,8 +4617,11 @@
       <c r="HX6" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HY6" t="n">
+      <c r="HY6" s="1" t="n">
         <v>106</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5305,8 +5323,11 @@
       <c r="HX7" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HY7" t="n">
+      <c r="HY7" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6008,8 +6029,11 @@
       <c r="HX8" s="1" t="n">
         <v>-16</v>
       </c>
-      <c r="HY8" t="n">
+      <c r="HY8" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6711,8 +6735,11 @@
       <c r="HX9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HY9" t="n">
+      <c r="HY9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7414,8 +7441,11 @@
       <c r="HX10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HY10" t="n">
+      <c r="HY10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8117,8 +8147,11 @@
       <c r="HX11" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="HY11" t="n">
+      <c r="HY11" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8820,8 +8853,11 @@
       <c r="HX12" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="HY12" t="n">
+      <c r="HY12" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9523,8 +9559,11 @@
       <c r="HX13" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="HY13" t="n">
+      <c r="HY13" s="1" t="n">
         <v>371</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10226,8 +10265,11 @@
       <c r="HX14" s="1" t="n">
         <v>1.66</v>
       </c>
-      <c r="HY14" t="n">
+      <c r="HY14" s="1" t="n">
         <v>1.65</v>
+      </c>
+      <c r="HZ14" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10929,8 +10971,11 @@
       <c r="HX15" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="HY15" t="n">
+      <c r="HY15" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="HZ15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11632,8 +11677,11 @@
       <c r="HX16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HY16" t="n">
+      <c r="HY16" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HZ16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12335,8 +12383,11 @@
       <c r="HX17" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="HY17" t="n">
+      <c r="HY17" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13038,8 +13089,11 @@
       <c r="HX18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HY18" t="n">
+      <c r="HY18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HZ18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13741,8 +13795,11 @@
       <c r="HX19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HY19" t="n">
+      <c r="HY19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HZ19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14444,8 +14501,11 @@
       <c r="HX20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HY20" t="n">
+      <c r="HY20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HZ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15147,8 +15207,11 @@
       <c r="HX21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY21" t="n">
+      <c r="HY21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HZ21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15850,8 +15913,11 @@
       <c r="HX22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HY22" t="n">
+      <c r="HY22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HZ22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16553,8 +16619,11 @@
       <c r="HX23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HY23" t="n">
+      <c r="HY23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17256,8 +17325,11 @@
       <c r="HX24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HY24" t="n">
+      <c r="HY24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -17959,8 +18031,11 @@
       <c r="HX25" s="1" t="n">
         <v>38.9</v>
       </c>
-      <c r="HY25" t="n">
+      <c r="HY25" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="HZ25" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18662,8 +18737,11 @@
       <c r="HX26" s="1" t="n">
         <v>45.14</v>
       </c>
-      <c r="HY26" t="n">
+      <c r="HY26" s="1" t="n">
         <v>23.19</v>
+      </c>
+      <c r="HZ26" t="n">
+        <v>36.18</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19365,8 +19443,11 @@
       <c r="HX27" s="1" t="n">
         <v>17.56</v>
       </c>
-      <c r="HY27" t="n">
+      <c r="HY27" s="1" t="n">
         <v>14.27</v>
+      </c>
+      <c r="HZ27" t="n">
+        <v>23.41</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20068,7 +20149,10 @@
       <c r="HX28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HY28" t="n">
+      <c r="HY28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HZ28" t="n">
         <v>35</v>
       </c>
     </row>
@@ -20771,8 +20855,11 @@
       <c r="HX29" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HY29" t="n">
+      <c r="HY29" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HZ29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21474,7 +21561,10 @@
       <c r="HX30" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HY30" t="n">
+      <c r="HY30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HZ30" t="n">
         <v>47</v>
       </c>
     </row>
@@ -22177,8 +22267,11 @@
       <c r="HX31" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HY31" t="n">
+      <c r="HY31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HZ31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22880,8 +22973,11 @@
       <c r="HX32" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="HY32" t="n">
+      <c r="HY32" s="1" t="n">
         <v>1.85</v>
+      </c>
+      <c r="HZ32" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23583,8 +23679,11 @@
       <c r="HX33" s="1" t="n">
         <v>5.71</v>
       </c>
-      <c r="HY33" t="n">
+      <c r="HY33" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HZ33" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24286,8 +24385,11 @@
       <c r="HX34" s="1" t="n">
         <v>42.5</v>
       </c>
-      <c r="HY34" t="n">
+      <c r="HY34" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="HZ34" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -24989,8 +25091,11 @@
       <c r="HX35" s="1" t="n">
         <v>17.5</v>
       </c>
-      <c r="HY35" t="n">
+      <c r="HY35" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="HZ35" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25692,8 +25797,11 @@
       <c r="HX36" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="HY36" t="n">
+      <c r="HY36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="HZ36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26395,7 +26503,10 @@
       <c r="HX37" s="1" t="n">
         <v>87.8</v>
       </c>
-      <c r="HY37" t="n">
+      <c r="HY37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HZ37" t="n">
         <v>87.90000000000001</v>
       </c>
     </row>
@@ -27098,8 +27209,11 @@
       <c r="HX38" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HY38" t="n">
+      <c r="HY38" s="1" t="n">
         <v>26.41</v>
+      </c>
+      <c r="HZ38" t="n">
+        <v>26.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27801,8 +27915,11 @@
       <c r="HX39" s="1" t="n">
         <v>94.5</v>
       </c>
-      <c r="HY39" t="n">
+      <c r="HY39" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="HZ39" t="n">
+        <v>114.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28504,8 +28621,11 @@
       <c r="HX40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HY40" t="n">
+      <c r="HY40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HZ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29207,7 +29327,10 @@
       <c r="HX41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY41" t="n">
+      <c r="HY41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29910,8 +30033,11 @@
       <c r="HX42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY42" t="n">
+      <c r="HY42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HZ42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -30613,8 +30739,11 @@
       <c r="HX43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY43" t="n">
+      <c r="HY43" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HZ43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31316,8 +31445,11 @@
       <c r="HX44" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HY44" t="n">
+      <c r="HY44" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="HZ44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32019,8 +32151,11 @@
       <c r="HX45" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="HY45" t="n">
+      <c r="HY45" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="HZ45" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32722,8 +32857,11 @@
       <c r="HX46" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="HY46" t="n">
+      <c r="HY46" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="HZ46" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33425,8 +33563,11 @@
       <c r="HX47" s="1" t="n">
         <v>71.2</v>
       </c>
-      <c r="HY47" t="n">
+      <c r="HY47" s="1" t="n">
         <v>74.40000000000001</v>
+      </c>
+      <c r="HZ47" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34128,8 +34269,11 @@
       <c r="HX48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HY48" t="n">
+      <c r="HY48" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="HZ48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34831,8 +34975,11 @@
       <c r="HX49" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="HY49" t="n">
+      <c r="HY49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HZ49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35534,8 +35681,11 @@
       <c r="HX50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HY50" t="n">
+      <c r="HY50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HZ50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36237,7 +36387,10 @@
       <c r="HX51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HY51" t="n">
+      <c r="HY51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HZ51" t="n">
         <v>35</v>
       </c>
     </row>
@@ -36940,7 +37093,10 @@
       <c r="HX52" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HY52" t="n">
+      <c r="HY52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HZ52" t="n">
         <v>47</v>
       </c>
     </row>
@@ -37643,8 +37799,11 @@
       <c r="HX53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HY53" t="n">
+      <c r="HY53" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="HZ53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38346,8 +38505,11 @@
       <c r="HX54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HY54" t="n">
+      <c r="HY54" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="HZ54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39049,8 +39211,11 @@
       <c r="HX55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY55" t="n">
+      <c r="HY55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HZ55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39752,8 +39917,11 @@
       <c r="HX56" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="HY56" t="n">
+      <c r="HY56" s="1" t="n">
         <v>81.2</v>
+      </c>
+      <c r="HZ56" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40455,8 +40623,11 @@
       <c r="HX57" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="HY57" t="n">
+      <c r="HY57" s="1" t="n">
         <v>214</v>
+      </c>
+      <c r="HZ57" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41158,8 +41329,11 @@
       <c r="HX58" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="HY58" t="n">
+      <c r="HY58" s="1" t="n">
         <v>132</v>
+      </c>
+      <c r="HZ58" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -41861,8 +42035,11 @@
       <c r="HX59" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="HY59" t="n">
+      <c r="HY59" s="1" t="n">
         <v>346</v>
+      </c>
+      <c r="HZ59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42564,8 +42741,11 @@
       <c r="HX60" s="1" t="n">
         <v>1.26</v>
       </c>
-      <c r="HY60" t="n">
+      <c r="HY60" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="HZ60" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43267,8 +43447,11 @@
       <c r="HX61" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="HY61" t="n">
+      <c r="HY61" s="1" t="n">
         <v>91</v>
+      </c>
+      <c r="HZ61" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -43970,8 +44153,11 @@
       <c r="HX62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HY62" t="n">
+      <c r="HY62" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="HZ62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44673,8 +44859,11 @@
       <c r="HX63" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HY63" t="n">
+      <c r="HY63" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="HZ63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45376,8 +45565,11 @@
       <c r="HX64" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HY64" t="n">
+      <c r="HY64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HZ64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46079,8 +46271,11 @@
       <c r="HX65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HY65" t="n">
+      <c r="HY65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="HZ65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46782,8 +46977,11 @@
       <c r="HX66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HY66" t="n">
+      <c r="HY66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HZ66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47485,8 +47683,11 @@
       <c r="HX67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HY67" t="n">
+      <c r="HY67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HZ67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -48188,8 +48389,11 @@
       <c r="HX68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY68" t="n">
+      <c r="HY68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HZ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -48891,8 +49095,11 @@
       <c r="HX69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HY69" t="n">
+      <c r="HY69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HZ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -49594,8 +49801,11 @@
       <c r="HX70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HY70" t="n">
+      <c r="HY70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HZ70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50297,8 +50507,11 @@
       <c r="HX71" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="HY71" t="n">
+      <c r="HY71" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="HZ71" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51000,8 +51213,11 @@
       <c r="HX72" s="1" t="n">
         <v>46.5</v>
       </c>
-      <c r="HY72" t="n">
+      <c r="HY72" s="1" t="n">
         <v>26.62</v>
+      </c>
+      <c r="HZ72" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51703,8 +51919,11 @@
       <c r="HX73" s="1" t="n">
         <v>24.47</v>
       </c>
-      <c r="HY73" t="n">
+      <c r="HY73" s="1" t="n">
         <v>17.3</v>
+      </c>
+      <c r="HZ73" t="n">
+        <v>21.17</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -52406,8 +52625,11 @@
       <c r="HX74" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HY74" t="n">
+      <c r="HY74" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HZ74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53109,8 +53331,11 @@
       <c r="HX75" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HY75" t="n">
+      <c r="HY75" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HZ75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -53812,8 +54037,11 @@
       <c r="HX76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HY76" t="n">
+      <c r="HY76" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HZ76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -54515,8 +54743,11 @@
       <c r="HX77" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HY77" t="n">
+      <c r="HY77" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HZ77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55218,8 +55449,11 @@
       <c r="HX78" s="1" t="n">
         <v>3.11</v>
       </c>
-      <c r="HY78" t="n">
+      <c r="HY78" s="1" t="n">
         <v>2.95</v>
+      </c>
+      <c r="HZ78" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -55921,8 +56155,11 @@
       <c r="HX79" s="1" t="n">
         <v>5.9</v>
       </c>
-      <c r="HY79" t="n">
+      <c r="HY79" s="1" t="n">
         <v>4.54</v>
+      </c>
+      <c r="HZ79" t="n">
+        <v>5.27</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56624,8 +56861,11 @@
       <c r="HX80" s="1" t="n">
         <v>27.1</v>
       </c>
-      <c r="HY80" t="n">
+      <c r="HY80" s="1" t="n">
         <v>30.5</v>
+      </c>
+      <c r="HZ80" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -57327,8 +57567,11 @@
       <c r="HX81" s="1" t="n">
         <v>16.9</v>
       </c>
-      <c r="HY81" t="n">
+      <c r="HY81" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="HZ81" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58030,8 +58273,11 @@
       <c r="HX82" s="1" t="n">
         <v>187.7</v>
       </c>
-      <c r="HY82" t="n">
+      <c r="HY82" s="1" t="n">
         <v>188.1</v>
+      </c>
+      <c r="HZ82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58733,8 +58979,11 @@
       <c r="HX83" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="HY83" t="n">
+      <c r="HY83" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="HZ83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -59436,7 +59685,10 @@
       <c r="HX84" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="HY84" t="n">
+      <c r="HY84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HZ84" t="n">
         <v>25.74</v>
       </c>
     </row>
@@ -60139,8 +60391,11 @@
       <c r="HX85" s="1" t="n">
         <v>88.8</v>
       </c>
-      <c r="HY85" t="n">
+      <c r="HY85" s="1" t="n">
         <v>97.5</v>
+      </c>
+      <c r="HZ85" t="n">
+        <v>98.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -60842,8 +61097,11 @@
       <c r="HX86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HY86" t="n">
+      <c r="HY86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HZ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61545,7 +61803,10 @@
       <c r="HX87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY87" t="n">
+      <c r="HY87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HZ87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -62248,8 +62509,11 @@
       <c r="HX88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HY88" t="n">
+      <c r="HY88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HZ88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -62951,8 +63215,11 @@
       <c r="HX89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY89" t="n">
+      <c r="HY89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HZ89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -63654,8 +63921,11 @@
       <c r="HX90" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="HY90" t="n">
+      <c r="HY90" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="HZ90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -64357,8 +64627,11 @@
       <c r="HX91" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="HY91" t="n">
+      <c r="HY91" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="HZ91" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -65060,8 +65333,11 @@
       <c r="HX92" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="HY92" t="n">
+      <c r="HY92" s="1" t="n">
         <v>260</v>
+      </c>
+      <c r="HZ92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -65763,7 +66039,10 @@
       <c r="HX93" s="1" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="HY93" t="n">
+      <c r="HY93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HZ93" t="n">
         <v>75.09999999999999</v>
       </c>
     </row>
@@ -66466,8 +66745,11 @@
       <c r="HX94" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="HY94" t="n">
+      <c r="HY94" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="HZ94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -67169,8 +67451,11 @@
       <c r="HX95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HY95" t="n">
+      <c r="HY95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HZ95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -67872,8 +68157,11 @@
       <c r="HX96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HY96" t="n">
+      <c r="HY96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HZ96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -68575,8 +68863,11 @@
       <c r="HX97" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HY97" t="n">
+      <c r="HY97" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HZ97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -69278,8 +69569,11 @@
       <c r="HX98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HY98" t="n">
+      <c r="HY98" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="HZ98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -69981,8 +70275,11 @@
       <c r="HX99" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HY99" t="n">
+      <c r="HY99" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HZ99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -70684,8 +70981,11 @@
       <c r="HX100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HY100" t="n">
+      <c r="HY100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HZ100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -71387,8 +71687,11 @@
       <c r="HX101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HY101" t="n">
+      <c r="HY101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HZ101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -72090,8 +72393,11 @@
       <c r="HX102" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="HY102" t="n">
+      <c r="HY102" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="HZ102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1090,8 +1090,14 @@
       <c r="HY1" s="1" t="n">
         <v>10336</v>
       </c>
-      <c r="HZ1" t="n">
+      <c r="HZ1" s="1" t="n">
         <v>10525</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>10359</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1796,7 +1802,13 @@
       <c r="HY2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="HZ2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IA2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IB2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2502,8 +2514,14 @@
       <c r="HY3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="HZ3" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IA3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3208,7 +3226,13 @@
       <c r="HY4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="HZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3938,13 @@
       <c r="HY5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="HZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,8 +4650,14 @@
       <c r="HY6" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="HZ6" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IA6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5326,8 +5362,14 @@
       <c r="HY7" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="HZ7" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="IA7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6032,8 +6074,14 @@
       <c r="HY8" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="HZ8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="IA8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>-30</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6738,7 +6786,13 @@
       <c r="HY9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ9" t="n">
+      <c r="HZ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7444,8 +7498,14 @@
       <c r="HY10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HZ10" t="n">
+      <c r="HZ10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IA10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8150,8 +8210,14 @@
       <c r="HY11" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="HZ11" t="n">
+      <c r="HZ11" s="1" t="n">
         <v>242</v>
+      </c>
+      <c r="IA11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8856,8 +8922,14 @@
       <c r="HY12" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HZ12" t="n">
+      <c r="HZ12" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="IA12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9562,8 +9634,14 @@
       <c r="HY13" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="HZ13" t="n">
+      <c r="HZ13" s="1" t="n">
         <v>398</v>
+      </c>
+      <c r="IA13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10268,8 +10346,14 @@
       <c r="HY14" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="HZ14" t="n">
+      <c r="HZ14" s="1" t="n">
         <v>1.55</v>
+      </c>
+      <c r="IA14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -10974,8 +11058,14 @@
       <c r="HY15" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="HZ15" t="n">
+      <c r="HZ15" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="IA15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11680,8 +11770,14 @@
       <c r="HY16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HZ16" t="n">
+      <c r="HZ16" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IA16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12386,8 +12482,14 @@
       <c r="HY17" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HZ17" t="n">
+      <c r="HZ17" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IA17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13092,8 +13194,14 @@
       <c r="HY18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HZ18" t="n">
+      <c r="HZ18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IA18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13798,8 +13906,14 @@
       <c r="HY19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ19" t="n">
+      <c r="HZ19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IA19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14504,8 +14618,14 @@
       <c r="HY20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HZ20" t="n">
+      <c r="HZ20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IA20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15210,8 +15330,14 @@
       <c r="HY21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ21" t="n">
+      <c r="HZ21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IA21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -15916,8 +16042,14 @@
       <c r="HY22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HZ22" t="n">
+      <c r="HZ22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IA22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16622,8 +16754,14 @@
       <c r="HY23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ23" t="n">
+      <c r="HZ23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IA23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17328,8 +17466,14 @@
       <c r="HY24" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="HZ24" t="n">
+      <c r="HZ24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IA24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18034,8 +18178,14 @@
       <c r="HY25" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="HZ25" t="n">
+      <c r="HZ25" s="1" t="n">
         <v>64.7</v>
+      </c>
+      <c r="IA25" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18740,8 +18890,14 @@
       <c r="HY26" s="1" t="n">
         <v>23.19</v>
       </c>
-      <c r="HZ26" t="n">
+      <c r="HZ26" s="1" t="n">
         <v>36.18</v>
+      </c>
+      <c r="IA26" s="1" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>39.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19446,8 +19602,14 @@
       <c r="HY27" s="1" t="n">
         <v>14.27</v>
       </c>
-      <c r="HZ27" t="n">
+      <c r="HZ27" s="1" t="n">
         <v>23.41</v>
+      </c>
+      <c r="IA27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>23.53</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20152,8 +20314,14 @@
       <c r="HY28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HZ28" t="n">
+      <c r="HZ28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IA28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IB28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -20858,8 +21026,14 @@
       <c r="HY29" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HZ29" t="n">
+      <c r="HZ29" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IA29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21564,8 +21738,14 @@
       <c r="HY30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HZ30" t="n">
+      <c r="HZ30" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IA30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22270,8 +22450,14 @@
       <c r="HY31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HZ31" t="n">
+      <c r="HZ31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IA31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -22976,8 +23162,14 @@
       <c r="HY32" s="1" t="n">
         <v>1.85</v>
       </c>
-      <c r="HZ32" t="n">
+      <c r="HZ32" s="1" t="n">
         <v>3.12</v>
+      </c>
+      <c r="IA32" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IB32" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23682,8 +23874,14 @@
       <c r="HY33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HZ33" t="n">
+      <c r="HZ33" s="1" t="n">
         <v>4.82</v>
+      </c>
+      <c r="IA33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>5.78</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24388,8 +24586,14 @@
       <c r="HY34" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HZ34" t="n">
+      <c r="HZ34" s="1" t="n">
         <v>30.2</v>
+      </c>
+      <c r="IA34" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25094,8 +25298,14 @@
       <c r="HY35" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="HZ35" t="n">
+      <c r="HZ35" s="1" t="n">
         <v>20.8</v>
+      </c>
+      <c r="IA35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="IB35" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -25800,8 +26010,14 @@
       <c r="HY36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="HZ36" t="n">
+      <c r="HZ36" s="1" t="n">
         <v>189.1</v>
+      </c>
+      <c r="IA36" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IB36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26506,8 +26722,14 @@
       <c r="HY37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="HZ37" t="n">
+      <c r="HZ37" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="IA37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IB37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27212,8 +27434,14 @@
       <c r="HY38" s="1" t="n">
         <v>26.41</v>
       </c>
-      <c r="HZ38" t="n">
+      <c r="HZ38" s="1" t="n">
         <v>26.91</v>
+      </c>
+      <c r="IA38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="IB38" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -27918,8 +28146,14 @@
       <c r="HY39" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="HZ39" t="n">
+      <c r="HZ39" s="1" t="n">
         <v>114.3</v>
+      </c>
+      <c r="IA39" s="1" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="IB39" t="n">
+        <v>116.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28624,7 +28858,13 @@
       <c r="HY40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ40" t="n">
+      <c r="HZ40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -29330,7 +29570,13 @@
       <c r="HY41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ41" t="n">
+      <c r="HZ41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30036,7 +30282,13 @@
       <c r="HY42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ42" t="n">
+      <c r="HZ42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30742,8 +30994,14 @@
       <c r="HY43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ43" t="n">
+      <c r="HZ43" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IA43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31448,8 +31706,14 @@
       <c r="HY44" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="HZ44" t="n">
+      <c r="HZ44" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="IA44" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32154,8 +32418,14 @@
       <c r="HY45" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="HZ45" t="n">
+      <c r="HZ45" s="1" t="n">
         <v>239</v>
+      </c>
+      <c r="IA45" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -32860,8 +33130,14 @@
       <c r="HY46" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="HZ46" t="n">
+      <c r="HZ46" s="1" t="n">
         <v>289</v>
+      </c>
+      <c r="IA46" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="IB46" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33566,8 +33842,14 @@
       <c r="HY47" s="1" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="HZ47" t="n">
+      <c r="HZ47" s="1" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="IA47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IB47" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34272,8 +34554,14 @@
       <c r="HY48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="HZ48" t="n">
+      <c r="HZ48" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IA48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IB48" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -34978,7 +35266,13 @@
       <c r="HY49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HZ49" t="n">
+      <c r="HZ49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IB49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -35684,8 +35978,14 @@
       <c r="HY50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ50" t="n">
+      <c r="HZ50" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IA50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36390,8 +36690,14 @@
       <c r="HY51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HZ51" t="n">
+      <c r="HZ51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IA51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IB51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37096,8 +37402,14 @@
       <c r="HY52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HZ52" t="n">
+      <c r="HZ52" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IA52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -37802,8 +38114,14 @@
       <c r="HY53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HZ53" t="n">
+      <c r="HZ53" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IA53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38508,8 +38826,14 @@
       <c r="HY54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ54" t="n">
+      <c r="HZ54" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IA54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39214,8 +39538,14 @@
       <c r="HY55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ55" t="n">
+      <c r="HZ55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IA55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -39920,8 +40250,14 @@
       <c r="HY56" s="1" t="n">
         <v>81.2</v>
       </c>
-      <c r="HZ56" t="n">
+      <c r="HZ56" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IA56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IB56" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40626,8 +40962,14 @@
       <c r="HY57" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="HZ57" t="n">
+      <c r="HZ57" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="IA57" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IB57" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41332,8 +41674,14 @@
       <c r="HY58" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="HZ58" t="n">
+      <c r="HZ58" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="IA58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="IB58" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42038,8 +42386,14 @@
       <c r="HY59" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="HZ59" t="n">
+      <c r="HZ59" s="1" t="n">
         <v>381</v>
+      </c>
+      <c r="IA59" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>407</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -42744,8 +43098,14 @@
       <c r="HY60" s="1" t="n">
         <v>1.62</v>
       </c>
-      <c r="HZ60" t="n">
+      <c r="HZ60" s="1" t="n">
         <v>2.1</v>
+      </c>
+      <c r="IA60" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="IB60" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43450,8 +43810,14 @@
       <c r="HY61" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="HZ61" t="n">
+      <c r="HZ61" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="IA61" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44156,8 +44522,14 @@
       <c r="HY62" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HZ62" t="n">
+      <c r="HZ62" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IA62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -44862,8 +45234,14 @@
       <c r="HY63" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HZ63" t="n">
+      <c r="HZ63" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IA63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45568,8 +45946,14 @@
       <c r="HY64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ64" t="n">
+      <c r="HZ64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IA64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB64" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46274,8 +46658,14 @@
       <c r="HY65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HZ65" t="n">
+      <c r="HZ65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IA65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IB65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -46980,8 +47370,14 @@
       <c r="HY66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ66" t="n">
+      <c r="HZ66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IA66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -47686,8 +48082,14 @@
       <c r="HY67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ67" t="n">
+      <c r="HZ67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IA67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -48392,8 +48794,14 @@
       <c r="HY68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ68" t="n">
+      <c r="HZ68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IA68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49098,8 +49506,14 @@
       <c r="HY69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ69" t="n">
+      <c r="HZ69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IA69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -49804,8 +50218,14 @@
       <c r="HY70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ70" t="n">
+      <c r="HZ70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IA70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50510,8 +50930,14 @@
       <c r="HY71" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HZ71" t="n">
+      <c r="HZ71" s="1" t="n">
         <v>61.1</v>
+      </c>
+      <c r="IA71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51216,8 +51642,14 @@
       <c r="HY72" s="1" t="n">
         <v>26.62</v>
       </c>
-      <c r="HZ72" t="n">
+      <c r="HZ72" s="1" t="n">
         <v>34.64</v>
+      </c>
+      <c r="IA72" s="1" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="IB72" t="n">
+        <v>29.07</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -51922,8 +52354,14 @@
       <c r="HY73" s="1" t="n">
         <v>17.3</v>
       </c>
-      <c r="HZ73" t="n">
+      <c r="HZ73" s="1" t="n">
         <v>21.17</v>
+      </c>
+      <c r="IA73" s="1" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="IB73" t="n">
+        <v>20.35</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -52628,8 +53066,14 @@
       <c r="HY74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HZ74" t="n">
+      <c r="HZ74" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IA74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IB74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53334,8 +53778,14 @@
       <c r="HY75" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HZ75" t="n">
+      <c r="HZ75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IA75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IB75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54040,7 +54490,13 @@
       <c r="HY76" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HZ76" t="n">
+      <c r="HZ76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IA76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IB76" t="n">
         <v>41</v>
       </c>
     </row>
@@ -54746,8 +55202,14 @@
       <c r="HY77" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="HZ77" t="n">
+      <c r="HZ77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="IA77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="IB77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55452,8 +55914,14 @@
       <c r="HY78" s="1" t="n">
         <v>2.95</v>
       </c>
-      <c r="HZ78" t="n">
+      <c r="HZ78" s="1" t="n">
         <v>3.22</v>
+      </c>
+      <c r="IA78" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="IB78" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56158,8 +56626,14 @@
       <c r="HY79" s="1" t="n">
         <v>4.54</v>
       </c>
-      <c r="HZ79" t="n">
+      <c r="HZ79" s="1" t="n">
         <v>5.27</v>
+      </c>
+      <c r="IA79" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="IB79" t="n">
+        <v>3.43</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -56864,8 +57338,14 @@
       <c r="HY80" s="1" t="n">
         <v>30.5</v>
       </c>
-      <c r="HZ80" t="n">
+      <c r="HZ80" s="1" t="n">
         <v>29.3</v>
+      </c>
+      <c r="IA80" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="IB80" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -57570,8 +58050,14 @@
       <c r="HY81" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HZ81" t="n">
+      <c r="HZ81" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IA81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IB81" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58276,8 +58762,14 @@
       <c r="HY82" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="HZ82" t="n">
+      <c r="HZ82" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IA82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IB82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -58982,8 +59474,14 @@
       <c r="HY83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="HZ83" t="n">
+      <c r="HZ83" s="1" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IA83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IB83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -59688,8 +60186,14 @@
       <c r="HY84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="HZ84" t="n">
+      <c r="HZ84" s="1" t="n">
         <v>25.74</v>
+      </c>
+      <c r="IA84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IB84" t="n">
+        <v>24.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -60394,8 +60898,14 @@
       <c r="HY85" s="1" t="n">
         <v>97.5</v>
       </c>
-      <c r="HZ85" t="n">
+      <c r="HZ85" s="1" t="n">
         <v>98.8</v>
+      </c>
+      <c r="IA85" s="1" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="IB85" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61100,8 +61610,14 @@
       <c r="HY86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HZ86" t="n">
+      <c r="HZ86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IA86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -61806,8 +62322,14 @@
       <c r="HY87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ87" t="n">
+      <c r="HZ87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IA87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -62512,8 +63034,14 @@
       <c r="HY88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HZ88" t="n">
+      <c r="HZ88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IA88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -63218,8 +63746,14 @@
       <c r="HY89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HZ89" t="n">
+      <c r="HZ89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IA89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -63924,8 +64458,14 @@
       <c r="HY90" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="HZ90" t="n">
+      <c r="HZ90" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="IA90" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IB90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -64630,7 +65170,13 @@
       <c r="HY91" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="HZ91" t="n">
+      <c r="HZ91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IA91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IB91" t="n">
         <v>241</v>
       </c>
     </row>
@@ -65336,8 +65882,14 @@
       <c r="HY92" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="HZ92" t="n">
+      <c r="HZ92" s="1" t="n">
         <v>286</v>
+      </c>
+      <c r="IA92" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="IB92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66042,8 +66594,14 @@
       <c r="HY93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="HZ93" t="n">
+      <c r="HZ93" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="IA93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="IB93" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -66748,8 +67306,14 @@
       <c r="HY94" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="HZ94" t="n">
+      <c r="HZ94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IA94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IB94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -67454,8 +68018,14 @@
       <c r="HY95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ95" t="n">
+      <c r="HZ95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IA95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IB95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -68160,8 +68730,14 @@
       <c r="HY96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ96" t="n">
+      <c r="HZ96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IA96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -68866,8 +69442,14 @@
       <c r="HY97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HZ97" t="n">
+      <c r="HZ97" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IA97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IB97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -69572,7 +70154,13 @@
       <c r="HY98" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HZ98" t="n">
+      <c r="HZ98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IA98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IB98" t="n">
         <v>41</v>
       </c>
     </row>
@@ -70278,8 +70866,14 @@
       <c r="HY99" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HZ99" t="n">
+      <c r="HZ99" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IA99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IB99" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -70984,7 +71578,13 @@
       <c r="HY100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ100" t="n">
+      <c r="HZ100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -71690,8 +72290,14 @@
       <c r="HY101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HZ101" t="n">
+      <c r="HZ101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IA101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -72396,8 +73002,14 @@
       <c r="HY102" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="HZ102" t="n">
+      <c r="HZ102" s="1" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IA102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IB102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1096,8 +1096,14 @@
       <c r="IA1" s="1" t="n">
         <v>10525</v>
       </c>
-      <c r="IB1" t="n">
+      <c r="IB1" s="1" t="n">
         <v>10359</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>10364</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1808,7 +1814,13 @@
       <c r="IA2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IB2" t="n">
+      <c r="IB2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IC2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="ID2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2520,8 +2532,14 @@
       <c r="IA3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IB3" t="n">
+      <c r="IB3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3232,8 +3250,14 @@
       <c r="IA4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IB4" t="n">
+      <c r="IB4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3944,8 +3968,14 @@
       <c r="IA5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB5" t="n">
+      <c r="IB5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4656,8 +4686,14 @@
       <c r="IA6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IB6" t="n">
+      <c r="IB6" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IC6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5368,8 +5404,14 @@
       <c r="IA7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IB7" t="n">
+      <c r="IB7" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="IC7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6080,8 +6122,14 @@
       <c r="IA8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="IB8" t="n">
+      <c r="IB8" s="1" t="n">
         <v>-30</v>
+      </c>
+      <c r="IC8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>-27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6792,7 +6840,13 @@
       <c r="IA9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IB9" t="n">
+      <c r="IB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7504,8 +7558,14 @@
       <c r="IA10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IB10" t="n">
+      <c r="IB10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8216,8 +8276,14 @@
       <c r="IA11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="IB11" t="n">
+      <c r="IB11" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="IC11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -8928,8 +8994,14 @@
       <c r="IA12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="IB12" t="n">
+      <c r="IB12" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="IC12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9640,8 +9712,14 @@
       <c r="IA13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="IB13" t="n">
+      <c r="IB13" s="1" t="n">
         <v>353</v>
+      </c>
+      <c r="IC13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10352,8 +10430,14 @@
       <c r="IA14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="IB14" t="n">
+      <c r="IB14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IC14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11064,8 +11148,14 @@
       <c r="IA15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IB15" t="n">
+      <c r="IB15" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="IC15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -11776,8 +11866,14 @@
       <c r="IA16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IB16" t="n">
+      <c r="IB16" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IC16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12488,8 +12584,14 @@
       <c r="IA17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IB17" t="n">
+      <c r="IB17" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IC17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13200,8 +13302,14 @@
       <c r="IA18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB18" t="n">
+      <c r="IB18" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IC18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -13912,8 +14020,14 @@
       <c r="IA19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB19" t="n">
+      <c r="IB19" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IC19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14624,8 +14738,14 @@
       <c r="IA20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IB20" t="n">
+      <c r="IB20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15336,8 +15456,14 @@
       <c r="IA21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB21" t="n">
+      <c r="IB21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16048,8 +16174,14 @@
       <c r="IA22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB22" t="n">
+      <c r="IB22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IC22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16760,8 +16892,14 @@
       <c r="IA23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB23" t="n">
+      <c r="IB23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17472,8 +17610,14 @@
       <c r="IA24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB24" t="n">
+      <c r="IB24" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IC24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18184,8 +18328,14 @@
       <c r="IA25" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="IB25" t="n">
+      <c r="IB25" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IC25" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -18896,8 +19046,14 @@
       <c r="IA26" s="1" t="n">
         <v>36.18</v>
       </c>
-      <c r="IB26" t="n">
+      <c r="IB26" s="1" t="n">
         <v>39.22</v>
+      </c>
+      <c r="IC26" s="1" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>30.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19608,8 +19764,14 @@
       <c r="IA27" s="1" t="n">
         <v>23.41</v>
       </c>
-      <c r="IB27" t="n">
+      <c r="IB27" s="1" t="n">
         <v>23.53</v>
+      </c>
+      <c r="IC27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="ID27" t="n">
+        <v>16.14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20320,8 +20482,14 @@
       <c r="IA28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IB28" t="n">
+      <c r="IB28" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IC28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="ID28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21032,8 +21200,14 @@
       <c r="IA29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IB29" t="n">
+      <c r="IB29" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IC29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="ID29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21744,8 +21918,14 @@
       <c r="IA30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IB30" t="n">
+      <c r="IB30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IC30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="ID30" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22456,8 +22636,14 @@
       <c r="IA31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IB31" t="n">
+      <c r="IB31" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IC31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="ID31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23168,8 +23354,14 @@
       <c r="IA32" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="IB32" t="n">
+      <c r="IB32" s="1" t="n">
         <v>3.47</v>
+      </c>
+      <c r="IC32" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="ID32" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -23880,8 +24072,14 @@
       <c r="IA33" s="1" t="n">
         <v>4.82</v>
       </c>
-      <c r="IB33" t="n">
+      <c r="IB33" s="1" t="n">
         <v>5.78</v>
+      </c>
+      <c r="IC33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="ID33" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24592,8 +24790,14 @@
       <c r="IA34" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="IB34" t="n">
+      <c r="IB34" s="1" t="n">
         <v>28.8</v>
+      </c>
+      <c r="IC34" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="ID34" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25304,8 +25508,14 @@
       <c r="IA35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="IB35" t="n">
+      <c r="IB35" s="1" t="n">
         <v>17.3</v>
+      </c>
+      <c r="IC35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="ID35" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26016,8 +26226,14 @@
       <c r="IA36" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="IB36" t="n">
+      <c r="IB36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IC36" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="ID36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -26728,8 +26944,14 @@
       <c r="IA37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="IB37" t="n">
+      <c r="IB37" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IC37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="ID37" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27440,8 +27662,14 @@
       <c r="IA38" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="IB38" t="n">
+      <c r="IB38" s="1" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IC38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="ID38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28152,8 +28380,14 @@
       <c r="IA39" s="1" t="n">
         <v>114.3</v>
       </c>
-      <c r="IB39" t="n">
+      <c r="IB39" s="1" t="n">
         <v>116.7</v>
+      </c>
+      <c r="IC39" s="1" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="ID39" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -28864,8 +29098,14 @@
       <c r="IA40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB40" t="n">
+      <c r="IB40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IC40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29576,8 +29816,14 @@
       <c r="IA41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IB41" t="n">
+      <c r="IB41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -30288,8 +30534,14 @@
       <c r="IA42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IB42" t="n">
+      <c r="IB42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31000,8 +31252,14 @@
       <c r="IA43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IB43" t="n">
+      <c r="IB43" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="ID43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31712,8 +31970,14 @@
       <c r="IA44" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IB44" t="n">
+      <c r="IB44" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="IC44" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32424,8 +32688,14 @@
       <c r="IA45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IB45" t="n">
+      <c r="IB45" s="1" t="n">
         <v>202</v>
+      </c>
+      <c r="IC45" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33136,8 +33406,14 @@
       <c r="IA46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="IB46" t="n">
+      <c r="IB46" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="IC46" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="ID46" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -33848,8 +34124,14 @@
       <c r="IA47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="IB47" t="n">
+      <c r="IB47" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IC47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="ID47" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34560,8 +34842,14 @@
       <c r="IA48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IB48" t="n">
+      <c r="IB48" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IC48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="ID48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35272,8 +35560,14 @@
       <c r="IA49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IB49" t="n">
+      <c r="IB49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IC49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="ID49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -35984,8 +36278,14 @@
       <c r="IA50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB50" t="n">
+      <c r="IB50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IC50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="ID50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -36696,8 +36996,14 @@
       <c r="IA51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IB51" t="n">
+      <c r="IB51" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IC51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="ID51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37408,8 +37714,14 @@
       <c r="IA52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IB52" t="n">
+      <c r="IB52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IC52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="ID52" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38120,8 +38432,14 @@
       <c r="IA53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IB53" t="n">
+      <c r="IB53" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IC53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="ID53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -38832,8 +39150,14 @@
       <c r="IA54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB54" t="n">
+      <c r="IB54" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IC54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39544,8 +39868,14 @@
       <c r="IA55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IB55" t="n">
+      <c r="IB55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="ID55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40256,8 +40586,14 @@
       <c r="IA56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IB56" t="n">
+      <c r="IB56" s="1" t="n">
         <v>44.4</v>
+      </c>
+      <c r="IC56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="ID56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -40968,8 +41304,14 @@
       <c r="IA57" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="IB57" t="n">
+      <c r="IB57" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="IC57" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="ID57" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -41680,8 +42022,14 @@
       <c r="IA58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IB58" t="n">
+      <c r="IB58" s="1" t="n">
         <v>170</v>
+      </c>
+      <c r="IC58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="ID58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42392,8 +42740,14 @@
       <c r="IA59" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="IB59" t="n">
+      <c r="IB59" s="1" t="n">
         <v>407</v>
+      </c>
+      <c r="IC59" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="ID59" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43104,8 +43458,14 @@
       <c r="IA60" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="IB60" t="n">
+      <c r="IB60" s="1" t="n">
         <v>1.39</v>
+      </c>
+      <c r="IC60" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="ID60" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -43816,8 +44176,14 @@
       <c r="IA61" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="IB61" t="n">
+      <c r="IB61" s="1" t="n">
         <v>107</v>
+      </c>
+      <c r="IC61" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="ID61" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44528,8 +44894,14 @@
       <c r="IA62" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IB62" t="n">
+      <c r="IB62" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IC62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="ID62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45240,8 +45612,14 @@
       <c r="IA63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IB63" t="n">
+      <c r="IB63" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IC63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -45952,8 +46330,14 @@
       <c r="IA64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB64" t="n">
+      <c r="IB64" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="IC64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -46664,8 +47048,14 @@
       <c r="IA65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IB65" t="n">
+      <c r="IB65" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IC65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47376,8 +47766,14 @@
       <c r="IA66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IB66" t="n">
+      <c r="IB66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IC66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="ID66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48088,7 +48484,13 @@
       <c r="IA67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IB67" t="n">
+      <c r="IB67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IC67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="ID67" t="n">
         <v>10</v>
       </c>
     </row>
@@ -48800,8 +49202,14 @@
       <c r="IA68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IB68" t="n">
+      <c r="IB68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IC68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49512,8 +49920,14 @@
       <c r="IA69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IB69" t="n">
+      <c r="IB69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -50224,8 +50638,14 @@
       <c r="IA70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IB70" t="n">
+      <c r="IB70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IC70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="ID70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -50936,8 +51356,14 @@
       <c r="IA71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="IB71" t="n">
+      <c r="IB71" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IC71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="ID71" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -51648,8 +52074,14 @@
       <c r="IA72" s="1" t="n">
         <v>34.64</v>
       </c>
-      <c r="IB72" t="n">
+      <c r="IB72" s="1" t="n">
         <v>29.07</v>
+      </c>
+      <c r="IC72" s="1" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="ID72" t="n">
+        <v>25.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52360,8 +52792,14 @@
       <c r="IA73" s="1" t="n">
         <v>21.17</v>
       </c>
-      <c r="IB73" t="n">
+      <c r="IB73" s="1" t="n">
         <v>20.35</v>
+      </c>
+      <c r="IC73" s="1" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="ID73" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53072,8 +53510,14 @@
       <c r="IA74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IB74" t="n">
+      <c r="IB74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IC74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="ID74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -53784,8 +54228,14 @@
       <c r="IA75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IB75" t="n">
+      <c r="IB75" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IC75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="ID75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54496,8 +54946,14 @@
       <c r="IA76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IB76" t="n">
+      <c r="IB76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IC76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="ID76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55208,8 +55664,14 @@
       <c r="IA77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IB77" t="n">
+      <c r="IB77" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IC77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="ID77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -55920,8 +56382,14 @@
       <c r="IA78" s="1" t="n">
         <v>3.22</v>
       </c>
-      <c r="IB78" t="n">
+      <c r="IB78" s="1" t="n">
         <v>2.4</v>
+      </c>
+      <c r="IC78" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="ID78" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -56632,8 +57100,14 @@
       <c r="IA79" s="1" t="n">
         <v>5.27</v>
       </c>
-      <c r="IB79" t="n">
+      <c r="IB79" s="1" t="n">
         <v>3.43</v>
+      </c>
+      <c r="IC79" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="ID79" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57344,8 +57818,14 @@
       <c r="IA80" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="IB80" t="n">
+      <c r="IB80" s="1" t="n">
         <v>37.5</v>
+      </c>
+      <c r="IC80" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="ID80" t="n">
+        <v>53.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58056,8 +58536,14 @@
       <c r="IA81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IB81" t="n">
+      <c r="IB81" s="1" t="n">
         <v>29.2</v>
+      </c>
+      <c r="IC81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="ID81" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -58768,8 +59254,14 @@
       <c r="IA82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IB82" t="n">
+      <c r="IB82" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IC82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="ID82" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59480,8 +59972,14 @@
       <c r="IA83" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IB83" t="n">
+      <c r="IB83" s="1" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IC83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="ID83" t="n">
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60192,8 +60690,14 @@
       <c r="IA84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="IB84" t="n">
+      <c r="IB84" s="1" t="n">
         <v>24.41</v>
+      </c>
+      <c r="IC84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="ID84" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -60904,8 +61408,14 @@
       <c r="IA85" s="1" t="n">
         <v>98.8</v>
       </c>
-      <c r="IB85" t="n">
+      <c r="IB85" s="1" t="n">
         <v>67.59999999999999</v>
+      </c>
+      <c r="IC85" s="1" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="ID85" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -61616,8 +62126,14 @@
       <c r="IA86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IB86" t="n">
+      <c r="IB86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IC86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="ID86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62328,8 +62844,14 @@
       <c r="IA87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IB87" t="n">
+      <c r="IB87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IC87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63040,8 +63562,14 @@
       <c r="IA88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB88" t="n">
+      <c r="IB88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -63752,8 +64280,14 @@
       <c r="IA89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IB89" t="n">
+      <c r="IB89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IC89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -64464,8 +64998,14 @@
       <c r="IA90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IB90" t="n">
+      <c r="IB90" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="IC90" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="ID90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65176,8 +65716,14 @@
       <c r="IA91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IB91" t="n">
+      <c r="IB91" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="IC91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="ID91" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -65888,8 +66434,14 @@
       <c r="IA92" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="IB92" t="n">
+      <c r="IB92" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="IC92" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="ID92" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -66600,8 +67152,14 @@
       <c r="IA93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IB93" t="n">
+      <c r="IB93" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IC93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="ID93" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67312,8 +67870,14 @@
       <c r="IA94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IB94" t="n">
+      <c r="IB94" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IC94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="ID94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68024,8 +68588,14 @@
       <c r="IA95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IB95" t="n">
+      <c r="IB95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IC95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="ID95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -68736,8 +69306,14 @@
       <c r="IA96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IB96" t="n">
+      <c r="IB96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IC96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="ID96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -69448,8 +70024,14 @@
       <c r="IA97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IB97" t="n">
+      <c r="IB97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IC97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="ID97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -70160,8 +70742,14 @@
       <c r="IA98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IB98" t="n">
+      <c r="IB98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IC98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="ID98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -70872,8 +71460,14 @@
       <c r="IA99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IB99" t="n">
+      <c r="IB99" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IC99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="ID99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -71584,8 +72178,14 @@
       <c r="IA100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IB100" t="n">
+      <c r="IB100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IC100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72296,7 +72896,13 @@
       <c r="IA101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IB101" t="n">
+      <c r="IB101" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IC101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="ID101" t="n">
         <v>10</v>
       </c>
     </row>
@@ -73008,8 +73614,14 @@
       <c r="IA102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="IB102" t="n">
+      <c r="IB102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IC102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="ID102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1102,8 +1170,14 @@
       <c r="IC1" s="1" t="n">
         <v>10525</v>
       </c>
-      <c r="ID1" t="n">
+      <c r="ID1" s="1" t="n">
         <v>10364</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>10379</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1820,7 +1894,13 @@
       <c r="IC2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="ID2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IE2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IF2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2538,8 +2618,14 @@
       <c r="IC3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="ID3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IE3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3256,8 +3342,14 @@
       <c r="IC4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="ID4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IE4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -3974,8 +4066,14 @@
       <c r="IC5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="ID5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IE5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4692,8 +4790,14 @@
       <c r="IC6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="ID6" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="IE6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5410,8 +5514,14 @@
       <c r="IC7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="ID7" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="IE7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6128,8 +6238,14 @@
       <c r="IC8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="ID8" s="1" t="n">
         <v>-27</v>
+      </c>
+      <c r="IE8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -6846,7 +6962,13 @@
       <c r="IC9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID9" t="n">
+      <c r="ID9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7564,8 +7686,14 @@
       <c r="IC10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="ID10" t="n">
+      <c r="ID10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IE10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8282,8 +8410,14 @@
       <c r="IC11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="ID11" t="n">
+      <c r="ID11" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="IE11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9000,8 +9134,14 @@
       <c r="IC12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="ID12" t="n">
+      <c r="ID12" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="IE12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9718,8 +9858,14 @@
       <c r="IC13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="ID13" t="n">
+      <c r="ID13" s="1" t="n">
         <v>339</v>
+      </c>
+      <c r="IE13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10436,8 +10582,14 @@
       <c r="IC14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="ID14" t="n">
+      <c r="ID14" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="IE14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11154,7 +11306,13 @@
       <c r="IC15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="ID15" t="n">
+      <c r="ID15" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="IE15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="IF15" t="n">
         <v>81</v>
       </c>
     </row>
@@ -11872,8 +12030,14 @@
       <c r="IC16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="ID16" t="n">
+      <c r="ID16" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IE16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12590,8 +12754,14 @@
       <c r="IC17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="ID17" t="n">
+      <c r="ID17" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IE17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13308,8 +13478,14 @@
       <c r="IC18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID18" t="n">
+      <c r="ID18" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IE18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14026,8 +14202,14 @@
       <c r="IC19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID19" t="n">
+      <c r="ID19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IE19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14744,8 +14926,14 @@
       <c r="IC20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID20" t="n">
+      <c r="ID20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15462,8 +15650,14 @@
       <c r="IC21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID21" t="n">
+      <c r="ID21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16180,8 +16374,14 @@
       <c r="IC22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID22" t="n">
+      <c r="ID22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IE22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -16898,8 +17098,14 @@
       <c r="IC23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID23" t="n">
+      <c r="ID23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IE23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17616,8 +17822,14 @@
       <c r="IC24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID24" t="n">
+      <c r="ID24" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IE24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18334,8 +18546,14 @@
       <c r="IC25" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="ID25" t="n">
+      <c r="ID25" s="1" t="n">
         <v>52.4</v>
+      </c>
+      <c r="IE25" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19052,8 +19270,14 @@
       <c r="IC26" s="1" t="n">
         <v>36.18</v>
       </c>
-      <c r="ID26" t="n">
+      <c r="ID26" s="1" t="n">
         <v>30.82</v>
+      </c>
+      <c r="IE26" s="1" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>27.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -19770,8 +19994,14 @@
       <c r="IC27" s="1" t="n">
         <v>23.41</v>
       </c>
-      <c r="ID27" t="n">
+      <c r="ID27" s="1" t="n">
         <v>16.14</v>
+      </c>
+      <c r="IE27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="IF27" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20488,8 +20718,14 @@
       <c r="IC28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="ID28" t="n">
+      <c r="ID28" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IE28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IF28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21206,8 +21442,14 @@
       <c r="IC29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="ID29" t="n">
+      <c r="ID29" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IE29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IF29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -21924,8 +22166,14 @@
       <c r="IC30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="ID30" t="n">
+      <c r="ID30" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IE30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IF30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -22642,8 +22890,14 @@
       <c r="IC31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="ID31" t="n">
+      <c r="ID31" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IF31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23360,8 +23614,14 @@
       <c r="IC32" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="ID32" t="n">
+      <c r="ID32" s="1" t="n">
         <v>2.38</v>
+      </c>
+      <c r="IE32" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IF32" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24078,8 +24338,14 @@
       <c r="IC33" s="1" t="n">
         <v>4.82</v>
       </c>
-      <c r="ID33" t="n">
+      <c r="ID33" s="1" t="n">
         <v>4.55</v>
+      </c>
+      <c r="IE33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="IF33" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -24796,8 +25062,14 @@
       <c r="IC34" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="ID34" t="n">
+      <c r="ID34" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IE34" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="IF34" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25514,8 +25786,14 @@
       <c r="IC35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="ID35" t="n">
+      <c r="ID35" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IE35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="IF35" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26232,7 +26510,13 @@
       <c r="IC36" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="ID36" t="n">
+      <c r="ID36" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="IE36" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IF36" t="n">
         <v>189</v>
       </c>
     </row>
@@ -26950,8 +27234,14 @@
       <c r="IC37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="ID37" t="n">
+      <c r="ID37" s="1" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="IE37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IF37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27668,8 +27958,14 @@
       <c r="IC38" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="ID38" t="n">
+      <c r="ID38" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="IE38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="IF38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28386,8 +28682,14 @@
       <c r="IC39" s="1" t="n">
         <v>114.3</v>
       </c>
-      <c r="ID39" t="n">
+      <c r="ID39" s="1" t="n">
         <v>102.2</v>
+      </c>
+      <c r="IE39" s="1" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="IF39" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29104,8 +29406,14 @@
       <c r="IC40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID40" t="n">
+      <c r="ID40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IF40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -29822,7 +30130,13 @@
       <c r="IC41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID41" t="n">
+      <c r="ID41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30540,7 +30854,13 @@
       <c r="IC42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID42" t="n">
+      <c r="ID42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31258,8 +31578,14 @@
       <c r="IC43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID43" t="n">
+      <c r="ID43" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IE43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IF43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -31976,8 +32302,14 @@
       <c r="IC44" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="ID44" t="n">
+      <c r="ID44" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="IE44" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IF44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -32694,8 +33026,14 @@
       <c r="IC45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="ID45" t="n">
+      <c r="ID45" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="IE45" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IF45" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33412,8 +33750,14 @@
       <c r="IC46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="ID46" t="n">
+      <c r="ID46" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="IE46" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="IF46" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34130,8 +34474,14 @@
       <c r="IC47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="ID47" t="n">
+      <c r="ID47" s="1" t="n">
         <v>73.2</v>
+      </c>
+      <c r="IE47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IF47" t="n">
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -34848,8 +35198,14 @@
       <c r="IC48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="ID48" t="n">
+      <c r="ID48" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IE48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IF48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35566,8 +35922,14 @@
       <c r="IC49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="ID49" t="n">
+      <c r="ID49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IE49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IF49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36284,8 +36646,14 @@
       <c r="IC50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID50" t="n">
+      <c r="ID50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IF50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37002,8 +37370,14 @@
       <c r="IC51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="ID51" t="n">
+      <c r="ID51" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IE51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IF51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -37720,8 +38094,14 @@
       <c r="IC52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="ID52" t="n">
+      <c r="ID52" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IE52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IF52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -38438,8 +38818,14 @@
       <c r="IC53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="ID53" t="n">
+      <c r="ID53" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IE53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IF53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39156,8 +39542,14 @@
       <c r="IC54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID54" t="n">
+      <c r="ID54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IE54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IF54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -39874,8 +40266,14 @@
       <c r="IC55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID55" t="n">
+      <c r="ID55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IE55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IF55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40592,8 +40990,14 @@
       <c r="IC56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="ID56" t="n">
+      <c r="ID56" s="1" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IE56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IF56" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41310,8 +41714,14 @@
       <c r="IC57" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="ID57" t="n">
+      <c r="ID57" s="1" t="n">
         <v>268</v>
+      </c>
+      <c r="IE57" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IF57" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42028,8 +42438,14 @@
       <c r="IC58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="ID58" t="n">
+      <c r="ID58" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="IE58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="IF58" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -42746,8 +43162,14 @@
       <c r="IC59" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="ID59" t="n">
+      <c r="ID59" s="1" t="n">
         <v>414</v>
+      </c>
+      <c r="IE59" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="IF59" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43464,8 +43886,14 @@
       <c r="IC60" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="ID60" t="n">
+      <c r="ID60" s="1" t="n">
         <v>1.84</v>
+      </c>
+      <c r="IE60" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="IF60" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44182,8 +44610,14 @@
       <c r="IC61" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="ID61" t="n">
+      <c r="ID61" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="IE61" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="IF61" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -44900,8 +45334,14 @@
       <c r="IC62" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="ID62" t="n">
+      <c r="ID62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IE62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IF62" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -45618,8 +46058,14 @@
       <c r="IC63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID63" t="n">
+      <c r="ID63" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IE63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46336,8 +46782,14 @@
       <c r="IC64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID64" t="n">
+      <c r="ID64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IE64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47054,8 +47506,14 @@
       <c r="IC65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID65" t="n">
+      <c r="ID65" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IE65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IF65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -47772,7 +48230,13 @@
       <c r="IC66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID66" t="n">
+      <c r="ID66" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="IE66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IF66" t="n">
         <v>16</v>
       </c>
     </row>
@@ -48490,8 +48954,14 @@
       <c r="IC67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID67" t="n">
+      <c r="ID67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IF67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49208,8 +49678,14 @@
       <c r="IC68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID68" t="n">
+      <c r="ID68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IF68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -49926,7 +50402,13 @@
       <c r="IC69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID69" t="n">
+      <c r="ID69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50644,8 +51126,14 @@
       <c r="IC70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID70" t="n">
+      <c r="ID70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IE70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IF70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51362,8 +51850,14 @@
       <c r="IC71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="ID71" t="n">
+      <c r="ID71" s="1" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="IE71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IF71" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52080,8 +52574,14 @@
       <c r="IC72" s="1" t="n">
         <v>34.64</v>
       </c>
-      <c r="ID72" t="n">
+      <c r="ID72" s="1" t="n">
         <v>25.88</v>
+      </c>
+      <c r="IE72" s="1" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="IF72" t="n">
+        <v>23.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -52798,8 +53298,14 @@
       <c r="IC73" s="1" t="n">
         <v>21.17</v>
       </c>
-      <c r="ID73" t="n">
+      <c r="ID73" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IE73" s="1" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="IF73" t="n">
+        <v>12.93</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -53516,7 +54022,13 @@
       <c r="IC74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="ID74" t="n">
+      <c r="ID74" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IE74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IF74" t="n">
         <v>39</v>
       </c>
     </row>
@@ -54234,8 +54746,14 @@
       <c r="IC75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="ID75" t="n">
+      <c r="ID75" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IE75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IF75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -54952,8 +55470,14 @@
       <c r="IC76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID76" t="n">
+      <c r="ID76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IE76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IF76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -55670,8 +56194,14 @@
       <c r="IC77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="ID77" t="n">
+      <c r="ID77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IE77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="IF77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56388,8 +56918,14 @@
       <c r="IC78" s="1" t="n">
         <v>3.22</v>
       </c>
-      <c r="ID78" t="n">
+      <c r="ID78" s="1" t="n">
         <v>1.78</v>
+      </c>
+      <c r="IE78" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="IF78" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57106,8 +57642,14 @@
       <c r="IC79" s="1" t="n">
         <v>5.27</v>
       </c>
-      <c r="ID79" t="n">
+      <c r="ID79" s="1" t="n">
         <v>2.56</v>
+      </c>
+      <c r="IE79" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="IF79" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -57824,8 +58366,14 @@
       <c r="IC80" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="ID80" t="n">
+      <c r="ID80" s="1" t="n">
         <v>53.7</v>
+      </c>
+      <c r="IE80" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="IF80" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -58542,8 +59090,14 @@
       <c r="IC81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="ID81" t="n">
+      <c r="ID81" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IE81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IF81" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59260,8 +59814,14 @@
       <c r="IC82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="ID82" t="n">
+      <c r="ID82" s="1" t="n">
         <v>189.5</v>
+      </c>
+      <c r="IE82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IF82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -59978,8 +60538,14 @@
       <c r="IC83" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="ID83" t="n">
+      <c r="ID83" s="1" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="IE83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IF83" t="n">
+        <v>84.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -60696,8 +61262,14 @@
       <c r="IC84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="ID84" t="n">
+      <c r="ID84" s="1" t="n">
         <v>26.41</v>
+      </c>
+      <c r="IE84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IF84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61414,8 +61986,14 @@
       <c r="IC85" s="1" t="n">
         <v>98.8</v>
       </c>
-      <c r="ID85" t="n">
+      <c r="ID85" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="IE85" s="1" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="IF85" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62132,8 +62710,14 @@
       <c r="IC86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID86" t="n">
+      <c r="ID86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IF86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -62850,8 +63434,14 @@
       <c r="IC87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID87" t="n">
+      <c r="ID87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IF87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -63568,7 +64158,13 @@
       <c r="IC88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID88" t="n">
+      <c r="ID88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -64286,8 +64882,14 @@
       <c r="IC89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID89" t="n">
+      <c r="ID89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65004,8 +65606,14 @@
       <c r="IC90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="ID90" t="n">
+      <c r="ID90" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="IE90" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IF90" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -65722,8 +66330,14 @@
       <c r="IC91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="ID91" t="n">
+      <c r="ID91" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="IE91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IF91" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -66440,8 +67054,14 @@
       <c r="IC92" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="ID92" t="n">
+      <c r="ID92" s="1" t="n">
         <v>331</v>
+      </c>
+      <c r="IE92" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="IF92" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67158,8 +67778,14 @@
       <c r="IC93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="ID93" t="n">
+      <c r="ID93" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IE93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="IF93" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -67876,8 +68502,14 @@
       <c r="IC94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="ID94" t="n">
+      <c r="ID94" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IE94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IF94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -68594,7 +69226,13 @@
       <c r="IC95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="ID95" t="n">
+      <c r="ID95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="IE95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IF95" t="n">
         <v>13</v>
       </c>
     </row>
@@ -69312,8 +69950,14 @@
       <c r="IC96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="ID96" t="n">
+      <c r="ID96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IF96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70030,7 +70674,13 @@
       <c r="IC97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="ID97" t="n">
+      <c r="ID97" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="IE97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IF97" t="n">
         <v>39</v>
       </c>
     </row>
@@ -70748,8 +71398,14 @@
       <c r="IC98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID98" t="n">
+      <c r="ID98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IE98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IF98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -71466,8 +72122,14 @@
       <c r="IC99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="ID99" t="n">
+      <c r="ID99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IE99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IF99" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72184,8 +72846,14 @@
       <c r="IC100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="ID100" t="n">
+      <c r="ID100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -72902,8 +73570,14 @@
       <c r="IC101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID101" t="n">
+      <c r="ID101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IF101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -73620,8 +74294,14 @@
       <c r="IC102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="ID102" t="n">
+      <c r="ID102" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IE102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IF102" t="n">
+        <v>56.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -85,74 +85,6 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -445,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1176,8 +1108,14 @@
       <c r="IE1" s="1" t="n">
         <v>10525</v>
       </c>
-      <c r="IF1" t="n">
+      <c r="IF1" s="1" t="n">
         <v>10379</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>10382</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1900,7 +1838,13 @@
       <c r="IE2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IF2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IG2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IH2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2624,8 +2568,14 @@
       <c r="IE3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IF3" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3348,7 +3298,13 @@
       <c r="IE4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IF4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4072,7 +4028,13 @@
       <c r="IE5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IF5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,8 +4758,14 @@
       <c r="IE6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IF6" t="n">
+      <c r="IF6" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="IG6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5520,8 +5488,14 @@
       <c r="IE7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IF7" t="n">
+      <c r="IF7" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="IG7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6244,7 +6218,13 @@
       <c r="IE8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="IF8" t="n">
+      <c r="IF8" s="1" t="n">
+        <v>-24</v>
+      </c>
+      <c r="IG8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH8" t="n">
         <v>-24</v>
       </c>
     </row>
@@ -6968,7 +6948,13 @@
       <c r="IE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF9" t="n">
+      <c r="IF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7692,8 +7678,14 @@
       <c r="IE10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF10" t="n">
+      <c r="IF10" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8416,8 +8408,14 @@
       <c r="IE11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="IF11" t="n">
+      <c r="IF11" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="IG11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9140,8 +9138,14 @@
       <c r="IE12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="IF12" t="n">
+      <c r="IF12" s="1" t="n">
         <v>156</v>
+      </c>
+      <c r="IG12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9864,8 +9868,14 @@
       <c r="IE13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="IF13" t="n">
+      <c r="IF13" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="IG13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10588,8 +10598,14 @@
       <c r="IE14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="IF14" t="n">
+      <c r="IF14" s="1" t="n">
         <v>1.28</v>
+      </c>
+      <c r="IG14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11312,8 +11328,14 @@
       <c r="IE15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IF15" t="n">
+      <c r="IF15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="IG15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12036,8 +12058,14 @@
       <c r="IE16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IF16" t="n">
+      <c r="IF16" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IG16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12760,8 +12788,14 @@
       <c r="IE17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IF17" t="n">
+      <c r="IF17" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IG17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13484,8 +13518,14 @@
       <c r="IE18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF18" t="n">
+      <c r="IF18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IG18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14208,8 +14248,14 @@
       <c r="IE19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF19" t="n">
+      <c r="IF19" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IG19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -14932,8 +14978,14 @@
       <c r="IE20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF20" t="n">
+      <c r="IF20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15656,8 +15708,14 @@
       <c r="IE21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF21" t="n">
+      <c r="IF21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16380,8 +16438,14 @@
       <c r="IE22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF22" t="n">
+      <c r="IF22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17104,8 +17168,14 @@
       <c r="IE23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF23" t="n">
+      <c r="IF23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -17828,7 +17898,13 @@
       <c r="IE24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF24" t="n">
+      <c r="IF24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="IG24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IH24" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18552,8 +18628,14 @@
       <c r="IE25" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="IF25" t="n">
+      <c r="IF25" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IG25" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19276,8 +19358,14 @@
       <c r="IE26" s="1" t="n">
         <v>36.18</v>
       </c>
-      <c r="IF26" t="n">
+      <c r="IF26" s="1" t="n">
         <v>27.38</v>
+      </c>
+      <c r="IG26" s="1" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>52.86</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20000,8 +20088,14 @@
       <c r="IE27" s="1" t="n">
         <v>23.41</v>
       </c>
-      <c r="IF27" t="n">
+      <c r="IF27" s="1" t="n">
         <v>17.8</v>
+      </c>
+      <c r="IG27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="IH27" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20724,8 +20818,14 @@
       <c r="IE28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IF28" t="n">
+      <c r="IF28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IG28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IH28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21448,8 +21548,14 @@
       <c r="IE29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IF29" t="n">
+      <c r="IF29" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="IG29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IH29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22172,7 +22278,13 @@
       <c r="IE30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IF30" t="n">
+      <c r="IF30" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IG30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IH30" t="n">
         <v>38</v>
       </c>
     </row>
@@ -22896,8 +23008,14 @@
       <c r="IE31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IF31" t="n">
+      <c r="IF31" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IG31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IH31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23620,8 +23738,14 @@
       <c r="IE32" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="IF32" t="n">
+      <c r="IF32" s="1" t="n">
         <v>2.15</v>
+      </c>
+      <c r="IG32" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IH32" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24344,8 +24468,14 @@
       <c r="IE33" s="1" t="n">
         <v>4.82</v>
       </c>
-      <c r="IF33" t="n">
+      <c r="IF33" s="1" t="n">
         <v>3.31</v>
+      </c>
+      <c r="IG33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="IH33" t="n">
+        <v>6.71</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25068,8 +25198,14 @@
       <c r="IE34" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="IF34" t="n">
+      <c r="IF34" s="1" t="n">
         <v>44.2</v>
+      </c>
+      <c r="IG34" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="IH34" t="n">
+        <v>38.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -25792,8 +25928,14 @@
       <c r="IE35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="IF35" t="n">
+      <c r="IF35" s="1" t="n">
         <v>30.2</v>
+      </c>
+      <c r="IG35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="IH35" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26516,8 +26658,14 @@
       <c r="IE36" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="IF36" t="n">
+      <c r="IF36" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="IG36" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IH36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27240,8 +27388,14 @@
       <c r="IE37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="IF37" t="n">
+      <c r="IF37" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="IG37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IH37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -27964,8 +28118,14 @@
       <c r="IE38" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="IF38" t="n">
+      <c r="IF38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IG38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="IH38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -28688,8 +28848,14 @@
       <c r="IE39" s="1" t="n">
         <v>114.3</v>
       </c>
-      <c r="IF39" t="n">
+      <c r="IF39" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="IG39" s="1" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="IH39" t="n">
+        <v>96.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29412,8 +29578,14 @@
       <c r="IE40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF40" t="n">
+      <c r="IF40" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IH40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30136,7 +30308,13 @@
       <c r="IE41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF41" t="n">
+      <c r="IF41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30860,8 +31038,14 @@
       <c r="IE42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF42" t="n">
+      <c r="IF42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -31584,8 +31768,14 @@
       <c r="IE43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF43" t="n">
+      <c r="IF43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IH43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32308,8 +32498,14 @@
       <c r="IE44" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IF44" t="n">
+      <c r="IF44" s="1" t="n">
         <v>140</v>
+      </c>
+      <c r="IG44" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33032,8 +33228,14 @@
       <c r="IE45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IF45" t="n">
+      <c r="IF45" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="IG45" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -33756,8 +33958,14 @@
       <c r="IE46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="IF46" t="n">
+      <c r="IF46" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="IG46" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="IH46" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34480,8 +34688,14 @@
       <c r="IE47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="IF47" t="n">
+      <c r="IF47" s="1" t="n">
         <v>66.90000000000001</v>
+      </c>
+      <c r="IG47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IH47" t="n">
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35204,8 +35418,14 @@
       <c r="IE48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IF48" t="n">
+      <c r="IF48" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="IG48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IH48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -35928,8 +36148,14 @@
       <c r="IE49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF49" t="n">
+      <c r="IF49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IH49" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -36652,7 +36878,13 @@
       <c r="IE50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF50" t="n">
+      <c r="IF50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IG50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37376,8 +37608,14 @@
       <c r="IE51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IF51" t="n">
+      <c r="IF51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IG51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IH51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38100,7 +38338,13 @@
       <c r="IE52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IF52" t="n">
+      <c r="IF52" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IG52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IH52" t="n">
         <v>38</v>
       </c>
     </row>
@@ -38824,8 +39068,14 @@
       <c r="IE53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IF53" t="n">
+      <c r="IF53" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IG53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IH53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -39548,8 +39798,14 @@
       <c r="IE54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF54" t="n">
+      <c r="IF54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IH54" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40272,8 +40528,14 @@
       <c r="IE55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF55" t="n">
+      <c r="IF55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IH55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -40996,8 +41258,14 @@
       <c r="IE56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IF56" t="n">
+      <c r="IF56" s="1" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IG56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IH56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -41720,8 +41988,14 @@
       <c r="IE57" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="IF57" t="n">
+      <c r="IF57" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="IG57" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IH57" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -42444,8 +42718,14 @@
       <c r="IE58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IF58" t="n">
+      <c r="IF58" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="IG58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="IH58" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43168,8 +43448,14 @@
       <c r="IE59" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="IF59" t="n">
+      <c r="IF59" s="1" t="n">
         <v>375</v>
+      </c>
+      <c r="IG59" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="IH59" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -43892,8 +44178,14 @@
       <c r="IE60" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="IF60" t="n">
+      <c r="IF60" s="1" t="n">
         <v>1.62</v>
+      </c>
+      <c r="IG60" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="IH60" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -44616,8 +44908,14 @@
       <c r="IE61" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="IF61" t="n">
+      <c r="IF61" s="1" t="n">
         <v>114</v>
+      </c>
+      <c r="IG61" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="IH61" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -45340,8 +45638,14 @@
       <c r="IE62" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IF62" t="n">
+      <c r="IF62" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="IG62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IH62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46064,8 +46368,14 @@
       <c r="IE63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF63" t="n">
+      <c r="IF63" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IG63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH63" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -46788,8 +47098,14 @@
       <c r="IE64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF64" t="n">
+      <c r="IF64" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IG64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IH64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -47512,8 +47828,14 @@
       <c r="IE65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IF65" t="n">
+      <c r="IF65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IG65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IH65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48236,8 +48558,14 @@
       <c r="IE66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF66" t="n">
+      <c r="IF66" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IG66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -48960,8 +49288,14 @@
       <c r="IE67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF67" t="n">
+      <c r="IF67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IH67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -49684,8 +50018,14 @@
       <c r="IE68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF68" t="n">
+      <c r="IF68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IG68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IH68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -50408,8 +50748,14 @@
       <c r="IE69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF69" t="n">
+      <c r="IF69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -51132,8 +51478,14 @@
       <c r="IE70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IF70" t="n">
+      <c r="IF70" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IG70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IH70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -51856,8 +52208,14 @@
       <c r="IE71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="IF71" t="n">
+      <c r="IF71" s="1" t="n">
         <v>55.2</v>
+      </c>
+      <c r="IG71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IH71" t="n">
+        <v>63.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -52580,8 +52938,14 @@
       <c r="IE72" s="1" t="n">
         <v>34.64</v>
       </c>
-      <c r="IF72" t="n">
+      <c r="IF72" s="1" t="n">
         <v>23.44</v>
+      </c>
+      <c r="IG72" s="1" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="IH72" t="n">
+        <v>33.58</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -53304,8 +53668,14 @@
       <c r="IE73" s="1" t="n">
         <v>21.17</v>
       </c>
-      <c r="IF73" t="n">
+      <c r="IF73" s="1" t="n">
         <v>12.93</v>
+      </c>
+      <c r="IG73" s="1" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="IH73" t="n">
+        <v>21.21</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54028,8 +54398,14 @@
       <c r="IE74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IF74" t="n">
+      <c r="IF74" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IG74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IH74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -54752,8 +55128,14 @@
       <c r="IE75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IF75" t="n">
+      <c r="IF75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IH75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -55476,8 +55858,14 @@
       <c r="IE76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IF76" t="n">
+      <c r="IF76" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IG76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IH76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -56200,8 +56588,14 @@
       <c r="IE77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IF77" t="n">
+      <c r="IF77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="IH77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -56924,8 +57318,14 @@
       <c r="IE78" s="1" t="n">
         <v>3.22</v>
       </c>
-      <c r="IF78" t="n">
+      <c r="IF78" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="IG78" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="IH78" t="n">
+        <v>2.63</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -57648,8 +58048,14 @@
       <c r="IE79" s="1" t="n">
         <v>5.27</v>
       </c>
-      <c r="IF79" t="n">
+      <c r="IF79" s="1" t="n">
         <v>3.38</v>
+      </c>
+      <c r="IG79" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="IH79" t="n">
+        <v>4.17</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -58372,8 +58778,14 @@
       <c r="IE80" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="IF80" t="n">
+      <c r="IF80" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IG80" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="IH80" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -59096,8 +59508,14 @@
       <c r="IE81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IF81" t="n">
+      <c r="IF81" s="1" t="n">
         <v>29.6</v>
+      </c>
+      <c r="IG81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IH81" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -59820,8 +60238,14 @@
       <c r="IE82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IF82" t="n">
+      <c r="IF82" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="IG82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IH82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -60544,8 +60968,14 @@
       <c r="IE83" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IF83" t="n">
+      <c r="IF83" s="1" t="n">
         <v>84.3</v>
+      </c>
+      <c r="IG83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IH83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -61268,8 +61698,14 @@
       <c r="IE84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="IF84" t="n">
+      <c r="IF84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IG84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IH84" t="n">
+        <v>23.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -61992,8 +62428,14 @@
       <c r="IE85" s="1" t="n">
         <v>98.8</v>
       </c>
-      <c r="IF85" t="n">
+      <c r="IF85" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IG85" s="1" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="IH85" t="n">
+        <v>60.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -62716,8 +63158,14 @@
       <c r="IE86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF86" t="n">
+      <c r="IF86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IH86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -63440,8 +63888,14 @@
       <c r="IE87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF87" t="n">
+      <c r="IF87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IH87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -64164,8 +64618,14 @@
       <c r="IE88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF88" t="n">
+      <c r="IF88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -64888,8 +65348,14 @@
       <c r="IE89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF89" t="n">
+      <c r="IF89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IG89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -65612,8 +66078,14 @@
       <c r="IE90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IF90" t="n">
+      <c r="IF90" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="IG90" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IH90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -66336,8 +66808,14 @@
       <c r="IE91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IF91" t="n">
+      <c r="IF91" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="IG91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IH91" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -67060,8 +67538,14 @@
       <c r="IE92" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="IF92" t="n">
+      <c r="IF92" s="1" t="n">
         <v>284</v>
+      </c>
+      <c r="IG92" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="IH92" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -67784,8 +68268,14 @@
       <c r="IE93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IF93" t="n">
+      <c r="IF93" s="1" t="n">
         <v>75.7</v>
+      </c>
+      <c r="IG93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="IH93" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -68508,8 +68998,14 @@
       <c r="IE94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IF94" t="n">
+      <c r="IF94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IH94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -69232,8 +69728,14 @@
       <c r="IE95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF95" t="n">
+      <c r="IF95" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IH95" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -69956,8 +70458,14 @@
       <c r="IE96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IF96" t="n">
+      <c r="IF96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IH96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -70680,8 +71188,14 @@
       <c r="IE97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IF97" t="n">
+      <c r="IF97" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IG97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IH97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -71404,8 +71918,14 @@
       <c r="IE98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IF98" t="n">
+      <c r="IF98" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IG98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IH98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -72128,8 +72648,14 @@
       <c r="IE99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IF99" t="n">
+      <c r="IF99" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IG99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IH99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -72852,8 +73378,14 @@
       <c r="IE100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF100" t="n">
+      <c r="IF100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IH100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -73576,8 +74108,14 @@
       <c r="IE101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF101" t="n">
+      <c r="IF101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IG101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IH101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -74300,8 +74838,14 @@
       <c r="IE102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="IF102" t="n">
+      <c r="IF102" s="1" t="n">
         <v>56.2</v>
+      </c>
+      <c r="IG102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IH102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1120,8 +1120,14 @@
       <c r="II1" s="1" t="n">
         <v>10525</v>
       </c>
-      <c r="IJ1" t="n">
+      <c r="IJ1" s="1" t="n">
         <v>10394</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>10405</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1856,7 +1862,13 @@
       <c r="II2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IJ2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IK2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IL2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2592,8 +2604,14 @@
       <c r="II3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IJ3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IK3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3328,7 +3346,13 @@
       <c r="II4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,8 +4088,14 @@
       <c r="II5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IJ5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IK5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4800,8 +4830,14 @@
       <c r="II6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IJ6" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="IK6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5536,8 +5572,14 @@
       <c r="II7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IJ7" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="IK7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6272,8 +6314,14 @@
       <c r="II8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="IJ8" t="n">
+      <c r="IJ8" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IK8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>-30</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7008,8 +7056,14 @@
       <c r="II9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IJ9" t="n">
+      <c r="IJ9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -7744,8 +7798,14 @@
       <c r="II10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IJ10" t="n">
+      <c r="IJ10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IK10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8480,8 +8540,14 @@
       <c r="II11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="IJ11" t="n">
+      <c r="IJ11" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="IK11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9216,8 +9282,14 @@
       <c r="II12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="IJ12" t="n">
+      <c r="IJ12" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="IK12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -9952,8 +10024,14 @@
       <c r="II13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="IJ13" t="n">
+      <c r="IJ13" s="1" t="n">
         <v>427</v>
+      </c>
+      <c r="IK13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10688,8 +10766,14 @@
       <c r="II14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="IJ14" t="n">
+      <c r="IJ14" s="1" t="n">
         <v>1.28</v>
+      </c>
+      <c r="IK14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11424,8 +11508,14 @@
       <c r="II15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IJ15" t="n">
+      <c r="IJ15" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="IK15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12160,8 +12250,14 @@
       <c r="II16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IJ16" t="n">
+      <c r="IJ16" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IK16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12896,8 +12992,14 @@
       <c r="II17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IJ17" t="n">
+      <c r="IJ17" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IK17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13632,8 +13734,14 @@
       <c r="II18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ18" t="n">
+      <c r="IJ18" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IK18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14368,8 +14476,14 @@
       <c r="II19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ19" t="n">
+      <c r="IJ19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IK19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15104,8 +15218,14 @@
       <c r="II20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IJ20" t="n">
+      <c r="IJ20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IK20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15840,8 +15960,14 @@
       <c r="II21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ21" t="n">
+      <c r="IJ21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -16576,8 +16702,14 @@
       <c r="II22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IJ22" t="n">
+      <c r="IJ22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IK22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17312,8 +17444,14 @@
       <c r="II23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ23" t="n">
+      <c r="IJ23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IK23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18048,8 +18186,14 @@
       <c r="II24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ24" t="n">
+      <c r="IJ24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IK24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18784,8 +18928,14 @@
       <c r="II25" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="IJ25" t="n">
+      <c r="IJ25" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="IK25" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19520,8 +19670,14 @@
       <c r="II26" s="1" t="n">
         <v>36.18</v>
       </c>
-      <c r="IJ26" t="n">
+      <c r="IJ26" s="1" t="n">
         <v>30.5</v>
+      </c>
+      <c r="IK26" s="1" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20256,8 +20412,14 @@
       <c r="II27" s="1" t="n">
         <v>23.41</v>
       </c>
-      <c r="IJ27" t="n">
+      <c r="IJ27" s="1" t="n">
         <v>17.79</v>
+      </c>
+      <c r="IK27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>21.76</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -20992,8 +21154,14 @@
       <c r="II28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IJ28" t="n">
+      <c r="IJ28" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IK28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IL28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21728,8 +21896,14 @@
       <c r="II29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IJ29" t="n">
+      <c r="IJ29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IK29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22464,8 +22638,14 @@
       <c r="II30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IJ30" t="n">
+      <c r="IJ30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IK30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23200,8 +23380,14 @@
       <c r="II31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IJ31" t="n">
+      <c r="IJ31" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IK31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IL31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -23936,8 +24122,14 @@
       <c r="II32" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="IJ32" t="n">
+      <c r="IJ32" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="IK32" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24672,8 +24864,14 @@
       <c r="II33" s="1" t="n">
         <v>4.82</v>
       </c>
-      <c r="IJ33" t="n">
+      <c r="IJ33" s="1" t="n">
         <v>3.71</v>
+      </c>
+      <c r="IK33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25408,8 +25606,14 @@
       <c r="II34" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="IJ34" t="n">
+      <c r="IJ34" s="1" t="n">
         <v>40.4</v>
+      </c>
+      <c r="IK34" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26144,8 +26348,14 @@
       <c r="II35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="IJ35" t="n">
+      <c r="IJ35" s="1" t="n">
         <v>26.9</v>
+      </c>
+      <c r="IK35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="IL35" t="n">
+        <v>11.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -26880,8 +27090,14 @@
       <c r="II36" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="IJ36" t="n">
+      <c r="IJ36" s="1" t="n">
         <v>189.1</v>
+      </c>
+      <c r="IK36" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IL36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -27616,8 +27832,14 @@
       <c r="II37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="IJ37" t="n">
+      <c r="IJ37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="IK37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IL37" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28352,8 +28574,14 @@
       <c r="II38" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="IJ38" t="n">
+      <c r="IJ38" s="1" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IK38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="IL38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29088,8 +29316,14 @@
       <c r="II39" s="1" t="n">
         <v>114.3</v>
       </c>
-      <c r="IJ39" t="n">
+      <c r="IJ39" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="IK39" s="1" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="IL39" t="n">
+        <v>90.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -29824,7 +30058,13 @@
       <c r="II40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ40" t="n">
+      <c r="IJ40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="IK40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IL40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -30560,7 +30800,13 @@
       <c r="II41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ41" t="n">
+      <c r="IJ41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31296,7 +31542,13 @@
       <c r="II42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ42" t="n">
+      <c r="IJ42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IK42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32032,8 +32284,14 @@
       <c r="II43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ43" t="n">
+      <c r="IJ43" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IK43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IL43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -32768,8 +33026,14 @@
       <c r="II44" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IJ44" t="n">
+      <c r="IJ44" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="IK44" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33504,8 +33768,14 @@
       <c r="II45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IJ45" t="n">
+      <c r="IJ45" s="1" t="n">
         <v>288</v>
+      </c>
+      <c r="IK45" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34240,8 +34510,14 @@
       <c r="II46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="IJ46" t="n">
+      <c r="IJ46" s="1" t="n">
         <v>343</v>
+      </c>
+      <c r="IK46" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="IL46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -34976,8 +35252,14 @@
       <c r="II47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="IJ47" t="n">
+      <c r="IJ47" s="1" t="n">
         <v>80.3</v>
+      </c>
+      <c r="IK47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IL47" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -35712,8 +35994,14 @@
       <c r="II48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IJ48" t="n">
+      <c r="IJ48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IK48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IL48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36448,7 +36736,13 @@
       <c r="II49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IJ49" t="n">
+      <c r="IJ49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IK49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IL49" t="n">
         <v>11</v>
       </c>
     </row>
@@ -37184,8 +37478,14 @@
       <c r="II50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ50" t="n">
+      <c r="IJ50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IK50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -37920,8 +38220,14 @@
       <c r="II51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IJ51" t="n">
+      <c r="IJ51" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IK51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IL51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38656,8 +38962,14 @@
       <c r="II52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IJ52" t="n">
+      <c r="IJ52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IK52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39392,8 +39704,14 @@
       <c r="II53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IJ53" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IK53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40128,8 +40446,14 @@
       <c r="II54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IJ54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IK54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -40864,8 +41188,14 @@
       <c r="II55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IJ55" t="n">
+      <c r="IJ55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -41600,8 +41930,14 @@
       <c r="II56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IJ56" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IK56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IL56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42336,8 +42672,14 @@
       <c r="II57" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="IJ57" t="n">
+      <c r="IJ57" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="IK57" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IL57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43072,8 +43414,14 @@
       <c r="II58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IJ58" t="n">
+      <c r="IJ58" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="IK58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="IL58" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -43808,8 +44156,14 @@
       <c r="II59" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="IJ59" t="n">
+      <c r="IJ59" s="1" t="n">
         <v>378</v>
+      </c>
+      <c r="IK59" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>402</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44544,8 +44898,14 @@
       <c r="II60" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="IJ60" t="n">
+      <c r="IJ60" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="IK60" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="IL60" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45280,8 +45640,14 @@
       <c r="II61" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="IJ61" t="n">
+      <c r="IJ61" s="1" t="n">
         <v>110</v>
+      </c>
+      <c r="IK61" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46016,8 +46382,14 @@
       <c r="II62" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IJ62" t="n">
+      <c r="IJ62" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IK62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IL62" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -46752,8 +47124,14 @@
       <c r="II63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IJ63" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47488,8 +47866,14 @@
       <c r="II64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IJ64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IK64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48224,8 +48608,14 @@
       <c r="II65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IJ65" t="n">
+      <c r="IJ65" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IK65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IL65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -48960,8 +49350,14 @@
       <c r="II66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IJ66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IK66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IL66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -49696,7 +50092,13 @@
       <c r="II67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ67" t="n">
+      <c r="IJ67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IK67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL67" t="n">
         <v>8</v>
       </c>
     </row>
@@ -50432,8 +50834,14 @@
       <c r="II68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IJ68" t="n">
+      <c r="IJ68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IK68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51168,7 +51576,13 @@
       <c r="II69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IJ69" t="n">
+      <c r="IJ69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51904,8 +52318,14 @@
       <c r="II70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IJ70" t="n">
+      <c r="IJ70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IK70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IL70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -52640,8 +53060,14 @@
       <c r="II71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="IJ71" t="n">
+      <c r="IJ71" s="1" t="n">
         <v>52.4</v>
+      </c>
+      <c r="IK71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53376,8 +53802,14 @@
       <c r="II72" s="1" t="n">
         <v>34.64</v>
       </c>
-      <c r="IJ72" t="n">
+      <c r="IJ72" s="1" t="n">
         <v>34.36</v>
+      </c>
+      <c r="IK72" s="1" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="IL72" t="n">
+        <v>40.2</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54112,8 +54544,14 @@
       <c r="II73" s="1" t="n">
         <v>21.17</v>
       </c>
-      <c r="IJ73" t="n">
+      <c r="IJ73" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IK73" s="1" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="IL73" t="n">
+        <v>18.27</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -54848,8 +55286,14 @@
       <c r="II74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IJ74" t="n">
+      <c r="IJ74" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IK74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IL74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -55584,8 +56028,14 @@
       <c r="II75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IJ75" t="n">
+      <c r="IJ75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IK75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IL75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56320,8 +56770,14 @@
       <c r="II76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IJ76" t="n">
+      <c r="IJ76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IK76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57056,8 +57512,14 @@
       <c r="II77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IJ77" t="n">
+      <c r="IJ77" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IK77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="IL77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -57792,8 +58254,14 @@
       <c r="II78" s="1" t="n">
         <v>3.22</v>
       </c>
-      <c r="IJ78" t="n">
+      <c r="IJ78" s="1" t="n">
         <v>2.62</v>
+      </c>
+      <c r="IK78" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="IL78" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -58528,8 +58996,14 @@
       <c r="II79" s="1" t="n">
         <v>5.27</v>
       </c>
-      <c r="IJ79" t="n">
+      <c r="IJ79" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK79" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="IL79" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59264,8 +59738,14 @@
       <c r="II80" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="IJ80" t="n">
+      <c r="IJ80" s="1" t="n">
         <v>38.2</v>
+      </c>
+      <c r="IK80" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="IL80" t="n">
+        <v>37.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60000,8 +60480,14 @@
       <c r="II81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IJ81" t="n">
+      <c r="IJ81" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IK81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IL81" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -60736,8 +61222,14 @@
       <c r="II82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IJ82" t="n">
+      <c r="IJ82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IK82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IL82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61472,7 +61964,13 @@
       <c r="II83" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IJ83" t="n">
+      <c r="IJ83" s="1" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="IK83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IL83" t="n">
         <v>84.5</v>
       </c>
     </row>
@@ -62208,8 +62706,14 @@
       <c r="II84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="IJ84" t="n">
+      <c r="IJ84" s="1" t="n">
         <v>24.33</v>
+      </c>
+      <c r="IK84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IL84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -62944,8 +63448,14 @@
       <c r="II85" s="1" t="n">
         <v>98.8</v>
       </c>
-      <c r="IJ85" t="n">
+      <c r="IJ85" s="1" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="IK85" s="1" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="IL85" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -63680,8 +64190,14 @@
       <c r="II86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IJ86" t="n">
+      <c r="IJ86" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IK86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -64416,8 +64932,14 @@
       <c r="II87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IJ87" t="n">
+      <c r="IJ87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IK87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IL87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -65152,8 +65674,14 @@
       <c r="II88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IJ88" t="n">
+      <c r="IJ88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IK88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -65888,8 +66416,14 @@
       <c r="II89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IJ89" t="n">
+      <c r="IJ89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IK89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -66624,8 +67158,14 @@
       <c r="II90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IJ90" t="n">
+      <c r="IJ90" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="IK90" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IL90" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67360,8 +67900,14 @@
       <c r="II91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IJ91" t="n">
+      <c r="IJ91" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="IK91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IL91" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68096,8 +68642,14 @@
       <c r="II92" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="IJ92" t="n">
+      <c r="IJ92" s="1" t="n">
         <v>295</v>
+      </c>
+      <c r="IK92" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="IL92" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -68832,8 +69384,14 @@
       <c r="II93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IJ93" t="n">
+      <c r="IJ93" s="1" t="n">
         <v>78</v>
+      </c>
+      <c r="IK93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="IL93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -69568,8 +70126,14 @@
       <c r="II94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IJ94" t="n">
+      <c r="IJ94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IK94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IL94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70304,8 +70868,14 @@
       <c r="II95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IJ95" t="n">
+      <c r="IJ95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IK95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IL95" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71040,8 +71610,14 @@
       <c r="II96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IJ96" t="n">
+      <c r="IJ96" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IK96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IL96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -71776,8 +72352,14 @@
       <c r="II97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IJ97" t="n">
+      <c r="IJ97" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="IK97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IL97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -72512,8 +73094,14 @@
       <c r="II98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IJ98" t="n">
+      <c r="IJ98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="IK98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IL98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73248,8 +73836,14 @@
       <c r="II99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IJ99" t="n">
+      <c r="IJ99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IK99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IL99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -73984,8 +74578,14 @@
       <c r="II100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IJ100" t="n">
+      <c r="IJ100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IK100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IL100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -74720,7 +75320,13 @@
       <c r="II101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IJ101" t="n">
+      <c r="IJ101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IK101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IL101" t="n">
         <v>8</v>
       </c>
     </row>
@@ -75456,8 +76062,14 @@
       <c r="II102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="IJ102" t="n">
+      <c r="IJ102" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IK102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HC71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HE100" activeCellId="0" sqref="HE100"/>
@@ -1126,8 +1126,14 @@
       <c r="IK1" s="1" t="n">
         <v>10525</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="1" t="n">
         <v>10405</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10410</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -1868,7 +1874,13 @@
       <c r="IK2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IM2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IN2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2610,8 +2622,14 @@
       <c r="IK3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IM3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3352,8 +3370,14 @@
       <c r="IK4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4094,8 +4118,14 @@
       <c r="IK5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IM5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -4836,8 +4866,14 @@
       <c r="IK6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IM6" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -5578,8 +5614,14 @@
       <c r="IK7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IM7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -6320,8 +6362,14 @@
       <c r="IK8" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="1" t="n">
         <v>-30</v>
+      </c>
+      <c r="IM8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -7062,7 +7110,13 @@
       <c r="IK9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7804,8 +7858,14 @@
       <c r="IK10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IM10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -8546,8 +8606,14 @@
       <c r="IK11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="IM11" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -9288,8 +9354,14 @@
       <c r="IK12" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="IM12" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -10030,8 +10102,14 @@
       <c r="IK13" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="1" t="n">
         <v>370</v>
+      </c>
+      <c r="IM13" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>418</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -10772,8 +10850,14 @@
       <c r="IK14" s="1" t="n">
         <v>1.55</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="1" t="n">
         <v>1.04</v>
+      </c>
+      <c r="IM14" s="1" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -11514,8 +11598,14 @@
       <c r="IK15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IM15" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -12256,8 +12346,14 @@
       <c r="IK16" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IM16" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -12998,8 +13094,14 @@
       <c r="IK17" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="IM17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -13740,8 +13842,14 @@
       <c r="IK18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -14482,8 +14590,14 @@
       <c r="IK19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IM19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -15224,8 +15338,14 @@
       <c r="IK20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -15966,7 +16086,13 @@
       <c r="IK21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16708,8 +16834,14 @@
       <c r="IK22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -17450,8 +17582,14 @@
       <c r="IK23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IM23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -18192,8 +18330,14 @@
       <c r="IK24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IM24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -18934,8 +19078,14 @@
       <c r="IK25" s="1" t="n">
         <v>64.7</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="1" t="n">
         <v>29.4</v>
+      </c>
+      <c r="IM25" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -19676,8 +19826,14 @@
       <c r="IK26" s="1" t="n">
         <v>36.18</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="IM26" s="1" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>52.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -20418,8 +20574,14 @@
       <c r="IK27" s="1" t="n">
         <v>23.41</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="1" t="n">
         <v>21.76</v>
+      </c>
+      <c r="IM27" s="1" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>23.22</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -21160,8 +21322,14 @@
       <c r="IK28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -21902,8 +22070,14 @@
       <c r="IK29" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IM29" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -22644,8 +22818,14 @@
       <c r="IK30" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IM30" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -23386,8 +23566,14 @@
       <c r="IK31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IM31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -24128,8 +24314,14 @@
       <c r="IK32" s="1" t="n">
         <v>3.12</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="1" t="n">
         <v>2.65</v>
+      </c>
+      <c r="IM32" s="1" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -24870,8 +25062,14 @@
       <c r="IK33" s="1" t="n">
         <v>4.82</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IM33" s="1" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -25612,8 +25810,14 @@
       <c r="IK34" s="1" t="n">
         <v>30.2</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="1" t="n">
         <v>28.9</v>
+      </c>
+      <c r="IM34" s="1" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -26354,8 +26558,14 @@
       <c r="IK35" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="1" t="n">
         <v>11.1</v>
+      </c>
+      <c r="IM35" s="1" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -27096,7 +27306,13 @@
       <c r="IK36" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="1" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="IM36" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IN36" t="n">
         <v>188.8</v>
       </c>
     </row>
@@ -27838,8 +28054,14 @@
       <c r="IK37" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="1" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IM37" s="1" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IN37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -28580,8 +28802,14 @@
       <c r="IK38" s="1" t="n">
         <v>26.91</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IM38" s="1" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="IN38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -29322,8 +29550,14 @@
       <c r="IK39" s="1" t="n">
         <v>114.3</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="1" t="n">
         <v>90.5</v>
+      </c>
+      <c r="IM39" s="1" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>106.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -30064,8 +30298,14 @@
       <c r="IK40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -30806,7 +31046,13 @@
       <c r="IK41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="IM41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31548,7 +31794,13 @@
       <c r="IK42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32290,8 +32542,14 @@
       <c r="IK43" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -33032,8 +33290,14 @@
       <c r="IK44" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="IM44" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -33774,8 +34038,14 @@
       <c r="IK45" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="1" t="n">
         <v>210</v>
+      </c>
+      <c r="IM45" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -34516,8 +34786,14 @@
       <c r="IK46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="IM46" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -35258,8 +35534,14 @@
       <c r="IK47" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="1" t="n">
         <v>67.59999999999999</v>
+      </c>
+      <c r="IM47" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -36000,8 +36282,14 @@
       <c r="IK48" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IM48" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -36742,8 +37030,14 @@
       <c r="IK49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IM49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IN49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -37484,8 +37778,14 @@
       <c r="IK50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IM50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -38226,8 +38526,14 @@
       <c r="IK51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM51" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -38968,8 +39274,14 @@
       <c r="IK52" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IM52" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -39710,8 +40022,14 @@
       <c r="IK53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="IM53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -40452,8 +40770,14 @@
       <c r="IK54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -41194,7 +41518,13 @@
       <c r="IK55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IN55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41936,8 +42266,14 @@
       <c r="IK56" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IM56" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -42678,8 +43014,14 @@
       <c r="IK57" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="IM57" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -43420,8 +43762,14 @@
       <c r="IK58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="1" t="n">
         <v>184</v>
+      </c>
+      <c r="IM58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -44162,8 +44510,14 @@
       <c r="IK59" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="1" t="n">
         <v>402</v>
+      </c>
+      <c r="IM59" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -44904,8 +45258,14 @@
       <c r="IK60" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="1" t="n">
         <v>1.18</v>
+      </c>
+      <c r="IM60" s="1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -45646,8 +46006,14 @@
       <c r="IK61" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="IM61" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -46388,8 +46754,14 @@
       <c r="IK62" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="IM62" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -47130,8 +47502,14 @@
       <c r="IK63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IM63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -47872,8 +48250,14 @@
       <c r="IK64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IM64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -48614,8 +48998,14 @@
       <c r="IK65" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IM65" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -49356,8 +49746,14 @@
       <c r="IK66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IM66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -50098,8 +50494,14 @@
       <c r="IK67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -50840,8 +51242,14 @@
       <c r="IK68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -51582,8 +51990,14 @@
       <c r="IK69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IM69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -52324,8 +52738,14 @@
       <c r="IK70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IM70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -53066,8 +53486,14 @@
       <c r="IK71" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="IM71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -53808,8 +54234,14 @@
       <c r="IK72" s="1" t="n">
         <v>34.64</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="1" t="n">
         <v>40.2</v>
+      </c>
+      <c r="IM72" s="1" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>42.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -54550,8 +54982,14 @@
       <c r="IK73" s="1" t="n">
         <v>21.17</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="1" t="n">
         <v>18.27</v>
+      </c>
+      <c r="IM73" s="1" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>18.05</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -55292,8 +55730,14 @@
       <c r="IK74" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IM74" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -56034,8 +56478,14 @@
       <c r="IK75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IM75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -56776,8 +57226,14 @@
       <c r="IK76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM76" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -57518,8 +57974,14 @@
       <c r="IK77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="IM77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="IN77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -58260,8 +58722,14 @@
       <c r="IK78" s="1" t="n">
         <v>3.22</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="1" t="n">
         <v>2.64</v>
+      </c>
+      <c r="IM78" s="1" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -59002,8 +59470,14 @@
       <c r="IK79" s="1" t="n">
         <v>5.27</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="1" t="n">
         <v>5.8</v>
+      </c>
+      <c r="IM79" s="1" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -59744,8 +60218,14 @@
       <c r="IK80" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="1" t="n">
         <v>37.9</v>
+      </c>
+      <c r="IM80" s="1" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -60486,8 +60966,14 @@
       <c r="IK81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="1" t="n">
         <v>17.2</v>
+      </c>
+      <c r="IM81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -61228,8 +61714,14 @@
       <c r="IK82" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="1" t="n">
         <v>187.8</v>
+      </c>
+      <c r="IM82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -61970,8 +62462,14 @@
       <c r="IK83" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="1" t="n">
         <v>84.5</v>
+      </c>
+      <c r="IM83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -62712,8 +63210,14 @@
       <c r="IK84" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IM84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -63454,8 +63958,14 @@
       <c r="IK85" s="1" t="n">
         <v>98.8</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="1" t="n">
         <v>102.2</v>
+      </c>
+      <c r="IM85" s="1" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>104.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -64196,7 +64706,13 @@
       <c r="IK86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IM86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -64938,8 +65454,14 @@
       <c r="IK87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IM87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -65680,8 +66202,14 @@
       <c r="IK88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IM88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -66422,8 +66950,14 @@
       <c r="IK89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IM89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -67164,8 +67698,14 @@
       <c r="IK90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="1" t="n">
         <v>153</v>
+      </c>
+      <c r="IM90" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -67906,8 +68446,14 @@
       <c r="IK91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="1" t="n">
         <v>243</v>
+      </c>
+      <c r="IM91" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -68648,8 +69194,14 @@
       <c r="IK92" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="1" t="n">
         <v>298</v>
+      </c>
+      <c r="IM92" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -69390,8 +69942,14 @@
       <c r="IK93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="1" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="IM93" s="1" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -70132,8 +70690,14 @@
       <c r="IK94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IM94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="IN94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -70874,8 +71438,14 @@
       <c r="IK95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IM95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -71616,8 +72186,14 @@
       <c r="IK96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IM96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -72358,8 +72934,14 @@
       <c r="IK97" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IM97" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="IN97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -73100,8 +73682,14 @@
       <c r="IK98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IM98" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -73842,8 +74430,14 @@
       <c r="IK99" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IM99" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -74584,8 +75178,14 @@
       <c r="IK100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IM100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -75326,8 +75926,14 @@
       <c r="IK101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IM101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -76068,8 +76674,14 @@
       <c r="IK102" s="1" t="n">
         <v>81.8</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IM102" s="1" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1121,8 +1121,11 @@
       <c r="IH1" s="2" t="n">
         <v>10418</v>
       </c>
-      <c r="II1" t="n">
+      <c r="II1" s="2" t="n">
         <v>10429</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>10432</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1854,7 +1857,10 @@
       <c r="IH2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="II2" t="n">
+      <c r="II2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IJ2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2587,8 +2593,11 @@
       <c r="IH3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="II3" t="n">
+      <c r="II3" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3320,7 +3329,10 @@
       <c r="IH4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II4" t="n">
+      <c r="II4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,7 +4065,10 @@
       <c r="IH5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="II5" t="n">
+      <c r="II5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,8 +4801,11 @@
       <c r="IH6" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="II6" t="n">
+      <c r="II6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5519,8 +5537,11 @@
       <c r="IH7" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="II7" t="n">
+      <c r="II7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6252,8 +6273,11 @@
       <c r="IH8" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="II8" t="n">
+      <c r="II8" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -6985,7 +7009,10 @@
       <c r="IH9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II9" t="n">
+      <c r="II9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7718,8 +7745,11 @@
       <c r="IH10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="II10" t="n">
+      <c r="II10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8451,8 +8481,11 @@
       <c r="IH11" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="II11" t="n">
+      <c r="II11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9184,8 +9217,11 @@
       <c r="IH12" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="II12" t="n">
+      <c r="II12" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -9917,8 +9953,11 @@
       <c r="IH13" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="II13" t="n">
+      <c r="II13" s="2" t="n">
         <v>334</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10650,8 +10689,11 @@
       <c r="IH14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="II14" t="n">
+      <c r="II14" s="2" t="n">
         <v>2.06</v>
+      </c>
+      <c r="IJ14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11383,8 +11425,11 @@
       <c r="IH15" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="II15" t="n">
+      <c r="II15" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="IJ15" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12116,8 +12161,11 @@
       <c r="IH16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="II16" t="n">
+      <c r="II16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IJ16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -12849,8 +12897,11 @@
       <c r="IH17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="II17" t="n">
+      <c r="II17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13582,8 +13633,11 @@
       <c r="IH18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="II18" t="n">
+      <c r="II18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IJ18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14315,8 +14369,11 @@
       <c r="IH19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="II19" t="n">
+      <c r="II19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IJ19" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15048,8 +15105,11 @@
       <c r="IH20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II20" t="n">
+      <c r="II20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IJ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -15781,8 +15841,11 @@
       <c r="IH21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="II21" t="n">
+      <c r="II21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IJ21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16514,8 +16577,11 @@
       <c r="IH22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="II22" t="n">
+      <c r="II22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17247,8 +17313,11 @@
       <c r="IH23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II23" t="n">
+      <c r="II23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -17980,8 +18049,11 @@
       <c r="IH24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="II24" t="n">
+      <c r="II24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IJ24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -18713,8 +18785,11 @@
       <c r="IH25" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="II25" t="n">
+      <c r="II25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IJ25" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19446,8 +19521,11 @@
       <c r="IH26" s="2" t="n">
         <v>62.83</v>
       </c>
-      <c r="II26" t="n">
+      <c r="II26" s="2" t="n">
         <v>27.83</v>
+      </c>
+      <c r="IJ26" t="n">
+        <v>35.91</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20179,8 +20257,11 @@
       <c r="IH27" s="2" t="n">
         <v>17.95</v>
       </c>
-      <c r="II27" t="n">
+      <c r="II27" s="2" t="n">
         <v>18.56</v>
+      </c>
+      <c r="IJ27" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -20912,8 +20993,11 @@
       <c r="IH28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="II28" t="n">
+      <c r="II28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IJ28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21645,8 +21729,11 @@
       <c r="IH29" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="II29" t="n">
+      <c r="II29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IJ29" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22378,8 +22465,11 @@
       <c r="IH30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="II30" t="n">
+      <c r="II30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IJ30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23111,8 +23201,11 @@
       <c r="IH31" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="II31" t="n">
+      <c r="II31" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IJ31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -23844,8 +23937,11 @@
       <c r="IH32" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="II32" t="n">
+      <c r="II32" s="2" t="n">
         <v>2.44</v>
+      </c>
+      <c r="IJ32" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24577,8 +24673,11 @@
       <c r="IH33" s="2" t="n">
         <v>7.33</v>
       </c>
-      <c r="II33" t="n">
+      <c r="II33" s="2" t="n">
         <v>3.67</v>
+      </c>
+      <c r="IJ33" t="n">
+        <v>4.27</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25310,8 +25409,11 @@
       <c r="IH34" s="2" t="n">
         <v>34.1</v>
       </c>
-      <c r="II34" t="n">
+      <c r="II34" s="2" t="n">
         <v>38.6</v>
+      </c>
+      <c r="IJ34" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26043,8 +26145,11 @@
       <c r="IH35" s="2" t="n">
         <v>13.6</v>
       </c>
-      <c r="II35" t="n">
+      <c r="II35" s="2" t="n">
         <v>27.3</v>
+      </c>
+      <c r="IJ35" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -26776,8 +26881,11 @@
       <c r="IH36" s="2" t="n">
         <v>189.5</v>
       </c>
-      <c r="II36" t="n">
+      <c r="II36" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="IJ36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27509,8 +27617,11 @@
       <c r="IH37" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="II37" t="n">
+      <c r="II37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IJ37" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28242,8 +28353,11 @@
       <c r="IH38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="II38" t="n">
+      <c r="II38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IJ38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -28975,8 +29089,11 @@
       <c r="IH39" s="2" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="II39" t="n">
+      <c r="II39" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="IJ39" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -29708,7 +29825,10 @@
       <c r="IH40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="II40" t="n">
+      <c r="II40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IJ40" t="n">
         <v>11</v>
       </c>
     </row>
@@ -30441,8 +30561,11 @@
       <c r="IH41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="II41" t="n">
+      <c r="II41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IJ41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31174,7 +31297,10 @@
       <c r="IH42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="II42" t="n">
+      <c r="II42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IJ42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31907,8 +32033,11 @@
       <c r="IH43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II43" t="n">
+      <c r="II43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IJ43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -32640,8 +32769,11 @@
       <c r="IH44" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="II44" t="n">
+      <c r="II44" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="IJ44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33373,8 +33505,11 @@
       <c r="IH45" s="2" t="n">
         <v>272</v>
       </c>
-      <c r="II45" t="n">
+      <c r="II45" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IJ45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34106,8 +34241,11 @@
       <c r="IH46" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="II46" t="n">
+      <c r="II46" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="IJ46" t="n">
+        <v>290</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -34839,8 +34977,11 @@
       <c r="IH47" s="2" t="n">
         <v>77.7</v>
       </c>
-      <c r="II47" t="n">
+      <c r="II47" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="IJ47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -35572,8 +35713,11 @@
       <c r="IH48" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="II48" t="n">
+      <c r="II48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IJ48" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36305,8 +36449,11 @@
       <c r="IH49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="II49" t="n">
+      <c r="II49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IJ49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37038,8 +37185,11 @@
       <c r="IH50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="II50" t="n">
+      <c r="II50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IJ50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -37771,8 +37921,11 @@
       <c r="IH51" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="II51" t="n">
+      <c r="II51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IJ51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -38504,8 +38657,11 @@
       <c r="IH52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="II52" t="n">
+      <c r="II52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IJ52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39237,8 +39393,11 @@
       <c r="IH53" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="II53" t="n">
+      <c r="II53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IJ53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -39970,8 +40129,11 @@
       <c r="IH54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="II54" t="n">
+      <c r="II54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -40703,8 +40865,11 @@
       <c r="IH55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="II55" t="n">
+      <c r="II55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IJ55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -41436,8 +41601,11 @@
       <c r="IH56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="II56" t="n">
+      <c r="II56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IJ56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42169,8 +42337,11 @@
       <c r="IH57" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="II57" t="n">
+      <c r="II57" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IJ57" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -42902,8 +43073,11 @@
       <c r="IH58" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="II58" t="n">
+      <c r="II58" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="IJ58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -43635,7 +43809,10 @@
       <c r="IH59" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="II59" t="n">
+      <c r="II59" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="IJ59" t="n">
         <v>357</v>
       </c>
     </row>
@@ -44368,8 +44545,11 @@
       <c r="IH60" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="II60" t="n">
+      <c r="II60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IJ60" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45101,8 +45281,11 @@
       <c r="IH61" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="II61" t="n">
+      <c r="II61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IJ61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -45834,8 +46017,11 @@
       <c r="IH62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="II62" t="n">
+      <c r="II62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IJ62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -46567,8 +46753,11 @@
       <c r="IH63" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="II63" t="n">
+      <c r="II63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IJ63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47300,8 +47489,11 @@
       <c r="IH64" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="II64" t="n">
+      <c r="II64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IJ64" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48033,8 +48225,11 @@
       <c r="IH65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="II65" t="n">
+      <c r="II65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IJ65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -48766,8 +48961,11 @@
       <c r="IH66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="II66" t="n">
+      <c r="II66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IJ66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -49499,8 +49697,11 @@
       <c r="IH67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="II67" t="n">
+      <c r="II67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IJ67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -50232,8 +50433,11 @@
       <c r="IH68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="II68" t="n">
+      <c r="II68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IJ68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -50965,7 +51169,10 @@
       <c r="IH69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="II69" t="n">
+      <c r="II69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IJ69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51698,8 +51905,11 @@
       <c r="IH70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="II70" t="n">
+      <c r="II70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IJ70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -52431,8 +52641,11 @@
       <c r="IH71" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="II71" t="n">
+      <c r="II71" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="IJ71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53164,8 +53377,11 @@
       <c r="IH72" s="2" t="n">
         <v>46.25</v>
       </c>
-      <c r="II72" t="n">
+      <c r="II72" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="IJ72" t="n">
+        <v>39.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -53897,8 +54113,11 @@
       <c r="IH73" s="2" t="n">
         <v>17.62</v>
       </c>
-      <c r="II73" t="n">
+      <c r="II73" s="2" t="n">
         <v>15.52</v>
+      </c>
+      <c r="IJ73" t="n">
+        <v>19.83</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -54630,8 +54849,11 @@
       <c r="IH74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="II74" t="n">
+      <c r="II74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IJ74" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -55363,8 +55585,11 @@
       <c r="IH75" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="II75" t="n">
+      <c r="II75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IJ75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56096,8 +56321,11 @@
       <c r="IH76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="II76" t="n">
+      <c r="II76" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IJ76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -56829,8 +57057,11 @@
       <c r="IH77" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="II77" t="n">
+      <c r="II77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IJ77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -57562,8 +57793,11 @@
       <c r="IH78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="II78" t="n">
+      <c r="II78" s="2" t="n">
         <v>2.17</v>
+      </c>
+      <c r="IJ78" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -58295,8 +58529,11 @@
       <c r="IH79" s="2" t="n">
         <v>5.25</v>
       </c>
-      <c r="II79" t="n">
+      <c r="II79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ79" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59028,8 +59265,11 @@
       <c r="IH80" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="II80" t="n">
+      <c r="II80" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IJ80" t="n">
+        <v>30.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -59761,8 +60001,11 @@
       <c r="IH81" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="II81" t="n">
+      <c r="II81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IJ81" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -60494,8 +60737,11 @@
       <c r="IH82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="II82" t="n">
+      <c r="II82" s="2" t="n">
         <v>186.8</v>
+      </c>
+      <c r="IJ82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -61227,8 +61473,11 @@
       <c r="IH83" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="II83" t="n">
+      <c r="II83" s="2" t="n">
         <v>84.09999999999999</v>
+      </c>
+      <c r="IJ83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -61960,8 +62209,11 @@
       <c r="IH84" s="2" t="n">
         <v>27.49</v>
       </c>
-      <c r="II84" t="n">
+      <c r="II84" s="2" t="n">
         <v>24.49</v>
+      </c>
+      <c r="IJ84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -62693,8 +62945,11 @@
       <c r="IH85" s="2" t="n">
         <v>132.3</v>
       </c>
-      <c r="II85" t="n">
+      <c r="II85" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IJ85" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -63426,8 +63681,11 @@
       <c r="IH86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="II86" t="n">
+      <c r="II86" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IJ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -64159,8 +64417,11 @@
       <c r="IH87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="II87" t="n">
+      <c r="II87" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IJ87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -64892,8 +65153,11 @@
       <c r="IH88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="II88" t="n">
+      <c r="II88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IJ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -65625,8 +65889,11 @@
       <c r="IH89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="II89" t="n">
+      <c r="II89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IJ89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -66358,8 +66625,11 @@
       <c r="IH90" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="II90" t="n">
+      <c r="II90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="IJ90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67091,8 +67361,11 @@
       <c r="IH91" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="II91" t="n">
+      <c r="II91" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="IJ91" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -67824,8 +68097,11 @@
       <c r="IH92" s="2" t="n">
         <v>291</v>
       </c>
-      <c r="II92" t="n">
+      <c r="II92" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="IJ92" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -68557,8 +68833,11 @@
       <c r="IH93" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="II93" t="n">
+      <c r="II93" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="IJ93" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -69290,8 +69569,11 @@
       <c r="IH94" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="II94" t="n">
+      <c r="II94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IJ94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70023,8 +70305,11 @@
       <c r="IH95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="II95" t="n">
+      <c r="II95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IJ95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -70756,8 +71041,11 @@
       <c r="IH96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="II96" t="n">
+      <c r="II96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IJ96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -71489,8 +71777,11 @@
       <c r="IH97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="II97" t="n">
+      <c r="II97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IJ97" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -72222,8 +72513,11 @@
       <c r="IH98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="II98" t="n">
+      <c r="II98" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IJ98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -72955,8 +73249,11 @@
       <c r="IH99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="II99" t="n">
+      <c r="II99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IJ99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -73688,8 +73985,11 @@
       <c r="IH100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="II100" t="n">
+      <c r="II100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IJ100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -74421,8 +74721,11 @@
       <c r="IH101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="II101" t="n">
+      <c r="II101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IJ101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -75154,8 +75457,11 @@
       <c r="IH102" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="II102" t="n">
+      <c r="II102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IJ102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,34 +59,34 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -380,19 +380,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HZ1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="IN24" activeCellId="0" pane="topLeft" sqref="IN24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="2" min="1" max="1016"/>
-    <col width="9.140000000000001" customWidth="1" style="2" min="1017" max="1025"/>
+    <col customWidth="1" max="1016" min="1" style="2" width="8.529999999999999"/>
+    <col customWidth="1" max="1025" min="1017" style="2" width="9.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1124,11 +1124,14 @@
       <c r="II1" s="2" t="n">
         <v>10429</v>
       </c>
-      <c r="IJ1" t="n">
+      <c r="IJ1" s="2" t="n">
         <v>10432</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10446</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="2" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1860,11 +1863,14 @@
       <c r="II2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IJ2" s="2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="3" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2596,11 +2602,14 @@
       <c r="II3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IJ3" s="2" t="n">
         <v>13</v>
       </c>
+      <c r="IK3" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="4" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3332,11 +3341,14 @@
       <c r="II4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IJ4" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="5" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -4068,11 +4080,14 @@
       <c r="II5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IJ5" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="IK5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="6" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4804,11 +4819,14 @@
       <c r="II6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IJ6" s="2" t="n">
         <v>80</v>
       </c>
+      <c r="IK6" t="n">
+        <v>79</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="7" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5540,11 +5558,14 @@
       <c r="II7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IJ7" s="2" t="n">
         <v>63</v>
       </c>
+      <c r="IK7" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="8" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6276,11 +6297,14 @@
       <c r="II8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ8" t="n">
+      <c r="IJ8" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="IK8" t="n">
+        <v>-12</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="9" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -7012,11 +7036,14 @@
       <c r="II9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ9" t="n">
+      <c r="IJ9" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="IK9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="10" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7748,11 +7775,14 @@
       <c r="II10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ10" t="n">
+      <c r="IJ10" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="IK10" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="11" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8484,11 +8514,14 @@
       <c r="II11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="IJ11" t="n">
+      <c r="IJ11" s="2" t="n">
         <v>237</v>
       </c>
+      <c r="IK11" t="n">
+        <v>238</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="12" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -9220,11 +9253,14 @@
       <c r="II12" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="IJ12" t="n">
+      <c r="IJ12" s="2" t="n">
         <v>158</v>
       </c>
+      <c r="IK12" t="n">
+        <v>162</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="13" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9956,11 +9992,14 @@
       <c r="II13" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="IJ13" t="n">
+      <c r="IJ13" s="2" t="n">
         <v>395</v>
       </c>
+      <c r="IK13" t="n">
+        <v>400</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="14" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10692,11 +10731,14 @@
       <c r="II14" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="IJ14" t="n">
+      <c r="IJ14" s="2" t="n">
         <v>1.5</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.47</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="15" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -11428,11 +11470,14 @@
       <c r="II15" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="IJ15" t="n">
+      <c r="IJ15" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="IK15" t="n">
+        <v>129</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="16" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -12164,11 +12209,14 @@
       <c r="II16" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IJ16" t="n">
+      <c r="IJ16" s="2" t="n">
         <v>53</v>
       </c>
+      <c r="IK16" t="n">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="17" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12900,11 +12948,14 @@
       <c r="II17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IJ17" t="n">
+      <c r="IJ17" s="2" t="n">
         <v>33</v>
       </c>
+      <c r="IK17" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="18" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13636,11 +13687,14 @@
       <c r="II18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IJ18" t="n">
+      <c r="IJ18" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="IK18" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="19" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -14372,11 +14426,14 @@
       <c r="II19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IJ19" t="n">
+      <c r="IJ19" s="2" t="n">
         <v>28</v>
       </c>
+      <c r="IK19" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="20" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -15108,11 +15165,14 @@
       <c r="II20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IJ20" t="n">
+      <c r="IJ20" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="IK20" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="21" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15844,11 +15904,14 @@
       <c r="II21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IJ21" t="n">
+      <c r="IJ21" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IK21" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="22" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -16580,11 +16643,14 @@
       <c r="II22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ22" t="n">
+      <c r="IJ22" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IK22" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="23" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -17316,11 +17382,14 @@
       <c r="II23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ23" t="n">
+      <c r="IJ23" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="IK23" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="24" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -18052,11 +18121,14 @@
       <c r="II24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IJ24" t="n">
+      <c r="IJ24" s="2" t="n">
         <v>25</v>
       </c>
+      <c r="IK24" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="25" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18788,11 +18860,14 @@
       <c r="II25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IJ25" t="n">
+      <c r="IJ25" s="2" t="n">
         <v>44</v>
       </c>
+      <c r="IK25" t="n">
+        <v>63.2</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="26" s="3">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -19524,11 +19599,14 @@
       <c r="II26" s="2" t="n">
         <v>27.83</v>
       </c>
-      <c r="IJ26" t="n">
+      <c r="IJ26" s="2" t="n">
         <v>35.91</v>
       </c>
+      <c r="IK26" t="n">
+        <v>33.33</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="27" s="3">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -20260,11 +20338,14 @@
       <c r="II27" s="2" t="n">
         <v>18.56</v>
       </c>
-      <c r="IJ27" t="n">
+      <c r="IJ27" s="2" t="n">
         <v>15.8</v>
       </c>
+      <c r="IK27" t="n">
+        <v>21.05</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="28" s="3">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20996,11 +21077,14 @@
       <c r="II28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IJ28" t="n">
+      <c r="IJ28" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IK28" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="29" s="3">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -21732,11 +21816,14 @@
       <c r="II29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IJ29" t="n">
+      <c r="IJ29" s="2" t="n">
         <v>73</v>
       </c>
+      <c r="IK29" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="30" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -22468,11 +22555,14 @@
       <c r="II30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IJ30" t="n">
+      <c r="IJ30" s="2" t="n">
         <v>43</v>
       </c>
+      <c r="IK30" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="31" s="3">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -23204,11 +23294,14 @@
       <c r="II31" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IJ31" t="n">
+      <c r="IJ31" s="2" t="n">
         <v>47</v>
       </c>
+      <c r="IK31" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="32" s="3">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -23940,11 +24033,14 @@
       <c r="II32" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="IJ32" t="n">
+      <c r="IJ32" s="2" t="n">
         <v>1.88</v>
       </c>
+      <c r="IK32" t="n">
+        <v>2.47</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="33" s="3">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -24676,11 +24772,14 @@
       <c r="II33" s="2" t="n">
         <v>3.67</v>
       </c>
-      <c r="IJ33" t="n">
+      <c r="IJ33" s="2" t="n">
         <v>4.27</v>
       </c>
+      <c r="IK33" t="n">
+        <v>3.92</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="34" s="3">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -25412,11 +25511,14 @@
       <c r="II34" s="2" t="n">
         <v>38.6</v>
       </c>
-      <c r="IJ34" t="n">
+      <c r="IJ34" s="2" t="n">
         <v>40.4</v>
       </c>
+      <c r="IK34" t="n">
+        <v>40.4</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="35" s="3">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -26148,11 +26250,14 @@
       <c r="II35" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="IJ35" t="n">
+      <c r="IJ35" s="2" t="n">
         <v>23.4</v>
       </c>
+      <c r="IK35" t="n">
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="36" s="3">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Height</t>
@@ -26884,11 +26989,14 @@
       <c r="II36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="IJ36" t="n">
+      <c r="IJ36" s="2" t="n">
         <v>188.3</v>
       </c>
+      <c r="IK36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="37" s="3">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -27620,11 +27728,14 @@
       <c r="II37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IJ37" t="n">
+      <c r="IJ37" s="2" t="n">
         <v>86.8</v>
       </c>
+      <c r="IK37" t="n">
+        <v>86.5</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="38" s="3">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Age</t>
@@ -28356,11 +28467,14 @@
       <c r="II38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="IJ38" t="n">
+      <c r="IJ38" s="2" t="n">
         <v>25.66</v>
       </c>
+      <c r="IK38" t="n">
+        <v>26.33</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="39" s="3">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -29092,11 +29206,14 @@
       <c r="II39" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IJ39" t="n">
+      <c r="IJ39" s="2" t="n">
         <v>94.7</v>
       </c>
+      <c r="IK39" t="n">
+        <v>105.8</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="40" s="3">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -29828,11 +29945,14 @@
       <c r="II40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IJ40" t="n">
+      <c r="IJ40" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="IK40" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="41" s="3">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -30564,11 +30684,14 @@
       <c r="II41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ41" t="n">
+      <c r="IJ41" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="IK41" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="42" s="3">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -31300,11 +31423,14 @@
       <c r="II42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IJ42" t="n">
+      <c r="IJ42" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="IK42" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="43" s="3">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -32036,11 +32162,14 @@
       <c r="II43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IJ43" t="n">
+      <c r="IJ43" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="IK43" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="44" s="3">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -32772,11 +32901,14 @@
       <c r="II44" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="IJ44" t="n">
+      <c r="IJ44" s="2" t="n">
         <v>126</v>
       </c>
+      <c r="IK44" t="n">
+        <v>124</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="45" s="3">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -33508,11 +33640,14 @@
       <c r="II45" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IJ45" t="n">
+      <c r="IJ45" s="2" t="n">
         <v>257</v>
       </c>
+      <c r="IK45" t="n">
+        <v>270</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="46" s="3">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -34244,11 +34379,14 @@
       <c r="II46" s="2" t="n">
         <v>252</v>
       </c>
-      <c r="IJ46" t="n">
+      <c r="IJ46" s="2" t="n">
         <v>290</v>
       </c>
+      <c r="IK46" t="n">
+        <v>310</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="47" s="3">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -34980,11 +35118,14 @@
       <c r="II47" s="2" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="IJ47" t="n">
+      <c r="IJ47" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="IK47" t="n">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="48" s="3">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -35716,11 +35857,14 @@
       <c r="II48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IJ48" t="n">
+      <c r="IJ48" s="2" t="n">
         <v>73</v>
       </c>
+      <c r="IK48" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="49" s="3">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -36452,11 +36596,14 @@
       <c r="II49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IJ49" t="n">
+      <c r="IJ49" s="2" t="n">
         <v>14</v>
       </c>
+      <c r="IK49" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="50" s="3">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -37188,11 +37335,14 @@
       <c r="II50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IJ50" t="n">
+      <c r="IJ50" s="2" t="n">
         <v>18</v>
       </c>
+      <c r="IK50" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="51" s="3">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -37924,11 +38074,14 @@
       <c r="II51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IJ51" t="n">
+      <c r="IJ51" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IK51" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="52" s="3">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -38660,11 +38813,14 @@
       <c r="II52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IJ52" t="n">
+      <c r="IJ52" s="2" t="n">
         <v>43</v>
       </c>
+      <c r="IK52" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="53" s="3">
       <c r="A53" s="2" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -39396,11 +39552,14 @@
       <c r="II53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IJ53" s="2" t="n">
         <v>52</v>
       </c>
+      <c r="IK53" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="54" s="3">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -40132,11 +40291,14 @@
       <c r="II54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IJ54" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="IK54" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="55" s="3">
       <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -40868,11 +41030,14 @@
       <c r="II55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IJ55" t="n">
+      <c r="IJ55" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IK55" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="56" s="3">
       <c r="A56" s="2" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -41604,11 +41769,14 @@
       <c r="II56" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IJ56" s="2" t="n">
         <v>72.7</v>
       </c>
+      <c r="IK56" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="57" s="3">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -42340,11 +42508,14 @@
       <c r="II57" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="IJ57" t="n">
+      <c r="IJ57" s="2" t="n">
         <v>203</v>
       </c>
+      <c r="IK57" t="n">
+        <v>198</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="58" s="3">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -43076,11 +43247,14 @@
       <c r="II58" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="IJ58" t="n">
+      <c r="IJ58" s="2" t="n">
         <v>154</v>
       </c>
+      <c r="IK58" t="n">
+        <v>148</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="59" s="3">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -43812,11 +43986,14 @@
       <c r="II59" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="IJ59" t="n">
+      <c r="IJ59" s="2" t="n">
         <v>357</v>
       </c>
+      <c r="IK59" t="n">
+        <v>346</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="60" s="3">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -44548,11 +44725,14 @@
       <c r="II60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IJ60" t="n">
+      <c r="IJ60" s="2" t="n">
         <v>1.32</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.34</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="61" s="3">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -45284,11 +45464,14 @@
       <c r="II61" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IJ61" t="n">
+      <c r="IJ61" s="2" t="n">
         <v>97</v>
       </c>
+      <c r="IK61" t="n">
+        <v>85</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="62" s="3">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -46020,11 +46203,14 @@
       <c r="II62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IJ62" t="n">
+      <c r="IJ62" s="2" t="n">
         <v>43</v>
       </c>
+      <c r="IK62" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="63" s="3">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -46756,11 +46942,14 @@
       <c r="II63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IJ63" s="2" t="n">
         <v>26</v>
       </c>
+      <c r="IK63" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="64" s="3">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -47492,11 +47681,14 @@
       <c r="II64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IJ64" s="2" t="n">
         <v>28</v>
       </c>
+      <c r="IK64" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="65" s="3">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -48228,11 +48420,14 @@
       <c r="II65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IJ65" t="n">
+      <c r="IJ65" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="IK65" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="66" s="3">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -48964,11 +49159,14 @@
       <c r="II66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IJ66" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IK66" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="67" s="3">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -49700,11 +49898,14 @@
       <c r="II67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IJ67" t="n">
+      <c r="IJ67" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="IK67" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="68" s="3">
       <c r="A68" s="2" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -50436,11 +50637,14 @@
       <c r="II68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IJ68" t="n">
+      <c r="IJ68" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="IK68" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="69" s="3">
       <c r="A69" s="2" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -51172,11 +51376,14 @@
       <c r="II69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ69" t="n">
+      <c r="IJ69" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="IK69" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="70" s="3">
       <c r="A70" s="2" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -51908,11 +52115,14 @@
       <c r="II70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IJ70" t="n">
+      <c r="IJ70" s="2" t="n">
         <v>18</v>
       </c>
+      <c r="IK70" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="71" s="3">
       <c r="A71" s="2" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -52644,11 +52854,14 @@
       <c r="II71" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="IJ71" t="n">
+      <c r="IJ71" s="2" t="n">
         <v>50</v>
       </c>
+      <c r="IK71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="72" s="3">
       <c r="A72" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -53380,11 +53593,14 @@
       <c r="II72" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="IJ72" t="n">
+      <c r="IJ72" s="2" t="n">
         <v>39.67</v>
       </c>
+      <c r="IK72" t="n">
+        <v>24.71</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="73" s="3">
       <c r="A73" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -54116,11 +54332,14 @@
       <c r="II73" s="2" t="n">
         <v>15.52</v>
       </c>
-      <c r="IJ73" t="n">
+      <c r="IJ73" s="2" t="n">
         <v>19.83</v>
       </c>
+      <c r="IK73" t="n">
+        <v>16.48</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="74" s="3">
       <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -54852,11 +55071,14 @@
       <c r="II74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IJ74" t="n">
+      <c r="IJ74" s="2" t="n">
         <v>24</v>
       </c>
+      <c r="IK74" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="75" s="3">
       <c r="A75" s="2" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -55588,11 +55810,14 @@
       <c r="II75" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IJ75" t="n">
+      <c r="IJ75" s="2" t="n">
         <v>51</v>
       </c>
+      <c r="IK75" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="76" s="3">
       <c r="A76" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -56324,11 +56549,14 @@
       <c r="II76" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IJ76" t="n">
+      <c r="IJ76" s="2" t="n">
         <v>36</v>
       </c>
+      <c r="IK76" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="77" s="3">
       <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -57060,11 +57288,14 @@
       <c r="II77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IJ77" t="n">
+      <c r="IJ77" s="2" t="n">
         <v>53</v>
       </c>
+      <c r="IK77" t="n">
+        <v>51</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="78" s="3">
       <c r="A78" s="2" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -57796,11 +58027,14 @@
       <c r="II78" s="2" t="n">
         <v>2.17</v>
       </c>
-      <c r="IJ78" t="n">
+      <c r="IJ78" s="2" t="n">
         <v>2.94</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.43</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="79" s="3">
       <c r="A79" s="2" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -58532,11 +58766,14 @@
       <c r="II79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ79" t="n">
+      <c r="IJ79" s="2" t="n">
         <v>5.89</v>
       </c>
+      <c r="IK79" t="n">
+        <v>3.64</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="80" s="3">
       <c r="A80" s="2" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -59268,11 +59505,14 @@
       <c r="II80" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IJ80" t="n">
+      <c r="IJ80" s="2" t="n">
         <v>30.2</v>
       </c>
+      <c r="IK80" t="n">
+        <v>41.2</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="81" s="3">
       <c r="A81" s="2" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -60004,11 +60244,14 @@
       <c r="II81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IJ81" t="n">
+      <c r="IJ81" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="IK81" t="n">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="82" s="3">
       <c r="A82" s="2" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -60740,11 +60983,14 @@
       <c r="II82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="IJ82" t="n">
+      <c r="IJ82" s="2" t="n">
         <v>187.9</v>
       </c>
+      <c r="IK82" t="n">
+        <v>187</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="83" s="3">
       <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -61476,11 +61722,14 @@
       <c r="II83" s="2" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="IJ83" t="n">
+      <c r="IJ83" s="2" t="n">
         <v>86.2</v>
       </c>
+      <c r="IK83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="84" s="3">
       <c r="A84" s="2" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -62212,11 +62461,14 @@
       <c r="II84" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="IJ84" t="n">
+      <c r="IJ84" s="2" t="n">
         <v>24.58</v>
       </c>
+      <c r="IK84" t="n">
+        <v>24.91</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="85" s="3">
       <c r="A85" s="2" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -62948,11 +63200,14 @@
       <c r="II85" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IJ85" t="n">
+      <c r="IJ85" s="2" t="n">
         <v>85.5</v>
       </c>
+      <c r="IK85" t="n">
+        <v>79.3</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="86" s="3">
       <c r="A86" s="2" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -63684,11 +63939,14 @@
       <c r="II86" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IJ86" t="n">
+      <c r="IJ86" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IK86" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="87" s="3">
       <c r="A87" s="2" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -64420,11 +64678,14 @@
       <c r="II87" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ87" t="n">
+      <c r="IJ87" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="IK87" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="88" s="3">
       <c r="A88" s="2" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -65156,11 +65417,14 @@
       <c r="II88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ88" t="n">
+      <c r="IJ88" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="IK88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="89" s="3">
       <c r="A89" s="2" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -65892,11 +66156,14 @@
       <c r="II89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ89" t="n">
+      <c r="IJ89" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="IK89" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="90" s="3">
       <c r="A90" s="2" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -66628,11 +66895,14 @@
       <c r="II90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IJ90" t="n">
+      <c r="IJ90" s="2" t="n">
         <v>125</v>
       </c>
+      <c r="IK90" t="n">
+        <v>120</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="91" s="3">
       <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -67364,11 +67634,14 @@
       <c r="II91" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="IJ91" t="n">
+      <c r="IJ91" s="2" t="n">
         <v>223</v>
       </c>
+      <c r="IK91" t="n">
+        <v>218</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="92" s="3">
       <c r="A92" s="2" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -68100,11 +68373,14 @@
       <c r="II92" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="IJ92" t="n">
+      <c r="IJ92" s="2" t="n">
         <v>267</v>
       </c>
+      <c r="IK92" t="n">
+        <v>268</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="93" s="3">
       <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -68836,11 +69112,14 @@
       <c r="II93" s="2" t="n">
         <v>72.3</v>
       </c>
-      <c r="IJ93" t="n">
+      <c r="IJ93" s="2" t="n">
         <v>74.8</v>
       </c>
+      <c r="IK93" t="n">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="94" s="3">
       <c r="A94" s="2" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -69572,11 +69851,14 @@
       <c r="II94" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IJ94" t="n">
+      <c r="IJ94" s="2" t="n">
         <v>51</v>
       </c>
+      <c r="IK94" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="95" s="3">
       <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -70308,11 +70590,14 @@
       <c r="II95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IJ95" t="n">
+      <c r="IJ95" s="2" t="n">
         <v>14</v>
       </c>
+      <c r="IK95" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="96" s="3">
       <c r="A96" s="2" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -71044,11 +71329,14 @@
       <c r="II96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IJ96" t="n">
+      <c r="IJ96" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IK96" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="97" s="3">
       <c r="A97" s="2" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -71780,11 +72068,14 @@
       <c r="II97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IJ97" t="n">
+      <c r="IJ97" s="2" t="n">
         <v>24</v>
       </c>
+      <c r="IK97" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="98" s="3">
       <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -72516,11 +72807,14 @@
       <c r="II98" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IJ98" t="n">
+      <c r="IJ98" s="2" t="n">
         <v>36</v>
       </c>
+      <c r="IK98" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="99" s="3">
       <c r="A99" s="2" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -73252,11 +73546,14 @@
       <c r="II99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IJ99" t="n">
+      <c r="IJ99" s="2" t="n">
         <v>46</v>
       </c>
+      <c r="IK99" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="100" s="3">
       <c r="A100" s="2" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -73988,11 +74285,14 @@
       <c r="II100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ100" t="n">
+      <c r="IJ100" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="IK100" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="101" s="3">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -74724,11 +75024,14 @@
       <c r="II101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IJ101" t="n">
+      <c r="IJ101" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="IK101" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="3">
+    <row customHeight="1" ht="13.8" r="102" s="3">
       <c r="A102" s="2" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -75460,13 +75763,16 @@
       <c r="II102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IJ102" t="n">
+      <c r="IJ102" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IK102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,34 +59,34 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -380,19 +380,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HZ1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="IN24" activeCellId="0" pane="topLeft" sqref="IN24"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1016" min="1" style="2" width="8.529999999999999"/>
-    <col customWidth="1" max="1025" min="1017" style="2" width="9.140000000000001"/>
+    <col width="8.529999999999999" customWidth="1" style="2" min="1" max="1016"/>
+    <col width="9.140000000000001" customWidth="1" style="2" min="1017" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="3">
+    <row r="1" ht="13.8" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1127,11 +1127,14 @@
       <c r="IJ1" s="2" t="n">
         <v>10432</v>
       </c>
-      <c r="IK1" t="n">
+      <c r="IK1" s="2" t="n">
         <v>10446</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10453</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="3">
+    <row r="2" ht="13.8" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1866,11 +1869,14 @@
       <c r="IJ2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IK2" s="2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="3">
+    <row r="3" ht="13.8" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2605,11 +2611,14 @@
       <c r="IJ3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IK3" s="2" t="n">
         <v>15</v>
       </c>
+      <c r="IL3" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="3">
+    <row r="4" ht="13.8" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3344,11 +3353,14 @@
       <c r="IJ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IK4" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="IL4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="3">
+    <row r="5" ht="13.8" customHeight="1" s="3">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -4083,11 +4095,14 @@
       <c r="IJ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IK5" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="3">
+    <row r="6" ht="13.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4822,11 +4837,14 @@
       <c r="IJ6" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IK6" s="2" t="n">
         <v>79</v>
       </c>
+      <c r="IL6" t="n">
+        <v>61</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="3">
+    <row r="7" ht="13.8" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5561,11 +5579,14 @@
       <c r="IJ7" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IK7" s="2" t="n">
         <v>91</v>
       </c>
+      <c r="IL7" t="n">
+        <v>70</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="3">
+    <row r="8" ht="13.8" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6300,11 +6321,14 @@
       <c r="IJ8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK8" t="n">
+      <c r="IK8" s="2" t="n">
         <v>-12</v>
       </c>
+      <c r="IL8" t="n">
+        <v>-9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="3">
+    <row r="9" ht="13.8" customHeight="1" s="3">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -7039,11 +7063,14 @@
       <c r="IJ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK9" t="n">
+      <c r="IK9" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="IL9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="3">
+    <row r="10" ht="13.8" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7778,11 +7805,14 @@
       <c r="IJ10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK10" t="n">
+      <c r="IK10" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="IL10" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="3">
+    <row r="11" ht="13.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8517,11 +8547,14 @@
       <c r="IJ11" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="IK11" t="n">
+      <c r="IK11" s="2" t="n">
         <v>238</v>
       </c>
+      <c r="IL11" t="n">
+        <v>213</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="3">
+    <row r="12" ht="13.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -9256,11 +9289,14 @@
       <c r="IJ12" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="IK12" t="n">
+      <c r="IK12" s="2" t="n">
         <v>162</v>
       </c>
+      <c r="IL12" t="n">
+        <v>164</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="3">
+    <row r="13" ht="13.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9995,11 +10031,14 @@
       <c r="IJ13" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="IK13" t="n">
+      <c r="IK13" s="2" t="n">
         <v>400</v>
       </c>
+      <c r="IL13" t="n">
+        <v>377</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="3">
+    <row r="14" ht="13.8" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10734,11 +10773,14 @@
       <c r="IJ14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="IK14" t="n">
+      <c r="IK14" s="2" t="n">
         <v>1.47</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="3">
+    <row r="15" ht="13.8" customHeight="1" s="3">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -11473,11 +11515,14 @@
       <c r="IJ15" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="IK15" t="n">
+      <c r="IK15" s="2" t="n">
         <v>129</v>
       </c>
+      <c r="IL15" t="n">
+        <v>94</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="3">
+    <row r="16" ht="13.8" customHeight="1" s="3">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -12212,11 +12257,14 @@
       <c r="IJ16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IK16" t="n">
+      <c r="IK16" s="2" t="n">
         <v>56</v>
       </c>
+      <c r="IL16" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="3">
+    <row r="17" ht="13.8" customHeight="1" s="3">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12951,11 +12999,14 @@
       <c r="IJ17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IK17" t="n">
+      <c r="IK17" s="2" t="n">
         <v>29</v>
       </c>
+      <c r="IL17" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="3">
+    <row r="18" ht="13.8" customHeight="1" s="3">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13690,11 +13741,14 @@
       <c r="IJ18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK18" t="n">
+      <c r="IK18" s="2" t="n">
         <v>21</v>
       </c>
+      <c r="IL18" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="3">
+    <row r="19" ht="13.8" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -14429,11 +14483,14 @@
       <c r="IJ19" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IK19" t="n">
+      <c r="IK19" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="IL19" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="3">
+    <row r="20" ht="13.8" customHeight="1" s="3">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -15168,11 +15225,14 @@
       <c r="IJ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK20" t="n">
+      <c r="IK20" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="IL20" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="3">
+    <row r="21" ht="13.8" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15907,11 +15967,14 @@
       <c r="IJ21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK21" t="n">
+      <c r="IK21" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IL21" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="3">
+    <row r="22" ht="13.8" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -16646,11 +16709,14 @@
       <c r="IJ22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK22" t="n">
+      <c r="IK22" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="IL22" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="3">
+    <row r="23" ht="13.8" customHeight="1" s="3">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -17385,11 +17451,14 @@
       <c r="IJ23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK23" t="n">
+      <c r="IK23" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="IL23" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="3">
+    <row r="24" ht="13.8" customHeight="1" s="3">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -18124,11 +18193,14 @@
       <c r="IJ24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IK24" t="n">
+      <c r="IK24" s="2" t="n">
         <v>19</v>
       </c>
+      <c r="IL24" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="3">
+    <row r="25" ht="13.8" customHeight="1" s="3">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18863,11 +18935,14 @@
       <c r="IJ25" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IK25" t="n">
+      <c r="IK25" s="2" t="n">
         <v>63.2</v>
       </c>
+      <c r="IL25" t="n">
+        <v>38.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="3">
+    <row r="26" ht="13.8" customHeight="1" s="3">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -19602,11 +19677,14 @@
       <c r="IJ26" s="2" t="n">
         <v>35.91</v>
       </c>
-      <c r="IK26" t="n">
+      <c r="IK26" s="2" t="n">
         <v>33.33</v>
       </c>
+      <c r="IL26" t="n">
+        <v>47.12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="3">
+    <row r="27" ht="13.8" customHeight="1" s="3">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -20341,11 +20419,14 @@
       <c r="IJ27" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="IK27" t="n">
+      <c r="IK27" s="2" t="n">
         <v>21.05</v>
       </c>
+      <c r="IL27" t="n">
+        <v>17.95</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="3">
+    <row r="28" ht="13.8" customHeight="1" s="3">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -21080,11 +21161,14 @@
       <c r="IJ28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IK28" t="n">
+      <c r="IK28" s="2" t="n">
         <v>23</v>
       </c>
+      <c r="IL28" t="n">
+        <v>33</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="3">
+    <row r="29" ht="13.8" customHeight="1" s="3">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -21819,11 +21903,14 @@
       <c r="IJ29" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IK29" t="n">
+      <c r="IK29" s="2" t="n">
         <v>54</v>
       </c>
+      <c r="IL29" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="3">
+    <row r="30" ht="13.8" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -22558,11 +22645,14 @@
       <c r="IJ30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK30" t="n">
+      <c r="IK30" s="2" t="n">
         <v>36</v>
       </c>
+      <c r="IL30" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="3">
+    <row r="31" ht="13.8" customHeight="1" s="3">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -23297,11 +23387,14 @@
       <c r="IJ31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IK31" t="n">
+      <c r="IK31" s="2" t="n">
         <v>47</v>
       </c>
+      <c r="IL31" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="3">
+    <row r="32" ht="13.8" customHeight="1" s="3">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -24036,11 +24129,14 @@
       <c r="IJ32" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="IK32" t="n">
+      <c r="IK32" s="2" t="n">
         <v>2.47</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="3">
+    <row r="33" ht="13.8" customHeight="1" s="3">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -24775,11 +24871,14 @@
       <c r="IJ33" s="2" t="n">
         <v>4.27</v>
       </c>
-      <c r="IK33" t="n">
+      <c r="IK33" s="2" t="n">
         <v>3.92</v>
       </c>
+      <c r="IL33" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="3">
+    <row r="34" ht="13.8" customHeight="1" s="3">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -25514,11 +25613,14 @@
       <c r="IJ34" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="IK34" t="n">
+      <c r="IK34" s="2" t="n">
         <v>40.4</v>
       </c>
+      <c r="IL34" t="n">
+        <v>39.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="3">
+    <row r="35" ht="13.8" customHeight="1" s="3">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -26253,11 +26355,14 @@
       <c r="IJ35" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="IK35" t="n">
+      <c r="IK35" s="2" t="n">
         <v>25.5</v>
       </c>
+      <c r="IL35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="3">
+    <row r="36" ht="13.8" customHeight="1" s="3">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Height</t>
@@ -26992,11 +27097,14 @@
       <c r="IJ36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="IK36" t="n">
+      <c r="IK36" s="2" t="n">
         <v>188.3</v>
       </c>
+      <c r="IL36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="3">
+    <row r="37" ht="13.8" customHeight="1" s="3">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -27731,11 +27839,14 @@
       <c r="IJ37" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IK37" t="n">
+      <c r="IK37" s="2" t="n">
         <v>86.5</v>
       </c>
+      <c r="IL37" t="n">
+        <v>87</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="3">
+    <row r="38" ht="13.8" customHeight="1" s="3">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Age</t>
@@ -28470,11 +28581,14 @@
       <c r="IJ38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="IK38" t="n">
+      <c r="IK38" s="2" t="n">
         <v>26.33</v>
       </c>
+      <c r="IL38" t="n">
+        <v>26.41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="3">
+    <row r="39" ht="13.8" customHeight="1" s="3">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -29209,11 +29323,14 @@
       <c r="IJ39" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="IK39" t="n">
+      <c r="IK39" s="2" t="n">
         <v>105.8</v>
       </c>
+      <c r="IL39" t="n">
+        <v>108.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="3">
+    <row r="40" ht="13.8" customHeight="1" s="3">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -29948,11 +30065,14 @@
       <c r="IJ40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK40" t="n">
+      <c r="IK40" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IL40" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="3">
+    <row r="41" ht="13.8" customHeight="1" s="3">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -30687,11 +30807,14 @@
       <c r="IJ41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK41" t="n">
+      <c r="IK41" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="IL41" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="3">
+    <row r="42" ht="13.8" customHeight="1" s="3">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -31426,11 +31549,14 @@
       <c r="IJ42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK42" t="n">
+      <c r="IK42" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="IL42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="3">
+    <row r="43" ht="13.8" customHeight="1" s="3">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -32165,11 +32291,14 @@
       <c r="IJ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK43" t="n">
+      <c r="IK43" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IL43" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="3">
+    <row r="44" ht="13.8" customHeight="1" s="3">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -32904,11 +33033,14 @@
       <c r="IJ44" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="IK44" t="n">
+      <c r="IK44" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="IL44" t="n">
+        <v>132</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="3">
+    <row r="45" ht="13.8" customHeight="1" s="3">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -33643,11 +33775,14 @@
       <c r="IJ45" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="IK45" t="n">
+      <c r="IK45" s="2" t="n">
         <v>270</v>
       </c>
+      <c r="IL45" t="n">
+        <v>241</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="3">
+    <row r="46" ht="13.8" customHeight="1" s="3">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -34382,11 +34517,14 @@
       <c r="IJ46" s="2" t="n">
         <v>290</v>
       </c>
-      <c r="IK46" t="n">
+      <c r="IK46" s="2" t="n">
         <v>310</v>
       </c>
+      <c r="IL46" t="n">
+        <v>278</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="3">
+    <row r="47" ht="13.8" customHeight="1" s="3">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -35121,11 +35259,14 @@
       <c r="IJ47" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="IK47" t="n">
+      <c r="IK47" s="2" t="n">
         <v>77.5</v>
       </c>
+      <c r="IL47" t="n">
+        <v>73.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="3">
+    <row r="48" ht="13.8" customHeight="1" s="3">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -35860,11 +36001,14 @@
       <c r="IJ48" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IK48" t="n">
+      <c r="IK48" s="2" t="n">
         <v>54</v>
       </c>
+      <c r="IL48" t="n">
+        <v>57</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="3">
+    <row r="49" ht="13.8" customHeight="1" s="3">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -36599,11 +36743,14 @@
       <c r="IJ49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IK49" t="n">
+      <c r="IK49" s="2" t="n">
         <v>16</v>
       </c>
+      <c r="IL49" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="3">
+    <row r="50" ht="13.8" customHeight="1" s="3">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -37338,11 +37485,14 @@
       <c r="IJ50" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IK50" t="n">
+      <c r="IK50" s="2" t="n">
         <v>14</v>
       </c>
+      <c r="IL50" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="3">
+    <row r="51" ht="13.8" customHeight="1" s="3">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -38077,11 +38227,14 @@
       <c r="IJ51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IK51" t="n">
+      <c r="IK51" s="2" t="n">
         <v>23</v>
       </c>
+      <c r="IL51" t="n">
+        <v>33</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="3">
+    <row r="52" ht="13.8" customHeight="1" s="3">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -38816,11 +38969,14 @@
       <c r="IJ52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK52" t="n">
+      <c r="IK52" s="2" t="n">
         <v>36</v>
       </c>
+      <c r="IL52" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="3">
+    <row r="53" ht="13.8" customHeight="1" s="3">
       <c r="A53" s="2" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -39555,11 +39711,14 @@
       <c r="IJ53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IK53" s="2" t="n">
         <v>36</v>
       </c>
+      <c r="IL53" t="n">
+        <v>64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="3">
+    <row r="54" ht="13.8" customHeight="1" s="3">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -40294,11 +40453,14 @@
       <c r="IJ54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IK54" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="IL54" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="3">
+    <row r="55" ht="13.8" customHeight="1" s="3">
       <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -41033,11 +41195,14 @@
       <c r="IJ55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK55" t="n">
+      <c r="IK55" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IL55" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="3">
+    <row r="56" ht="13.8" customHeight="1" s="3">
       <c r="A56" s="2" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -41772,11 +41937,14 @@
       <c r="IJ56" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IK56" s="2" t="n">
         <v>75</v>
       </c>
+      <c r="IL56" t="n">
+        <v>75</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="3">
+    <row r="57" ht="13.8" customHeight="1" s="3">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -42511,11 +42679,14 @@
       <c r="IJ57" s="2" t="n">
         <v>203</v>
       </c>
-      <c r="IK57" t="n">
+      <c r="IK57" s="2" t="n">
         <v>198</v>
       </c>
+      <c r="IL57" t="n">
+        <v>260</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="3">
+    <row r="58" ht="13.8" customHeight="1" s="3">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -43250,11 +43421,14 @@
       <c r="IJ58" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="IK58" t="n">
+      <c r="IK58" s="2" t="n">
         <v>148</v>
       </c>
+      <c r="IL58" t="n">
+        <v>150</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="3">
+    <row r="59" ht="13.8" customHeight="1" s="3">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -43989,11 +44163,14 @@
       <c r="IJ59" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="IK59" t="n">
+      <c r="IK59" s="2" t="n">
         <v>346</v>
       </c>
+      <c r="IL59" t="n">
+        <v>410</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="3">
+    <row r="60" ht="13.8" customHeight="1" s="3">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -44728,11 +44905,14 @@
       <c r="IJ60" s="2" t="n">
         <v>1.32</v>
       </c>
-      <c r="IK60" t="n">
+      <c r="IK60" s="2" t="n">
         <v>1.34</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.73</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="3">
+    <row r="61" ht="13.8" customHeight="1" s="3">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -45467,11 +45647,14 @@
       <c r="IJ61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IK61" t="n">
+      <c r="IK61" s="2" t="n">
         <v>85</v>
       </c>
+      <c r="IL61" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="3">
+    <row r="62" ht="13.8" customHeight="1" s="3">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -46206,11 +46389,14 @@
       <c r="IJ62" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IK62" t="n">
+      <c r="IK62" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IL62" t="n">
+        <v>70</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="3">
+    <row r="63" ht="13.8" customHeight="1" s="3">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -46945,11 +47131,14 @@
       <c r="IJ63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IK63" s="2" t="n">
         <v>20</v>
       </c>
+      <c r="IL63" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="3">
+    <row r="64" ht="13.8" customHeight="1" s="3">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -47684,11 +47873,14 @@
       <c r="IJ64" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IK64" s="2" t="n">
         <v>17</v>
       </c>
+      <c r="IL64" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="3">
+    <row r="65" ht="13.8" customHeight="1" s="3">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -48423,11 +48615,14 @@
       <c r="IJ65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK65" t="n">
+      <c r="IK65" s="2" t="n">
         <v>21</v>
       </c>
+      <c r="IL65" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="3">
+    <row r="66" ht="13.8" customHeight="1" s="3">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -49162,11 +49357,14 @@
       <c r="IJ66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IK66" s="2" t="n">
         <v>14</v>
       </c>
+      <c r="IL66" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="3">
+    <row r="67" ht="13.8" customHeight="1" s="3">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -49901,11 +50099,14 @@
       <c r="IJ67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK67" t="n">
+      <c r="IK67" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="IL67" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="3">
+    <row r="68" ht="13.8" customHeight="1" s="3">
       <c r="A68" s="2" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -50640,11 +50841,14 @@
       <c r="IJ68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK68" t="n">
+      <c r="IK68" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="IL68" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="3">
+    <row r="69" ht="13.8" customHeight="1" s="3">
       <c r="A69" s="2" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -51379,11 +51583,14 @@
       <c r="IJ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK69" t="n">
+      <c r="IK69" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="IL69" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="3">
+    <row r="70" ht="13.8" customHeight="1" s="3">
       <c r="A70" s="2" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -52118,11 +52325,14 @@
       <c r="IJ70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IK70" t="n">
+      <c r="IK70" s="2" t="n">
         <v>21</v>
       </c>
+      <c r="IL70" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="3">
+    <row r="71" ht="13.8" customHeight="1" s="3">
       <c r="A71" s="2" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -52857,11 +53067,14 @@
       <c r="IJ71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IK71" t="n">
+      <c r="IK71" s="2" t="n">
         <v>66.7</v>
       </c>
+      <c r="IL71" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="3">
+    <row r="72" ht="13.8" customHeight="1" s="3">
       <c r="A72" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -53596,11 +53809,14 @@
       <c r="IJ72" s="2" t="n">
         <v>39.67</v>
       </c>
-      <c r="IK72" t="n">
+      <c r="IK72" s="2" t="n">
         <v>24.71</v>
       </c>
+      <c r="IL72" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="3">
+    <row r="73" ht="13.8" customHeight="1" s="3">
       <c r="A73" s="2" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -54335,11 +54551,14 @@
       <c r="IJ73" s="2" t="n">
         <v>19.83</v>
       </c>
-      <c r="IK73" t="n">
+      <c r="IK73" s="2" t="n">
         <v>16.48</v>
       </c>
+      <c r="IL73" t="n">
+        <v>20.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="3">
+    <row r="74" ht="13.8" customHeight="1" s="3">
       <c r="A74" s="2" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -55074,11 +55293,14 @@
       <c r="IJ74" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IK74" t="n">
+      <c r="IK74" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IL74" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="3">
+    <row r="75" ht="13.8" customHeight="1" s="3">
       <c r="A75" s="2" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -55813,11 +56035,14 @@
       <c r="IJ75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK75" t="n">
+      <c r="IK75" s="2" t="n">
         <v>52</v>
       </c>
+      <c r="IL75" t="n">
+        <v>69</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="3">
+    <row r="76" ht="13.8" customHeight="1" s="3">
       <c r="A76" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -56552,11 +56777,14 @@
       <c r="IJ76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IK76" t="n">
+      <c r="IK76" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IL76" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="3">
+    <row r="77" ht="13.8" customHeight="1" s="3">
       <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -57291,11 +57519,14 @@
       <c r="IJ77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IK77" t="n">
+      <c r="IK77" s="2" t="n">
         <v>51</v>
       </c>
+      <c r="IL77" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="3">
+    <row r="78" ht="13.8" customHeight="1" s="3">
       <c r="A78" s="2" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -58030,11 +58261,14 @@
       <c r="IJ78" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="IK78" t="n">
+      <c r="IK78" s="2" t="n">
         <v>2.43</v>
       </c>
+      <c r="IL78" t="n">
+        <v>2.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="3">
+    <row r="79" ht="13.8" customHeight="1" s="3">
       <c r="A79" s="2" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -58769,11 +59003,14 @@
       <c r="IJ79" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="IK79" t="n">
+      <c r="IK79" s="2" t="n">
         <v>3.64</v>
       </c>
+      <c r="IL79" t="n">
+        <v>5.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="3">
+    <row r="80" ht="13.8" customHeight="1" s="3">
       <c r="A80" s="2" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -59508,11 +59745,14 @@
       <c r="IJ80" s="2" t="n">
         <v>30.2</v>
       </c>
-      <c r="IK80" t="n">
+      <c r="IK80" s="2" t="n">
         <v>41.2</v>
       </c>
+      <c r="IL80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="3">
+    <row r="81" ht="13.8" customHeight="1" s="3">
       <c r="A81" s="2" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -60247,11 +60487,14 @@
       <c r="IJ81" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IK81" t="n">
+      <c r="IK81" s="2" t="n">
         <v>27.5</v>
       </c>
+      <c r="IL81" t="n">
+        <v>18.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="3">
+    <row r="82" ht="13.8" customHeight="1" s="3">
       <c r="A82" s="2" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -60986,11 +61229,14 @@
       <c r="IJ82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="IK82" t="n">
+      <c r="IK82" s="2" t="n">
         <v>187</v>
       </c>
+      <c r="IL82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="3">
+    <row r="83" ht="13.8" customHeight="1" s="3">
       <c r="A83" s="2" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -61725,11 +61971,14 @@
       <c r="IJ83" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="IK83" t="n">
+      <c r="IK83" s="2" t="n">
         <v>87.2</v>
       </c>
+      <c r="IL83" t="n">
+        <v>85.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="3">
+    <row r="84" ht="13.8" customHeight="1" s="3">
       <c r="A84" s="2" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -62464,11 +62713,14 @@
       <c r="IJ84" s="2" t="n">
         <v>24.58</v>
       </c>
-      <c r="IK84" t="n">
+      <c r="IK84" s="2" t="n">
         <v>24.91</v>
       </c>
+      <c r="IL84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="3">
+    <row r="85" ht="13.8" customHeight="1" s="3">
       <c r="A85" s="2" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -63203,11 +63455,14 @@
       <c r="IJ85" s="2" t="n">
         <v>85.5</v>
       </c>
-      <c r="IK85" t="n">
+      <c r="IK85" s="2" t="n">
         <v>79.3</v>
       </c>
+      <c r="IL85" t="n">
+        <v>90</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="3">
+    <row r="86" ht="13.8" customHeight="1" s="3">
       <c r="A86" s="2" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -63942,11 +64197,14 @@
       <c r="IJ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK86" t="n">
+      <c r="IK86" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IL86" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="3">
+    <row r="87" ht="13.8" customHeight="1" s="3">
       <c r="A87" s="2" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -64681,11 +64939,14 @@
       <c r="IJ87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK87" t="n">
+      <c r="IK87" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IL87" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="3">
+    <row r="88" ht="13.8" customHeight="1" s="3">
       <c r="A88" s="2" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -65420,11 +65681,14 @@
       <c r="IJ88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK88" t="n">
+      <c r="IK88" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="IL88" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="3">
+    <row r="89" ht="13.8" customHeight="1" s="3">
       <c r="A89" s="2" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -66159,11 +66423,14 @@
       <c r="IJ89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IK89" t="n">
+      <c r="IK89" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="IL89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="3">
+    <row r="90" ht="13.8" customHeight="1" s="3">
       <c r="A90" s="2" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -66898,11 +67165,14 @@
       <c r="IJ90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IK90" t="n">
+      <c r="IK90" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="IL90" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="3">
+    <row r="91" ht="13.8" customHeight="1" s="3">
       <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -67637,11 +67907,14 @@
       <c r="IJ91" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IK91" t="n">
+      <c r="IK91" s="2" t="n">
         <v>218</v>
       </c>
+      <c r="IL91" t="n">
+        <v>256</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="3">
+    <row r="92" ht="13.8" customHeight="1" s="3">
       <c r="A92" s="2" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -68376,11 +68649,14 @@
       <c r="IJ92" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="IK92" t="n">
+      <c r="IK92" s="2" t="n">
         <v>268</v>
       </c>
+      <c r="IL92" t="n">
+        <v>299</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="3">
+    <row r="93" ht="13.8" customHeight="1" s="3">
       <c r="A93" s="2" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -69115,11 +69391,14 @@
       <c r="IJ93" s="2" t="n">
         <v>74.8</v>
       </c>
-      <c r="IK93" t="n">
+      <c r="IK93" s="2" t="n">
         <v>77.5</v>
       </c>
+      <c r="IL93" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="3">
+    <row r="94" ht="13.8" customHeight="1" s="3">
       <c r="A94" s="2" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -69854,11 +70133,14 @@
       <c r="IJ94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IK94" t="n">
+      <c r="IK94" s="2" t="n">
         <v>52</v>
       </c>
+      <c r="IL94" t="n">
+        <v>69</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="3">
+    <row r="95" ht="13.8" customHeight="1" s="3">
       <c r="A95" s="2" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -70593,11 +70875,14 @@
       <c r="IJ95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IK95" t="n">
+      <c r="IK95" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="IL95" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="3">
+    <row r="96" ht="13.8" customHeight="1" s="3">
       <c r="A96" s="2" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -71332,11 +71617,14 @@
       <c r="IJ96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK96" t="n">
+      <c r="IK96" s="2" t="n">
         <v>9</v>
       </c>
+      <c r="IL96" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="3">
+    <row r="97" ht="13.8" customHeight="1" s="3">
       <c r="A97" s="2" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -72071,11 +72359,14 @@
       <c r="IJ97" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IK97" t="n">
+      <c r="IK97" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IL97" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="3">
+    <row r="98" ht="13.8" customHeight="1" s="3">
       <c r="A98" s="2" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -72810,11 +73101,14 @@
       <c r="IJ98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IK98" t="n">
+      <c r="IK98" s="2" t="n">
         <v>34</v>
       </c>
+      <c r="IL98" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="3">
+    <row r="99" ht="13.8" customHeight="1" s="3">
       <c r="A99" s="2" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -73549,11 +73843,14 @@
       <c r="IJ99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IK99" t="n">
+      <c r="IK99" s="2" t="n">
         <v>54</v>
       </c>
+      <c r="IL99" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="3">
+    <row r="100" ht="13.8" customHeight="1" s="3">
       <c r="A100" s="2" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -74288,11 +74585,14 @@
       <c r="IJ100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK100" t="n">
+      <c r="IK100" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="IL100" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="3">
+    <row r="101" ht="13.8" customHeight="1" s="3">
       <c r="A101" s="2" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -75027,11 +75327,14 @@
       <c r="IJ101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK101" t="n">
+      <c r="IK101" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="IL101" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="3">
+    <row r="102" ht="13.8" customHeight="1" s="3">
       <c r="A102" s="2" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -75766,13 +76069,16 @@
       <c r="IJ102" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="IK102" t="n">
+      <c r="IK102" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1130,8 +1130,11 @@
       <c r="IK1" s="2" t="n">
         <v>10446</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="2" t="n">
         <v>10453</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>10467</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1872,7 +1875,10 @@
       <c r="IK2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IM2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2614,8 +2620,11 @@
       <c r="IK3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3356,8 +3365,11 @@
       <c r="IK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4098,7 +4110,10 @@
       <c r="IK5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,8 +4855,11 @@
       <c r="IK6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5582,8 +5600,11 @@
       <c r="IK7" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6324,8 +6345,11 @@
       <c r="IK8" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="2" t="n">
         <v>-9</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7066,8 +7090,11 @@
       <c r="IK9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7808,8 +7835,11 @@
       <c r="IK10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8550,8 +8580,11 @@
       <c r="IK11" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9292,8 +9325,11 @@
       <c r="IK12" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10034,8 +10070,11 @@
       <c r="IK13" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="2" t="n">
         <v>377</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>440</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10776,8 +10815,11 @@
       <c r="IK14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11518,8 +11560,11 @@
       <c r="IK15" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12260,8 +12305,11 @@
       <c r="IK16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13002,8 +13050,11 @@
       <c r="IK17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13744,8 +13795,11 @@
       <c r="IK18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14486,8 +14540,11 @@
       <c r="IK19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15228,8 +15285,11 @@
       <c r="IK20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -15970,8 +16030,11 @@
       <c r="IK21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16712,8 +16775,11 @@
       <c r="IK22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17454,8 +17520,11 @@
       <c r="IK23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18196,8 +18265,11 @@
       <c r="IK24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -18938,8 +19010,11 @@
       <c r="IK25" s="2" t="n">
         <v>63.2</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19680,8 +19755,11 @@
       <c r="IK26" s="2" t="n">
         <v>33.33</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="2" t="n">
         <v>47.12</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>33.85</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20422,8 +20500,11 @@
       <c r="IK27" s="2" t="n">
         <v>21.05</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="2" t="n">
         <v>17.95</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21164,8 +21245,11 @@
       <c r="IK28" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IM28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21906,8 +21990,11 @@
       <c r="IK29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22648,8 +22735,11 @@
       <c r="IK30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23390,8 +23480,11 @@
       <c r="IK31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24132,8 +24225,11 @@
       <c r="IK32" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="2" t="n">
         <v>2.29</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24874,8 +24970,11 @@
       <c r="IK33" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>4.23</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25616,8 +25715,11 @@
       <c r="IK34" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="2" t="n">
         <v>39.6</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26358,8 +26460,11 @@
       <c r="IK35" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="IM35" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27100,8 +27205,11 @@
       <c r="IK36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IM36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27842,8 +27950,11 @@
       <c r="IK37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IM37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28584,8 +28695,11 @@
       <c r="IK38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="IM38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29326,8 +29440,11 @@
       <c r="IK39" s="2" t="n">
         <v>105.8</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="2" t="n">
         <v>108.7</v>
+      </c>
+      <c r="IM39" t="n">
+        <v>106.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30068,8 +30185,11 @@
       <c r="IK40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -30810,8 +30930,11 @@
       <c r="IK41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IM41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31552,7 +31675,10 @@
       <c r="IK42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IM42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32294,7 +32420,10 @@
       <c r="IK43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IM43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33036,8 +33165,11 @@
       <c r="IK44" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33778,8 +33910,11 @@
       <c r="IK45" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34520,8 +34655,11 @@
       <c r="IK46" s="2" t="n">
         <v>310</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="IM46" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35262,8 +35400,11 @@
       <c r="IK47" s="2" t="n">
         <v>77.5</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IM47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36004,8 +36145,11 @@
       <c r="IK48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IM48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36746,8 +36890,11 @@
       <c r="IK49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37488,8 +37635,11 @@
       <c r="IK50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IM50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38230,8 +38380,11 @@
       <c r="IK51" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IM51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -38972,8 +39125,11 @@
       <c r="IK52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39714,8 +39870,11 @@
       <c r="IK53" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40456,8 +40615,11 @@
       <c r="IK54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41198,8 +41360,11 @@
       <c r="IK55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -41940,8 +42105,11 @@
       <c r="IK56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IM56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42682,8 +42850,11 @@
       <c r="IK57" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="IM57" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43424,8 +43595,11 @@
       <c r="IK58" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="IM58" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44166,8 +44340,11 @@
       <c r="IK59" s="2" t="n">
         <v>346</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="2" t="n">
         <v>410</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -44908,8 +45085,11 @@
       <c r="IK60" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="2" t="n">
         <v>1.73</v>
+      </c>
+      <c r="IM60" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45650,8 +45830,11 @@
       <c r="IK61" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46392,8 +46575,11 @@
       <c r="IK62" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IM62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47134,8 +47320,11 @@
       <c r="IK63" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -47876,8 +48065,11 @@
       <c r="IK64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IM64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48618,8 +48810,11 @@
       <c r="IK65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IM65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49360,8 +49555,11 @@
       <c r="IK66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IM66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50102,7 +50300,10 @@
       <c r="IK67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IM67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -50844,8 +51045,11 @@
       <c r="IK68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51586,8 +51790,11 @@
       <c r="IK69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52328,8 +52535,11 @@
       <c r="IK70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IM70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53070,8 +53280,11 @@
       <c r="IK71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -53812,8 +54025,11 @@
       <c r="IK72" s="2" t="n">
         <v>24.71</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>31.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54554,8 +54770,11 @@
       <c r="IK73" s="2" t="n">
         <v>16.48</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="2" t="n">
         <v>20.5</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>21.44</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55296,8 +55515,11 @@
       <c r="IK74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56038,8 +56260,11 @@
       <c r="IK75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -56780,8 +57005,11 @@
       <c r="IK76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57522,8 +57750,11 @@
       <c r="IK77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IM77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58264,8 +58495,11 @@
       <c r="IK78" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="2" t="n">
         <v>2.7</v>
+      </c>
+      <c r="IM78" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59006,8 +59240,11 @@
       <c r="IK79" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="2" t="n">
         <v>5.4</v>
+      </c>
+      <c r="IM79" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59748,8 +59985,11 @@
       <c r="IK80" s="2" t="n">
         <v>41.2</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IM80" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60490,8 +60730,11 @@
       <c r="IK81" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="IM81" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61232,8 +61475,11 @@
       <c r="IK82" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="IM82" t="n">
+        <v>185.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -61974,8 +62220,11 @@
       <c r="IK83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="2" t="n">
         <v>85.2</v>
+      </c>
+      <c r="IM83" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62716,8 +62965,11 @@
       <c r="IK84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IM84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63458,8 +63710,11 @@
       <c r="IK85" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IM85" t="n">
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64200,8 +64455,11 @@
       <c r="IK86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -64942,8 +65200,11 @@
       <c r="IK87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65684,8 +65945,11 @@
       <c r="IK88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66426,8 +66690,11 @@
       <c r="IK89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IM89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67168,8 +67435,11 @@
       <c r="IK90" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="IM90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -67910,8 +68180,11 @@
       <c r="IK91" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="IM91" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68652,8 +68925,11 @@
       <c r="IK92" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="2" t="n">
         <v>299</v>
+      </c>
+      <c r="IM92" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69394,8 +69670,11 @@
       <c r="IK93" s="2" t="n">
         <v>77.5</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="2" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="IM93" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70136,8 +70415,11 @@
       <c r="IK94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IM94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -70878,8 +71160,11 @@
       <c r="IK95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IM95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71620,8 +71905,11 @@
       <c r="IK96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IM96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72362,8 +72650,11 @@
       <c r="IK97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IM97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73104,8 +73395,11 @@
       <c r="IK98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IM98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -73846,8 +74140,11 @@
       <c r="IK99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IM99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74588,7 +74885,10 @@
       <c r="IK100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IM100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -75330,7 +75630,10 @@
       <c r="IK101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IM101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -76072,8 +76375,11 @@
       <c r="IK102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IM102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1133,8 +1133,11 @@
       <c r="IL1" s="2" t="n">
         <v>10453</v>
       </c>
-      <c r="IM1" t="n">
+      <c r="IM1" s="2" t="n">
         <v>10467</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10471</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1878,7 +1881,10 @@
       <c r="IL2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IM2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IN2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2623,8 +2629,11 @@
       <c r="IL3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IM3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3368,8 +3377,11 @@
       <c r="IL4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IM4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4113,7 +4125,10 @@
       <c r="IL5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM5" t="n">
+      <c r="IM5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,8 +4873,11 @@
       <c r="IL6" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IM6" t="n">
+      <c r="IM6" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5603,8 +5621,11 @@
       <c r="IL7" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IM7" t="n">
+      <c r="IM7" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6348,8 +6369,11 @@
       <c r="IL8" s="2" t="n">
         <v>-9</v>
       </c>
-      <c r="IM8" t="n">
+      <c r="IM8" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>-29</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7093,8 +7117,11 @@
       <c r="IL9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IM9" t="n">
+      <c r="IM9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7838,8 +7865,11 @@
       <c r="IL10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IM10" t="n">
+      <c r="IM10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8583,8 +8613,11 @@
       <c r="IL11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IM11" t="n">
+      <c r="IM11" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9328,8 +9361,11 @@
       <c r="IL12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="IM12" t="n">
+      <c r="IM12" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10073,8 +10109,11 @@
       <c r="IL13" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="IM13" t="n">
+      <c r="IM13" s="2" t="n">
         <v>440</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10818,8 +10857,11 @@
       <c r="IL14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IM14" t="n">
+      <c r="IM14" s="2" t="n">
         <v>1.2</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11563,8 +11605,11 @@
       <c r="IL15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="IM15" t="n">
+      <c r="IM15" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12308,8 +12353,11 @@
       <c r="IL16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IM16" t="n">
+      <c r="IM16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13053,8 +13101,11 @@
       <c r="IL17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IM17" t="n">
+      <c r="IM17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13798,8 +13849,11 @@
       <c r="IL18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IM18" t="n">
+      <c r="IM18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14543,8 +14597,11 @@
       <c r="IL19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IM19" t="n">
+      <c r="IM19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IN19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15288,8 +15345,11 @@
       <c r="IL20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM20" t="n">
+      <c r="IM20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16033,8 +16093,11 @@
       <c r="IL21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM21" t="n">
+      <c r="IM21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16778,8 +16841,11 @@
       <c r="IL22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IM22" t="n">
+      <c r="IM22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17523,8 +17589,11 @@
       <c r="IL23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM23" t="n">
+      <c r="IM23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18268,8 +18337,11 @@
       <c r="IL24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IM24" t="n">
+      <c r="IM24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19013,8 +19085,11 @@
       <c r="IL25" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="IM25" t="n">
+      <c r="IM25" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19758,8 +19833,11 @@
       <c r="IL26" s="2" t="n">
         <v>47.12</v>
       </c>
-      <c r="IM26" t="n">
+      <c r="IM26" s="2" t="n">
         <v>33.85</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>39.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20503,8 +20581,11 @@
       <c r="IL27" s="2" t="n">
         <v>17.95</v>
       </c>
-      <c r="IM27" t="n">
+      <c r="IM27" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21248,8 +21329,11 @@
       <c r="IL28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IM28" t="n">
+      <c r="IM28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -21993,8 +22077,11 @@
       <c r="IL29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IM29" t="n">
+      <c r="IM29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22738,8 +22825,11 @@
       <c r="IL30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IM30" t="n">
+      <c r="IM30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23483,8 +23573,11 @@
       <c r="IL31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IM31" t="n">
+      <c r="IM31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24228,8 +24321,11 @@
       <c r="IL32" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="IM32" t="n">
+      <c r="IM32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -24973,8 +25069,11 @@
       <c r="IL33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM33" t="n">
+      <c r="IM33" s="2" t="n">
         <v>4.23</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25718,8 +25817,11 @@
       <c r="IL34" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="IM34" t="n">
+      <c r="IM34" s="2" t="n">
         <v>38.2</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26463,8 +26565,11 @@
       <c r="IL35" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="IM35" t="n">
+      <c r="IM35" s="2" t="n">
         <v>23.6</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27208,8 +27313,11 @@
       <c r="IL36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="IM36" t="n">
+      <c r="IM36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IN36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -27953,8 +28061,11 @@
       <c r="IL37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IM37" t="n">
+      <c r="IM37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IN37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28698,8 +28809,11 @@
       <c r="IL38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="IM38" t="n">
+      <c r="IM38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IN38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29443,8 +29557,11 @@
       <c r="IL39" s="2" t="n">
         <v>108.7</v>
       </c>
-      <c r="IM39" t="n">
+      <c r="IM39" s="2" t="n">
         <v>106.8</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>108.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30188,7 +30305,10 @@
       <c r="IL40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM40" t="n">
+      <c r="IM40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IN40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -30933,7 +31053,10 @@
       <c r="IL41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM41" t="n">
+      <c r="IM41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IN41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31678,7 +31801,10 @@
       <c r="IL42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM42" t="n">
+      <c r="IM42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IN42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32423,7 +32549,10 @@
       <c r="IL43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM43" t="n">
+      <c r="IM43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IN43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33168,8 +33297,11 @@
       <c r="IL44" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="IM44" t="n">
+      <c r="IM44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -33913,8 +34045,11 @@
       <c r="IL45" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="IM45" t="n">
+      <c r="IM45" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34658,8 +34793,11 @@
       <c r="IL46" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="IM46" t="n">
+      <c r="IM46" s="2" t="n">
         <v>331</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35403,8 +35541,11 @@
       <c r="IL47" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IM47" t="n">
+      <c r="IM47" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>74.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36148,8 +36289,11 @@
       <c r="IL48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IM48" t="n">
+      <c r="IM48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -36893,8 +37037,11 @@
       <c r="IL49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM49" t="n">
+      <c r="IM49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37638,8 +37785,11 @@
       <c r="IL50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IM50" t="n">
+      <c r="IM50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38383,8 +38533,11 @@
       <c r="IL51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IM51" t="n">
+      <c r="IM51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39128,8 +39281,11 @@
       <c r="IL52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IM52" t="n">
+      <c r="IM52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -39873,8 +40029,11 @@
       <c r="IL53" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IM53" t="n">
+      <c r="IM53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -40618,8 +40777,11 @@
       <c r="IL54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IM54" t="n">
+      <c r="IM54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41363,8 +41525,11 @@
       <c r="IL55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM55" t="n">
+      <c r="IM55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42108,8 +42273,11 @@
       <c r="IL56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IM56" t="n">
+      <c r="IM56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -42853,8 +43021,11 @@
       <c r="IL57" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IM57" t="n">
+      <c r="IM57" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43598,8 +43769,11 @@
       <c r="IL58" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="IM58" t="n">
+      <c r="IM58" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44343,8 +44517,11 @@
       <c r="IL59" s="2" t="n">
         <v>410</v>
       </c>
-      <c r="IM59" t="n">
+      <c r="IM59" s="2" t="n">
         <v>343</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45088,8 +45265,11 @@
       <c r="IL60" s="2" t="n">
         <v>1.73</v>
       </c>
-      <c r="IM60" t="n">
+      <c r="IM60" s="2" t="n">
         <v>1.13</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -45833,8 +46013,11 @@
       <c r="IL61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IM61" t="n">
+      <c r="IM61" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46578,8 +46761,11 @@
       <c r="IL62" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IM62" t="n">
+      <c r="IM62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47323,8 +47509,11 @@
       <c r="IL63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IM63" t="n">
+      <c r="IM63" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48068,8 +48257,11 @@
       <c r="IL64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IM64" t="n">
+      <c r="IM64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IN64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -48813,8 +49005,11 @@
       <c r="IL65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IM65" t="n">
+      <c r="IM65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49558,8 +49753,11 @@
       <c r="IL66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM66" t="n">
+      <c r="IM66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50303,7 +50501,10 @@
       <c r="IL67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM67" t="n">
+      <c r="IM67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -51048,8 +51249,11 @@
       <c r="IL68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM68" t="n">
+      <c r="IM68" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IN68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -51793,7 +51997,10 @@
       <c r="IL69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM69" t="n">
+      <c r="IM69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -52538,8 +52745,11 @@
       <c r="IL70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IM70" t="n">
+      <c r="IM70" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53283,8 +53493,11 @@
       <c r="IL71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IM71" t="n">
+      <c r="IM71" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54028,8 +54241,11 @@
       <c r="IL72" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IM72" t="n">
+      <c r="IM72" s="2" t="n">
         <v>31.18</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>26.92</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -54773,8 +54989,11 @@
       <c r="IL73" s="2" t="n">
         <v>20.5</v>
       </c>
-      <c r="IM73" t="n">
+      <c r="IM73" s="2" t="n">
         <v>21.44</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>13.46</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55518,8 +55737,11 @@
       <c r="IL74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IM74" t="n">
+      <c r="IM74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56263,8 +56485,11 @@
       <c r="IL75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IM75" t="n">
+      <c r="IM75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57008,8 +57233,11 @@
       <c r="IL76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IM76" t="n">
+      <c r="IM76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -57753,8 +57981,11 @@
       <c r="IL77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IM77" t="n">
+      <c r="IM77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IN77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58498,8 +58729,11 @@
       <c r="IL78" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="IM78" t="n">
+      <c r="IM78" s="2" t="n">
         <v>3.19</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59243,8 +59477,11 @@
       <c r="IL79" s="2" t="n">
         <v>5.4</v>
       </c>
-      <c r="IM79" t="n">
+      <c r="IM79" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -59988,8 +60225,11 @@
       <c r="IL80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IM80" t="n">
+      <c r="IM80" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -60733,8 +60973,11 @@
       <c r="IL81" s="2" t="n">
         <v>18.5</v>
       </c>
-      <c r="IM81" t="n">
+      <c r="IM81" s="2" t="n">
         <v>21.6</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61478,8 +61721,11 @@
       <c r="IL82" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="IM82" t="n">
+      <c r="IM82" s="2" t="n">
         <v>185.2</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62223,8 +62469,11 @@
       <c r="IL83" s="2" t="n">
         <v>85.2</v>
       </c>
-      <c r="IM83" t="n">
+      <c r="IM83" s="2" t="n">
         <v>83.2</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -62968,8 +63217,11 @@
       <c r="IL84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="IM84" t="n">
+      <c r="IM84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -63713,8 +63965,11 @@
       <c r="IL85" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IM85" t="n">
+      <c r="IM85" s="2" t="n">
         <v>97.40000000000001</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64458,8 +64713,11 @@
       <c r="IL86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM86" t="n">
+      <c r="IM86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65203,8 +65461,11 @@
       <c r="IL87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM87" t="n">
+      <c r="IM87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -65948,8 +66209,11 @@
       <c r="IL88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM88" t="n">
+      <c r="IM88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -66693,8 +66957,11 @@
       <c r="IL89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM89" t="n">
+      <c r="IM89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67438,8 +67705,11 @@
       <c r="IL90" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="IM90" t="n">
+      <c r="IM90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68183,8 +68453,11 @@
       <c r="IL91" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="IM91" t="n">
+      <c r="IM91" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -68928,8 +69201,11 @@
       <c r="IL92" s="2" t="n">
         <v>299</v>
       </c>
-      <c r="IM92" t="n">
+      <c r="IM92" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -69673,8 +69949,11 @@
       <c r="IL93" s="2" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="IM93" t="n">
+      <c r="IM93" s="2" t="n">
         <v>75.8</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70418,8 +70697,11 @@
       <c r="IL94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IM94" t="n">
+      <c r="IM94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IN94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71163,8 +71445,11 @@
       <c r="IL95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IM95" t="n">
+      <c r="IM95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -71908,8 +72193,11 @@
       <c r="IL96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IM96" t="n">
+      <c r="IM96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -72653,8 +72941,11 @@
       <c r="IL97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IM97" t="n">
+      <c r="IM97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IN97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73398,8 +73689,11 @@
       <c r="IL98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IM98" t="n">
+      <c r="IM98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74143,8 +74437,11 @@
       <c r="IL99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IM99" t="n">
+      <c r="IM99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -74888,7 +75185,10 @@
       <c r="IL100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM100" t="n">
+      <c r="IM100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IN100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -75633,7 +75933,10 @@
       <c r="IL101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM101" t="n">
+      <c r="IM101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -76378,8 +76681,11 @@
       <c r="IL102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IM102" t="n">
+      <c r="IM102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>46.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1139,8 +1139,11 @@
       <c r="IN1" s="2" t="n">
         <v>10471</v>
       </c>
-      <c r="IO1" t="n">
+      <c r="IO1" s="2" t="n">
         <v>10487</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10534</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1890,7 +1893,10 @@
       <c r="IN2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IO2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IP2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2641,8 +2647,11 @@
       <c r="IN3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IO3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3392,8 +3401,11 @@
       <c r="IN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IO4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4143,7 +4155,10 @@
       <c r="IN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4894,8 +4909,11 @@
       <c r="IN6" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IO6" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5645,8 +5663,11 @@
       <c r="IN7" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IO7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6396,8 +6417,11 @@
       <c r="IN8" s="2" t="n">
         <v>-29</v>
       </c>
-      <c r="IO8" t="n">
+      <c r="IO8" s="2" t="n">
         <v>-28</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7147,8 +7171,11 @@
       <c r="IN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO9" t="n">
+      <c r="IO9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7898,8 +7925,11 @@
       <c r="IN10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO10" t="n">
+      <c r="IO10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8649,8 +8679,11 @@
       <c r="IN11" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="IO11" t="n">
+      <c r="IO11" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9400,8 +9433,11 @@
       <c r="IN12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IO12" t="n">
+      <c r="IO12" s="2" t="n">
         <v>165</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10151,8 +10187,11 @@
       <c r="IN13" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="IO13" t="n">
+      <c r="IO13" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>462</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10902,8 +10941,11 @@
       <c r="IN14" s="2" t="n">
         <v>1.51</v>
       </c>
-      <c r="IO14" t="n">
+      <c r="IO14" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11653,8 +11695,11 @@
       <c r="IN15" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="IO15" t="n">
+      <c r="IO15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12404,8 +12449,11 @@
       <c r="IN16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IO16" t="n">
+      <c r="IO16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13155,8 +13203,11 @@
       <c r="IN17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IO17" t="n">
+      <c r="IO17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13906,8 +13957,11 @@
       <c r="IN18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IO18" t="n">
+      <c r="IO18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14657,8 +14711,11 @@
       <c r="IN19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO19" t="n">
+      <c r="IO19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15408,8 +15465,11 @@
       <c r="IN20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IO20" t="n">
+      <c r="IO20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16159,8 +16219,11 @@
       <c r="IN21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO21" t="n">
+      <c r="IO21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16910,8 +16973,11 @@
       <c r="IN22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO22" t="n">
+      <c r="IO22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17661,7 +17727,10 @@
       <c r="IN23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO23" t="n">
+      <c r="IO23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18412,8 +18481,11 @@
       <c r="IN24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IO24" t="n">
+      <c r="IO24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19163,8 +19235,11 @@
       <c r="IN25" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="IO25" t="n">
+      <c r="IO25" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19914,8 +19989,11 @@
       <c r="IN26" s="2" t="n">
         <v>39.67</v>
       </c>
-      <c r="IO26" t="n">
+      <c r="IO26" s="2" t="n">
         <v>37.9</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20665,8 +20743,11 @@
       <c r="IN27" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IO27" t="n">
+      <c r="IO27" s="2" t="n">
         <v>19.95</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21416,8 +21497,11 @@
       <c r="IN28" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IO28" t="n">
+      <c r="IO28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22167,8 +22251,11 @@
       <c r="IN29" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IO29" t="n">
+      <c r="IO29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -22918,8 +23005,11 @@
       <c r="IN30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO30" t="n">
+      <c r="IO30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23669,8 +23759,11 @@
       <c r="IN31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO31" t="n">
+      <c r="IO31" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24420,8 +24513,11 @@
       <c r="IN32" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="IO32" t="n">
+      <c r="IO32" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25171,8 +25267,11 @@
       <c r="IN33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO33" t="n">
+      <c r="IO33" s="2" t="n">
         <v>3.9</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -25922,8 +26021,11 @@
       <c r="IN34" s="2" t="n">
         <v>31.1</v>
       </c>
-      <c r="IO34" t="n">
+      <c r="IO34" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26673,8 +26775,11 @@
       <c r="IN35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IO35" t="n">
+      <c r="IO35" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27424,8 +27529,11 @@
       <c r="IN36" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="IO36" t="n">
+      <c r="IO36" s="2" t="n">
         <v>189.6</v>
+      </c>
+      <c r="IP36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28175,8 +28283,11 @@
       <c r="IN37" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="IO37" t="n">
+      <c r="IO37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -28926,8 +29037,11 @@
       <c r="IN38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IO38" t="n">
+      <c r="IO38" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29677,8 +29791,11 @@
       <c r="IN39" s="2" t="n">
         <v>108.1</v>
       </c>
-      <c r="IO39" t="n">
+      <c r="IO39" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>104.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30428,8 +30545,11 @@
       <c r="IN40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IO40" t="n">
+      <c r="IO40" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IP40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31179,8 +31299,11 @@
       <c r="IN41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO41" t="n">
+      <c r="IO41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -31930,8 +32053,11 @@
       <c r="IN42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO42" t="n">
+      <c r="IO42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -32681,8 +32807,11 @@
       <c r="IN43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO43" t="n">
+      <c r="IO43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33432,8 +33561,11 @@
       <c r="IN44" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="IO44" t="n">
+      <c r="IO44" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34183,8 +34315,11 @@
       <c r="IN45" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IO45" t="n">
+      <c r="IO45" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -34934,8 +35069,11 @@
       <c r="IN46" s="2" t="n">
         <v>265</v>
       </c>
-      <c r="IO46" t="n">
+      <c r="IO46" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35685,8 +35823,11 @@
       <c r="IN47" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="IO47" t="n">
+      <c r="IO47" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>82.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36436,8 +36577,11 @@
       <c r="IN48" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IO48" t="n">
+      <c r="IO48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37187,8 +37331,11 @@
       <c r="IN49" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO49" t="n">
+      <c r="IO49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -37938,8 +38085,11 @@
       <c r="IN50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IO50" t="n">
+      <c r="IO50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38689,8 +38839,11 @@
       <c r="IN51" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IO51" t="n">
+      <c r="IO51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39440,8 +39593,11 @@
       <c r="IN52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO52" t="n">
+      <c r="IO52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40191,7 +40347,10 @@
       <c r="IN53" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IO53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IP53" t="n">
         <v>42</v>
       </c>
     </row>
@@ -40942,8 +41101,11 @@
       <c r="IN54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IO54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41693,8 +41855,11 @@
       <c r="IN55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO55" t="n">
+      <c r="IO55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42444,8 +42609,11 @@
       <c r="IN56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IO56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43195,8 +43363,11 @@
       <c r="IN57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="IO57" t="n">
+      <c r="IO57" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -43946,8 +44117,11 @@
       <c r="IN58" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IO58" t="n">
+      <c r="IO58" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44697,8 +44871,11 @@
       <c r="IN59" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="IO59" t="n">
+      <c r="IO59" s="2" t="n">
         <v>364</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45448,8 +45625,11 @@
       <c r="IN60" s="2" t="n">
         <v>1.92</v>
       </c>
-      <c r="IO60" t="n">
+      <c r="IO60" s="2" t="n">
         <v>1.14</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46199,8 +46379,11 @@
       <c r="IN61" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="IO61" t="n">
+      <c r="IO61" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -46950,8 +47133,11 @@
       <c r="IN62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IO62" t="n">
+      <c r="IO62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47701,8 +47887,11 @@
       <c r="IN63" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IO63" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48452,8 +48641,11 @@
       <c r="IN64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IO64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IP64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49203,8 +49395,11 @@
       <c r="IN65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IO65" t="n">
+      <c r="IO65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -49954,8 +50149,11 @@
       <c r="IN66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IO66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50705,8 +50903,11 @@
       <c r="IN67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO67" t="n">
+      <c r="IO67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51456,7 +51657,10 @@
       <c r="IN68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO68" t="n">
+      <c r="IO68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IP68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -52207,8 +52411,11 @@
       <c r="IN69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO69" t="n">
+      <c r="IO69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -52958,8 +53165,11 @@
       <c r="IN70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IO70" t="n">
+      <c r="IO70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IP70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53709,8 +53919,11 @@
       <c r="IN71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IO71" t="n">
+      <c r="IO71" s="2" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54460,8 +54673,11 @@
       <c r="IN72" s="2" t="n">
         <v>26.92</v>
       </c>
-      <c r="IO72" t="n">
+      <c r="IO72" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55211,8 +55427,11 @@
       <c r="IN73" s="2" t="n">
         <v>13.46</v>
       </c>
-      <c r="IO73" t="n">
+      <c r="IO73" s="2" t="n">
         <v>13.48</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>23.6</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -55962,8 +56181,11 @@
       <c r="IN74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IO74" t="n">
+      <c r="IO74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56713,8 +56935,11 @@
       <c r="IN75" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO75" t="n">
+      <c r="IO75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57464,8 +57689,11 @@
       <c r="IN76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IO76" t="n">
+      <c r="IO76" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58215,8 +58443,11 @@
       <c r="IN77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IO77" t="n">
+      <c r="IO77" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -58966,8 +59197,11 @@
       <c r="IN78" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="IO78" t="n">
+      <c r="IO78" s="2" t="n">
         <v>2.15</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59717,8 +59951,11 @@
       <c r="IN79" s="2" t="n">
         <v>4.15</v>
       </c>
-      <c r="IO79" t="n">
+      <c r="IO79" s="2" t="n">
         <v>4.14</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60468,8 +60705,11 @@
       <c r="IN80" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="IO80" t="n">
+      <c r="IO80" s="2" t="n">
         <v>39.7</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61219,8 +61459,11 @@
       <c r="IN81" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="IO81" t="n">
+      <c r="IO81" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -61970,8 +62213,11 @@
       <c r="IN82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IO82" t="n">
+      <c r="IO82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62721,8 +62967,11 @@
       <c r="IN83" s="2" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="IO83" t="n">
+      <c r="IO83" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63472,8 +63721,11 @@
       <c r="IN84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IO84" t="n">
+      <c r="IO84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64223,8 +64475,11 @@
       <c r="IN85" s="2" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="IO85" t="n">
+      <c r="IO85" s="2" t="n">
         <v>90.8</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -64974,8 +65229,11 @@
       <c r="IN86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO86" t="n">
+      <c r="IO86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65725,8 +65983,11 @@
       <c r="IN87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO87" t="n">
+      <c r="IO87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66476,8 +66737,11 @@
       <c r="IN88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO88" t="n">
+      <c r="IO88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67227,8 +67491,11 @@
       <c r="IN89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO89" t="n">
+      <c r="IO89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -67978,8 +68245,11 @@
       <c r="IN90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IO90" t="n">
+      <c r="IO90" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IP90" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -68729,8 +68999,11 @@
       <c r="IN91" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="IO91" t="n">
+      <c r="IO91" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69480,8 +69753,11 @@
       <c r="IN92" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="IO92" t="n">
+      <c r="IO92" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70231,8 +70507,11 @@
       <c r="IN93" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IO93" t="n">
+      <c r="IO93" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>77.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -70982,8 +71261,11 @@
       <c r="IN94" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO94" t="n">
+      <c r="IO94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -71733,8 +72015,11 @@
       <c r="IN95" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IO95" t="n">
+      <c r="IO95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IP95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72484,8 +72769,11 @@
       <c r="IN96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IO96" t="n">
+      <c r="IO96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IP96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73235,8 +73523,11 @@
       <c r="IN97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IO97" t="n">
+      <c r="IO97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -73986,8 +74277,11 @@
       <c r="IN98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IO98" t="n">
+      <c r="IO98" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -74737,8 +75031,11 @@
       <c r="IN99" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IO99" t="n">
+      <c r="IO99" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75488,8 +75785,11 @@
       <c r="IN100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO100" t="n">
+      <c r="IO100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76239,8 +76539,11 @@
       <c r="IN101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO101" t="n">
+      <c r="IO101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -76990,8 +77293,11 @@
       <c r="IN102" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="IO102" t="n">
+      <c r="IO102" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1142,8 +1142,11 @@
       <c r="IO1" s="2" t="n">
         <v>10487</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="2" t="n">
         <v>10534</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>10501</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1896,7 +1899,10 @@
       <c r="IO2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IQ2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2650,8 +2656,11 @@
       <c r="IO3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3404,8 +3413,11 @@
       <c r="IO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4158,7 +4170,10 @@
       <c r="IO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4912,8 +4927,11 @@
       <c r="IO6" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5666,8 +5684,11 @@
       <c r="IO7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6420,8 +6441,11 @@
       <c r="IO8" s="2" t="n">
         <v>-28</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7174,8 +7198,11 @@
       <c r="IO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -7928,8 +7955,11 @@
       <c r="IO10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8682,8 +8712,11 @@
       <c r="IO11" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="2" t="n">
         <v>280</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9436,8 +9469,11 @@
       <c r="IO12" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10190,8 +10226,11 @@
       <c r="IO13" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="2" t="n">
         <v>462</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10944,8 +10983,11 @@
       <c r="IO14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="2" t="n">
         <v>1.54</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11698,8 +11740,11 @@
       <c r="IO15" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12452,8 +12497,11 @@
       <c r="IO16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13206,8 +13254,11 @@
       <c r="IO17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -13960,8 +14011,11 @@
       <c r="IO18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14714,8 +14768,11 @@
       <c r="IO19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15468,8 +15525,11 @@
       <c r="IO20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16222,8 +16282,11 @@
       <c r="IO21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -16976,8 +17039,11 @@
       <c r="IO22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17730,8 +17796,11 @@
       <c r="IO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18484,8 +18553,11 @@
       <c r="IO24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19238,8 +19310,11 @@
       <c r="IO25" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -19992,8 +20067,11 @@
       <c r="IO26" s="2" t="n">
         <v>37.9</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20746,8 +20824,11 @@
       <c r="IO27" s="2" t="n">
         <v>19.95</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>20.83</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21500,8 +21581,11 @@
       <c r="IO28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22254,8 +22338,11 @@
       <c r="IO29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23008,8 +23095,11 @@
       <c r="IO30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23762,8 +23852,11 @@
       <c r="IO31" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IQ31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24516,8 +24609,11 @@
       <c r="IO32" s="2" t="n">
         <v>2.05</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="2" t="n">
         <v>2.1</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25270,8 +25366,11 @@
       <c r="IO33" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26024,8 +26123,11 @@
       <c r="IO34" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="2" t="n">
         <v>45.2</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26778,8 +26880,11 @@
       <c r="IO35" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IQ35" t="n">
+        <v>26.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27532,8 +27637,11 @@
       <c r="IO36" s="2" t="n">
         <v>189.6</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="IQ36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28286,8 +28394,11 @@
       <c r="IO37" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IQ37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29040,8 +29151,11 @@
       <c r="IO38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IQ38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29794,8 +29908,11 @@
       <c r="IO39" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="2" t="n">
         <v>104.8</v>
+      </c>
+      <c r="IQ39" t="n">
+        <v>105.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30548,7 +30665,10 @@
       <c r="IO40" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IQ40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -31302,7 +31422,10 @@
       <c r="IO41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32056,7 +32179,10 @@
       <c r="IO42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32810,7 +32936,10 @@
       <c r="IO43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IQ43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -33564,8 +33693,11 @@
       <c r="IO44" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34318,8 +34450,11 @@
       <c r="IO45" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35072,8 +35207,11 @@
       <c r="IO46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="IQ46" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35826,8 +35964,11 @@
       <c r="IO47" s="2" t="n">
         <v>72.3</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="2" t="n">
         <v>82.3</v>
+      </c>
+      <c r="IQ47" t="n">
+        <v>79.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36580,8 +36721,11 @@
       <c r="IO48" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IQ48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37334,8 +37478,11 @@
       <c r="IO49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38088,8 +38235,11 @@
       <c r="IO50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -38842,8 +38992,11 @@
       <c r="IO51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39596,8 +39749,11 @@
       <c r="IO52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40350,8 +40506,11 @@
       <c r="IO53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41104,8 +41263,11 @@
       <c r="IO54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -41858,8 +42020,11 @@
       <c r="IO55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42612,8 +42777,11 @@
       <c r="IO56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IQ56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43366,8 +43534,11 @@
       <c r="IO57" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="IQ57" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44120,8 +44291,11 @@
       <c r="IO58" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IQ58" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -44874,8 +45048,11 @@
       <c r="IO59" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="2" t="n">
         <v>354</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>433</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45628,8 +45805,11 @@
       <c r="IO60" s="2" t="n">
         <v>1.14</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="IQ60" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46382,8 +46562,11 @@
       <c r="IO61" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IQ61" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47136,8 +47319,11 @@
       <c r="IO62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IQ62" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -47890,8 +48076,11 @@
       <c r="IO63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48644,8 +48833,11 @@
       <c r="IO64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IQ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49398,8 +49590,11 @@
       <c r="IO65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IQ65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50152,8 +50347,11 @@
       <c r="IO66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -50906,8 +51104,11 @@
       <c r="IO67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51660,8 +51861,11 @@
       <c r="IO68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IQ68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52414,8 +52618,11 @@
       <c r="IO69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53168,8 +53375,11 @@
       <c r="IO70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -53922,8 +54132,11 @@
       <c r="IO71" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IQ71" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54676,8 +54889,11 @@
       <c r="IO72" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IQ72" t="n">
+        <v>28.87</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55430,8 +55646,11 @@
       <c r="IO73" s="2" t="n">
         <v>13.48</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="2" t="n">
         <v>23.6</v>
+      </c>
+      <c r="IQ73" t="n">
+        <v>19.68</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56184,8 +56403,11 @@
       <c r="IO74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -56938,8 +57160,11 @@
       <c r="IO75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57692,8 +57917,11 @@
       <c r="IO76" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58446,8 +58674,11 @@
       <c r="IO77" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59200,8 +59431,11 @@
       <c r="IO78" s="2" t="n">
         <v>2.15</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ78" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -59954,8 +60188,11 @@
       <c r="IO79" s="2" t="n">
         <v>4.14</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="2" t="n">
         <v>7.5</v>
+      </c>
+      <c r="IQ79" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60708,8 +60945,11 @@
       <c r="IO80" s="2" t="n">
         <v>39.7</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IQ80" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61462,8 +61702,11 @@
       <c r="IO81" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="2" t="n">
         <v>13.3</v>
+      </c>
+      <c r="IQ81" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62216,8 +62459,11 @@
       <c r="IO82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IQ82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -62970,8 +63216,11 @@
       <c r="IO83" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IQ83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63724,8 +63973,11 @@
       <c r="IO84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IQ84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64478,8 +64730,11 @@
       <c r="IO85" s="2" t="n">
         <v>90.8</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IQ85" t="n">
+        <v>104.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65232,8 +65487,11 @@
       <c r="IO86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -65986,8 +66244,11 @@
       <c r="IO87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -66740,8 +67001,11 @@
       <c r="IO88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IQ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -67494,8 +67758,11 @@
       <c r="IO89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68248,8 +68515,11 @@
       <c r="IO90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="IQ90" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69002,8 +69272,11 @@
       <c r="IO91" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="IQ91" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -69756,8 +70029,11 @@
       <c r="IO92" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="2" t="n">
         <v>275</v>
+      </c>
+      <c r="IQ92" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70510,8 +70786,11 @@
       <c r="IO93" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="2" t="n">
         <v>77.7</v>
+      </c>
+      <c r="IQ93" t="n">
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71264,8 +71543,11 @@
       <c r="IO94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IQ94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72018,8 +72300,11 @@
       <c r="IO95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -72772,8 +73057,11 @@
       <c r="IO96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73526,8 +73814,11 @@
       <c r="IO97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74280,8 +74571,11 @@
       <c r="IO98" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75034,8 +75328,11 @@
       <c r="IO99" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IQ99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -75788,8 +76085,11 @@
       <c r="IO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76542,8 +76842,11 @@
       <c r="IO101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ101" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77296,8 +77599,11 @@
       <c r="IO102" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IQ102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -88,6 +88,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1145,8 +1213,11 @@
       <c r="IP1" s="2" t="n">
         <v>10534</v>
       </c>
-      <c r="IQ1" t="n">
+      <c r="IQ1" s="2" t="n">
         <v>10501</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10526</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1902,7 +1973,10 @@
       <c r="IP2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IQ2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2659,8 +2733,11 @@
       <c r="IP3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IQ3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3416,7 +3493,10 @@
       <c r="IP4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,7 +4253,10 @@
       <c r="IP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4930,8 +5013,11 @@
       <c r="IP6" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IQ6" t="n">
+      <c r="IQ6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5687,8 +5773,11 @@
       <c r="IP7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IQ7" t="n">
+      <c r="IQ7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6444,8 +6533,11 @@
       <c r="IP8" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IQ8" t="n">
+      <c r="IQ8" s="2" t="n">
         <v>-19</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>-85</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7201,7 +7293,10 @@
       <c r="IP9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ9" t="n">
+      <c r="IQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7958,8 +8053,11 @@
       <c r="IP10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IQ10" t="n">
+      <c r="IQ10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8715,8 +8813,11 @@
       <c r="IP11" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="IQ11" t="n">
+      <c r="IQ11" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9472,8 +9573,11 @@
       <c r="IP12" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="IQ12" t="n">
+      <c r="IQ12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10229,8 +10333,11 @@
       <c r="IP13" s="2" t="n">
         <v>462</v>
       </c>
-      <c r="IQ13" t="n">
+      <c r="IQ13" s="2" t="n">
         <v>375</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -10986,8 +11093,11 @@
       <c r="IP14" s="2" t="n">
         <v>1.54</v>
       </c>
-      <c r="IQ14" t="n">
+      <c r="IQ14" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11743,8 +11853,11 @@
       <c r="IP15" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IQ15" t="n">
+      <c r="IQ15" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12500,8 +12613,11 @@
       <c r="IP16" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IQ16" t="n">
+      <c r="IQ16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13257,8 +13373,11 @@
       <c r="IP17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IQ17" t="n">
+      <c r="IQ17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14014,8 +14133,11 @@
       <c r="IP18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IQ18" t="n">
+      <c r="IQ18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14771,7 +14893,10 @@
       <c r="IP19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IQ19" t="n">
+      <c r="IQ19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IR19" t="n">
         <v>15</v>
       </c>
     </row>
@@ -15528,8 +15653,11 @@
       <c r="IP20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IQ20" t="n">
+      <c r="IQ20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16285,8 +16413,11 @@
       <c r="IP21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IQ21" t="n">
+      <c r="IQ21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17042,8 +17173,11 @@
       <c r="IP22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ22" t="n">
+      <c r="IQ22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17799,8 +17933,11 @@
       <c r="IP23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ23" t="n">
+      <c r="IQ23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18556,8 +18693,11 @@
       <c r="IP24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IQ24" t="n">
+      <c r="IQ24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19313,8 +19453,11 @@
       <c r="IP25" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IQ25" t="n">
+      <c r="IQ25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20070,8 +20213,11 @@
       <c r="IP26" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IQ26" t="n">
+      <c r="IQ26" s="2" t="n">
         <v>31.25</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>46.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20827,8 +20973,11 @@
       <c r="IP27" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="IQ27" t="n">
+      <c r="IQ27" s="2" t="n">
         <v>20.83</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>21.94</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21584,8 +21733,11 @@
       <c r="IP28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IQ28" t="n">
+      <c r="IQ28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22341,8 +22493,11 @@
       <c r="IP29" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IQ29" t="n">
+      <c r="IQ29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23098,8 +23253,11 @@
       <c r="IP30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IQ30" t="n">
+      <c r="IQ30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -23855,8 +24013,11 @@
       <c r="IP31" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IQ31" t="n">
+      <c r="IQ31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24612,8 +24773,11 @@
       <c r="IP32" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="IQ32" t="n">
+      <c r="IQ32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25369,8 +25533,11 @@
       <c r="IP33" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IQ33" t="n">
+      <c r="IQ33" s="2" t="n">
         <v>3.75</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26126,8 +26293,11 @@
       <c r="IP34" s="2" t="n">
         <v>45.2</v>
       </c>
-      <c r="IQ34" t="n">
+      <c r="IQ34" s="2" t="n">
         <v>35.6</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -26883,8 +27053,11 @@
       <c r="IP35" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IQ35" t="n">
+      <c r="IQ35" s="2" t="n">
         <v>26.7</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27640,8 +27813,11 @@
       <c r="IP36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="IQ36" t="n">
+      <c r="IQ36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28397,8 +28573,11 @@
       <c r="IP37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IQ37" t="n">
+      <c r="IQ37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29154,8 +29333,11 @@
       <c r="IP38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IQ38" t="n">
+      <c r="IQ38" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -29911,8 +30093,11 @@
       <c r="IP39" s="2" t="n">
         <v>104.8</v>
       </c>
-      <c r="IQ39" t="n">
+      <c r="IQ39" s="2" t="n">
         <v>105.8</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>95.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30668,8 +30853,11 @@
       <c r="IP40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IQ40" t="n">
+      <c r="IQ40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31425,8 +31613,11 @@
       <c r="IP41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ41" t="n">
+      <c r="IQ41" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IR41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32182,7 +32373,10 @@
       <c r="IP42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ42" t="n">
+      <c r="IQ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32939,8 +33133,11 @@
       <c r="IP43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ43" t="n">
+      <c r="IQ43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33696,8 +33893,11 @@
       <c r="IP44" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="IQ44" t="n">
+      <c r="IQ44" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34453,8 +34653,11 @@
       <c r="IP45" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="IQ45" t="n">
+      <c r="IQ45" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35210,8 +35413,11 @@
       <c r="IP46" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="IQ46" t="n">
+      <c r="IQ46" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -35967,8 +36173,11 @@
       <c r="IP47" s="2" t="n">
         <v>82.3</v>
       </c>
-      <c r="IQ47" t="n">
+      <c r="IQ47" s="2" t="n">
         <v>79.5</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36724,8 +36933,11 @@
       <c r="IP48" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IQ48" t="n">
+      <c r="IQ48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37481,8 +37693,11 @@
       <c r="IP49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IQ49" t="n">
+      <c r="IQ49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38238,7 +38453,10 @@
       <c r="IP50" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IQ50" t="n">
+      <c r="IQ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38995,8 +39213,11 @@
       <c r="IP51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IQ51" t="n">
+      <c r="IQ51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39752,8 +39973,11 @@
       <c r="IP52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IQ52" t="n">
+      <c r="IQ52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40509,8 +40733,11 @@
       <c r="IP53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IQ53" t="n">
+      <c r="IQ53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41266,8 +41493,11 @@
       <c r="IP54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ54" t="n">
+      <c r="IQ54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42023,8 +42253,11 @@
       <c r="IP55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IQ55" t="n">
+      <c r="IQ55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -42780,8 +43013,11 @@
       <c r="IP56" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IQ56" t="n">
+      <c r="IQ56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43537,8 +43773,11 @@
       <c r="IP57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="IQ57" t="n">
+      <c r="IQ57" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44294,8 +44533,11 @@
       <c r="IP58" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IQ58" t="n">
+      <c r="IQ58" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45051,8 +45293,11 @@
       <c r="IP59" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="IQ59" t="n">
+      <c r="IQ59" s="2" t="n">
         <v>433</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -45808,8 +46053,11 @@
       <c r="IP60" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="IQ60" t="n">
+      <c r="IQ60" s="2" t="n">
         <v>1.22</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46565,8 +46813,11 @@
       <c r="IP61" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IQ61" t="n">
+      <c r="IQ61" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47322,8 +47573,11 @@
       <c r="IP62" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IQ62" t="n">
+      <c r="IQ62" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48079,8 +48333,11 @@
       <c r="IP63" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IQ63" t="n">
+      <c r="IQ63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -48836,7 +49093,10 @@
       <c r="IP64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IQ64" t="n">
+      <c r="IQ64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IR64" t="n">
         <v>15</v>
       </c>
     </row>
@@ -49593,8 +49853,11 @@
       <c r="IP65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IQ65" t="n">
+      <c r="IQ65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50350,8 +50613,11 @@
       <c r="IP66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IQ66" t="n">
+      <c r="IQ66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IR66" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51107,8 +51373,11 @@
       <c r="IP67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ67" t="n">
+      <c r="IQ67" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -51864,8 +52133,11 @@
       <c r="IP68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IQ68" t="n">
+      <c r="IQ68" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52621,8 +52893,11 @@
       <c r="IP69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ69" t="n">
+      <c r="IQ69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53378,8 +53653,11 @@
       <c r="IP70" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IQ70" t="n">
+      <c r="IQ70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54135,8 +54413,11 @@
       <c r="IP71" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IQ71" t="n">
+      <c r="IQ71" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -54892,8 +55173,11 @@
       <c r="IP72" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IQ72" t="n">
+      <c r="IQ72" s="2" t="n">
         <v>28.87</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>17.05</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55649,8 +55933,11 @@
       <c r="IP73" s="2" t="n">
         <v>23.6</v>
       </c>
-      <c r="IQ73" t="n">
+      <c r="IQ73" s="2" t="n">
         <v>19.68</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>11.72</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56406,8 +56693,11 @@
       <c r="IP74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IQ74" t="n">
+      <c r="IQ74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57163,8 +57453,11 @@
       <c r="IP75" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IQ75" t="n">
+      <c r="IQ75" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -57920,8 +58213,11 @@
       <c r="IP76" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IQ76" t="n">
+      <c r="IQ76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58677,8 +58973,11 @@
       <c r="IP77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IQ77" t="n">
+      <c r="IQ77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59434,8 +59733,11 @@
       <c r="IP78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IQ78" t="n">
+      <c r="IQ78" s="2" t="n">
         <v>2.18</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60191,8 +60493,11 @@
       <c r="IP79" s="2" t="n">
         <v>7.5</v>
       </c>
-      <c r="IQ79" t="n">
+      <c r="IQ79" s="2" t="n">
         <v>3.2</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -60948,8 +61253,11 @@
       <c r="IP80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IQ80" t="n">
+      <c r="IQ80" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>44.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -61705,8 +62013,11 @@
       <c r="IP81" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="IQ81" t="n">
+      <c r="IQ81" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62462,7 +62773,10 @@
       <c r="IP82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="IQ82" t="n">
+      <c r="IQ82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IR82" t="n">
         <v>188.3</v>
       </c>
     </row>
@@ -63219,8 +63533,11 @@
       <c r="IP83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IQ83" t="n">
+      <c r="IQ83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -63976,8 +64293,11 @@
       <c r="IP84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IQ84" t="n">
+      <c r="IQ84" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -64733,8 +65053,11 @@
       <c r="IP85" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="IQ85" t="n">
+      <c r="IQ85" s="2" t="n">
         <v>104.7</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>115.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65490,8 +65813,11 @@
       <c r="IP86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IQ86" t="n">
+      <c r="IQ86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66247,7 +66573,10 @@
       <c r="IP87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ87" t="n">
+      <c r="IQ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -67004,7 +67333,10 @@
       <c r="IP88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IQ88" t="n">
+      <c r="IQ88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR88" t="n">
         <v>6</v>
       </c>
     </row>
@@ -67761,8 +68093,11 @@
       <c r="IP89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IQ89" t="n">
+      <c r="IQ89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68518,8 +68853,11 @@
       <c r="IP90" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="IQ90" t="n">
+      <c r="IQ90" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69275,8 +69613,11 @@
       <c r="IP91" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="IQ91" t="n">
+      <c r="IQ91" s="2" t="n">
         <v>319</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70032,8 +70373,11 @@
       <c r="IP92" s="2" t="n">
         <v>275</v>
       </c>
-      <c r="IQ92" t="n">
+      <c r="IQ92" s="2" t="n">
         <v>359</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -70789,8 +71133,11 @@
       <c r="IP93" s="2" t="n">
         <v>77.7</v>
       </c>
-      <c r="IQ93" t="n">
+      <c r="IQ93" s="2" t="n">
         <v>82.90000000000001</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71546,8 +71893,11 @@
       <c r="IP94" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IQ94" t="n">
+      <c r="IQ94" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72303,8 +72653,11 @@
       <c r="IP95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ95" t="n">
+      <c r="IQ95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73060,8 +73413,11 @@
       <c r="IP96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IQ96" t="n">
+      <c r="IQ96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -73817,8 +74173,11 @@
       <c r="IP97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IQ97" t="n">
+      <c r="IQ97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74574,8 +74933,11 @@
       <c r="IP98" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IQ98" t="n">
+      <c r="IQ98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75331,8 +75693,11 @@
       <c r="IP99" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IQ99" t="n">
+      <c r="IQ99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76088,8 +76453,11 @@
       <c r="IP100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ100" t="n">
+      <c r="IQ100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -76845,8 +77213,11 @@
       <c r="IP101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ101" t="n">
+      <c r="IQ101" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77602,8 +77973,11 @@
       <c r="IP102" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="IQ102" t="n">
+      <c r="IQ102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1216,8 +1216,11 @@
       <c r="IQ1" s="2" t="n">
         <v>10501</v>
       </c>
-      <c r="IR1" t="n">
+      <c r="IR1" s="2" t="n">
         <v>10526</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>10518</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1976,7 +1979,10 @@
       <c r="IQ2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IR2" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IS2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2736,8 +2742,11 @@
       <c r="IQ3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IR3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3496,7 +3505,10 @@
       <c r="IQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IS4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,7 +4268,10 @@
       <c r="IQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5016,8 +5031,11 @@
       <c r="IQ6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IR6" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5776,8 +5794,11 @@
       <c r="IQ7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IR7" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6536,8 +6557,11 @@
       <c r="IQ8" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="IR8" t="n">
+      <c r="IR8" s="2" t="n">
         <v>-85</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>-38</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7296,7 +7320,10 @@
       <c r="IQ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IR9" t="n">
+      <c r="IR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8056,8 +8083,11 @@
       <c r="IQ10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR10" t="n">
+      <c r="IR10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8816,8 +8846,11 @@
       <c r="IQ11" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="IR11" t="n">
+      <c r="IR11" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9576,8 +9609,11 @@
       <c r="IQ12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="IR12" t="n">
+      <c r="IR12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10336,8 +10372,11 @@
       <c r="IQ13" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IR13" t="n">
+      <c r="IR13" s="2" t="n">
         <v>373</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11096,8 +11135,11 @@
       <c r="IQ14" s="2" t="n">
         <v>1.42</v>
       </c>
-      <c r="IR14" t="n">
+      <c r="IR14" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="IS14" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11856,8 +11898,11 @@
       <c r="IQ15" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="IR15" t="n">
+      <c r="IR15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IS15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12616,8 +12661,11 @@
       <c r="IQ16" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IR16" t="n">
+      <c r="IR16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IS16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13376,8 +13424,11 @@
       <c r="IQ17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IR17" t="n">
+      <c r="IR17" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14136,7 +14187,10 @@
       <c r="IQ18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IR18" t="n">
+      <c r="IR18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IS18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -14896,8 +14950,11 @@
       <c r="IQ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR19" t="n">
+      <c r="IR19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15656,8 +15713,11 @@
       <c r="IQ20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IR20" t="n">
+      <c r="IR20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16416,8 +16476,11 @@
       <c r="IQ21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR21" t="n">
+      <c r="IR21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IS21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17176,8 +17239,11 @@
       <c r="IQ22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR22" t="n">
+      <c r="IR22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -17936,8 +18002,11 @@
       <c r="IQ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IR23" t="n">
+      <c r="IR23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18696,8 +18765,11 @@
       <c r="IQ24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IR24" t="n">
+      <c r="IR24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IS24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19456,8 +19528,11 @@
       <c r="IQ25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IR25" t="n">
+      <c r="IR25" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="IS25" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20216,8 +20291,11 @@
       <c r="IQ26" s="2" t="n">
         <v>31.25</v>
       </c>
-      <c r="IR26" t="n">
+      <c r="IR26" s="2" t="n">
         <v>46.62</v>
+      </c>
+      <c r="IS26" t="n">
+        <v>38.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -20976,8 +21054,11 @@
       <c r="IQ27" s="2" t="n">
         <v>20.83</v>
       </c>
-      <c r="IR27" t="n">
+      <c r="IR27" s="2" t="n">
         <v>21.94</v>
+      </c>
+      <c r="IS27" t="n">
+        <v>18.42</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21736,8 +21817,11 @@
       <c r="IQ28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IR28" t="n">
+      <c r="IR28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IS28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22496,8 +22580,11 @@
       <c r="IQ29" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IR29" t="n">
+      <c r="IR29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IS29" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23256,8 +23343,11 @@
       <c r="IQ30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IR30" t="n">
+      <c r="IR30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IS30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24016,8 +24106,11 @@
       <c r="IQ31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IR31" t="n">
+      <c r="IR31" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IS31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24776,8 +24869,11 @@
       <c r="IQ32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="IR32" t="n">
+      <c r="IR32" s="2" t="n">
         <v>2.47</v>
+      </c>
+      <c r="IS32" t="n">
+        <v>2.37</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25536,8 +25632,11 @@
       <c r="IQ33" s="2" t="n">
         <v>3.75</v>
       </c>
-      <c r="IR33" t="n">
+      <c r="IR33" s="2" t="n">
         <v>5.25</v>
+      </c>
+      <c r="IS33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26296,8 +26395,11 @@
       <c r="IQ34" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="IR34" t="n">
+      <c r="IR34" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="IS34" t="n">
+        <v>42.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27056,8 +27158,11 @@
       <c r="IQ35" s="2" t="n">
         <v>26.7</v>
       </c>
-      <c r="IR35" t="n">
+      <c r="IR35" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IS35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27816,7 +27921,10 @@
       <c r="IQ36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IR36" t="n">
+      <c r="IR36" s="2" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="IS36" t="n">
         <v>187.4</v>
       </c>
     </row>
@@ -28576,8 +28684,11 @@
       <c r="IQ37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IR37" t="n">
+      <c r="IR37" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="IS37" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29336,8 +29447,11 @@
       <c r="IQ38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IR38" t="n">
+      <c r="IR38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IS38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30096,8 +30210,11 @@
       <c r="IQ39" s="2" t="n">
         <v>105.8</v>
       </c>
-      <c r="IR39" t="n">
+      <c r="IR39" s="2" t="n">
         <v>95.3</v>
+      </c>
+      <c r="IS39" t="n">
+        <v>100.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30856,7 +30973,10 @@
       <c r="IQ40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR40" t="n">
+      <c r="IR40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -31616,8 +31736,11 @@
       <c r="IQ41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR41" t="n">
+      <c r="IR41" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32376,7 +32499,10 @@
       <c r="IQ42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR42" t="n">
+      <c r="IR42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IS42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33136,8 +33262,11 @@
       <c r="IQ43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR43" t="n">
+      <c r="IR43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -33896,8 +34025,11 @@
       <c r="IQ44" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IR44" t="n">
+      <c r="IR44" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IS44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34656,8 +34788,11 @@
       <c r="IQ45" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="IR45" t="n">
+      <c r="IR45" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="IS45" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35416,8 +35551,11 @@
       <c r="IQ46" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="IR46" t="n">
+      <c r="IR46" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="IS46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36176,8 +36314,11 @@
       <c r="IQ47" s="2" t="n">
         <v>79.5</v>
       </c>
-      <c r="IR47" t="n">
+      <c r="IR47" s="2" t="n">
         <v>71.3</v>
+      </c>
+      <c r="IS47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -36936,8 +37077,11 @@
       <c r="IQ48" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IR48" t="n">
+      <c r="IR48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IS48" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37696,7 +37840,10 @@
       <c r="IQ49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IR49" t="n">
+      <c r="IR49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IS49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -38456,8 +38603,11 @@
       <c r="IQ50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR50" t="n">
+      <c r="IR50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39216,8 +39366,11 @@
       <c r="IQ51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IR51" t="n">
+      <c r="IR51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IS51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -39976,8 +40129,11 @@
       <c r="IQ52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IR52" t="n">
+      <c r="IR52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IS52" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40736,8 +40892,11 @@
       <c r="IQ53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IR53" t="n">
+      <c r="IR53" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IS53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41496,8 +41655,11 @@
       <c r="IQ54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR54" t="n">
+      <c r="IR54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IS54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42256,8 +42418,11 @@
       <c r="IQ55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR55" t="n">
+      <c r="IR55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IS55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43016,8 +43181,11 @@
       <c r="IQ56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IR56" t="n">
+      <c r="IR56" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IS56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43776,8 +43944,11 @@
       <c r="IQ57" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="IR57" t="n">
+      <c r="IR57" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IS57" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44536,8 +44707,11 @@
       <c r="IQ58" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IR58" t="n">
+      <c r="IR58" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="IS58" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45296,8 +45470,11 @@
       <c r="IQ59" s="2" t="n">
         <v>433</v>
       </c>
-      <c r="IR59" t="n">
+      <c r="IR59" s="2" t="n">
         <v>375</v>
+      </c>
+      <c r="IS59" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46056,8 +46233,11 @@
       <c r="IQ60" s="2" t="n">
         <v>1.22</v>
       </c>
-      <c r="IR60" t="n">
+      <c r="IR60" s="2" t="n">
         <v>1.42</v>
+      </c>
+      <c r="IS60" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46816,8 +46996,11 @@
       <c r="IQ61" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="IR61" t="n">
+      <c r="IR61" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IS61" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47576,8 +47759,11 @@
       <c r="IQ62" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IR62" t="n">
+      <c r="IR62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IS62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48336,8 +48522,11 @@
       <c r="IQ63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IR63" t="n">
+      <c r="IR63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IS63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49096,8 +49285,11 @@
       <c r="IQ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR64" t="n">
+      <c r="IR64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -49856,7 +50048,10 @@
       <c r="IQ65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IR65" t="n">
+      <c r="IR65" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IS65" t="n">
         <v>14</v>
       </c>
     </row>
@@ -50616,8 +50811,11 @@
       <c r="IQ66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR66" t="n">
+      <c r="IR66" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IS66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51376,8 +51574,11 @@
       <c r="IQ67" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR67" t="n">
+      <c r="IR67" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IS67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52136,8 +52337,11 @@
       <c r="IQ68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IR68" t="n">
+      <c r="IR68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -52896,8 +53100,11 @@
       <c r="IQ69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR69" t="n">
+      <c r="IR69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IS69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53656,8 +53863,11 @@
       <c r="IQ70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IR70" t="n">
+      <c r="IR70" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IS70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54416,8 +54626,11 @@
       <c r="IQ71" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="IR71" t="n">
+      <c r="IR71" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IS71" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55176,8 +55389,11 @@
       <c r="IQ72" s="2" t="n">
         <v>28.87</v>
       </c>
-      <c r="IR72" t="n">
+      <c r="IR72" s="2" t="n">
         <v>17.05</v>
+      </c>
+      <c r="IS72" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -55936,8 +56152,11 @@
       <c r="IQ73" s="2" t="n">
         <v>19.68</v>
       </c>
-      <c r="IR73" t="n">
+      <c r="IR73" s="2" t="n">
         <v>11.72</v>
+      </c>
+      <c r="IS73" t="n">
+        <v>17.82</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56696,8 +56915,11 @@
       <c r="IQ74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR74" t="n">
+      <c r="IR74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IS74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57456,8 +57678,11 @@
       <c r="IQ75" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IR75" t="n">
+      <c r="IR75" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IS75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58216,8 +58441,11 @@
       <c r="IQ76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IR76" t="n">
+      <c r="IR76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IS76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -58976,8 +59204,11 @@
       <c r="IQ77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IR77" t="n">
+      <c r="IR77" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IS77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59736,8 +59967,11 @@
       <c r="IQ78" s="2" t="n">
         <v>2.18</v>
       </c>
-      <c r="IR78" t="n">
+      <c r="IR78" s="2" t="n">
         <v>2.19</v>
+      </c>
+      <c r="IS78" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60496,8 +60730,11 @@
       <c r="IQ79" s="2" t="n">
         <v>3.2</v>
       </c>
-      <c r="IR79" t="n">
+      <c r="IR79" s="2" t="n">
         <v>3.18</v>
+      </c>
+      <c r="IS79" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61256,8 +61493,11 @@
       <c r="IQ80" s="2" t="n">
         <v>35.4</v>
       </c>
-      <c r="IR80" t="n">
+      <c r="IR80" s="2" t="n">
         <v>44.3</v>
+      </c>
+      <c r="IS80" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62016,8 +62256,11 @@
       <c r="IQ81" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="IR81" t="n">
+      <c r="IR81" s="2" t="n">
         <v>31.4</v>
+      </c>
+      <c r="IS81" t="n">
+        <v>29.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -62776,8 +63019,11 @@
       <c r="IQ82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="IR82" t="n">
+      <c r="IR82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IS82" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63536,8 +63782,11 @@
       <c r="IQ83" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="IR83" t="n">
+      <c r="IR83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IS83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64296,8 +64545,11 @@
       <c r="IQ84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IR84" t="n">
+      <c r="IR84" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IS84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65056,8 +65308,11 @@
       <c r="IQ85" s="2" t="n">
         <v>104.7</v>
       </c>
-      <c r="IR85" t="n">
+      <c r="IR85" s="2" t="n">
         <v>115.4</v>
+      </c>
+      <c r="IS85" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -65816,8 +66071,11 @@
       <c r="IQ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR86" t="n">
+      <c r="IR86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IS86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66576,8 +66834,11 @@
       <c r="IQ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR87" t="n">
+      <c r="IR87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IS87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67336,8 +67597,11 @@
       <c r="IQ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR88" t="n">
+      <c r="IR88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68096,8 +68360,11 @@
       <c r="IQ89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR89" t="n">
+      <c r="IR89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -68856,8 +69123,11 @@
       <c r="IQ90" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="IR90" t="n">
+      <c r="IR90" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IS90" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69616,8 +69886,11 @@
       <c r="IQ91" s="2" t="n">
         <v>319</v>
       </c>
-      <c r="IR91" t="n">
+      <c r="IR91" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="IS91" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70376,8 +70649,11 @@
       <c r="IQ92" s="2" t="n">
         <v>359</v>
       </c>
-      <c r="IR92" t="n">
+      <c r="IR92" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="IS92" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71136,8 +71412,11 @@
       <c r="IQ93" s="2" t="n">
         <v>82.90000000000001</v>
       </c>
-      <c r="IR93" t="n">
+      <c r="IR93" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="IS93" t="n">
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -71896,8 +72175,11 @@
       <c r="IQ94" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IR94" t="n">
+      <c r="IR94" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IS94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72656,7 +72938,10 @@
       <c r="IQ95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IR95" t="n">
+      <c r="IR95" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IS95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -73416,8 +73701,11 @@
       <c r="IQ96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IR96" t="n">
+      <c r="IR96" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IS96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74176,8 +74464,11 @@
       <c r="IQ97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IR97" t="n">
+      <c r="IR97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IS97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -74936,8 +75227,11 @@
       <c r="IQ98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IR98" t="n">
+      <c r="IR98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IS98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75696,8 +75990,11 @@
       <c r="IQ99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR99" t="n">
+      <c r="IR99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IS99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76456,8 +76753,11 @@
       <c r="IQ100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR100" t="n">
+      <c r="IR100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77216,8 +77516,11 @@
       <c r="IQ101" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IR101" t="n">
+      <c r="IR101" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IS101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -77976,8 +78279,11 @@
       <c r="IQ102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="IR102" t="n">
+      <c r="IR102" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IS102" t="n">
+        <v>81.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1219,8 +1219,11 @@
       <c r="IR1" s="2" t="n">
         <v>10526</v>
       </c>
-      <c r="IS1" t="n">
+      <c r="IS1" s="2" t="n">
         <v>10518</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10546</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1982,8 +1985,11 @@
       <c r="IR2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IS2" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -2745,8 +2751,11 @@
       <c r="IR3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IS3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3508,7 +3517,10 @@
       <c r="IR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,8 +4283,11 @@
       <c r="IR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IS5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5034,8 +5049,11 @@
       <c r="IR6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IS6" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5797,8 +5815,11 @@
       <c r="IR7" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IS7" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6560,8 +6581,11 @@
       <c r="IR8" s="2" t="n">
         <v>-85</v>
       </c>
-      <c r="IS8" t="n">
+      <c r="IS8" s="2" t="n">
         <v>-38</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7323,8 +7347,11 @@
       <c r="IR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS9" t="n">
+      <c r="IS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8086,8 +8113,11 @@
       <c r="IR10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS10" t="n">
+      <c r="IS10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8849,8 +8879,11 @@
       <c r="IR11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="IS11" t="n">
+      <c r="IS11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9612,8 +9645,11 @@
       <c r="IR12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="IS12" t="n">
+      <c r="IS12" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10375,8 +10411,11 @@
       <c r="IR13" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="IS13" t="n">
+      <c r="IS13" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11138,8 +11177,11 @@
       <c r="IR14" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="IS14" t="n">
+      <c r="IS14" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11901,8 +11943,11 @@
       <c r="IR15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IS15" t="n">
+      <c r="IS15" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12664,8 +12709,11 @@
       <c r="IR16" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IS16" t="n">
+      <c r="IS16" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13427,8 +13475,11 @@
       <c r="IR17" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IS17" t="n">
+      <c r="IS17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14190,8 +14241,11 @@
       <c r="IR18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IS18" t="n">
+      <c r="IS18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -14953,8 +15007,11 @@
       <c r="IR19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IS19" t="n">
+      <c r="IS19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15716,8 +15773,11 @@
       <c r="IR20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS20" t="n">
+      <c r="IS20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16479,8 +16539,11 @@
       <c r="IR21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS21" t="n">
+      <c r="IS21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17242,8 +17305,11 @@
       <c r="IR22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS22" t="n">
+      <c r="IS22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18005,8 +18071,11 @@
       <c r="IR23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS23" t="n">
+      <c r="IS23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18768,8 +18837,11 @@
       <c r="IR24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IS24" t="n">
+      <c r="IS24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19531,8 +19603,11 @@
       <c r="IR25" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="IS25" t="n">
+      <c r="IS25" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20294,8 +20369,11 @@
       <c r="IR26" s="2" t="n">
         <v>46.62</v>
       </c>
-      <c r="IS26" t="n">
+      <c r="IS26" s="2" t="n">
         <v>38.89</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>25.87</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21057,8 +21135,11 @@
       <c r="IR27" s="2" t="n">
         <v>21.94</v>
       </c>
-      <c r="IS27" t="n">
+      <c r="IS27" s="2" t="n">
         <v>18.42</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>14.37</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21820,8 +21901,11 @@
       <c r="IR28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS28" t="n">
+      <c r="IS28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22583,8 +22667,11 @@
       <c r="IR29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IS29" t="n">
+      <c r="IS29" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23346,8 +23433,11 @@
       <c r="IR30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS30" t="n">
+      <c r="IS30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24109,8 +24199,11 @@
       <c r="IR31" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IS31" t="n">
+      <c r="IS31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -24872,8 +24965,11 @@
       <c r="IR32" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="IS32" t="n">
+      <c r="IS32" s="2" t="n">
         <v>2.37</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25635,8 +25731,11 @@
       <c r="IR33" s="2" t="n">
         <v>5.25</v>
       </c>
-      <c r="IS33" t="n">
+      <c r="IS33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26398,8 +26497,11 @@
       <c r="IR34" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="IS34" t="n">
+      <c r="IS34" s="2" t="n">
         <v>42.2</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27161,8 +27263,11 @@
       <c r="IR35" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IS35" t="n">
+      <c r="IS35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -27924,8 +28029,11 @@
       <c r="IR36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IS36" t="n">
+      <c r="IS36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28687,8 +28795,11 @@
       <c r="IR37" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="IS37" t="n">
+      <c r="IS37" s="2" t="n">
         <v>84.5</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29450,8 +29561,11 @@
       <c r="IR38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="IS38" t="n">
+      <c r="IS38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="IT38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30213,8 +30327,11 @@
       <c r="IR39" s="2" t="n">
         <v>95.3</v>
       </c>
-      <c r="IS39" t="n">
+      <c r="IS39" s="2" t="n">
         <v>100.7</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -30976,8 +31093,11 @@
       <c r="IR40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IS40" t="n">
+      <c r="IS40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31739,8 +31859,11 @@
       <c r="IR41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS41" t="n">
+      <c r="IS41" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32502,8 +32625,11 @@
       <c r="IR42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS42" t="n">
+      <c r="IS42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33265,8 +33391,11 @@
       <c r="IR43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS43" t="n">
+      <c r="IS43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34028,8 +34157,11 @@
       <c r="IR44" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IS44" t="n">
+      <c r="IS44" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34791,8 +34923,11 @@
       <c r="IR45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="IS45" t="n">
+      <c r="IS45" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35554,8 +35689,11 @@
       <c r="IR46" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="IS46" t="n">
+      <c r="IS46" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36317,8 +36455,11 @@
       <c r="IR47" s="2" t="n">
         <v>71.3</v>
       </c>
-      <c r="IS47" t="n">
+      <c r="IS47" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37080,8 +37221,11 @@
       <c r="IR48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IS48" t="n">
+      <c r="IS48" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37843,8 +37987,11 @@
       <c r="IR49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IS49" t="n">
+      <c r="IS49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38606,8 +38753,11 @@
       <c r="IR50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS50" t="n">
+      <c r="IS50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39369,8 +39519,11 @@
       <c r="IR51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS51" t="n">
+      <c r="IS51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40132,8 +40285,11 @@
       <c r="IR52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS52" t="n">
+      <c r="IS52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -40895,8 +41051,11 @@
       <c r="IR53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IS53" t="n">
+      <c r="IS53" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41658,8 +41817,11 @@
       <c r="IR54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS54" t="n">
+      <c r="IS54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42421,8 +42583,11 @@
       <c r="IR55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS55" t="n">
+      <c r="IS55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43184,8 +43349,11 @@
       <c r="IR56" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="IS56" t="n">
+      <c r="IS56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -43947,8 +44115,11 @@
       <c r="IR57" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="IS57" t="n">
+      <c r="IS57" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44710,8 +44881,11 @@
       <c r="IR58" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="IS58" t="n">
+      <c r="IS58" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45473,8 +45647,11 @@
       <c r="IR59" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IS59" t="n">
+      <c r="IS59" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46236,8 +46413,11 @@
       <c r="IR60" s="2" t="n">
         <v>1.42</v>
       </c>
-      <c r="IS60" t="n">
+      <c r="IS60" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -46999,8 +47179,11 @@
       <c r="IR61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IS61" t="n">
+      <c r="IS61" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47762,8 +47945,11 @@
       <c r="IR62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IS62" t="n">
+      <c r="IS62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48525,8 +48711,11 @@
       <c r="IR63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IS63" t="n">
+      <c r="IS63" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49288,8 +49477,11 @@
       <c r="IR64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IS64" t="n">
+      <c r="IS64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50051,8 +50243,11 @@
       <c r="IR65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IS65" t="n">
+      <c r="IS65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -50814,8 +51009,11 @@
       <c r="IR66" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IS66" t="n">
+      <c r="IS66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51577,8 +51775,11 @@
       <c r="IR67" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IS67" t="n">
+      <c r="IS67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52340,8 +52541,11 @@
       <c r="IR68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS68" t="n">
+      <c r="IS68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53103,8 +53307,11 @@
       <c r="IR69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS69" t="n">
+      <c r="IS69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -53866,8 +54073,11 @@
       <c r="IR70" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS70" t="n">
+      <c r="IS70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54629,8 +54839,11 @@
       <c r="IR71" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="IS71" t="n">
+      <c r="IS71" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55392,8 +55605,11 @@
       <c r="IR72" s="2" t="n">
         <v>17.05</v>
       </c>
-      <c r="IS72" t="n">
+      <c r="IS72" s="2" t="n">
         <v>24.5</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>30.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56155,8 +56371,11 @@
       <c r="IR73" s="2" t="n">
         <v>11.72</v>
       </c>
-      <c r="IS73" t="n">
+      <c r="IS73" s="2" t="n">
         <v>17.82</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>14.72</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -56918,8 +57137,11 @@
       <c r="IR74" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IS74" t="n">
+      <c r="IS74" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -57681,8 +57903,11 @@
       <c r="IR75" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS75" t="n">
+      <c r="IS75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58444,8 +58669,11 @@
       <c r="IR76" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IS76" t="n">
+      <c r="IS76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59207,8 +59435,11 @@
       <c r="IR77" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IS77" t="n">
+      <c r="IS77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -59970,8 +60201,11 @@
       <c r="IR78" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="IS78" t="n">
+      <c r="IS78" s="2" t="n">
         <v>2.45</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60733,8 +60967,11 @@
       <c r="IR79" s="2" t="n">
         <v>3.18</v>
       </c>
-      <c r="IS79" t="n">
+      <c r="IS79" s="2" t="n">
         <v>3.38</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61496,8 +61733,11 @@
       <c r="IR80" s="2" t="n">
         <v>44.3</v>
       </c>
-      <c r="IS80" t="n">
+      <c r="IS80" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>48.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62259,8 +62499,11 @@
       <c r="IR81" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="IS81" t="n">
+      <c r="IS81" s="2" t="n">
         <v>29.6</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63022,8 +63265,11 @@
       <c r="IR82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="IS82" t="n">
+      <c r="IS82" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -63785,8 +64031,11 @@
       <c r="IR83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IS83" t="n">
+      <c r="IS83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64548,8 +64797,11 @@
       <c r="IR84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="IS84" t="n">
+      <c r="IS84" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65311,8 +65563,11 @@
       <c r="IR85" s="2" t="n">
         <v>115.4</v>
       </c>
-      <c r="IS85" t="n">
+      <c r="IS85" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66074,8 +66329,11 @@
       <c r="IR86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS86" t="n">
+      <c r="IS86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -66837,8 +67095,11 @@
       <c r="IR87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS87" t="n">
+      <c r="IS87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67600,8 +67861,11 @@
       <c r="IR88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS88" t="n">
+      <c r="IS88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68363,8 +68627,11 @@
       <c r="IR89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS89" t="n">
+      <c r="IS89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69126,8 +69393,11 @@
       <c r="IR90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IS90" t="n">
+      <c r="IS90" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -69889,8 +70159,11 @@
       <c r="IR91" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IS91" t="n">
+      <c r="IS91" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70652,8 +70925,11 @@
       <c r="IR92" s="2" t="n">
         <v>278</v>
       </c>
-      <c r="IS92" t="n">
+      <c r="IS92" s="2" t="n">
         <v>321</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71415,8 +71691,11 @@
       <c r="IR93" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="IS93" t="n">
+      <c r="IS93" s="2" t="n">
         <v>81.90000000000001</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -72178,8 +72457,11 @@
       <c r="IR94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS94" t="n">
+      <c r="IS94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -72941,8 +73223,11 @@
       <c r="IR95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IS95" t="n">
+      <c r="IS95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73704,8 +73989,11 @@
       <c r="IR96" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IS96" t="n">
+      <c r="IS96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74467,8 +74755,11 @@
       <c r="IR97" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IS97" t="n">
+      <c r="IS97" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -75230,8 +75521,11 @@
       <c r="IR98" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IS98" t="n">
+      <c r="IS98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -75993,8 +76287,11 @@
       <c r="IR99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IS99" t="n">
+      <c r="IS99" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -76756,8 +77053,11 @@
       <c r="IR100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS100" t="n">
+      <c r="IS100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77519,8 +77819,11 @@
       <c r="IR101" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IS101" t="n">
+      <c r="IS101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78282,8 +78585,11 @@
       <c r="IR102" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="IS102" t="n">
+      <c r="IS102" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1222,8 +1222,11 @@
       <c r="IS1" s="2" t="n">
         <v>10518</v>
       </c>
-      <c r="IT1" t="n">
+      <c r="IT1" s="2" t="n">
         <v>10546</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>10555</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1988,7 +1991,10 @@
       <c r="IS2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2754,8 +2760,11 @@
       <c r="IS3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IT3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3520,8 +3529,11 @@
       <c r="IS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4286,8 +4298,11 @@
       <c r="IS5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IT5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5052,8 +5067,11 @@
       <c r="IS6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="IT6" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5818,8 +5836,11 @@
       <c r="IS7" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IT7" t="n">
+      <c r="IT7" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6584,8 +6605,11 @@
       <c r="IS8" s="2" t="n">
         <v>-38</v>
       </c>
-      <c r="IT8" t="n">
+      <c r="IT8" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7350,7 +7374,10 @@
       <c r="IS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT9" t="n">
+      <c r="IT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IU9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8116,8 +8143,11 @@
       <c r="IS10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT10" t="n">
+      <c r="IT10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8882,8 +8912,11 @@
       <c r="IS11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IT11" t="n">
+      <c r="IT11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9648,8 +9681,11 @@
       <c r="IS12" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IT12" t="n">
+      <c r="IT12" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10414,8 +10450,11 @@
       <c r="IS13" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="IT13" t="n">
+      <c r="IT13" s="2" t="n">
         <v>388</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11180,8 +11219,11 @@
       <c r="IS14" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="IT14" t="n">
+      <c r="IT14" s="2" t="n">
         <v>1.28</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11946,8 +11988,11 @@
       <c r="IS15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="IT15" t="n">
+      <c r="IT15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12712,8 +12757,11 @@
       <c r="IS16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT16" t="n">
+      <c r="IT16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13478,8 +13526,11 @@
       <c r="IS17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IT17" t="n">
+      <c r="IT17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14244,8 +14295,11 @@
       <c r="IS18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IT18" t="n">
+      <c r="IT18" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IU18" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15010,8 +15064,11 @@
       <c r="IS19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IT19" t="n">
+      <c r="IT19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15776,7 +15833,10 @@
       <c r="IS20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT20" t="n">
+      <c r="IT20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IU20" t="n">
         <v>15</v>
       </c>
     </row>
@@ -16542,8 +16602,11 @@
       <c r="IS21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT21" t="n">
+      <c r="IT21" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17308,8 +17371,11 @@
       <c r="IS22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IT22" t="n">
+      <c r="IT22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18074,8 +18140,11 @@
       <c r="IS23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT23" t="n">
+      <c r="IT23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18840,8 +18909,11 @@
       <c r="IS24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IT24" t="n">
+      <c r="IT24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19606,8 +19678,11 @@
       <c r="IS25" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="IT25" t="n">
+      <c r="IT25" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20372,8 +20447,11 @@
       <c r="IS26" s="2" t="n">
         <v>38.89</v>
       </c>
-      <c r="IT26" t="n">
+      <c r="IT26" s="2" t="n">
         <v>25.87</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21138,8 +21216,11 @@
       <c r="IS27" s="2" t="n">
         <v>18.42</v>
       </c>
-      <c r="IT27" t="n">
+      <c r="IT27" s="2" t="n">
         <v>14.37</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>15.36</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21904,8 +21985,11 @@
       <c r="IS28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IT28" t="n">
+      <c r="IT28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IU28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22670,8 +22754,11 @@
       <c r="IS29" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IT29" t="n">
+      <c r="IT29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IU29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23436,8 +23523,11 @@
       <c r="IS30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IT30" t="n">
+      <c r="IT30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24202,7 +24292,10 @@
       <c r="IS31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT31" t="n">
+      <c r="IT31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IU31" t="n">
         <v>54</v>
       </c>
     </row>
@@ -24968,8 +25061,11 @@
       <c r="IS32" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="IT32" t="n">
+      <c r="IT32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU32" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25734,7 +25830,10 @@
       <c r="IS33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT33" t="n">
+      <c r="IT33" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="IU33" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -26500,8 +26599,11 @@
       <c r="IS34" s="2" t="n">
         <v>42.2</v>
       </c>
-      <c r="IT34" t="n">
+      <c r="IT34" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27266,7 +27368,10 @@
       <c r="IS35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IT35" t="n">
+      <c r="IT35" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="IU35" t="n">
         <v>27.8</v>
       </c>
     </row>
@@ -28032,8 +28137,11 @@
       <c r="IS36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IT36" t="n">
+      <c r="IT36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IU36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28798,8 +28906,11 @@
       <c r="IS37" s="2" t="n">
         <v>84.5</v>
       </c>
-      <c r="IT37" t="n">
+      <c r="IT37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="IU37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29564,7 +29675,10 @@
       <c r="IS38" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="IT38" t="n">
+      <c r="IT38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="IU38" t="n">
         <v>25.91</v>
       </c>
     </row>
@@ -30330,8 +30444,11 @@
       <c r="IS39" s="2" t="n">
         <v>100.7</v>
       </c>
-      <c r="IT39" t="n">
+      <c r="IT39" s="2" t="n">
         <v>96.09999999999999</v>
+      </c>
+      <c r="IU39" t="n">
+        <v>97.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31096,8 +31213,11 @@
       <c r="IS40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IT40" t="n">
+      <c r="IT40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31862,8 +31982,11 @@
       <c r="IS41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT41" t="n">
+      <c r="IT41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32628,7 +32751,10 @@
       <c r="IS42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT42" t="n">
+      <c r="IT42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33394,8 +33520,11 @@
       <c r="IS43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT43" t="n">
+      <c r="IT43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34160,8 +34289,11 @@
       <c r="IS44" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IT44" t="n">
+      <c r="IT44" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -34926,8 +35058,11 @@
       <c r="IS45" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="IT45" t="n">
+      <c r="IT45" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="IU45" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35692,7 +35827,10 @@
       <c r="IS46" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="IT46" t="n">
+      <c r="IT46" s="2" t="n">
+        <v>282</v>
+      </c>
+      <c r="IU46" t="n">
         <v>282</v>
       </c>
     </row>
@@ -36458,8 +36596,11 @@
       <c r="IS47" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="IT47" t="n">
+      <c r="IT47" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IU47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37224,8 +37365,11 @@
       <c r="IS48" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IT48" t="n">
+      <c r="IT48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IU48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -37990,8 +38134,11 @@
       <c r="IS49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IT49" t="n">
+      <c r="IT49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38756,8 +38903,11 @@
       <c r="IS50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IT50" t="n">
+      <c r="IT50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39522,8 +39672,11 @@
       <c r="IS51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IT51" t="n">
+      <c r="IT51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IU51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40288,8 +40441,11 @@
       <c r="IS52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IT52" t="n">
+      <c r="IT52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IU52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41054,7 +41210,10 @@
       <c r="IS53" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IT53" t="n">
+      <c r="IT53" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IU53" t="n">
         <v>48</v>
       </c>
     </row>
@@ -41820,8 +41979,11 @@
       <c r="IS54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT54" t="n">
+      <c r="IT54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42586,8 +42748,11 @@
       <c r="IS55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT55" t="n">
+      <c r="IT55" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43352,8 +43517,11 @@
       <c r="IS56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IT56" t="n">
+      <c r="IT56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IU56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44118,8 +44286,11 @@
       <c r="IS57" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="IT57" t="n">
+      <c r="IT57" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="IU57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -44884,8 +45055,11 @@
       <c r="IS58" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="IT58" t="n">
+      <c r="IT58" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IU58" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45650,8 +45824,11 @@
       <c r="IS59" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="IT59" t="n">
+      <c r="IT59" s="2" t="n">
         <v>368</v>
+      </c>
+      <c r="IU59" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46416,8 +46593,11 @@
       <c r="IS60" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="IT60" t="n">
+      <c r="IT60" s="2" t="n">
         <v>1.61</v>
+      </c>
+      <c r="IU60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47182,8 +47362,11 @@
       <c r="IS61" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="IT61" t="n">
+      <c r="IT61" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="IU61" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -47948,8 +48131,11 @@
       <c r="IS62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT62" t="n">
+      <c r="IT62" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IU62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48714,8 +48900,11 @@
       <c r="IS63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IT63" t="n">
+      <c r="IT63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49480,7 +49669,10 @@
       <c r="IS64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IT64" t="n">
+      <c r="IT64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IU64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -50246,8 +50438,11 @@
       <c r="IS65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IT65" t="n">
+      <c r="IT65" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IU65" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51012,8 +51207,11 @@
       <c r="IS66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IT66" t="n">
+      <c r="IT66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51778,8 +51976,11 @@
       <c r="IS67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IT67" t="n">
+      <c r="IT67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52544,8 +52745,11 @@
       <c r="IS68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT68" t="n">
+      <c r="IT68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53310,7 +53514,10 @@
       <c r="IS69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT69" t="n">
+      <c r="IT69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IU69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -54076,8 +54283,11 @@
       <c r="IS70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT70" t="n">
+      <c r="IT70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IU70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -54842,8 +55052,11 @@
       <c r="IS71" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IT71" t="n">
+      <c r="IT71" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IU71" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55608,8 +55821,11 @@
       <c r="IS72" s="2" t="n">
         <v>24.5</v>
       </c>
-      <c r="IT72" t="n">
+      <c r="IT72" s="2" t="n">
         <v>30.67</v>
+      </c>
+      <c r="IU72" t="n">
+        <v>48.62</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56374,8 +56590,11 @@
       <c r="IS73" s="2" t="n">
         <v>17.82</v>
       </c>
-      <c r="IT73" t="n">
+      <c r="IT73" s="2" t="n">
         <v>14.72</v>
+      </c>
+      <c r="IU73" t="n">
+        <v>21.61</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -57140,7 +57359,10 @@
       <c r="IS74" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IT74" t="n">
+      <c r="IT74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU74" t="n">
         <v>36</v>
       </c>
     </row>
@@ -57906,8 +58128,11 @@
       <c r="IS75" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IT75" t="n">
+      <c r="IT75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IU75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58672,7 +58897,10 @@
       <c r="IS76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IT76" t="n">
+      <c r="IT76" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IU76" t="n">
         <v>37</v>
       </c>
     </row>
@@ -59438,8 +59666,11 @@
       <c r="IS77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IT77" t="n">
+      <c r="IT77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IU77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -60204,8 +60435,11 @@
       <c r="IS78" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="IT78" t="n">
+      <c r="IT78" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="IU78" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -60970,8 +61204,11 @@
       <c r="IS79" s="2" t="n">
         <v>3.38</v>
       </c>
-      <c r="IT79" t="n">
+      <c r="IT79" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="IU79" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61736,8 +61973,11 @@
       <c r="IS80" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="IT80" t="n">
+      <c r="IT80" s="2" t="n">
         <v>48.9</v>
+      </c>
+      <c r="IU80" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62502,8 +62742,11 @@
       <c r="IS81" s="2" t="n">
         <v>29.6</v>
       </c>
-      <c r="IT81" t="n">
+      <c r="IT81" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="IU81" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63268,8 +63511,11 @@
       <c r="IS82" s="2" t="n">
         <v>187.1</v>
       </c>
-      <c r="IT82" t="n">
+      <c r="IT82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="IU82" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -64034,8 +64280,11 @@
       <c r="IS83" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IT83" t="n">
+      <c r="IT83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IU83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -64800,8 +65049,11 @@
       <c r="IS84" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="IT84" t="n">
+      <c r="IT84" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="IU84" t="n">
+        <v>23.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65566,8 +65818,11 @@
       <c r="IS85" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IT85" t="n">
+      <c r="IT85" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IU85" t="n">
+        <v>55.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66332,8 +66587,11 @@
       <c r="IS86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT86" t="n">
+      <c r="IT86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU86" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -67098,8 +67356,11 @@
       <c r="IS87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT87" t="n">
+      <c r="IT87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IU87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -67864,8 +68125,11 @@
       <c r="IS88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT88" t="n">
+      <c r="IT88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68630,8 +68894,11 @@
       <c r="IS89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT89" t="n">
+      <c r="IT89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69396,8 +69663,11 @@
       <c r="IS90" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="IT90" t="n">
+      <c r="IT90" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IU90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -70162,8 +70432,11 @@
       <c r="IS91" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="IT91" t="n">
+      <c r="IT91" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="IU91" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -70928,8 +71201,11 @@
       <c r="IS92" s="2" t="n">
         <v>321</v>
       </c>
-      <c r="IT92" t="n">
+      <c r="IT92" s="2" t="n">
         <v>269</v>
+      </c>
+      <c r="IU92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71694,8 +71970,11 @@
       <c r="IS93" s="2" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="IT93" t="n">
+      <c r="IT93" s="2" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="IU93" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -72460,8 +72739,11 @@
       <c r="IS94" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IT94" t="n">
+      <c r="IT94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IU94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -73226,8 +73508,11 @@
       <c r="IS95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IT95" t="n">
+      <c r="IT95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -73992,8 +74277,11 @@
       <c r="IS96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IT96" t="n">
+      <c r="IT96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -74758,7 +75046,10 @@
       <c r="IS97" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IT97" t="n">
+      <c r="IT97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IU97" t="n">
         <v>36</v>
       </c>
     </row>
@@ -75524,7 +75815,10 @@
       <c r="IS98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IT98" t="n">
+      <c r="IT98" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IU98" t="n">
         <v>37</v>
       </c>
     </row>
@@ -76290,8 +76584,11 @@
       <c r="IS99" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT99" t="n">
+      <c r="IT99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IU99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -77056,8 +77353,11 @@
       <c r="IS100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IT100" t="n">
+      <c r="IT100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -77822,8 +78122,11 @@
       <c r="IS101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IT101" t="n">
+      <c r="IT101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78588,8 +78891,11 @@
       <c r="IS102" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="IT102" t="n">
+      <c r="IT102" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="IU102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1225,8 +1225,11 @@
       <c r="IT1" s="2" t="n">
         <v>10546</v>
       </c>
-      <c r="IU1" t="n">
+      <c r="IU1" s="2" t="n">
         <v>10555</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>10566</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -1994,7 +1997,10 @@
       <c r="IT2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2763,8 +2769,11 @@
       <c r="IT3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IU3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3532,7 +3541,10 @@
       <c r="IT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4301,8 +4313,11 @@
       <c r="IT5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IU5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5070,8 +5085,11 @@
       <c r="IT6" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IU6" t="n">
+      <c r="IU6" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5839,8 +5857,11 @@
       <c r="IT7" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IU7" t="n">
+      <c r="IU7" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6608,8 +6629,11 @@
       <c r="IT8" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IU8" t="n">
+      <c r="IU8" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7377,8 +7401,11 @@
       <c r="IT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU9" t="n">
+      <c r="IU9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8146,8 +8173,11 @@
       <c r="IT10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IU10" t="n">
+      <c r="IU10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8915,8 +8945,11 @@
       <c r="IT11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="IU11" t="n">
+      <c r="IU11" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9684,8 +9717,11 @@
       <c r="IT12" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="IU12" t="n">
+      <c r="IU12" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10453,8 +10489,11 @@
       <c r="IT13" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="IU13" t="n">
+      <c r="IU13" s="2" t="n">
         <v>384</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11222,8 +11261,11 @@
       <c r="IT14" s="2" t="n">
         <v>1.28</v>
       </c>
-      <c r="IU14" t="n">
+      <c r="IU14" s="2" t="n">
         <v>1.1</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -11991,8 +12033,11 @@
       <c r="IT15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IU15" t="n">
+      <c r="IU15" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12760,8 +12805,11 @@
       <c r="IT16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IU16" t="n">
+      <c r="IU16" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13529,8 +13577,11 @@
       <c r="IT17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IU17" t="n">
+      <c r="IU17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14298,8 +14349,11 @@
       <c r="IT18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IU18" t="n">
+      <c r="IU18" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15067,8 +15121,11 @@
       <c r="IT19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IU19" t="n">
+      <c r="IU19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -15836,8 +15893,11 @@
       <c r="IT20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IU20" t="n">
+      <c r="IU20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16605,8 +16665,11 @@
       <c r="IT21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU21" t="n">
+      <c r="IU21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17374,8 +17437,11 @@
       <c r="IT22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU22" t="n">
+      <c r="IU22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18143,8 +18209,11 @@
       <c r="IT23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU23" t="n">
+      <c r="IU23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18912,8 +18981,11 @@
       <c r="IT24" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IU24" t="n">
+      <c r="IU24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19681,8 +19753,11 @@
       <c r="IT25" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="IU25" t="n">
+      <c r="IU25" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20450,8 +20525,11 @@
       <c r="IT26" s="2" t="n">
         <v>25.87</v>
       </c>
-      <c r="IU26" t="n">
+      <c r="IU26" s="2" t="n">
         <v>25.6</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>30.23</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21219,8 +21297,11 @@
       <c r="IT27" s="2" t="n">
         <v>14.37</v>
       </c>
-      <c r="IU27" t="n">
+      <c r="IU27" s="2" t="n">
         <v>15.36</v>
+      </c>
+      <c r="IV27" t="n">
+        <v>15.12</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -21988,8 +22069,11 @@
       <c r="IT28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IU28" t="n">
+      <c r="IU28" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IV28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22757,8 +22841,11 @@
       <c r="IT29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IU29" t="n">
+      <c r="IU29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23526,8 +23613,11 @@
       <c r="IT30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IU30" t="n">
+      <c r="IU30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24295,8 +24385,11 @@
       <c r="IT31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IU31" t="n">
+      <c r="IU31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25064,8 +25157,11 @@
       <c r="IT32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU32" t="n">
+      <c r="IU32" s="2" t="n">
         <v>2.16</v>
+      </c>
+      <c r="IV32" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25833,8 +25929,11 @@
       <c r="IT33" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="IU33" t="n">
+      <c r="IU33" s="2" t="n">
         <v>3.6</v>
+      </c>
+      <c r="IV33" t="n">
+        <v>4.54</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26602,8 +26701,11 @@
       <c r="IT34" s="2" t="n">
         <v>48.1</v>
       </c>
-      <c r="IU34" t="n">
+      <c r="IU34" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="IV34" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27371,8 +27473,11 @@
       <c r="IT35" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IU35" t="n">
+      <c r="IU35" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IV35" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28140,8 +28245,11 @@
       <c r="IT36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="IU36" t="n">
+      <c r="IU36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IV36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -28909,8 +29017,11 @@
       <c r="IT37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IU37" t="n">
+      <c r="IU37" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="IV37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29678,8 +29789,11 @@
       <c r="IT38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IU38" t="n">
+      <c r="IU38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IV38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30447,8 +30561,11 @@
       <c r="IT39" s="2" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="IU39" t="n">
+      <c r="IU39" s="2" t="n">
         <v>97.2</v>
+      </c>
+      <c r="IV39" t="n">
+        <v>107.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31216,8 +31333,11 @@
       <c r="IT40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU40" t="n">
+      <c r="IU40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -31985,7 +32105,10 @@
       <c r="IT41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU41" t="n">
+      <c r="IU41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32754,8 +32877,11 @@
       <c r="IT42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU42" t="n">
+      <c r="IU42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33523,7 +33649,10 @@
       <c r="IT43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU43" t="n">
+      <c r="IU43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34292,8 +34421,11 @@
       <c r="IT44" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IU44" t="n">
+      <c r="IU44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35061,8 +35193,11 @@
       <c r="IT45" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="IU45" t="n">
+      <c r="IU45" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35830,8 +35965,11 @@
       <c r="IT46" s="2" t="n">
         <v>282</v>
       </c>
-      <c r="IU46" t="n">
+      <c r="IU46" s="2" t="n">
         <v>282</v>
+      </c>
+      <c r="IV46" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36599,8 +36737,11 @@
       <c r="IT47" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IU47" t="n">
+      <c r="IU47" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="IV47" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37368,8 +37509,11 @@
       <c r="IT48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IU48" t="n">
+      <c r="IU48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IV48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38137,8 +38281,11 @@
       <c r="IT49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU49" t="n">
+      <c r="IU49" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -38906,8 +39053,11 @@
       <c r="IT50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU50" t="n">
+      <c r="IU50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39675,8 +39825,11 @@
       <c r="IT51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IU51" t="n">
+      <c r="IU51" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IV51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40444,8 +40597,11 @@
       <c r="IT52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IU52" t="n">
+      <c r="IU52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41213,8 +41369,11 @@
       <c r="IT53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IU53" t="n">
+      <c r="IU53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IV53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -41982,8 +42141,11 @@
       <c r="IT54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU54" t="n">
+      <c r="IU54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IV54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42751,8 +42913,11 @@
       <c r="IT55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU55" t="n">
+      <c r="IU55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43520,8 +43685,11 @@
       <c r="IT56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IU56" t="n">
+      <c r="IU56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IV56" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44289,8 +44457,11 @@
       <c r="IT57" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="IU57" t="n">
+      <c r="IU57" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IV57" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45058,8 +45229,11 @@
       <c r="IT58" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IU58" t="n">
+      <c r="IU58" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="IV58" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -45827,8 +46001,11 @@
       <c r="IT59" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="IU59" t="n">
+      <c r="IU59" s="2" t="n">
         <v>389</v>
+      </c>
+      <c r="IV59" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46596,8 +46773,11 @@
       <c r="IT60" s="2" t="n">
         <v>1.61</v>
       </c>
-      <c r="IU60" t="n">
+      <c r="IU60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IV60" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47365,8 +47545,11 @@
       <c r="IT61" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="IU61" t="n">
+      <c r="IU61" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="IV61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48134,8 +48317,11 @@
       <c r="IT62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IU62" t="n">
+      <c r="IU62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IV62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -48903,8 +49089,11 @@
       <c r="IT63" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IU63" t="n">
+      <c r="IU63" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IV63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -49672,8 +49861,11 @@
       <c r="IT64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IU64" t="n">
+      <c r="IU64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IV64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -50441,8 +50633,11 @@
       <c r="IT65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IU65" t="n">
+      <c r="IU65" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IV65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51210,8 +51405,11 @@
       <c r="IT66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU66" t="n">
+      <c r="IU66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -51979,8 +52177,11 @@
       <c r="IT67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU67" t="n">
+      <c r="IU67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52748,8 +52949,11 @@
       <c r="IT68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IU68" t="n">
+      <c r="IU68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53517,8 +53721,11 @@
       <c r="IT69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU69" t="n">
+      <c r="IU69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -54286,8 +54493,11 @@
       <c r="IT70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IU70" t="n">
+      <c r="IU70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IV70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55055,8 +55265,11 @@
       <c r="IT71" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IU71" t="n">
+      <c r="IU71" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="IV71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -55824,8 +56037,11 @@
       <c r="IT72" s="2" t="n">
         <v>30.67</v>
       </c>
-      <c r="IU72" t="n">
+      <c r="IU72" s="2" t="n">
         <v>48.62</v>
+      </c>
+      <c r="IV72" t="n">
+        <v>22.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56593,8 +56809,11 @@
       <c r="IT73" s="2" t="n">
         <v>14.72</v>
       </c>
-      <c r="IU73" t="n">
+      <c r="IU73" s="2" t="n">
         <v>21.61</v>
+      </c>
+      <c r="IV73" t="n">
+        <v>14.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -57362,8 +57581,11 @@
       <c r="IT74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IU74" t="n">
+      <c r="IU74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IV74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -58131,8 +58353,11 @@
       <c r="IT75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IU75" t="n">
+      <c r="IU75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IV75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -58900,8 +59125,11 @@
       <c r="IT76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IU76" t="n">
+      <c r="IU76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IV76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59669,8 +59897,11 @@
       <c r="IT77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IU77" t="n">
+      <c r="IU77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IV77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -60438,8 +60669,11 @@
       <c r="IT78" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="IU78" t="n">
+      <c r="IU78" s="2" t="n">
         <v>2.83</v>
+      </c>
+      <c r="IV78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -61207,8 +61441,11 @@
       <c r="IT79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="IU79" t="n">
+      <c r="IU79" s="2" t="n">
         <v>6.38</v>
+      </c>
+      <c r="IV79" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -61976,8 +62213,11 @@
       <c r="IT80" s="2" t="n">
         <v>48.9</v>
       </c>
-      <c r="IU80" t="n">
+      <c r="IU80" s="2" t="n">
         <v>31.4</v>
+      </c>
+      <c r="IV80" t="n">
+        <v>44.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62745,8 +62985,11 @@
       <c r="IT81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="IU81" t="n">
+      <c r="IU81" s="2" t="n">
         <v>15.7</v>
+      </c>
+      <c r="IV81" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63514,8 +63757,11 @@
       <c r="IT82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="IU82" t="n">
+      <c r="IU82" s="2" t="n">
         <v>186.9</v>
+      </c>
+      <c r="IV82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -64283,8 +64529,11 @@
       <c r="IT83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IU83" t="n">
+      <c r="IU83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IV83" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -65052,8 +65301,11 @@
       <c r="IT84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="IU84" t="n">
+      <c r="IU84" s="2" t="n">
         <v>23.58</v>
+      </c>
+      <c r="IV84" t="n">
+        <v>28.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -65821,8 +66073,11 @@
       <c r="IT85" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="IU85" t="n">
+      <c r="IU85" s="2" t="n">
         <v>55.2</v>
+      </c>
+      <c r="IV85" t="n">
+        <v>157.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66590,8 +66845,11 @@
       <c r="IT86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU86" t="n">
+      <c r="IU86" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IV86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -67359,7 +67617,10 @@
       <c r="IT87" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IU87" t="n">
+      <c r="IU87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IV87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -68128,8 +68389,11 @@
       <c r="IT88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU88" t="n">
+      <c r="IU88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -68897,8 +69161,11 @@
       <c r="IT89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU89" t="n">
+      <c r="IU89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV89" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69666,8 +69933,11 @@
       <c r="IT90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IU90" t="n">
+      <c r="IU90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="IV90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -70435,8 +70705,11 @@
       <c r="IT91" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="IU91" t="n">
+      <c r="IU91" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="IV91" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -71204,8 +71477,11 @@
       <c r="IT92" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="IU92" t="n">
+      <c r="IU92" s="2" t="n">
         <v>281</v>
+      </c>
+      <c r="IV92" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -71973,8 +72249,11 @@
       <c r="IT93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="IU93" t="n">
+      <c r="IU93" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="IV93" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -72742,8 +73021,11 @@
       <c r="IT94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IU94" t="n">
+      <c r="IU94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IV94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -73511,8 +73793,11 @@
       <c r="IT95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU95" t="n">
+      <c r="IU95" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -74280,8 +74565,11 @@
       <c r="IT96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU96" t="n">
+      <c r="IU96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IV96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -75049,8 +75337,11 @@
       <c r="IT97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IU97" t="n">
+      <c r="IU97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IV97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -75818,8 +76109,11 @@
       <c r="IT98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IU98" t="n">
+      <c r="IU98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IV98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -76587,8 +76881,11 @@
       <c r="IT99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IU99" t="n">
+      <c r="IU99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -77356,8 +77653,11 @@
       <c r="IT100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU100" t="n">
+      <c r="IU100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -78125,8 +78425,11 @@
       <c r="IT101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU101" t="n">
+      <c r="IU101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -78894,8 +79197,11 @@
       <c r="IT102" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="IU102" t="n">
+      <c r="IU102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IV102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1228,8 +1228,11 @@
       <c r="IU1" s="2" t="n">
         <v>10555</v>
       </c>
-      <c r="IV1" t="n">
+      <c r="IV1" s="2" t="n">
         <v>10566</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>10574</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2000,7 +2003,10 @@
       <c r="IU2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2772,8 +2778,11 @@
       <c r="IU3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IV3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3544,7 +3553,10 @@
       <c r="IU4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4316,7 +4328,10 @@
       <c r="IU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IV5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,8 +5103,11 @@
       <c r="IU6" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="IV6" t="n">
+      <c r="IV6" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5860,8 +5878,11 @@
       <c r="IU7" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IV7" t="n">
+      <c r="IV7" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6632,7 +6653,10 @@
       <c r="IU8" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IV8" t="n">
+      <c r="IV8" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="IW8" t="n">
         <v>-13</v>
       </c>
     </row>
@@ -7404,7 +7428,10 @@
       <c r="IU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV9" t="n">
+      <c r="IV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8176,8 +8203,11 @@
       <c r="IU10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV10" t="n">
+      <c r="IV10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -8948,8 +8978,11 @@
       <c r="IU11" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="IV11" t="n">
+      <c r="IV11" s="2" t="n">
         <v>204</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9720,8 +9753,11 @@
       <c r="IU12" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="IV12" t="n">
+      <c r="IV12" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10492,8 +10528,11 @@
       <c r="IU13" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="IV13" t="n">
+      <c r="IV13" s="2" t="n">
         <v>393</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11264,8 +11303,11 @@
       <c r="IU14" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="IV14" t="n">
+      <c r="IV14" s="2" t="n">
         <v>1.08</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12036,8 +12078,11 @@
       <c r="IU15" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IV15" t="n">
+      <c r="IV15" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12808,8 +12853,11 @@
       <c r="IU16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IV16" t="n">
+      <c r="IV16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13580,7 +13628,10 @@
       <c r="IU17" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IV17" t="n">
+      <c r="IV17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IW17" t="n">
         <v>34</v>
       </c>
     </row>
@@ -14352,8 +14403,11 @@
       <c r="IU18" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IV18" t="n">
+      <c r="IV18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15124,7 +15178,10 @@
       <c r="IU19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IV19" t="n">
+      <c r="IV19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IW19" t="n">
         <v>21</v>
       </c>
     </row>
@@ -15896,8 +15953,11 @@
       <c r="IU20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IV20" t="n">
+      <c r="IV20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16668,8 +16728,11 @@
       <c r="IU21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV21" t="n">
+      <c r="IV21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17440,8 +17503,11 @@
       <c r="IU22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IV22" t="n">
+      <c r="IV22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18212,8 +18278,11 @@
       <c r="IU23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV23" t="n">
+      <c r="IV23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -18984,8 +19053,11 @@
       <c r="IU24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IV24" t="n">
+      <c r="IV24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19756,8 +19828,11 @@
       <c r="IU25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IV25" t="n">
+      <c r="IV25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20528,8 +20603,11 @@
       <c r="IU26" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="IV26" t="n">
+      <c r="IV26" s="2" t="n">
         <v>30.23</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21300,8 +21378,11 @@
       <c r="IU27" s="2" t="n">
         <v>15.36</v>
       </c>
-      <c r="IV27" t="n">
+      <c r="IV27" s="2" t="n">
         <v>15.12</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>14.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22072,8 +22153,11 @@
       <c r="IU28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IV28" t="n">
+      <c r="IV28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -22844,8 +22928,11 @@
       <c r="IU29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IV29" t="n">
+      <c r="IV29" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23616,8 +23703,11 @@
       <c r="IU30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV30" t="n">
+      <c r="IV30" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24388,8 +24478,11 @@
       <c r="IU31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IV31" t="n">
+      <c r="IV31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25160,8 +25253,11 @@
       <c r="IU32" s="2" t="n">
         <v>2.16</v>
       </c>
-      <c r="IV32" t="n">
+      <c r="IV32" s="2" t="n">
         <v>2.27</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -25932,8 +26028,11 @@
       <c r="IU33" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="IV33" t="n">
+      <c r="IV33" s="2" t="n">
         <v>4.54</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26704,8 +26803,11 @@
       <c r="IU34" s="2" t="n">
         <v>42.6</v>
       </c>
-      <c r="IV34" t="n">
+      <c r="IV34" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27476,8 +27578,11 @@
       <c r="IU35" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IV35" t="n">
+      <c r="IV35" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28248,8 +28353,11 @@
       <c r="IU36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="IV36" t="n">
+      <c r="IV36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IW36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -29020,8 +29128,11 @@
       <c r="IU37" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="IV37" t="n">
+      <c r="IV37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IW37" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -29792,8 +29903,11 @@
       <c r="IU38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IV38" t="n">
+      <c r="IV38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30564,8 +30678,11 @@
       <c r="IU39" s="2" t="n">
         <v>97.2</v>
       </c>
-      <c r="IV39" t="n">
+      <c r="IV39" s="2" t="n">
         <v>107.4</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31336,8 +31453,11 @@
       <c r="IU40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV40" t="n">
+      <c r="IV40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -32108,8 +32228,11 @@
       <c r="IU41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV41" t="n">
+      <c r="IV41" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -32880,8 +33003,11 @@
       <c r="IU42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV42" t="n">
+      <c r="IV42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -33652,8 +33778,11 @@
       <c r="IU43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV43" t="n">
+      <c r="IV43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34424,8 +34553,11 @@
       <c r="IU44" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="IV44" t="n">
+      <c r="IV44" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35196,8 +35328,11 @@
       <c r="IU45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="IV45" t="n">
+      <c r="IV45" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -35968,8 +36103,11 @@
       <c r="IU46" s="2" t="n">
         <v>282</v>
       </c>
-      <c r="IV46" t="n">
+      <c r="IV46" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -36740,8 +36878,11 @@
       <c r="IU47" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="IV47" t="n">
+      <c r="IV47" s="2" t="n">
         <v>69.7</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37512,8 +37653,11 @@
       <c r="IU48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IV48" t="n">
+      <c r="IV48" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38284,8 +38428,11 @@
       <c r="IU49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV49" t="n">
+      <c r="IV49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -39056,8 +39203,11 @@
       <c r="IU50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IV50" t="n">
+      <c r="IV50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -39828,8 +39978,11 @@
       <c r="IU51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IV51" t="n">
+      <c r="IV51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40600,8 +40753,11 @@
       <c r="IU52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV52" t="n">
+      <c r="IV52" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41372,8 +41528,11 @@
       <c r="IU53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IV53" t="n">
+      <c r="IV53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -42144,8 +42303,11 @@
       <c r="IU54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV54" t="n">
+      <c r="IV54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -42916,8 +43078,11 @@
       <c r="IU55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV55" t="n">
+      <c r="IV55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -43688,8 +43853,11 @@
       <c r="IU56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IV56" t="n">
+      <c r="IV56" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44460,8 +44628,11 @@
       <c r="IU57" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="IV57" t="n">
+      <c r="IV57" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="IW57" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45232,8 +45403,11 @@
       <c r="IU58" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="IV58" t="n">
+      <c r="IV58" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -46004,8 +46178,11 @@
       <c r="IU59" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="IV59" t="n">
+      <c r="IV59" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -46776,8 +46953,11 @@
       <c r="IU60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="IV60" t="n">
+      <c r="IV60" s="2" t="n">
         <v>1.23</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47548,8 +47728,11 @@
       <c r="IU61" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IV61" t="n">
+      <c r="IV61" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48320,8 +48503,11 @@
       <c r="IU62" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IV62" t="n">
+      <c r="IV62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -49092,7 +49278,10 @@
       <c r="IU63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IV63" t="n">
+      <c r="IV63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IW63" t="n">
         <v>31</v>
       </c>
     </row>
@@ -49864,7 +50053,10 @@
       <c r="IU64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IV64" t="n">
+      <c r="IV64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IW64" t="n">
         <v>21</v>
       </c>
     </row>
@@ -50636,8 +50828,11 @@
       <c r="IU65" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IV65" t="n">
+      <c r="IV65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51408,8 +51603,11 @@
       <c r="IU66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IV66" t="n">
+      <c r="IV66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -52180,8 +52378,11 @@
       <c r="IU67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV67" t="n">
+      <c r="IV67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -52952,8 +53153,11 @@
       <c r="IU68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IV68" t="n">
+      <c r="IV68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -53724,8 +53928,11 @@
       <c r="IU69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV69" t="n">
+      <c r="IV69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -54496,8 +54703,11 @@
       <c r="IU70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IV70" t="n">
+      <c r="IV70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55268,8 +55478,11 @@
       <c r="IU71" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="IV71" t="n">
+      <c r="IV71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -56040,8 +56253,11 @@
       <c r="IU72" s="2" t="n">
         <v>48.62</v>
       </c>
-      <c r="IV72" t="n">
+      <c r="IV72" s="2" t="n">
         <v>22.31</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -56812,8 +57028,11 @@
       <c r="IU73" s="2" t="n">
         <v>21.61</v>
       </c>
-      <c r="IV73" t="n">
+      <c r="IV73" s="2" t="n">
         <v>14.88</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>19.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -57584,8 +57803,11 @@
       <c r="IU74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IV74" t="n">
+      <c r="IV74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -58356,8 +58578,11 @@
       <c r="IU75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IV75" t="n">
+      <c r="IV75" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -59128,8 +59353,11 @@
       <c r="IU76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IV76" t="n">
+      <c r="IV76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -59900,8 +60128,11 @@
       <c r="IU77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IV77" t="n">
+      <c r="IV77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IW77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -60672,8 +60903,11 @@
       <c r="IU78" s="2" t="n">
         <v>2.83</v>
       </c>
-      <c r="IV78" t="n">
+      <c r="IV78" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -61444,8 +61678,11 @@
       <c r="IU79" s="2" t="n">
         <v>6.38</v>
       </c>
-      <c r="IV79" t="n">
+      <c r="IV79" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -62216,8 +62453,11 @@
       <c r="IU80" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="IV80" t="n">
+      <c r="IV80" s="2" t="n">
         <v>44.7</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -62988,8 +63228,11 @@
       <c r="IU81" s="2" t="n">
         <v>15.7</v>
       </c>
-      <c r="IV81" t="n">
+      <c r="IV81" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -63760,8 +64003,11 @@
       <c r="IU82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="IV82" t="n">
+      <c r="IV82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -64532,8 +64778,11 @@
       <c r="IU83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IV83" t="n">
+      <c r="IV83" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="IW83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -65304,8 +65553,11 @@
       <c r="IU84" s="2" t="n">
         <v>23.58</v>
       </c>
-      <c r="IV84" t="n">
+      <c r="IV84" s="2" t="n">
         <v>28.24</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -66076,8 +66328,11 @@
       <c r="IU85" s="2" t="n">
         <v>55.2</v>
       </c>
-      <c r="IV85" t="n">
+      <c r="IV85" s="2" t="n">
         <v>157.7</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>93.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -66848,8 +67103,11 @@
       <c r="IU86" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IV86" t="n">
+      <c r="IV86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -67620,8 +67878,11 @@
       <c r="IU87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IV87" t="n">
+      <c r="IV87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -68392,8 +68653,11 @@
       <c r="IU88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV88" t="n">
+      <c r="IV88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -69164,8 +69428,11 @@
       <c r="IU89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV89" t="n">
+      <c r="IV89" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -69936,8 +70203,11 @@
       <c r="IU90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IV90" t="n">
+      <c r="IV90" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -70708,8 +70978,11 @@
       <c r="IU91" s="2" t="n">
         <v>252</v>
       </c>
-      <c r="IV91" t="n">
+      <c r="IV91" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -71480,8 +71753,11 @@
       <c r="IU92" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="IV92" t="n">
+      <c r="IV92" s="2" t="n">
         <v>262</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -72252,8 +72528,11 @@
       <c r="IU93" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="IV93" t="n">
+      <c r="IV93" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -73024,8 +73303,11 @@
       <c r="IU94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IV94" t="n">
+      <c r="IV94" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -73796,8 +74078,11 @@
       <c r="IU95" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV95" t="n">
+      <c r="IV95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IW95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -74568,8 +74853,11 @@
       <c r="IU96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IV96" t="n">
+      <c r="IV96" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -75340,8 +75628,11 @@
       <c r="IU97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IV97" t="n">
+      <c r="IV97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -76112,8 +76403,11 @@
       <c r="IU98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IV98" t="n">
+      <c r="IV98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -76884,8 +77178,11 @@
       <c r="IU99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV99" t="n">
+      <c r="IV99" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -77656,7 +77953,10 @@
       <c r="IU100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV100" t="n">
+      <c r="IV100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -78428,8 +78728,11 @@
       <c r="IU101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV101" t="n">
+      <c r="IV101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -79200,8 +79503,11 @@
       <c r="IU102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IV102" t="n">
+      <c r="IV102" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>85.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IX102"/>
+  <dimension ref="A1:IY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1234,8 +1234,11 @@
       <c r="IW1" s="2" t="n">
         <v>10574</v>
       </c>
-      <c r="IX1" t="n">
+      <c r="IX1" s="2" t="n">
         <v>10580</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>10597</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2012,7 +2015,10 @@
       <c r="IW2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2790,8 +2796,11 @@
       <c r="IW3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IX3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3568,7 +3577,10 @@
       <c r="IW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IX4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,8 +4358,11 @@
       <c r="IW5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX5" t="n">
+      <c r="IX5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5124,8 +5139,11 @@
       <c r="IW6" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IX6" t="n">
+      <c r="IX6" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5902,8 +5920,11 @@
       <c r="IW7" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IX7" t="n">
+      <c r="IX7" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6680,8 +6701,11 @@
       <c r="IW8" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="IX8" t="n">
+      <c r="IX8" s="2" t="n">
         <v>-7</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7458,8 +7482,11 @@
       <c r="IW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX9" t="n">
+      <c r="IX9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8236,8 +8263,11 @@
       <c r="IW10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IX10" t="n">
+      <c r="IX10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9014,8 +9044,11 @@
       <c r="IW11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IX11" t="n">
+      <c r="IX11" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9792,8 +9825,11 @@
       <c r="IW12" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="IX12" t="n">
+      <c r="IX12" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10570,8 +10606,11 @@
       <c r="IW13" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="IX13" t="n">
+      <c r="IX13" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11348,8 +11387,11 @@
       <c r="IW14" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="IX14" t="n">
+      <c r="IX14" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="IY14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12126,8 +12168,11 @@
       <c r="IW15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IX15" t="n">
+      <c r="IX15" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IY15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12904,8 +12949,11 @@
       <c r="IW16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IX16" t="n">
+      <c r="IX16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IY16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13682,8 +13730,11 @@
       <c r="IW17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX17" t="n">
+      <c r="IX17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14460,8 +14511,11 @@
       <c r="IW18" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IX18" t="n">
+      <c r="IX18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IY18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15238,8 +15292,11 @@
       <c r="IW19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IX19" t="n">
+      <c r="IX19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IY19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16016,8 +16073,11 @@
       <c r="IW20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IX20" t="n">
+      <c r="IX20" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IY20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16794,8 +16854,11 @@
       <c r="IW21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX21" t="n">
+      <c r="IX21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17572,8 +17635,11 @@
       <c r="IW22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX22" t="n">
+      <c r="IX22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18350,8 +18416,11 @@
       <c r="IW23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX23" t="n">
+      <c r="IX23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -19128,8 +19197,11 @@
       <c r="IW24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IX24" t="n">
+      <c r="IX24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IY24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19906,8 +19978,11 @@
       <c r="IW25" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="IX25" t="n">
+      <c r="IX25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IY25" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20684,8 +20759,11 @@
       <c r="IW26" s="2" t="n">
         <v>35.2</v>
       </c>
-      <c r="IX26" t="n">
+      <c r="IX26" s="2" t="n">
         <v>25.79</v>
+      </c>
+      <c r="IY26" t="n">
+        <v>22.53</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21462,8 +21540,11 @@
       <c r="IW27" s="2" t="n">
         <v>14.67</v>
       </c>
-      <c r="IX27" t="n">
+      <c r="IX27" s="2" t="n">
         <v>17.19</v>
+      </c>
+      <c r="IY27" t="n">
+        <v>18.78</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22240,8 +22321,11 @@
       <c r="IW28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IX28" t="n">
+      <c r="IX28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IY28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23018,8 +23102,11 @@
       <c r="IW29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IX29" t="n">
+      <c r="IX29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IY29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23796,8 +23883,11 @@
       <c r="IW30" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IX30" t="n">
+      <c r="IX30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IY30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24574,8 +24664,11 @@
       <c r="IW31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IX31" t="n">
+      <c r="IX31" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IY31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25352,8 +25445,11 @@
       <c r="IW32" s="2" t="n">
         <v>2.54</v>
       </c>
-      <c r="IX32" t="n">
+      <c r="IX32" s="2" t="n">
         <v>2.95</v>
+      </c>
+      <c r="IY32" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -26130,8 +26226,11 @@
       <c r="IW33" s="2" t="n">
         <v>6.1</v>
       </c>
-      <c r="IX33" t="n">
+      <c r="IX33" s="2" t="n">
         <v>4.43</v>
+      </c>
+      <c r="IY33" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -26908,8 +27007,11 @@
       <c r="IW34" s="2" t="n">
         <v>31.1</v>
       </c>
-      <c r="IX34" t="n">
+      <c r="IX34" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="IY34" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27686,8 +27788,11 @@
       <c r="IW35" s="2" t="n">
         <v>16.4</v>
       </c>
-      <c r="IX35" t="n">
+      <c r="IX35" s="2" t="n">
         <v>22.6</v>
+      </c>
+      <c r="IY35" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28464,8 +28569,11 @@
       <c r="IW36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="IX36" t="n">
+      <c r="IX36" s="2" t="n">
         <v>190.5</v>
+      </c>
+      <c r="IY36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -29242,8 +29350,11 @@
       <c r="IW37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="IX37" t="n">
+      <c r="IX37" s="2" t="n">
         <v>88.8</v>
+      </c>
+      <c r="IY37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -30020,8 +30131,11 @@
       <c r="IW38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="IX38" t="n">
+      <c r="IX38" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="IY38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30798,8 +30912,11 @@
       <c r="IW39" s="2" t="n">
         <v>94.59999999999999</v>
       </c>
-      <c r="IX39" t="n">
+      <c r="IX39" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="IY39" t="n">
+        <v>102.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31576,7 +31693,10 @@
       <c r="IW40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IX40" t="n">
+      <c r="IX40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -32354,8 +32474,11 @@
       <c r="IW41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX41" t="n">
+      <c r="IX41" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -33132,7 +33255,10 @@
       <c r="IW42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IX42" t="n">
+      <c r="IX42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IY42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -33910,8 +34036,11 @@
       <c r="IW43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX43" t="n">
+      <c r="IX43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IY43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34688,8 +34817,11 @@
       <c r="IW44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IX44" t="n">
+      <c r="IX44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="IY44" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35466,8 +35598,11 @@
       <c r="IW45" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IX45" t="n">
+      <c r="IX45" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="IY45" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -36244,8 +36379,11 @@
       <c r="IW46" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="IX46" t="n">
+      <c r="IX46" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="IY46" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -37022,8 +37160,11 @@
       <c r="IW47" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="IX47" t="n">
+      <c r="IX47" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IY47" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37800,8 +37941,11 @@
       <c r="IW48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IX48" t="n">
+      <c r="IX48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IY48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38578,8 +38722,11 @@
       <c r="IW49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IX49" t="n">
+      <c r="IX49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -39356,8 +39503,11 @@
       <c r="IW50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IX50" t="n">
+      <c r="IX50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IY50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -40134,8 +40284,11 @@
       <c r="IW51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IX51" t="n">
+      <c r="IX51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IY51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -40912,8 +41065,11 @@
       <c r="IW52" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IX52" t="n">
+      <c r="IX52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IY52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41690,8 +41846,11 @@
       <c r="IW53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IX53" t="n">
+      <c r="IX53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IY53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -42468,8 +42627,11 @@
       <c r="IW54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX54" t="n">
+      <c r="IX54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IY54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -43246,8 +43408,11 @@
       <c r="IW55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX55" t="n">
+      <c r="IX55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -44024,8 +44189,11 @@
       <c r="IW56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IX56" t="n">
+      <c r="IX56" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IY56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44802,8 +44970,11 @@
       <c r="IW57" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="IX57" t="n">
+      <c r="IX57" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IY57" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45580,8 +45751,11 @@
       <c r="IW58" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="IX58" t="n">
+      <c r="IX58" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IY58" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -46358,8 +46532,11 @@
       <c r="IW59" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="IX59" t="n">
+      <c r="IX59" s="2" t="n">
         <v>375</v>
+      </c>
+      <c r="IY59" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -47136,8 +47313,11 @@
       <c r="IW60" s="2" t="n">
         <v>1.73</v>
       </c>
-      <c r="IX60" t="n">
+      <c r="IX60" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="IY60" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -47914,8 +48094,11 @@
       <c r="IW61" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="IX61" t="n">
+      <c r="IX61" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IY61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48692,8 +48875,11 @@
       <c r="IW62" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IX62" t="n">
+      <c r="IX62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IY62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -49470,8 +49656,11 @@
       <c r="IW63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IX63" t="n">
+      <c r="IX63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IY63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -50248,8 +50437,11 @@
       <c r="IW64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IX64" t="n">
+      <c r="IX64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IY64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -51026,8 +51218,11 @@
       <c r="IW65" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IX65" t="n">
+      <c r="IX65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IY65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -51804,8 +51999,11 @@
       <c r="IW66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IX66" t="n">
+      <c r="IX66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IY66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -52582,8 +52780,11 @@
       <c r="IW67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IX67" t="n">
+      <c r="IX67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IY67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -53360,7 +53561,10 @@
       <c r="IW68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IX68" t="n">
+      <c r="IX68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -54138,8 +54342,11 @@
       <c r="IW69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX69" t="n">
+      <c r="IX69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IY69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -54916,8 +55123,11 @@
       <c r="IW70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IX70" t="n">
+      <c r="IX70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IY70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55694,8 +55904,11 @@
       <c r="IW71" s="2" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="IX71" t="n">
+      <c r="IX71" s="2" t="n">
         <v>65.2</v>
+      </c>
+      <c r="IY71" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -56472,8 +56685,11 @@
       <c r="IW72" s="2" t="n">
         <v>24.14</v>
       </c>
-      <c r="IX72" t="n">
+      <c r="IX72" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IY72" t="n">
+        <v>32.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -57250,8 +57466,11 @@
       <c r="IW73" s="2" t="n">
         <v>19.88</v>
       </c>
-      <c r="IX73" t="n">
+      <c r="IX73" s="2" t="n">
         <v>16.3</v>
+      </c>
+      <c r="IY73" t="n">
+        <v>17.59</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -58028,8 +58247,11 @@
       <c r="IW74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX74" t="n">
+      <c r="IX74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IY74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -58806,8 +59028,11 @@
       <c r="IW75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IX75" t="n">
+      <c r="IX75" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IY75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -59584,8 +59809,11 @@
       <c r="IW76" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IX76" t="n">
+      <c r="IX76" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IY76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -60362,8 +60590,11 @@
       <c r="IW77" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IX77" t="n">
+      <c r="IX77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IY77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -61140,8 +61371,11 @@
       <c r="IW78" s="2" t="n">
         <v>2.47</v>
       </c>
-      <c r="IX78" t="n">
+      <c r="IX78" s="2" t="n">
         <v>2.35</v>
+      </c>
+      <c r="IY78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -61918,8 +62152,11 @@
       <c r="IW79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IX79" t="n">
+      <c r="IX79" s="2" t="n">
         <v>3.6</v>
+      </c>
+      <c r="IY79" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -62696,8 +62933,11 @@
       <c r="IW80" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="IX80" t="n">
+      <c r="IX80" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="IY80" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -63474,8 +63714,11 @@
       <c r="IW81" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IX81" t="n">
+      <c r="IX81" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IY81" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -64252,8 +64495,11 @@
       <c r="IW82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="IX82" t="n">
+      <c r="IX82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IY82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -65030,8 +65276,11 @@
       <c r="IW83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="IX83" t="n">
+      <c r="IX83" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="IY83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -65808,8 +66057,11 @@
       <c r="IW84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IX84" t="n">
+      <c r="IX84" s="2" t="n">
         <v>26.66</v>
+      </c>
+      <c r="IY84" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -66586,8 +66838,11 @@
       <c r="IW85" s="2" t="n">
         <v>93.8</v>
       </c>
-      <c r="IX85" t="n">
+      <c r="IX85" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IY85" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -67364,8 +67619,11 @@
       <c r="IW86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IX86" t="n">
+      <c r="IX86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IY86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -68142,8 +68400,11 @@
       <c r="IW87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX87" t="n">
+      <c r="IX87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IY87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -68920,8 +69181,11 @@
       <c r="IW88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IX88" t="n">
+      <c r="IX88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IY88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -69698,8 +69962,11 @@
       <c r="IW89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX89" t="n">
+      <c r="IX89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IY89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -70476,8 +70743,11 @@
       <c r="IW90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IX90" t="n">
+      <c r="IX90" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IY90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -71254,8 +71524,11 @@
       <c r="IW91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IX91" t="n">
+      <c r="IX91" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IY91" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -72032,8 +72305,11 @@
       <c r="IW92" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="IX92" t="n">
+      <c r="IX92" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="IY92" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -72810,8 +73086,11 @@
       <c r="IW93" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="IX93" t="n">
+      <c r="IX93" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IY93" t="n">
+        <v>79.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -73588,8 +73867,11 @@
       <c r="IW94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IX94" t="n">
+      <c r="IX94" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IY94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -74366,8 +74648,11 @@
       <c r="IW95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IX95" t="n">
+      <c r="IX95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IY95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -75144,8 +75429,11 @@
       <c r="IW96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IX96" t="n">
+      <c r="IX96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IY96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -75922,8 +76210,11 @@
       <c r="IW97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX97" t="n">
+      <c r="IX97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IY97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -76700,8 +76991,11 @@
       <c r="IW98" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IX98" t="n">
+      <c r="IX98" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IY98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -77478,8 +77772,11 @@
       <c r="IW99" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IX99" t="n">
+      <c r="IX99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IY99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -78256,8 +78553,11 @@
       <c r="IW100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX100" t="n">
+      <c r="IX100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IY100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -79034,8 +79334,11 @@
       <c r="IW101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IX101" t="n">
+      <c r="IX101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IY101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -79812,8 +80115,11 @@
       <c r="IW102" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IX102" t="n">
+      <c r="IX102" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IY102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IY102"/>
+  <dimension ref="A1:JA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1237,8 +1237,14 @@
       <c r="IX1" s="2" t="n">
         <v>10580</v>
       </c>
-      <c r="IY1" t="n">
+      <c r="IY1" s="2" t="n">
         <v>10597</v>
+      </c>
+      <c r="IZ1" s="2" t="n">
+        <v>10604</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>10609</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2018,7 +2024,13 @@
       <c r="IX2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IY2" t="n">
+      <c r="IY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JA2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2799,8 +2811,14 @@
       <c r="IX3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY3" t="n">
+      <c r="IY3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3580,7 +3598,13 @@
       <c r="IX4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="IY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,8 +4385,14 @@
       <c r="IX5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="IY5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5142,8 +5172,14 @@
       <c r="IX6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IY6" t="n">
+      <c r="IY6" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="IZ6" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -5923,8 +5959,14 @@
       <c r="IX7" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="IY7" t="n">
+      <c r="IY7" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IZ7" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6704,8 +6746,14 @@
       <c r="IX8" s="2" t="n">
         <v>-7</v>
       </c>
-      <c r="IY8" t="n">
+      <c r="IY8" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ8" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>-27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7485,8 +7533,14 @@
       <c r="IX9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY9" t="n">
+      <c r="IY9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8266,8 +8320,14 @@
       <c r="IX10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IY10" t="n">
+      <c r="IY10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IZ10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9047,8 +9107,14 @@
       <c r="IX11" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IY11" t="n">
+      <c r="IY11" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="IZ11" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -9828,8 +9894,14 @@
       <c r="IX12" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IY12" t="n">
+      <c r="IY12" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IZ12" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10609,8 +10681,14 @@
       <c r="IX13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="IY13" t="n">
+      <c r="IY13" s="2" t="n">
         <v>338</v>
+      </c>
+      <c r="IZ13" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11390,8 +11468,14 @@
       <c r="IX14" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="IY14" t="n">
+      <c r="IY14" s="2" t="n">
         <v>1.58</v>
+      </c>
+      <c r="IZ14" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="JA14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12171,8 +12255,14 @@
       <c r="IX15" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IY15" t="n">
+      <c r="IY15" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="IZ15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JA15" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -12952,8 +13042,14 @@
       <c r="IX16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IY16" t="n">
+      <c r="IY16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IZ16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -13733,8 +13829,14 @@
       <c r="IX17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IY17" t="n">
+      <c r="IY17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14514,8 +14616,14 @@
       <c r="IX18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IY18" t="n">
+      <c r="IY18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IZ18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JA18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15295,8 +15403,14 @@
       <c r="IX19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IY19" t="n">
+      <c r="IY19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IZ19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JA19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16076,8 +16190,14 @@
       <c r="IX20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IY20" t="n">
+      <c r="IY20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IZ20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -16857,8 +16977,14 @@
       <c r="IX21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY21" t="n">
+      <c r="IY21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -17638,8 +17764,14 @@
       <c r="IX22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY22" t="n">
+      <c r="IY22" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IZ22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18419,7 +18551,13 @@
       <c r="IX23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IY23" t="n">
+      <c r="IY23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19200,8 +19338,14 @@
       <c r="IX24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IY24" t="n">
+      <c r="IY24" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IZ24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -19981,8 +20125,14 @@
       <c r="IX25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IY25" t="n">
+      <c r="IY25" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IZ25" s="2" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -20762,8 +20912,14 @@
       <c r="IX26" s="2" t="n">
         <v>25.79</v>
       </c>
-      <c r="IY26" t="n">
+      <c r="IY26" s="2" t="n">
         <v>22.53</v>
+      </c>
+      <c r="IZ26" s="2" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>30.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -21543,8 +21699,14 @@
       <c r="IX27" s="2" t="n">
         <v>17.19</v>
       </c>
-      <c r="IY27" t="n">
+      <c r="IY27" s="2" t="n">
         <v>18.78</v>
+      </c>
+      <c r="IZ27" s="2" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="JA27" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22324,8 +22486,14 @@
       <c r="IX28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY28" t="n">
+      <c r="IY28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IZ28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23105,8 +23273,14 @@
       <c r="IX29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IY29" t="n">
+      <c r="IY29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IZ29" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JA29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -23886,8 +24060,14 @@
       <c r="IX30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY30" t="n">
+      <c r="IY30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IZ30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JA30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -24667,8 +24847,14 @@
       <c r="IX31" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IY31" t="n">
+      <c r="IY31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IZ31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JA31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -25448,8 +25634,14 @@
       <c r="IX32" s="2" t="n">
         <v>2.95</v>
       </c>
-      <c r="IY32" t="n">
+      <c r="IY32" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="IZ32" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="JA32" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -26229,8 +26421,14 @@
       <c r="IX33" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="IY33" t="n">
+      <c r="IY33" s="2" t="n">
         <v>3.2</v>
+      </c>
+      <c r="IZ33" s="2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="JA33" t="n">
+        <v>4.83</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -27010,8 +27208,14 @@
       <c r="IX34" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="IY34" t="n">
+      <c r="IY34" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="IZ34" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA34" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -27791,8 +27995,14 @@
       <c r="IX35" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="IY35" t="n">
+      <c r="IY35" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="IZ35" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JA35" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -28572,8 +28782,14 @@
       <c r="IX36" s="2" t="n">
         <v>190.5</v>
       </c>
-      <c r="IY36" t="n">
+      <c r="IY36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IZ36" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="JA36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -29353,8 +29569,14 @@
       <c r="IX37" s="2" t="n">
         <v>88.8</v>
       </c>
-      <c r="IY37" t="n">
+      <c r="IY37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IZ37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JA37" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -30134,8 +30356,14 @@
       <c r="IX38" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="IY38" t="n">
+      <c r="IY38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IZ38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JA38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -30915,8 +31143,14 @@
       <c r="IX39" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="IY39" t="n">
+      <c r="IY39" s="2" t="n">
         <v>102.3</v>
+      </c>
+      <c r="IZ39" s="2" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="JA39" t="n">
+        <v>97.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -31696,8 +31930,14 @@
       <c r="IX40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY40" t="n">
+      <c r="IY40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -32477,8 +32717,14 @@
       <c r="IX41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IY41" t="n">
+      <c r="IY41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IZ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -33258,7 +33504,13 @@
       <c r="IX42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY42" t="n">
+      <c r="IY42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -34039,8 +34291,14 @@
       <c r="IX43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY43" t="n">
+      <c r="IY43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IZ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -34820,8 +35078,14 @@
       <c r="IX44" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="IY44" t="n">
+      <c r="IY44" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IZ44" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JA44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -35601,8 +35865,14 @@
       <c r="IX45" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IY45" t="n">
+      <c r="IY45" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IZ45" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="JA45" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -36382,8 +36652,14 @@
       <c r="IX46" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IY46" t="n">
+      <c r="IY46" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="IZ46" s="2" t="n">
+        <v>267</v>
+      </c>
+      <c r="JA46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -37163,8 +37439,14 @@
       <c r="IX47" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IY47" t="n">
+      <c r="IY47" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="IZ47" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JA47" t="n">
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -37944,8 +38226,14 @@
       <c r="IX48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IY48" t="n">
+      <c r="IY48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IZ48" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JA48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -38725,8 +39013,14 @@
       <c r="IX49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY49" t="n">
+      <c r="IY49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IZ49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JA49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -39506,8 +39800,14 @@
       <c r="IX50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY50" t="n">
+      <c r="IY50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JA50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -40287,8 +40587,14 @@
       <c r="IX51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY51" t="n">
+      <c r="IY51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IZ51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -41068,8 +41374,14 @@
       <c r="IX52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY52" t="n">
+      <c r="IY52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IZ52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JA52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -41849,8 +42161,14 @@
       <c r="IX53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IY53" t="n">
+      <c r="IY53" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IZ53" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -42630,8 +42948,14 @@
       <c r="IX54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY54" t="n">
+      <c r="IY54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -43411,8 +43735,14 @@
       <c r="IX55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY55" t="n">
+      <c r="IY55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IZ55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -44192,8 +44522,14 @@
       <c r="IX56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IY56" t="n">
+      <c r="IY56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IZ56" s="2" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="JA56" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -44973,8 +45309,14 @@
       <c r="IX57" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="IY57" t="n">
+      <c r="IY57" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="IZ57" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="JA57" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -45754,8 +46096,14 @@
       <c r="IX58" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IY58" t="n">
+      <c r="IY58" s="2" t="n">
         <v>192</v>
+      </c>
+      <c r="IZ58" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JA58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -46535,8 +46883,14 @@
       <c r="IX59" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IY59" t="n">
+      <c r="IY59" s="2" t="n">
         <v>387</v>
+      </c>
+      <c r="IZ59" s="2" t="n">
+        <v>327</v>
+      </c>
+      <c r="JA59" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -47316,8 +47670,14 @@
       <c r="IX60" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="IY60" t="n">
+      <c r="IY60" s="2" t="n">
         <v>1.02</v>
+      </c>
+      <c r="IZ60" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="JA60" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -48097,8 +48457,14 @@
       <c r="IX61" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IY61" t="n">
+      <c r="IY61" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="IZ61" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="JA61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -48878,8 +49244,14 @@
       <c r="IX62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IY62" t="n">
+      <c r="IY62" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IZ62" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JA62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -49659,8 +50031,14 @@
       <c r="IX63" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IY63" t="n">
+      <c r="IY63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IZ63" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JA63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -50440,8 +50818,14 @@
       <c r="IX64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IY64" t="n">
+      <c r="IY64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IZ64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JA64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -51221,8 +51605,14 @@
       <c r="IX65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IY65" t="n">
+      <c r="IY65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IZ65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JA65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -52002,8 +52392,14 @@
       <c r="IX66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IY66" t="n">
+      <c r="IY66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IZ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JA66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -52783,8 +53179,14 @@
       <c r="IX67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY67" t="n">
+      <c r="IY67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -53564,7 +53966,13 @@
       <c r="IX68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IY68" t="n">
+      <c r="IY68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA68" t="n">
         <v>7</v>
       </c>
     </row>
@@ -54345,8 +54753,14 @@
       <c r="IX69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY69" t="n">
+      <c r="IY69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IZ69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -55126,8 +55540,14 @@
       <c r="IX70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IY70" t="n">
+      <c r="IY70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IZ70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JA70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -55907,8 +56327,14 @@
       <c r="IX71" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="IY71" t="n">
+      <c r="IY71" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="IZ71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JA71" t="n">
+        <v>60.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -56688,8 +57114,14 @@
       <c r="IX72" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IY72" t="n">
+      <c r="IY72" s="2" t="n">
         <v>32.25</v>
+      </c>
+      <c r="IZ72" s="2" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="JA72" t="n">
+        <v>22.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -57469,8 +57901,14 @@
       <c r="IX73" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="IY73" t="n">
+      <c r="IY73" s="2" t="n">
         <v>17.59</v>
+      </c>
+      <c r="IZ73" s="2" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="JA73" t="n">
+        <v>13.86</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -58250,8 +58688,14 @@
       <c r="IX74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IY74" t="n">
+      <c r="IY74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IZ74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -59031,8 +59475,14 @@
       <c r="IX75" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IY75" t="n">
+      <c r="IY75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IZ75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JA75" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -59812,8 +60262,14 @@
       <c r="IX76" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IY76" t="n">
+      <c r="IY76" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IZ76" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -60593,8 +61049,14 @@
       <c r="IX77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IY77" t="n">
+      <c r="IY77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IZ77" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JA77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -61374,8 +61836,14 @@
       <c r="IX78" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="IY78" t="n">
+      <c r="IY78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="IZ78" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="JA78" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -62155,8 +62623,14 @@
       <c r="IX79" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="IY79" t="n">
+      <c r="IY79" s="2" t="n">
         <v>4.33</v>
+      </c>
+      <c r="IZ79" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JA79" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -62936,8 +63410,14 @@
       <c r="IX80" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="IY80" t="n">
+      <c r="IY80" s="2" t="n">
         <v>36.5</v>
+      </c>
+      <c r="IZ80" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="JA80" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -63717,8 +64197,14 @@
       <c r="IX81" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IY81" t="n">
+      <c r="IY81" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="IZ81" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JA81" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -64498,8 +64984,14 @@
       <c r="IX82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IY82" t="n">
+      <c r="IY82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IZ82" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="JA82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -65279,8 +65771,14 @@
       <c r="IX83" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="IY83" t="n">
+      <c r="IY83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IZ83" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JA83" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -66060,8 +66558,14 @@
       <c r="IX84" s="2" t="n">
         <v>26.66</v>
       </c>
-      <c r="IY84" t="n">
+      <c r="IY84" s="2" t="n">
         <v>24.24</v>
+      </c>
+      <c r="IZ84" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="JA84" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -66841,8 +67345,14 @@
       <c r="IX85" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IY85" t="n">
+      <c r="IY85" s="2" t="n">
         <v>69.8</v>
+      </c>
+      <c r="IZ85" s="2" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="JA85" t="n">
+        <v>125.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -67622,8 +68132,14 @@
       <c r="IX86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IY86" t="n">
+      <c r="IY86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IZ86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -68403,8 +68919,14 @@
       <c r="IX87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IY87" t="n">
+      <c r="IY87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IZ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -69184,8 +69706,14 @@
       <c r="IX88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IY88" t="n">
+      <c r="IY88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IZ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -69965,8 +70493,14 @@
       <c r="IX89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IY89" t="n">
+      <c r="IY89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IZ89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -70746,8 +71280,14 @@
       <c r="IX90" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IY90" t="n">
+      <c r="IY90" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="IZ90" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="JA90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -71527,8 +72067,14 @@
       <c r="IX91" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="IY91" t="n">
+      <c r="IY91" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="IZ91" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="JA91" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -72308,8 +72854,14 @@
       <c r="IX92" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="IY92" t="n">
+      <c r="IY92" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="IZ92" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JA92" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -73089,8 +73641,14 @@
       <c r="IX93" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IY93" t="n">
+      <c r="IY93" s="2" t="n">
         <v>79.8</v>
+      </c>
+      <c r="IZ93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JA93" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -73870,8 +74428,14 @@
       <c r="IX94" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IY94" t="n">
+      <c r="IY94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IZ94" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JA94" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -74651,8 +75215,14 @@
       <c r="IX95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IY95" t="n">
+      <c r="IY95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -75432,8 +76002,14 @@
       <c r="IX96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IY96" t="n">
+      <c r="IY96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IZ96" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JA96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -76213,8 +76789,14 @@
       <c r="IX97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IY97" t="n">
+      <c r="IY97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IZ97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JA97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -76994,8 +77576,14 @@
       <c r="IX98" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IY98" t="n">
+      <c r="IY98" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IZ98" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -77775,8 +78363,14 @@
       <c r="IX99" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IY99" t="n">
+      <c r="IY99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IZ99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JA99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -78556,8 +79150,14 @@
       <c r="IX100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IY100" t="n">
+      <c r="IY100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IZ100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -79337,8 +79937,14 @@
       <c r="IX101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IY101" t="n">
+      <c r="IY101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IZ101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -80118,8 +80724,14 @@
       <c r="IX102" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="IY102" t="n">
+      <c r="IY102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IZ102" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JA102" t="n">
+        <v>64.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1267,8 +1267,32 @@
       <c r="JH1" s="2" t="n">
         <v>10674</v>
       </c>
-      <c r="JI1" t="n">
+      <c r="JI1" s="2" t="n">
         <v>10680</v>
+      </c>
+      <c r="JJ1" s="2" t="n">
+        <v>10694</v>
+      </c>
+      <c r="JK1" s="2" t="n">
+        <v>10694</v>
+      </c>
+      <c r="JL1" s="2" t="n">
+        <v>10694</v>
+      </c>
+      <c r="JM1" s="2" t="n">
+        <v>10699</v>
+      </c>
+      <c r="JN1" s="2" t="n">
+        <v>10706</v>
+      </c>
+      <c r="JO1" s="2" t="n">
+        <v>10719</v>
+      </c>
+      <c r="JP1" s="2" t="n">
+        <v>10729</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10734</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2078,7 +2102,31 @@
       <c r="JH2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2889,8 +2937,32 @@
       <c r="JH3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JI3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JJ3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JK3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JL3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JP3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3700,8 +3772,32 @@
       <c r="JH4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JI4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4511,8 +4607,32 @@
       <c r="JH5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JI5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5322,8 +5442,32 @@
       <c r="JH6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JI6" t="n">
+      <c r="JI6" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JJ6" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JK6" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JL6" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="JM6" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JN6" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JO6" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="JP6" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6133,8 +6277,32 @@
       <c r="JH7" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JI7" t="n">
+      <c r="JI7" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="JJ7" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JK7" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JL7" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JM7" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JN7" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JO7" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="JP7" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6944,8 +7112,32 @@
       <c r="JH8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI8" t="n">
+      <c r="JI8" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP8" s="2" t="n">
+        <v>-27</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7755,7 +7947,31 @@
       <c r="JH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI9" t="n">
+      <c r="JI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8566,8 +8782,32 @@
       <c r="JH10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI10" t="n">
+      <c r="JI10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9377,8 +9617,32 @@
       <c r="JH11" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="JI11" t="n">
+      <c r="JI11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="JJ11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JK11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JL11" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JM11" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="JN11" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JO11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JP11" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10188,8 +10452,32 @@
       <c r="JH12" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="JI12" t="n">
+      <c r="JI12" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="JJ12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JK12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JL12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JM12" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="JN12" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JO12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JP12" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10999,8 +11287,32 @@
       <c r="JH13" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="JI13" t="n">
+      <c r="JI13" s="2" t="n">
         <v>341</v>
+      </c>
+      <c r="JJ13" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JK13" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JL13" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="JM13" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="JN13" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="JO13" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JP13" s="2" t="n">
+        <v>322</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11810,8 +12122,32 @@
       <c r="JH14" s="2" t="n">
         <v>1.64</v>
       </c>
-      <c r="JI14" t="n">
+      <c r="JI14" s="2" t="n">
         <v>1.71</v>
+      </c>
+      <c r="JJ14" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="JK14" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="JL14" s="2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="JM14" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JN14" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="JO14" s="2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="JP14" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12621,8 +12957,32 @@
       <c r="JH15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="JI15" t="n">
+      <c r="JI15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JJ15" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JK15" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JL15" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JM15" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="JN15" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JO15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JP15" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13432,8 +13792,32 @@
       <c r="JH16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JI16" t="n">
+      <c r="JI16" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JJ16" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JK16" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JL16" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JM16" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN16" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JO16" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JP16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14243,8 +14627,32 @@
       <c r="JH17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JI17" t="n">
+      <c r="JI17" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JJ17" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JK17" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JL17" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JN17" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JO17" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JP17" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15054,8 +15462,32 @@
       <c r="JH18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI18" t="n">
+      <c r="JI18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JJ18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JP18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15865,8 +16297,32 @@
       <c r="JH19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JI19" t="n">
+      <c r="JI19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JJ19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL19" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JO19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16676,8 +17132,32 @@
       <c r="JH20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI20" t="n">
+      <c r="JI20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17487,7 +17967,31 @@
       <c r="JH21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI21" t="n">
+      <c r="JI21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -18298,8 +18802,32 @@
       <c r="JH22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI22" t="n">
+      <c r="JI22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19109,7 +19637,31 @@
       <c r="JH23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI23" t="n">
+      <c r="JI23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19920,8 +20472,32 @@
       <c r="JH24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JI24" t="n">
+      <c r="JI24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JJ24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JL24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JM24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JP24" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -20731,8 +21307,32 @@
       <c r="JH25" s="2" t="n">
         <v>40.9</v>
       </c>
-      <c r="JI25" t="n">
+      <c r="JI25" s="2" t="n">
         <v>56.5</v>
+      </c>
+      <c r="JJ25" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JK25" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JL25" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JM25" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN25" s="2" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="JO25" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="JP25" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21542,8 +22142,32 @@
       <c r="JH26" s="2" t="n">
         <v>39.56</v>
       </c>
-      <c r="JI26" t="n">
+      <c r="JI26" s="2" t="n">
         <v>26.23</v>
+      </c>
+      <c r="JJ26" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="JK26" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="JL26" s="2" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="JM26" s="2" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="JN26" s="2" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="JO26" s="2" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="JP26" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>29.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22353,8 +22977,32 @@
       <c r="JH27" s="2" t="n">
         <v>16.18</v>
       </c>
-      <c r="JI27" t="n">
+      <c r="JI27" s="2" t="n">
         <v>14.83</v>
+      </c>
+      <c r="JJ27" s="2" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="JK27" s="2" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="JL27" s="2" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="JM27" s="2" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="JN27" s="2" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="JO27" s="2" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="JP27" s="2" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23164,8 +23812,32 @@
       <c r="JH28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JI28" t="n">
+      <c r="JI28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JJ28" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JK28" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL28" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JM28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JN28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23975,8 +24647,32 @@
       <c r="JH29" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JI29" t="n">
+      <c r="JI29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JJ29" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JK29" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JL29" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JM29" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JN29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JO29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JP29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -24786,8 +25482,32 @@
       <c r="JH30" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JI30" t="n">
+      <c r="JI30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JJ30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JK30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JM30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JN30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO30" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JP30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -25597,8 +26317,32 @@
       <c r="JH31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JI31" t="n">
+      <c r="JI31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JJ31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JK31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JL31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JM31" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JO31" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JP31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26408,8 +27152,32 @@
       <c r="JH32" s="2" t="n">
         <v>2.09</v>
       </c>
-      <c r="JI32" t="n">
+      <c r="JI32" s="2" t="n">
         <v>2.26</v>
+      </c>
+      <c r="JJ32" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="JK32" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="JL32" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="JM32" s="2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="JN32" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="JO32" s="2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="JP32" s="2" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27219,7 +27987,31 @@
       <c r="JH33" s="2" t="n">
         <v>5.11</v>
       </c>
-      <c r="JI33" t="n">
+      <c r="JI33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ33" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="JK33" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="JL33" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="JM33" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="JN33" s="2" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="JO33" s="2" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="JP33" s="2" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="JQ33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28030,8 +28822,32 @@
       <c r="JH34" s="2" t="n">
         <v>39.1</v>
       </c>
-      <c r="JI34" t="n">
+      <c r="JI34" s="2" t="n">
         <v>42.3</v>
+      </c>
+      <c r="JJ34" s="2" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JK34" s="2" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JL34" s="2" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="JM34" s="2" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="JN34" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JO34" s="2" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="JP34" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>43.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -28841,7 +29657,31 @@
       <c r="JH35" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="JI35" t="n">
+      <c r="JI35" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JJ35" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JK35" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JL35" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JM35" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="JN35" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="JO35" s="2" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="JP35" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="JQ35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -29652,8 +30492,32 @@
       <c r="JH36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="JI36" t="n">
+      <c r="JI36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JJ36" s="2" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="JK36" s="2" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="JL36" s="2" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="JM36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="JN36" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JO36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JP36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30463,8 +31327,32 @@
       <c r="JH37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="JI37" t="n">
+      <c r="JI37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JJ37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JK37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JL37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JM37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JN37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JO37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JP37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31274,8 +32162,32 @@
       <c r="JH38" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JI38" t="n">
+      <c r="JI38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="JJ38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JK38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JL38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JM38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JN38" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JO38" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JP38" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32085,8 +32997,32 @@
       <c r="JH39" s="2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="JI39" t="n">
+      <c r="JI39" s="2" t="n">
         <v>100.3</v>
+      </c>
+      <c r="JJ39" s="2" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="JK39" s="2" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="JL39" s="2" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="JM39" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="JN39" s="2" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="JO39" s="2" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="JP39" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>107.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -32896,8 +33832,32 @@
       <c r="JH40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI40" t="n">
+      <c r="JI40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JJ40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JL40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JM40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -33707,8 +34667,32 @@
       <c r="JH41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI41" t="n">
+      <c r="JI41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -34518,8 +35502,32 @@
       <c r="JH42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI42" t="n">
+      <c r="JI42" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JJ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -35329,7 +36337,31 @@
       <c r="JH43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI43" t="n">
+      <c r="JI43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36140,8 +37172,32 @@
       <c r="JH44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="JI44" t="n">
+      <c r="JI44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JJ44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JK44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JL44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JM44" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="JN44" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JO44" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JP44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -36951,8 +38007,32 @@
       <c r="JH45" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JI45" t="n">
+      <c r="JI45" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JJ45" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="JK45" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="JL45" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="JM45" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="JN45" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="JO45" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="JP45" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -37762,8 +38842,32 @@
       <c r="JH46" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="JI46" t="n">
+      <c r="JI46" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="JJ46" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JK46" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JL46" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JM46" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="JN46" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JO46" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="JP46" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -38573,8 +39677,32 @@
       <c r="JH47" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="JI47" t="n">
+      <c r="JI47" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JJ47" s="2" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="JK47" s="2" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="JL47" s="2" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="JM47" s="2" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="JN47" s="2" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="JO47" s="2" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="JP47" s="2" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39384,8 +40512,32 @@
       <c r="JH48" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JI48" t="n">
+      <c r="JI48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JJ48" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JK48" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JL48" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JM48" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JN48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JO48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JP48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40195,8 +41347,32 @@
       <c r="JH49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JI49" t="n">
+      <c r="JI49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JJ49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41006,8 +42182,32 @@
       <c r="JH50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JI50" t="n">
+      <c r="JI50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -41817,8 +43017,32 @@
       <c r="JH51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JI51" t="n">
+      <c r="JI51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JJ51" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JK51" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL51" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JM51" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JN51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -42628,8 +43852,32 @@
       <c r="JH52" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JI52" t="n">
+      <c r="JI52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JJ52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JK52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JM52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JN52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO52" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JP52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -43439,8 +44687,32 @@
       <c r="JH53" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JI53" t="n">
+      <c r="JI53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JJ53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JK53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JM53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JN53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JO53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JP53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -44250,8 +45522,32 @@
       <c r="JH54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI54" t="n">
+      <c r="JI54" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM54" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JN54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45061,7 +46357,31 @@
       <c r="JH55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI55" t="n">
+      <c r="JI55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -45872,8 +47192,32 @@
       <c r="JH56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JI56" t="n">
+      <c r="JI56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="JJ56" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JK56" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JL56" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JM56" s="2" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="JN56" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JO56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JP56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -46683,8 +48027,32 @@
       <c r="JH57" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="JI57" t="n">
+      <c r="JI57" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="JJ57" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="JK57" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="JL57" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="JM57" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="JN57" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="JO57" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JP57" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -47494,8 +48862,32 @@
       <c r="JH58" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JI58" t="n">
+      <c r="JI58" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JJ58" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JK58" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JL58" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JM58" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="JN58" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="JO58" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JP58" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -48305,8 +49697,32 @@
       <c r="JH59" s="2" t="n">
         <v>330</v>
       </c>
-      <c r="JI59" t="n">
+      <c r="JI59" s="2" t="n">
         <v>359</v>
+      </c>
+      <c r="JJ59" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="JK59" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="JL59" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="JM59" s="2" t="n">
+        <v>366</v>
+      </c>
+      <c r="JN59" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="JO59" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="JP59" s="2" t="n">
+        <v>390</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -49116,8 +50532,32 @@
       <c r="JH60" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="JI60" t="n">
+      <c r="JI60" s="2" t="n">
         <v>1.56</v>
+      </c>
+      <c r="JJ60" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="JK60" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="JL60" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="JM60" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="JN60" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JO60" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="JP60" s="2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -49927,8 +51367,32 @@
       <c r="JH61" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JI61" t="n">
+      <c r="JI61" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="JJ61" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JK61" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL61" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM61" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JN61" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JO61" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JP61" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -50738,8 +52202,32 @@
       <c r="JH62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JI62" t="n">
+      <c r="JI62" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JJ62" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JK62" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JL62" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="JM62" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JN62" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JO62" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JP62" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -51549,8 +53037,32 @@
       <c r="JH63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JI63" t="n">
+      <c r="JI63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JJ63" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK63" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL63" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JM63" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JN63" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JO63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JP63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -52360,8 +53872,32 @@
       <c r="JH64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JI64" t="n">
+      <c r="JI64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JJ64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL64" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM64" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JO64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -53171,8 +54707,32 @@
       <c r="JH65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI65" t="n">
+      <c r="JI65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JJ65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JK65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JO65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JP65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -53982,8 +55542,32 @@
       <c r="JH66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI66" t="n">
+      <c r="JI66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JK66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JL66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -54793,8 +56377,32 @@
       <c r="JH67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI67" t="n">
+      <c r="JI67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -55604,8 +57212,32 @@
       <c r="JH68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JI68" t="n">
+      <c r="JI68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -56415,8 +58047,32 @@
       <c r="JH69" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JI69" t="n">
+      <c r="JI69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -57226,8 +58882,32 @@
       <c r="JH70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JI70" t="n">
+      <c r="JI70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JJ70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JL70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JM70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JN70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JP70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -58037,8 +59717,32 @@
       <c r="JH71" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="JI71" t="n">
+      <c r="JI71" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JJ71" s="2" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="JK71" s="2" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="JL71" s="2" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="JM71" s="2" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="JN71" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JO71" s="2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="JP71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -58848,8 +60552,32 @@
       <c r="JH72" s="2" t="n">
         <v>41.25</v>
       </c>
-      <c r="JI72" t="n">
+      <c r="JI72" s="2" t="n">
         <v>29.92</v>
+      </c>
+      <c r="JJ72" s="2" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="JK72" s="2" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="JL72" s="2" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="JM72" s="2" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="JN72" s="2" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="JO72" s="2" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="JP72" s="2" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -59659,8 +61387,32 @@
       <c r="JH73" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JI73" t="n">
+      <c r="JI73" s="2" t="n">
         <v>17.1</v>
+      </c>
+      <c r="JJ73" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JK73" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JL73" s="2" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="JM73" s="2" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="JN73" s="2" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="JO73" s="2" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="JP73" s="2" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>14.58</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -60470,8 +62222,32 @@
       <c r="JH74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI74" t="n">
+      <c r="JI74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JJ74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JK74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM74" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO74" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JP74" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -61281,8 +63057,32 @@
       <c r="JH75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JI75" t="n">
+      <c r="JI75" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JJ75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JK75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JL75" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JM75" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN75" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JO75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JP75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -62092,8 +63892,32 @@
       <c r="JH76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JI76" t="n">
+      <c r="JI76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JJ76" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JK76" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL76" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM76" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JN76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JO76" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JP76" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -62903,8 +64727,32 @@
       <c r="JH77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JI77" t="n">
+      <c r="JI77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JJ77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JK77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JM77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JN77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JO77" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JP77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -63714,8 +65562,32 @@
       <c r="JH78" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="JI78" t="n">
+      <c r="JI78" s="2" t="n">
         <v>2.81</v>
+      </c>
+      <c r="JJ78" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JK78" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JL78" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JM78" s="2" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="JN78" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="JO78" s="2" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="JP78" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -64525,8 +66397,32 @@
       <c r="JH79" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="JI79" t="n">
+      <c r="JI79" s="2" t="n">
         <v>4.92</v>
+      </c>
+      <c r="JJ79" s="2" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="JK79" s="2" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="JL79" s="2" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="JM79" s="2" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="JN79" s="2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="JO79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -65336,8 +67232,32 @@
       <c r="JH80" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="JI80" t="n">
+      <c r="JI80" s="2" t="n">
         <v>30.5</v>
+      </c>
+      <c r="JJ80" s="2" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="JK80" s="2" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="JL80" s="2" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="JM80" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="JN80" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="JO80" s="2" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="JP80" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -66147,8 +68067,32 @@
       <c r="JH81" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="JI81" t="n">
+      <c r="JI81" s="2" t="n">
         <v>20.3</v>
+      </c>
+      <c r="JJ81" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="JK81" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="JL81" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="JM81" s="2" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="JN81" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="JO81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -66958,8 +68902,32 @@
       <c r="JH82" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="JI82" t="n">
+      <c r="JI82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="JJ82" s="2" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="JK82" s="2" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="JL82" s="2" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="JM82" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="JN82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JO82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JP82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -67769,8 +69737,32 @@
       <c r="JH83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="JI83" t="n">
+      <c r="JI83" s="2" t="n">
         <v>84.7</v>
+      </c>
+      <c r="JJ83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JK83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JL83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="JM83" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JN83" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JO83" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JP83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -68580,8 +70572,32 @@
       <c r="JH84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JI84" t="n">
+      <c r="JI84" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="JJ84" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JK84" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JL84" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JM84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JN84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JO84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JP84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -69391,8 +71407,32 @@
       <c r="JH85" s="2" t="n">
         <v>78.5</v>
       </c>
-      <c r="JI85" t="n">
+      <c r="JI85" s="2" t="n">
         <v>75.59999999999999</v>
+      </c>
+      <c r="JJ85" s="2" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="JK85" s="2" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="JL85" s="2" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="JM85" s="2" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="JN85" s="2" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="JO85" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="JP85" s="2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -70202,8 +72242,32 @@
       <c r="JH86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JI86" t="n">
+      <c r="JI86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JK86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL86" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -71013,8 +73077,32 @@
       <c r="JH87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JI87" t="n">
+      <c r="JI87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JJ87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -71824,8 +73912,32 @@
       <c r="JH88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JI88" t="n">
+      <c r="JI88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JJ88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -72635,7 +74747,31 @@
       <c r="JH89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI89" t="n">
+      <c r="JI89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -73446,8 +75582,32 @@
       <c r="JH90" s="2" t="n">
         <v>153</v>
       </c>
-      <c r="JI90" t="n">
+      <c r="JI90" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JJ90" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="JK90" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="JL90" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="JM90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="JN90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JO90" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="JP90" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -74257,8 +76417,32 @@
       <c r="JH91" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="JI91" t="n">
+      <c r="JI91" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JJ91" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="JK91" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="JL91" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="JM91" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JN91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JO91" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JP91" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -75068,8 +77252,32 @@
       <c r="JH92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="JI92" t="n">
+      <c r="JI92" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="JJ92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JK92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JL92" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JM92" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="JN92" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="JO92" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="JP92" s="2" t="n">
+        <v>270</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -75879,8 +78087,32 @@
       <c r="JH93" s="2" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="JI93" t="n">
+      <c r="JI93" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JJ93" s="2" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="JK93" s="2" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="JL93" s="2" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="JM93" s="2" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JN93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JO93" s="2" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="JP93" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -76690,8 +78922,32 @@
       <c r="JH94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JI94" t="n">
+      <c r="JI94" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JJ94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JK94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JL94" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JM94" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JN94" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JO94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JP94" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -77501,8 +79757,32 @@
       <c r="JH95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI95" t="n">
+      <c r="JI95" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JJ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JK95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM95" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -78312,8 +80592,32 @@
       <c r="JH96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI96" t="n">
+      <c r="JI96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -79123,8 +81427,32 @@
       <c r="JH97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JI97" t="n">
+      <c r="JI97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JJ97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JK97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM97" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO97" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JP97" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -79934,8 +82262,32 @@
       <c r="JH98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JI98" t="n">
+      <c r="JI98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JJ98" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JK98" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL98" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM98" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JN98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JO98" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JP98" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -80745,8 +83097,32 @@
       <c r="JH99" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JI99" t="n">
+      <c r="JI99" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JJ99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JL99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JN99" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JO99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP99" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -81556,8 +83932,32 @@
       <c r="JH100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI100" t="n">
+      <c r="JI100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JJ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -82367,8 +84767,32 @@
       <c r="JH101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI101" t="n">
+      <c r="JI101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JJ101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -83178,8 +85602,32 @@
       <c r="JH102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JI102" t="n">
+      <c r="JI102" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="JJ102" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="JK102" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="JL102" s="2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="JM102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JN102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JO102" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="JP102" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JQ102"/>
+  <dimension ref="A1:JT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1291,8 +1291,17 @@
       <c r="JP1" s="2" t="n">
         <v>10729</v>
       </c>
-      <c r="JQ1" t="n">
+      <c r="JQ1" s="2" t="n">
         <v>10734</v>
+      </c>
+      <c r="JR1" s="2" t="n">
+        <v>10744</v>
+      </c>
+      <c r="JS1" s="2" t="n">
+        <v>10744</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>10747</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2126,7 +2135,16 @@
       <c r="JP2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JT2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2961,8 +2979,17 @@
       <c r="JP3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JQ3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JR3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JS3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3796,8 +3823,17 @@
       <c r="JP4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JQ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4631,8 +4667,17 @@
       <c r="JP5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JQ5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5466,8 +5511,17 @@
       <c r="JP6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JQ6" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JR6" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JS6" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6301,8 +6355,17 @@
       <c r="JP7" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JQ7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JR7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JS7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7136,8 +7199,17 @@
       <c r="JP8" s="2" t="n">
         <v>-27</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JQ8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR8" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="JS8" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7971,7 +8043,16 @@
       <c r="JP9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8806,8 +8887,17 @@
       <c r="JP10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JQ10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9641,8 +9731,17 @@
       <c r="JP11" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JQ11" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="JR11" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JS11" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10476,8 +10575,17 @@
       <c r="JP12" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="JQ12" t="n">
+      <c r="JQ12" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="JR12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JS12" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11311,8 +11419,17 @@
       <c r="JP13" s="2" t="n">
         <v>322</v>
       </c>
-      <c r="JQ13" t="n">
+      <c r="JQ13" s="2" t="n">
         <v>328</v>
+      </c>
+      <c r="JR13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JS13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12146,8 +12263,17 @@
       <c r="JP14" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="JQ14" t="n">
+      <c r="JQ14" s="2" t="n">
         <v>1.56</v>
+      </c>
+      <c r="JR14" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JS14" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12981,8 +13107,17 @@
       <c r="JP15" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JQ15" t="n">
+      <c r="JQ15" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="JR15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JS15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13816,8 +13951,17 @@
       <c r="JP16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JQ16" t="n">
+      <c r="JQ16" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JR16" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JS16" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14651,8 +14795,17 @@
       <c r="JP17" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JQ17" t="n">
+      <c r="JQ17" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JR17" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JS17" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15486,7 +15639,16 @@
       <c r="JP18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JQ18" t="n">
+      <c r="JQ18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JT18" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16321,8 +16483,17 @@
       <c r="JP19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JQ19" t="n">
+      <c r="JQ19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JR19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS19" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17156,7 +17327,16 @@
       <c r="JP20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ20" t="n">
+      <c r="JQ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -17991,8 +18171,17 @@
       <c r="JP21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ21" t="n">
+      <c r="JQ21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JR21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18826,8 +19015,17 @@
       <c r="JP22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JQ22" t="n">
+      <c r="JQ22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JR22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19661,8 +19859,17 @@
       <c r="JP23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JQ23" t="n">
+      <c r="JQ23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20496,8 +20703,17 @@
       <c r="JP24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JQ24" t="n">
+      <c r="JQ24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JR24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21331,8 +21547,17 @@
       <c r="JP25" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="JQ25" t="n">
+      <c r="JQ25" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR25" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JS25" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22166,8 +22391,17 @@
       <c r="JP26" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JQ26" t="n">
+      <c r="JQ26" s="2" t="n">
         <v>29.82</v>
+      </c>
+      <c r="JR26" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="JS26" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23001,8 +23235,17 @@
       <c r="JP27" s="2" t="n">
         <v>21.47</v>
       </c>
-      <c r="JQ27" t="n">
+      <c r="JQ27" s="2" t="n">
         <v>16.4</v>
+      </c>
+      <c r="JR27" s="2" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="JS27" s="2" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="JT27" t="n">
+        <v>13.79</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23836,7 +24079,16 @@
       <c r="JP28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JQ28" t="n">
+      <c r="JQ28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS28" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JT28" t="n">
         <v>33</v>
       </c>
     </row>
@@ -24671,8 +24923,17 @@
       <c r="JP29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JQ29" t="n">
+      <c r="JQ29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JR29" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JS29" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JT29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25506,8 +25767,17 @@
       <c r="JP30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JQ30" t="n">
+      <c r="JQ30" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JT30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26341,8 +26611,17 @@
       <c r="JP31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JQ31" t="n">
+      <c r="JQ31" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JR31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JS31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JT31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27176,8 +27455,17 @@
       <c r="JP32" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="JQ32" t="n">
+      <c r="JQ32" s="2" t="n">
         <v>2.2</v>
+      </c>
+      <c r="JR32" s="2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JS32" s="2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JT32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28011,8 +28299,17 @@
       <c r="JP33" s="2" t="n">
         <v>7.43</v>
       </c>
-      <c r="JQ33" t="n">
+      <c r="JQ33" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR33" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="JS33" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="JT33" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28846,8 +29143,17 @@
       <c r="JP34" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="JQ34" t="n">
+      <c r="JQ34" s="2" t="n">
         <v>43.2</v>
+      </c>
+      <c r="JR34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JS34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JT34" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29681,8 +29987,17 @@
       <c r="JP35" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="JQ35" t="n">
+      <c r="JQ35" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JR35" s="2" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="JS35" s="2" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="JT35" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30516,7 +30831,16 @@
       <c r="JP36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JQ36" t="n">
+      <c r="JQ36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JR36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JS36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JT36" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -31351,7 +31675,16 @@
       <c r="JP37" s="2" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="JQ37" t="n">
+      <c r="JQ37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JR37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JS37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JT37" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -32186,8 +32519,17 @@
       <c r="JP38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="JQ38" t="n">
+      <c r="JQ38" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JR38" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="JS38" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="JT38" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33021,8 +33363,17 @@
       <c r="JP39" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JQ39" t="n">
+      <c r="JQ39" s="2" t="n">
         <v>107.1</v>
+      </c>
+      <c r="JR39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JS39" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JT39" t="n">
+        <v>108.6</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33856,7 +34207,16 @@
       <c r="JP40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JQ40" t="n">
+      <c r="JQ40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34691,8 +35051,17 @@
       <c r="JP41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ41" t="n">
+      <c r="JQ41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35526,8 +35895,17 @@
       <c r="JP42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ42" t="n">
+      <c r="JQ42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JR42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36361,7 +36739,16 @@
       <c r="JP43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ43" t="n">
+      <c r="JQ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37196,8 +37583,17 @@
       <c r="JP44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JQ44" t="n">
+      <c r="JQ44" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="JR44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JS44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38031,8 +38427,17 @@
       <c r="JP45" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="JQ45" t="n">
+      <c r="JQ45" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="JR45" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JS45" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JT45" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38866,8 +39271,17 @@
       <c r="JP46" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JQ46" t="n">
+      <c r="JQ46" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="JR46" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="JS46" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="JT46" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39701,8 +40115,17 @@
       <c r="JP47" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="JQ47" t="n">
+      <c r="JQ47" s="2" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="JR47" s="2" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="JS47" s="2" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="JT47" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40536,8 +40959,17 @@
       <c r="JP48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JQ48" t="n">
+      <c r="JQ48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JR48" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JS48" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JT48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41371,8 +41803,17 @@
       <c r="JP49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ49" t="n">
+      <c r="JQ49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42206,8 +42647,17 @@
       <c r="JP50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JQ50" t="n">
+      <c r="JQ50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JR50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JT50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43041,7 +43491,16 @@
       <c r="JP51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JQ51" t="n">
+      <c r="JQ51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS51" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JT51" t="n">
         <v>33</v>
       </c>
     </row>
@@ -43876,8 +44335,17 @@
       <c r="JP52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JQ52" t="n">
+      <c r="JQ52" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JS52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JT52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44711,8 +45179,17 @@
       <c r="JP53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JQ53" t="n">
+      <c r="JQ53" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JR53" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS53" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JT53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45546,8 +46023,17 @@
       <c r="JP54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JQ54" t="n">
+      <c r="JQ54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46381,8 +46867,17 @@
       <c r="JP55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ55" t="n">
+      <c r="JQ55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JR55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47216,8 +47711,17 @@
       <c r="JP56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JQ56" t="n">
+      <c r="JQ56" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JR56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JS56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JT56" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48051,8 +48555,17 @@
       <c r="JP57" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="JQ57" t="n">
+      <c r="JQ57" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JR57" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JS57" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JT57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48886,8 +49399,17 @@
       <c r="JP58" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JQ58" t="n">
+      <c r="JQ58" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="JR58" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JS58" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JT58" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49721,8 +50243,17 @@
       <c r="JP59" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="JQ59" t="n">
+      <c r="JQ59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="JR59" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="JS59" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="JT59" t="n">
+        <v>364</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50556,8 +51087,17 @@
       <c r="JP60" s="2" t="n">
         <v>1.79</v>
       </c>
-      <c r="JQ60" t="n">
+      <c r="JQ60" s="2" t="n">
         <v>1.8</v>
+      </c>
+      <c r="JR60" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="JS60" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="JT60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51391,8 +51931,17 @@
       <c r="JP61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="JQ61" t="n">
+      <c r="JQ61" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JR61" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JS61" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JT61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52226,7 +52775,16 @@
       <c r="JP62" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JQ62" t="n">
+      <c r="JQ62" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JR62" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JS62" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JT62" t="n">
         <v>64</v>
       </c>
     </row>
@@ -53061,8 +53619,17 @@
       <c r="JP63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JQ63" t="n">
+      <c r="JQ63" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JR63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JS63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JT63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53896,8 +54463,17 @@
       <c r="JP64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JQ64" t="n">
+      <c r="JQ64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JR64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JT64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54731,7 +55307,16 @@
       <c r="JP65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JQ65" t="n">
+      <c r="JQ65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR65" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS65" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT65" t="n">
         <v>19</v>
       </c>
     </row>
@@ -55566,8 +56151,17 @@
       <c r="JP66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ66" t="n">
+      <c r="JQ66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56401,8 +56995,17 @@
       <c r="JP67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ67" t="n">
+      <c r="JQ67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57236,8 +57839,17 @@
       <c r="JP68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ68" t="n">
+      <c r="JQ68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JR68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58071,8 +58683,17 @@
       <c r="JP69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ69" t="n">
+      <c r="JQ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58906,8 +59527,17 @@
       <c r="JP70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JQ70" t="n">
+      <c r="JQ70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JR70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JS70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JT70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59741,8 +60371,17 @@
       <c r="JP71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JQ71" t="n">
+      <c r="JQ71" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="JR71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JS71" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="JT71" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60576,8 +61215,17 @@
       <c r="JP72" s="2" t="n">
         <v>35.45</v>
       </c>
-      <c r="JQ72" t="n">
+      <c r="JQ72" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JR72" s="2" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="JS72" s="2" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="JT72" t="n">
+        <v>40.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61411,8 +62059,17 @@
       <c r="JP73" s="2" t="n">
         <v>17.73</v>
       </c>
-      <c r="JQ73" t="n">
+      <c r="JQ73" s="2" t="n">
         <v>14.58</v>
+      </c>
+      <c r="JR73" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="JS73" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="JT73" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62246,8 +62903,17 @@
       <c r="JP74" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JQ74" t="n">
+      <c r="JQ74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JR74" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JS74" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JT74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63081,8 +63747,17 @@
       <c r="JP75" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JQ75" t="n">
+      <c r="JQ75" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JS75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JT75" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63916,8 +64591,17 @@
       <c r="JP76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JQ76" t="n">
+      <c r="JQ76" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JR76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS76" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JT76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64751,8 +65435,17 @@
       <c r="JP77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JQ77" t="n">
+      <c r="JQ77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JR77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JS77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JT77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65586,8 +66279,17 @@
       <c r="JP78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="JQ78" t="n">
+      <c r="JQ78" s="2" t="n">
         <v>2.71</v>
+      </c>
+      <c r="JR78" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="JS78" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="JT78" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66421,8 +67123,17 @@
       <c r="JP79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JQ79" t="n">
+      <c r="JQ79" s="2" t="n">
         <v>6.5</v>
+      </c>
+      <c r="JR79" s="2" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="JS79" s="2" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="JT79" t="n">
+        <v>4.78</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67256,8 +67967,17 @@
       <c r="JP80" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JQ80" t="n">
+      <c r="JQ80" s="2" t="n">
         <v>35.4</v>
+      </c>
+      <c r="JR80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JS80" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JT80" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68091,8 +68811,17 @@
       <c r="JP81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JQ81" t="n">
+      <c r="JQ81" s="2" t="n">
         <v>15.4</v>
+      </c>
+      <c r="JR81" s="2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="JS81" s="2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="JT81" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68926,8 +69655,17 @@
       <c r="JP82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JQ82" t="n">
+      <c r="JQ82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="JR82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JS82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JT82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69761,8 +70499,17 @@
       <c r="JP83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JQ83" t="n">
+      <c r="JQ83" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JR83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JS83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JT83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70596,8 +71343,17 @@
       <c r="JP84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="JQ84" t="n">
+      <c r="JQ84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JR84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JS84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JT84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71431,8 +72187,17 @@
       <c r="JP85" s="2" t="n">
         <v>111.8</v>
       </c>
-      <c r="JQ85" t="n">
+      <c r="JQ85" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="JR85" s="2" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="JS85" s="2" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="JT85" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72266,8 +73031,17 @@
       <c r="JP86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ86" t="n">
+      <c r="JQ86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73101,8 +73875,17 @@
       <c r="JP87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ87" t="n">
+      <c r="JQ87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JR87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JT87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73936,8 +74719,17 @@
       <c r="JP88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JQ88" t="n">
+      <c r="JQ88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74771,8 +75563,17 @@
       <c r="JP89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ89" t="n">
+      <c r="JQ89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR89" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS89" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75606,8 +76407,17 @@
       <c r="JP90" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JQ90" t="n">
+      <c r="JQ90" s="2" t="n">
         <v>177</v>
+      </c>
+      <c r="JR90" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="JS90" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="JT90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76441,8 +77251,17 @@
       <c r="JP91" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="JQ91" t="n">
+      <c r="JQ91" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="JR91" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="JS91" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="JT91" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77276,8 +78095,17 @@
       <c r="JP92" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="JQ92" t="n">
+      <c r="JQ92" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="JR92" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="JS92" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="JT92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78111,8 +78939,17 @@
       <c r="JP93" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="JQ93" t="n">
+      <c r="JQ93" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JR93" s="2" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="JS93" s="2" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="JT93" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78946,8 +79783,17 @@
       <c r="JP94" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JQ94" t="n">
+      <c r="JQ94" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JS94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JT94" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79781,8 +80627,17 @@
       <c r="JP95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JQ95" t="n">
+      <c r="JQ95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JT95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80616,8 +81471,17 @@
       <c r="JP96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ96" t="n">
+      <c r="JQ96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JR96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81451,8 +82315,17 @@
       <c r="JP97" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JQ97" t="n">
+      <c r="JQ97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JR97" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JS97" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JT97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82286,8 +83159,17 @@
       <c r="JP98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JQ98" t="n">
+      <c r="JQ98" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JR98" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS98" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JT98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83121,8 +84003,17 @@
       <c r="JP99" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JQ99" t="n">
+      <c r="JQ99" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JT99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83956,8 +84847,17 @@
       <c r="JP100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JQ100" t="n">
+      <c r="JQ100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84791,8 +85691,17 @@
       <c r="JP101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ101" t="n">
+      <c r="JQ101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JT101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85626,8 +86535,17 @@
       <c r="JP102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JQ102" t="n">
+      <c r="JQ102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JR102" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JS102" s="2" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="JT102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JU102"/>
+  <dimension ref="A1:JX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1303,7 +1303,16 @@
       <c r="JT1" s="2" t="n">
         <v>10747</v>
       </c>
-      <c r="JU1" t="n">
+      <c r="JU1" s="2" t="n">
+        <v>10747</v>
+      </c>
+      <c r="JV1" s="2" t="n">
+        <v>10747</v>
+      </c>
+      <c r="JW1" s="2" t="n">
+        <v>10747</v>
+      </c>
+      <c r="JX1" t="n">
         <v>10747</v>
       </c>
     </row>
@@ -2150,7 +2159,16 @@
       <c r="JT2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JX2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2997,7 +3015,16 @@
       <c r="JT3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JU3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JV3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JW3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JX3" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3844,7 +3871,16 @@
       <c r="JT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +4727,16 @@
       <c r="JT5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU5" t="n">
+      <c r="JU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5538,7 +5583,16 @@
       <c r="JT6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JU6" t="n">
+      <c r="JU6" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JV6" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JW6" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JX6" t="n">
         <v>79</v>
       </c>
     </row>
@@ -6385,7 +6439,16 @@
       <c r="JT7" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JU7" t="n">
+      <c r="JU7" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JV7" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JW7" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JX7" t="n">
         <v>59</v>
       </c>
     </row>
@@ -7232,7 +7295,16 @@
       <c r="JT8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JU8" t="n">
+      <c r="JU8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JV8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JW8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JX8" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8079,7 +8151,16 @@
       <c r="JT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JU9" t="n">
+      <c r="JU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8926,7 +9007,16 @@
       <c r="JT10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU10" t="n">
+      <c r="JU10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9773,7 +9863,16 @@
       <c r="JT11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="JU11" t="n">
+      <c r="JU11" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JV11" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JW11" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JX11" t="n">
         <v>205</v>
       </c>
     </row>
@@ -10620,7 +10719,16 @@
       <c r="JT12" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="JU12" t="n">
+      <c r="JU12" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JV12" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JW12" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JX12" t="n">
         <v>126</v>
       </c>
     </row>
@@ -11467,7 +11575,16 @@
       <c r="JT13" s="2" t="n">
         <v>331</v>
       </c>
-      <c r="JU13" t="n">
+      <c r="JU13" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="JV13" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="JW13" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="JX13" t="n">
         <v>331</v>
       </c>
     </row>
@@ -12314,7 +12431,16 @@
       <c r="JT14" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="JU14" t="n">
+      <c r="JU14" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JV14" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JW14" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="JX14" t="n">
         <v>1.63</v>
       </c>
     </row>
@@ -13161,7 +13287,16 @@
       <c r="JT15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JU15" t="n">
+      <c r="JU15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JV15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JW15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JX15" t="n">
         <v>87</v>
       </c>
     </row>
@@ -14008,7 +14143,16 @@
       <c r="JT16" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JU16" t="n">
+      <c r="JU16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JV16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JW16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JX16" t="n">
         <v>58</v>
       </c>
     </row>
@@ -14855,7 +14999,16 @@
       <c r="JT17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JU17" t="n">
+      <c r="JU17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JW17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX17" t="n">
         <v>33</v>
       </c>
     </row>
@@ -15702,7 +15855,16 @@
       <c r="JT18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JU18" t="n">
+      <c r="JU18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JW18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JX18" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16549,7 +16711,16 @@
       <c r="JT19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JU19" t="n">
+      <c r="JU19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JV19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JW19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JX19" t="n">
         <v>24</v>
       </c>
     </row>
@@ -17396,7 +17567,16 @@
       <c r="JT20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JU20" t="n">
+      <c r="JU20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18243,7 +18423,16 @@
       <c r="JT21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU21" t="n">
+      <c r="JU21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -19090,7 +19279,16 @@
       <c r="JT22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JU22" t="n">
+      <c r="JU22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -19937,7 +20135,16 @@
       <c r="JT23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU23" t="n">
+      <c r="JU23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20784,7 +20991,16 @@
       <c r="JT24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JU24" t="n">
+      <c r="JU24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JV24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JW24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JX24" t="n">
         <v>24</v>
       </c>
     </row>
@@ -21631,7 +21847,16 @@
       <c r="JT25" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="JU25" t="n">
+      <c r="JU25" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JV25" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JW25" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JX25" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -22478,7 +22703,16 @@
       <c r="JT26" s="2" t="n">
         <v>30.09</v>
       </c>
-      <c r="JU26" t="n">
+      <c r="JU26" s="2" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="JV26" s="2" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="JW26" s="2" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="JX26" t="n">
         <v>30.09</v>
       </c>
     </row>
@@ -23325,7 +23559,16 @@
       <c r="JT27" s="2" t="n">
         <v>13.79</v>
       </c>
-      <c r="JU27" t="n">
+      <c r="JU27" s="2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="JV27" s="2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="JW27" s="2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="JX27" t="n">
         <v>13.79</v>
       </c>
     </row>
@@ -24172,7 +24415,16 @@
       <c r="JT28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JU28" t="n">
+      <c r="JU28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JW28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX28" t="n">
         <v>33</v>
       </c>
     </row>
@@ -25019,7 +25271,16 @@
       <c r="JT29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JU29" t="n">
+      <c r="JU29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JV29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JW29" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JX29" t="n">
         <v>66</v>
       </c>
     </row>
@@ -25866,7 +26127,16 @@
       <c r="JT30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JU30" t="n">
+      <c r="JU30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JV30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JW30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JX30" t="n">
         <v>32</v>
       </c>
     </row>
@@ -26713,7 +26983,16 @@
       <c r="JT31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JU31" t="n">
+      <c r="JU31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JV31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JW31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JX31" t="n">
         <v>56</v>
       </c>
     </row>
@@ -27560,7 +27839,16 @@
       <c r="JT32" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="JU32" t="n">
+      <c r="JU32" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JV32" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JW32" s="2" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="JX32" t="n">
         <v>2.33</v>
       </c>
     </row>
@@ -28407,7 +28695,16 @@
       <c r="JT33" s="2" t="n">
         <v>5.09</v>
       </c>
-      <c r="JU33" t="n">
+      <c r="JU33" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="JV33" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="JW33" s="2" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="JX33" t="n">
         <v>5.09</v>
       </c>
     </row>
@@ -29254,7 +29551,16 @@
       <c r="JT34" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="JU34" t="n">
+      <c r="JU34" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JV34" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JW34" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="JX34" t="n">
         <v>39.3</v>
       </c>
     </row>
@@ -30101,7 +30407,16 @@
       <c r="JT35" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="JU35" t="n">
+      <c r="JU35" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="JV35" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="JW35" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="JX35" t="n">
         <v>19.6</v>
       </c>
     </row>
@@ -30948,7 +31263,16 @@
       <c r="JT36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JU36" t="n">
+      <c r="JU36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JV36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JW36" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JX36" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -31795,7 +32119,16 @@
       <c r="JT37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JU37" t="n">
+      <c r="JU37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JV37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JW37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JX37" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -32642,7 +32975,16 @@
       <c r="JT38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="JU38" t="n">
+      <c r="JU38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JV38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JW38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JX38" t="n">
         <v>26.16</v>
       </c>
     </row>
@@ -33489,7 +33831,16 @@
       <c r="JT39" s="2" t="n">
         <v>108.6</v>
       </c>
-      <c r="JU39" t="n">
+      <c r="JU39" s="2" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="JV39" s="2" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="JW39" s="2" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="JX39" t="n">
         <v>108.6</v>
       </c>
     </row>
@@ -34336,7 +34687,16 @@
       <c r="JT40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU40" t="n">
+      <c r="JU40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35183,7 +35543,16 @@
       <c r="JT41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU41" t="n">
+      <c r="JU41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36030,7 +36399,16 @@
       <c r="JT42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JU42" t="n">
+      <c r="JU42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -36877,7 +37255,16 @@
       <c r="JT43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU43" t="n">
+      <c r="JU43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37724,7 +38111,16 @@
       <c r="JT44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JU44" t="n">
+      <c r="JU44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JV44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JW44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JX44" t="n">
         <v>142</v>
       </c>
     </row>
@@ -38571,7 +38967,16 @@
       <c r="JT45" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="JU45" t="n">
+      <c r="JU45" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JV45" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JW45" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JX45" t="n">
         <v>197</v>
       </c>
     </row>
@@ -39418,7 +39823,16 @@
       <c r="JT46" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JU46" t="n">
+      <c r="JU46" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JV46" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JW46" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JX46" t="n">
         <v>239</v>
       </c>
     </row>
@@ -40265,7 +40679,16 @@
       <c r="JT47" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="JU47" t="n">
+      <c r="JU47" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JV47" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JW47" s="2" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="JX47" t="n">
         <v>72.2</v>
       </c>
     </row>
@@ -41112,7 +41535,16 @@
       <c r="JT48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JU48" t="n">
+      <c r="JU48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JV48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JW48" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="JX48" t="n">
         <v>66</v>
       </c>
     </row>
@@ -41959,7 +42391,16 @@
       <c r="JT49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JU49" t="n">
+      <c r="JU49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JW49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX49" t="n">
         <v>9</v>
       </c>
     </row>
@@ -42806,7 +43247,16 @@
       <c r="JT50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JU50" t="n">
+      <c r="JU50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JX50" t="n">
         <v>13</v>
       </c>
     </row>
@@ -43653,7 +44103,16 @@
       <c r="JT51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JU51" t="n">
+      <c r="JU51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JW51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX51" t="n">
         <v>33</v>
       </c>
     </row>
@@ -44500,7 +44959,16 @@
       <c r="JT52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JU52" t="n">
+      <c r="JU52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JV52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JW52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JX52" t="n">
         <v>32</v>
       </c>
     </row>
@@ -45347,7 +45815,16 @@
       <c r="JT53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JU53" t="n">
+      <c r="JU53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JX53" t="n">
         <v>50</v>
       </c>
     </row>
@@ -46194,7 +46671,16 @@
       <c r="JT54" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JU54" t="n">
+      <c r="JU54" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV54" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW54" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JX54" t="n">
         <v>13</v>
       </c>
     </row>
@@ -47041,7 +47527,16 @@
       <c r="JT55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU55" t="n">
+      <c r="JU55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -47888,7 +48383,16 @@
       <c r="JT56" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="JU56" t="n">
+      <c r="JU56" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JV56" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JW56" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JX56" t="n">
         <v>54.5</v>
       </c>
     </row>
@@ -48735,7 +49239,16 @@
       <c r="JT57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JU57" t="n">
+      <c r="JU57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JV57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JW57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JX57" t="n">
         <v>216</v>
       </c>
     </row>
@@ -49582,7 +50095,16 @@
       <c r="JT58" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="JU58" t="n">
+      <c r="JU58" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="JV58" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="JW58" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="JX58" t="n">
         <v>148</v>
       </c>
     </row>
@@ -50429,7 +50951,16 @@
       <c r="JT59" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="JU59" t="n">
+      <c r="JU59" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="JV59" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="JW59" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="JX59" t="n">
         <v>364</v>
       </c>
     </row>
@@ -51276,7 +51807,16 @@
       <c r="JT60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="JU60" t="n">
+      <c r="JU60" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JV60" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JW60" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="JX60" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -52123,7 +52663,16 @@
       <c r="JT61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JU61" t="n">
+      <c r="JU61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JV61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JW61" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JX61" t="n">
         <v>81</v>
       </c>
     </row>
@@ -52970,7 +53519,16 @@
       <c r="JT62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JU62" t="n">
+      <c r="JU62" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JV62" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JW62" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JX62" t="n">
         <v>64</v>
       </c>
     </row>
@@ -53817,7 +54375,16 @@
       <c r="JT63" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JU63" t="n">
+      <c r="JU63" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JV63" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JW63" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JX63" t="n">
         <v>42</v>
       </c>
     </row>
@@ -54664,7 +55231,16 @@
       <c r="JT64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JU64" t="n">
+      <c r="JU64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JV64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JW64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JX64" t="n">
         <v>24</v>
       </c>
     </row>
@@ -55511,7 +56087,16 @@
       <c r="JT65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JU65" t="n">
+      <c r="JU65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JV65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JW65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JX65" t="n">
         <v>19</v>
       </c>
     </row>
@@ -56358,7 +56943,16 @@
       <c r="JT66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JU66" t="n">
+      <c r="JU66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JV66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JW66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JX66" t="n">
         <v>9</v>
       </c>
     </row>
@@ -57205,7 +57799,16 @@
       <c r="JT67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU67" t="n">
+      <c r="JU67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX67" t="n">
         <v>7</v>
       </c>
     </row>
@@ -58052,7 +58655,16 @@
       <c r="JT68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JU68" t="n">
+      <c r="JU68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -58899,7 +59511,16 @@
       <c r="JT69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU69" t="n">
+      <c r="JU69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -59746,7 +60367,16 @@
       <c r="JT70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JU70" t="n">
+      <c r="JU70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW70" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -60593,7 +61223,16 @@
       <c r="JT71" s="2" t="n">
         <v>64.3</v>
       </c>
-      <c r="JU71" t="n">
+      <c r="JU71" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JV71" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JW71" s="2" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="JX71" t="n">
         <v>64.3</v>
       </c>
     </row>
@@ -61440,7 +62079,16 @@
       <c r="JT72" s="2" t="n">
         <v>40.44</v>
       </c>
-      <c r="JU72" t="n">
+      <c r="JU72" s="2" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="JV72" s="2" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="JW72" s="2" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="JX72" t="n">
         <v>40.44</v>
       </c>
     </row>
@@ -62287,7 +62935,16 @@
       <c r="JT73" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JU73" t="n">
+      <c r="JU73" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JV73" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JW73" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JX73" t="n">
         <v>26</v>
       </c>
     </row>
@@ -63134,7 +63791,16 @@
       <c r="JT74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JU74" t="n">
+      <c r="JU74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JW74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX74" t="n">
         <v>33</v>
       </c>
     </row>
@@ -63981,7 +64647,16 @@
       <c r="JT75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JU75" t="n">
+      <c r="JU75" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JV75" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JW75" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JX75" t="n">
         <v>69</v>
       </c>
     </row>
@@ -64828,7 +65503,16 @@
       <c r="JT76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JU76" t="n">
+      <c r="JU76" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JV76" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JW76" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JX76" t="n">
         <v>44</v>
       </c>
     </row>
@@ -65675,7 +66359,16 @@
       <c r="JT77" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JU77" t="n">
+      <c r="JU77" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JV77" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JW77" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JX77" t="n">
         <v>43</v>
       </c>
     </row>
@@ -66522,7 +67215,16 @@
       <c r="JT78" s="2" t="n">
         <v>3.07</v>
       </c>
-      <c r="JU78" t="n">
+      <c r="JU78" s="2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="JV78" s="2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="JW78" s="2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="JX78" t="n">
         <v>3.07</v>
       </c>
     </row>
@@ -67369,7 +68071,16 @@
       <c r="JT79" s="2" t="n">
         <v>4.78</v>
       </c>
-      <c r="JU79" t="n">
+      <c r="JU79" s="2" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="JV79" s="2" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="JW79" s="2" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="JX79" t="n">
         <v>4.78</v>
       </c>
     </row>
@@ -68216,7 +68927,16 @@
       <c r="JT80" s="2" t="n">
         <v>27.9</v>
       </c>
-      <c r="JU80" t="n">
+      <c r="JU80" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JV80" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JW80" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JX80" t="n">
         <v>27.9</v>
       </c>
     </row>
@@ -69063,7 +69783,16 @@
       <c r="JT81" s="2" t="n">
         <v>20.9</v>
       </c>
-      <c r="JU81" t="n">
+      <c r="JU81" s="2" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="JV81" s="2" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="JW81" s="2" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="JX81" t="n">
         <v>20.9</v>
       </c>
     </row>
@@ -69910,7 +70639,16 @@
       <c r="JT82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JU82" t="n">
+      <c r="JU82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JV82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JW82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JX82" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -70757,7 +71495,16 @@
       <c r="JT83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JU83" t="n">
+      <c r="JU83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JV83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JW83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JX83" t="n">
         <v>87.40000000000001</v>
       </c>
     </row>
@@ -71604,7 +72351,16 @@
       <c r="JT84" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="JU84" t="n">
+      <c r="JU84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JV84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JW84" s="2" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="JX84" t="n">
         <v>24.66</v>
       </c>
     </row>
@@ -72451,7 +73207,16 @@
       <c r="JT85" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="JU85" t="n">
+      <c r="JU85" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JV85" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JW85" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="JX85" t="n">
         <v>86.2</v>
       </c>
     </row>
@@ -73298,7 +74063,16 @@
       <c r="JT86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU86" t="n">
+      <c r="JU86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -74145,7 +74919,16 @@
       <c r="JT87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU87" t="n">
+      <c r="JU87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW87" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX87" t="n">
         <v>8</v>
       </c>
     </row>
@@ -74992,7 +75775,16 @@
       <c r="JT88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JU88" t="n">
+      <c r="JU88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -75839,7 +76631,16 @@
       <c r="JT89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU89" t="n">
+      <c r="JU89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -76686,7 +77487,16 @@
       <c r="JT90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="JU90" t="n">
+      <c r="JU90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JV90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JW90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JX90" t="n">
         <v>151</v>
       </c>
     </row>
@@ -77533,7 +78343,16 @@
       <c r="JT91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="JU91" t="n">
+      <c r="JU91" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="JV91" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="JW91" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="JX91" t="n">
         <v>206</v>
       </c>
     </row>
@@ -78380,7 +79199,16 @@
       <c r="JT92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="JU92" t="n">
+      <c r="JU92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JV92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JW92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JX92" t="n">
         <v>266</v>
       </c>
     </row>
@@ -79227,7 +80055,16 @@
       <c r="JT93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="JU93" t="n">
+      <c r="JU93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JV93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JW93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JX93" t="n">
         <v>73.09999999999999</v>
       </c>
     </row>
@@ -80074,7 +80911,16 @@
       <c r="JT94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JU94" t="n">
+      <c r="JU94" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JV94" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JW94" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JX94" t="n">
         <v>69</v>
       </c>
     </row>
@@ -80921,7 +81767,16 @@
       <c r="JT95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JU95" t="n">
+      <c r="JU95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX95" t="n">
         <v>10</v>
       </c>
     </row>
@@ -81768,7 +82623,16 @@
       <c r="JT96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU96" t="n">
+      <c r="JU96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX96" t="n">
         <v>6</v>
       </c>
     </row>
@@ -82615,7 +83479,16 @@
       <c r="JT97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JU97" t="n">
+      <c r="JU97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JV97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JW97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JX97" t="n">
         <v>33</v>
       </c>
     </row>
@@ -83462,7 +84335,16 @@
       <c r="JT98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JU98" t="n">
+      <c r="JU98" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JV98" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JW98" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JX98" t="n">
         <v>44</v>
       </c>
     </row>
@@ -84309,7 +85191,16 @@
       <c r="JT99" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JU99" t="n">
+      <c r="JU99" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JV99" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW99" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JX99" t="n">
         <v>38</v>
       </c>
     </row>
@@ -85156,7 +86047,16 @@
       <c r="JT100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU100" t="n">
+      <c r="JU100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -86003,7 +86903,16 @@
       <c r="JT101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU101" t="n">
+      <c r="JU101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -86850,7 +87759,16 @@
       <c r="JT102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JU102" t="n">
+      <c r="JU102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JV102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JW102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JX102" t="n">
         <v>77.8</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JX102"/>
+  <dimension ref="A1:JZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1312,8 +1312,14 @@
       <c r="JW1" s="2" t="n">
         <v>10747</v>
       </c>
-      <c r="JX1" t="n">
+      <c r="JX1" s="2" t="n">
         <v>10747</v>
+      </c>
+      <c r="JY1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>10749</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2168,7 +2174,13 @@
       <c r="JW2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JZ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3024,8 +3036,14 @@
       <c r="JW3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JX3" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JY3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3880,8 +3898,14 @@
       <c r="JW4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4736,7 +4760,13 @@
       <c r="JW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JX5" t="n">
+      <c r="JX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5592,8 +5622,14 @@
       <c r="JW6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JX6" t="n">
+      <c r="JX6" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JY6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6448,8 +6484,14 @@
       <c r="JW7" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JX7" t="n">
+      <c r="JX7" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JY7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7304,8 +7346,14 @@
       <c r="JW8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JX8" t="n">
+      <c r="JX8" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JY8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8160,8 +8208,14 @@
       <c r="JW9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JX9" t="n">
+      <c r="JX9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9016,8 +9070,14 @@
       <c r="JW10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX10" t="n">
+      <c r="JX10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9872,8 +9932,14 @@
       <c r="JW11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="JX11" t="n">
+      <c r="JX11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JY11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10728,8 +10794,14 @@
       <c r="JW12" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="JX12" t="n">
+      <c r="JX12" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="JY12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11584,8 +11656,14 @@
       <c r="JW13" s="2" t="n">
         <v>331</v>
       </c>
-      <c r="JX13" t="n">
+      <c r="JX13" s="2" t="n">
         <v>331</v>
+      </c>
+      <c r="JY13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="JZ13" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12440,8 +12518,14 @@
       <c r="JW14" s="2" t="n">
         <v>1.63</v>
       </c>
-      <c r="JX14" t="n">
+      <c r="JX14" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="JY14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13296,8 +13380,14 @@
       <c r="JW15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JX15" t="n">
+      <c r="JX15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JY15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14152,8 +14242,14 @@
       <c r="JW16" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JX16" t="n">
+      <c r="JX16" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JY16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15008,8 +15104,14 @@
       <c r="JW17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JX17" t="n">
+      <c r="JX17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JY17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15864,8 +15966,14 @@
       <c r="JW18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JX18" t="n">
+      <c r="JX18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JY18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JZ18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16720,8 +16828,14 @@
       <c r="JW19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JX19" t="n">
+      <c r="JX19" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JY19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17576,8 +17690,14 @@
       <c r="JW20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JX20" t="n">
+      <c r="JX20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JY20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18432,8 +18552,14 @@
       <c r="JW21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX21" t="n">
+      <c r="JX21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19288,8 +19414,14 @@
       <c r="JW22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JX22" t="n">
+      <c r="JX22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JY22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20144,8 +20276,14 @@
       <c r="JW23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX23" t="n">
+      <c r="JX23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JY23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21000,7 +21138,13 @@
       <c r="JW24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JX24" t="n">
+      <c r="JX24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JY24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JZ24" t="n">
         <v>24</v>
       </c>
     </row>
@@ -21856,8 +22000,14 @@
       <c r="JW25" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="JX25" t="n">
+      <c r="JX25" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="JY25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22712,8 +22862,14 @@
       <c r="JW26" s="2" t="n">
         <v>30.09</v>
       </c>
-      <c r="JX26" t="n">
+      <c r="JX26" s="2" t="n">
         <v>30.09</v>
+      </c>
+      <c r="JY26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>21.64</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23568,8 +23724,14 @@
       <c r="JW27" s="2" t="n">
         <v>13.79</v>
       </c>
-      <c r="JX27" t="n">
+      <c r="JX27" s="2" t="n">
         <v>13.79</v>
+      </c>
+      <c r="JY27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="JZ27" t="n">
+        <v>12.62</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24424,8 +24586,14 @@
       <c r="JW28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JX28" t="n">
+      <c r="JX28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JY28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25280,8 +25448,14 @@
       <c r="JW29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JX29" t="n">
+      <c r="JX29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JY29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26136,8 +26310,14 @@
       <c r="JW30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JX30" t="n">
+      <c r="JX30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JY30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JZ30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26992,8 +27172,14 @@
       <c r="JW31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JX31" t="n">
+      <c r="JX31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JY31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JZ31" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27848,8 +28034,14 @@
       <c r="JW32" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="JX32" t="n">
+      <c r="JX32" s="2" t="n">
         <v>2.33</v>
+      </c>
+      <c r="JY32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="JZ32" t="n">
+        <v>2.58</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28704,8 +28896,14 @@
       <c r="JW33" s="2" t="n">
         <v>5.09</v>
       </c>
-      <c r="JX33" t="n">
+      <c r="JX33" s="2" t="n">
         <v>5.09</v>
+      </c>
+      <c r="JY33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="JZ33" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29560,8 +29758,14 @@
       <c r="JW34" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="JX34" t="n">
+      <c r="JX34" s="2" t="n">
         <v>39.3</v>
+      </c>
+      <c r="JY34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JZ34" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -30416,8 +30620,14 @@
       <c r="JW35" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="JX35" t="n">
+      <c r="JX35" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JY35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="JZ35" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31272,8 +31482,14 @@
       <c r="JW36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JX36" t="n">
+      <c r="JX36" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JY36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="JZ36" t="n">
+        <v>189.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32128,7 +32344,13 @@
       <c r="JW37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JX37" t="n">
+      <c r="JX37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JY37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JZ37" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -32984,8 +33206,14 @@
       <c r="JW38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="JX38" t="n">
+      <c r="JX38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JY38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="JZ38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33840,8 +34068,14 @@
       <c r="JW39" s="2" t="n">
         <v>108.6</v>
       </c>
-      <c r="JX39" t="n">
+      <c r="JX39" s="2" t="n">
         <v>108.6</v>
+      </c>
+      <c r="JY39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="JZ39" t="n">
+        <v>109.6</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34696,7 +34930,13 @@
       <c r="JW40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX40" t="n">
+      <c r="JX40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35552,7 +35792,13 @@
       <c r="JW41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX41" t="n">
+      <c r="JX41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36408,7 +36654,13 @@
       <c r="JW42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JX42" t="n">
+      <c r="JX42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37264,7 +37516,13 @@
       <c r="JW43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX43" t="n">
+      <c r="JX43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38120,8 +38378,14 @@
       <c r="JW44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JX44" t="n">
+      <c r="JX44" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="JY44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JZ44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38976,8 +39240,14 @@
       <c r="JW45" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="JX45" t="n">
+      <c r="JX45" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="JY45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JZ45" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39832,8 +40102,14 @@
       <c r="JW46" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JX46" t="n">
+      <c r="JX46" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="JY46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JZ46" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40688,8 +40964,14 @@
       <c r="JW47" s="2" t="n">
         <v>72.2</v>
       </c>
-      <c r="JX47" t="n">
+      <c r="JX47" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="JY47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="JZ47" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -41544,8 +41826,14 @@
       <c r="JW48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JX48" t="n">
+      <c r="JX48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JY48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -42400,8 +42688,14 @@
       <c r="JW49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JX49" t="n">
+      <c r="JX49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JY49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -43256,8 +43550,14 @@
       <c r="JW50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JX50" t="n">
+      <c r="JX50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JY50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -44112,8 +44412,14 @@
       <c r="JW51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JX51" t="n">
+      <c r="JX51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JY51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JZ51" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44968,8 +45274,14 @@
       <c r="JW52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JX52" t="n">
+      <c r="JX52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JY52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JZ52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45824,8 +46136,14 @@
       <c r="JW53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JX53" t="n">
+      <c r="JX53" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JY53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JZ53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -46680,8 +46998,14 @@
       <c r="JW54" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JX54" t="n">
+      <c r="JX54" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JY54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -47536,8 +47860,14 @@
       <c r="JW55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX55" t="n">
+      <c r="JX55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -48392,8 +48722,14 @@
       <c r="JW56" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="JX56" t="n">
+      <c r="JX56" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JY56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JZ56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -49248,8 +49584,14 @@
       <c r="JW57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JX57" t="n">
+      <c r="JX57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JY57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JZ57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -50104,8 +50446,14 @@
       <c r="JW58" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="JX58" t="n">
+      <c r="JX58" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="JY58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JZ58" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50960,8 +51308,14 @@
       <c r="JW59" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="JX59" t="n">
+      <c r="JX59" s="2" t="n">
         <v>364</v>
+      </c>
+      <c r="JY59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="JZ59" t="n">
+        <v>320</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51816,8 +52170,14 @@
       <c r="JW60" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="JX60" t="n">
+      <c r="JX60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JY60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="JZ60" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -52672,8 +53032,14 @@
       <c r="JW61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JX61" t="n">
+      <c r="JX61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="JY61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JZ61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -53528,8 +53894,14 @@
       <c r="JW62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JX62" t="n">
+      <c r="JX62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JY62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JZ62" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -54384,8 +54756,14 @@
       <c r="JW63" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JX63" t="n">
+      <c r="JX63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JY63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JZ63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -55240,8 +55618,14 @@
       <c r="JW64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JX64" t="n">
+      <c r="JX64" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JY64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -56096,8 +56480,14 @@
       <c r="JW65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JX65" t="n">
+      <c r="JX65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JY65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JZ65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -56952,8 +57342,14 @@
       <c r="JW66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JX66" t="n">
+      <c r="JX66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JY66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -57808,8 +58204,14 @@
       <c r="JW67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX67" t="n">
+      <c r="JX67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JY67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -58664,8 +59066,14 @@
       <c r="JW68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JX68" t="n">
+      <c r="JX68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JY68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JZ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -59520,7 +59928,13 @@
       <c r="JW69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX69" t="n">
+      <c r="JX69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -60376,8 +60790,14 @@
       <c r="JW70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JX70" t="n">
+      <c r="JX70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JY70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -61232,8 +61652,14 @@
       <c r="JW71" s="2" t="n">
         <v>64.3</v>
       </c>
-      <c r="JX71" t="n">
+      <c r="JX71" s="2" t="n">
         <v>64.3</v>
+      </c>
+      <c r="JY71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JZ71" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -62088,8 +62514,14 @@
       <c r="JW72" s="2" t="n">
         <v>40.44</v>
       </c>
-      <c r="JX72" t="n">
+      <c r="JX72" s="2" t="n">
         <v>40.44</v>
+      </c>
+      <c r="JY72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="JZ72" t="n">
+        <v>22.86</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -62944,8 +63376,14 @@
       <c r="JW73" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JX73" t="n">
+      <c r="JX73" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JY73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="JZ73" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -63800,8 +64238,14 @@
       <c r="JW74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JX74" t="n">
+      <c r="JX74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JY74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JZ74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -64656,8 +65100,14 @@
       <c r="JW75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JX75" t="n">
+      <c r="JX75" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JY75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -65512,8 +65962,14 @@
       <c r="JW76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JX76" t="n">
+      <c r="JX76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JY76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -66368,8 +66824,14 @@
       <c r="JW77" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JX77" t="n">
+      <c r="JX77" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JY77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JZ77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -67224,8 +67686,14 @@
       <c r="JW78" s="2" t="n">
         <v>3.07</v>
       </c>
-      <c r="JX78" t="n">
+      <c r="JX78" s="2" t="n">
         <v>3.07</v>
+      </c>
+      <c r="JY78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="JZ78" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -68080,8 +68548,14 @@
       <c r="JW79" s="2" t="n">
         <v>4.78</v>
       </c>
-      <c r="JX79" t="n">
+      <c r="JX79" s="2" t="n">
         <v>4.78</v>
+      </c>
+      <c r="JY79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -68936,8 +69410,14 @@
       <c r="JW80" s="2" t="n">
         <v>27.9</v>
       </c>
-      <c r="JX80" t="n">
+      <c r="JX80" s="2" t="n">
         <v>27.9</v>
+      </c>
+      <c r="JY80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="JZ80" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -69792,8 +70272,14 @@
       <c r="JW81" s="2" t="n">
         <v>20.9</v>
       </c>
-      <c r="JX81" t="n">
+      <c r="JX81" s="2" t="n">
         <v>20.9</v>
+      </c>
+      <c r="JY81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -70648,8 +71134,14 @@
       <c r="JW82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JX82" t="n">
+      <c r="JX82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JY82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JZ82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -71504,8 +71996,14 @@
       <c r="JW83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="JX83" t="n">
+      <c r="JX83" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="JY83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="JZ83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -72360,8 +72858,14 @@
       <c r="JW84" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="JX84" t="n">
+      <c r="JX84" s="2" t="n">
         <v>24.66</v>
+      </c>
+      <c r="JY84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JZ84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -73216,8 +73720,14 @@
       <c r="JW85" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="JX85" t="n">
+      <c r="JX85" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="JY85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="JZ85" t="n">
+        <v>114.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -74072,8 +74582,14 @@
       <c r="JW86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX86" t="n">
+      <c r="JX86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JY86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -74928,8 +75444,14 @@
       <c r="JW87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX87" t="n">
+      <c r="JX87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JY87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -75784,7 +76306,13 @@
       <c r="JW88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX88" t="n">
+      <c r="JX88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -76640,8 +77168,14 @@
       <c r="JW89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX89" t="n">
+      <c r="JX89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JY89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -77496,8 +78030,14 @@
       <c r="JW90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="JX90" t="n">
+      <c r="JX90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="JY90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JZ90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -78352,8 +78892,14 @@
       <c r="JW91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="JX91" t="n">
+      <c r="JX91" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="JY91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JZ91" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -79208,8 +79754,14 @@
       <c r="JW92" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="JX92" t="n">
+      <c r="JX92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="JY92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="JZ92" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -80064,8 +80616,14 @@
       <c r="JW93" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="JX93" t="n">
+      <c r="JX93" s="2" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="JY93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JZ93" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -80920,8 +81478,14 @@
       <c r="JW94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JX94" t="n">
+      <c r="JX94" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JY94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -81776,8 +82340,14 @@
       <c r="JW95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JX95" t="n">
+      <c r="JX95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JY95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JZ95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -82632,8 +83202,14 @@
       <c r="JW96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX96" t="n">
+      <c r="JX96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -83488,8 +84064,14 @@
       <c r="JW97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JX97" t="n">
+      <c r="JX97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JY97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JZ97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -84344,8 +84926,14 @@
       <c r="JW98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JX98" t="n">
+      <c r="JX98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JY98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -85200,8 +85788,14 @@
       <c r="JW99" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JX99" t="n">
+      <c r="JX99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JY99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JZ99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -86056,8 +86650,14 @@
       <c r="JW100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX100" t="n">
+      <c r="JX100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JY100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -86912,8 +87512,14 @@
       <c r="JW101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JX101" t="n">
+      <c r="JX101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JY101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -87768,8 +88374,14 @@
       <c r="JW102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JX102" t="n">
+      <c r="JX102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="JY102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="JZ102" t="n">
+        <v>42.9</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JZ102"/>
+  <dimension ref="A1:KR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1318,7 +1318,61 @@
       <c r="JY1" s="2" t="n">
         <v>10749</v>
       </c>
-      <c r="JZ1" t="n">
+      <c r="JZ1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KA1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KB1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KC1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KD1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KE1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KF1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KG1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KH1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KI1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KJ1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KK1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KL1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KM1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KN1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KO1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KP1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KQ1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KR1" t="n">
         <v>10749</v>
       </c>
     </row>
@@ -2180,7 +2234,61 @@
       <c r="JY2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="JZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3042,7 +3150,61 @@
       <c r="JY3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JZ3" t="n">
+      <c r="JZ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KD3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KE3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KF3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KG3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KH3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KI3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KJ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KK3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KL3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KM3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KN3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KO3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KP3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KQ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KR3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3904,7 +4066,61 @@
       <c r="JY4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JZ4" t="n">
+      <c r="JZ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,7 +4982,61 @@
       <c r="JY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JZ5" t="n">
+      <c r="JZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5628,7 +5898,61 @@
       <c r="JY6" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JZ6" t="n">
+      <c r="JZ6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KA6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KB6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KC6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KD6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KE6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KF6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KG6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KH6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KI6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KJ6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KK6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KL6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KM6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KN6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KO6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KP6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KQ6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KR6" t="n">
         <v>94</v>
       </c>
     </row>
@@ -6490,7 +6814,61 @@
       <c r="JY7" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="JZ7" t="n">
+      <c r="JZ7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KA7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KB7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KC7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KD7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KE7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KF7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KG7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KH7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KI7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KJ7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KK7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KL7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KM7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KN7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KO7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KP7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KQ7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KR7" t="n">
         <v>95</v>
       </c>
     </row>
@@ -7352,7 +7730,61 @@
       <c r="JY8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="JZ8" t="n">
+      <c r="JZ8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KA8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KB8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KC8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KD8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KE8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KF8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KG8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KH8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KI8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KJ8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KK8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KL8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KM8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KN8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KO8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KP8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KQ8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KR8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8214,7 +8646,61 @@
       <c r="JY9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JZ9" t="n">
+      <c r="JZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9076,7 +9562,61 @@
       <c r="JY10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JZ10" t="n">
+      <c r="JZ10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KA10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KB10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KC10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KD10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KE10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KF10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KG10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KH10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KI10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KJ10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KK10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KL10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KM10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KN10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KO10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KP10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KQ10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KR10" t="n">
         <v>16</v>
       </c>
     </row>
@@ -9938,7 +10478,61 @@
       <c r="JY11" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="JZ11" t="n">
+      <c r="JZ11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KA11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KB11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KC11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KD11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KE11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KF11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KG11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KH11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KI11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KJ11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KK11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KL11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KM11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KN11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KO11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KP11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KQ11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KR11" t="n">
         <v>193</v>
       </c>
     </row>
@@ -10800,7 +11394,61 @@
       <c r="JY12" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="JZ12" t="n">
+      <c r="JZ12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KA12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KB12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KC12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KD12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KE12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KF12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KG12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KH12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KI12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KJ12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KK12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KL12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KM12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KN12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KO12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KP12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KQ12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KR12" t="n">
         <v>110</v>
       </c>
     </row>
@@ -11662,7 +12310,61 @@
       <c r="JY13" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="JZ13" t="n">
+      <c r="JZ13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KA13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KB13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KC13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KD13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KE13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KF13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KG13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KH13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KI13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KJ13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KK13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KL13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KM13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KN13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KO13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KP13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KQ13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KR13" t="n">
         <v>303</v>
       </c>
     </row>
@@ -12524,7 +13226,61 @@
       <c r="JY14" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="JZ14" t="n">
+      <c r="JZ14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KA14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KB14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KC14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KD14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KE14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KF14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KG14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KH14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KI14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KJ14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KK14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KL14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KM14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KN14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KO14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KP14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KQ14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KR14" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -13386,7 +14142,61 @@
       <c r="JY15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JZ15" t="n">
+      <c r="JZ15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KA15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KB15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KC15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KD15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KE15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KF15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KG15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KH15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KI15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KJ15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KK15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KL15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KM15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KN15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KO15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KP15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KQ15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KR15" t="n">
         <v>68</v>
       </c>
     </row>
@@ -14248,7 +15058,61 @@
       <c r="JY16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JZ16" t="n">
+      <c r="JZ16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KA16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KB16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KC16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KD16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KE16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KF16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KG16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KH16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KI16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KJ16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KK16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KL16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KM16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KN16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KO16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KP16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KQ16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KR16" t="n">
         <v>80</v>
       </c>
     </row>
@@ -15110,7 +15974,61 @@
       <c r="JY17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JZ17" t="n">
+      <c r="JZ17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KA17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KB17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KC17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KD17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KE17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KF17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KG17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KH17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KI17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KJ17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KK17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KL17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KM17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KN17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KO17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KP17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KQ17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KR17" t="n">
         <v>39</v>
       </c>
     </row>
@@ -15972,7 +16890,61 @@
       <c r="JY18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JZ18" t="n">
+      <c r="JZ18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KA18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KB18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KE18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KF18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KG18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KH18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KI18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KJ18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KK18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KL18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KM18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KN18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KO18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KP18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KQ18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KR18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -16834,7 +17806,61 @@
       <c r="JY19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JZ19" t="n">
+      <c r="JZ19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KO19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KP19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR19" t="n">
         <v>15</v>
       </c>
     </row>
@@ -17696,7 +18722,61 @@
       <c r="JY20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JZ20" t="n">
+      <c r="JZ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -18558,7 +19638,61 @@
       <c r="JY21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JZ21" t="n">
+      <c r="JZ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19420,7 +20554,61 @@
       <c r="JY22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JZ22" t="n">
+      <c r="JZ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20282,7 +21470,61 @@
       <c r="JY23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JZ23" t="n">
+      <c r="JZ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -21144,7 +22386,61 @@
       <c r="JY24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JZ24" t="n">
+      <c r="JZ24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KA24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KB24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KC24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KD24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KE24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KF24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KG24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KH24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KI24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KJ24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KK24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KL24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KM24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KN24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KO24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KP24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KQ24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KR24" t="n">
         <v>24</v>
       </c>
     </row>
@@ -22006,7 +23302,61 @@
       <c r="JY25" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="JZ25" t="n">
+      <c r="JZ25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KA25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KB25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KC25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KD25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KE25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KF25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KG25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KH25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KI25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KJ25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KK25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KL25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KM25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KN25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KO25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KP25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KQ25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KR25" t="n">
         <v>58.3</v>
       </c>
     </row>
@@ -22868,7 +24218,61 @@
       <c r="JY26" s="2" t="n">
         <v>21.64</v>
       </c>
-      <c r="JZ26" t="n">
+      <c r="JZ26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KA26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KB26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KC26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KD26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KE26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KF26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KG26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KH26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KI26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KJ26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KK26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KL26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KM26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KN26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KO26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KP26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KQ26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KR26" t="n">
         <v>21.64</v>
       </c>
     </row>
@@ -23730,7 +25134,61 @@
       <c r="JY27" s="2" t="n">
         <v>12.62</v>
       </c>
-      <c r="JZ27" t="n">
+      <c r="JZ27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KA27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KB27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KC27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KD27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KE27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KF27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KG27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KH27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KI27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KJ27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KK27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KL27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KM27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KN27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KO27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KP27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KQ27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KR27" t="n">
         <v>12.62</v>
       </c>
     </row>
@@ -24592,7 +26050,61 @@
       <c r="JY28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JZ28" t="n">
+      <c r="JZ28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KG28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KH28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KI28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KJ28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KK28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KL28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KM28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KN28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KO28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KP28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KQ28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KR28" t="n">
         <v>47</v>
       </c>
     </row>
@@ -25454,7 +26966,61 @@
       <c r="JY29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JZ29" t="n">
+      <c r="JZ29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KI29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KL29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KM29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KN29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KO29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KP29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KQ29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KR29" t="n">
         <v>51</v>
       </c>
     </row>
@@ -26316,7 +27882,61 @@
       <c r="JY30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JZ30" t="n">
+      <c r="JZ30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KA30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KB30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KC30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KM30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KN30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KO30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR30" t="n">
         <v>40</v>
       </c>
     </row>
@@ -27178,7 +28798,61 @@
       <c r="JY31" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JZ31" t="n">
+      <c r="JZ31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KA31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KB31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KC31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KD31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KE31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KF31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KG31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KH31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KI31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KJ31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KK31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KL31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KM31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KN31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KO31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KP31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KQ31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KR31" t="n">
         <v>62</v>
       </c>
     </row>
@@ -28040,7 +29714,61 @@
       <c r="JY32" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="JZ32" t="n">
+      <c r="JZ32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KA32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KB32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KC32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KD32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KE32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KF32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KG32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KH32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KI32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KJ32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KK32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KL32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KM32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KN32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KO32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KP32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KQ32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KR32" t="n">
         <v>2.58</v>
       </c>
     </row>
@@ -28902,7 +30630,61 @@
       <c r="JY33" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="JZ33" t="n">
+      <c r="JZ33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KA33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KB33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KC33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KD33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KE33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KF33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KG33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KH33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KI33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KJ33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KK33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KL33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KM33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KN33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KO33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KP33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KQ33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KR33" t="n">
         <v>4.43</v>
       </c>
     </row>
@@ -29764,7 +31546,61 @@
       <c r="JY34" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="JZ34" t="n">
+      <c r="JZ34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KA34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KB34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KC34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KD34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KE34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KF34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KG34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KH34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KI34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KJ34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KK34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KL34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KM34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KN34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KO34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KP34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KQ34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KR34" t="n">
         <v>33.9</v>
       </c>
     </row>
@@ -30626,7 +32462,61 @@
       <c r="JY35" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="JZ35" t="n">
+      <c r="JZ35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KA35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KB35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KC35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KD35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KE35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KF35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KG35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KH35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KI35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KJ35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KK35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KL35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KM35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KN35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KO35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KP35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KQ35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KR35" t="n">
         <v>22.6</v>
       </c>
     </row>
@@ -31488,7 +33378,61 @@
       <c r="JY36" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="JZ36" t="n">
+      <c r="JZ36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KA36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KB36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KC36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KD36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KE36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KF36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KG36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KH36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KI36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KJ36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KK36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KL36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KM36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KN36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KO36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KP36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KQ36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KR36" t="n">
         <v>189.2</v>
       </c>
     </row>
@@ -32350,7 +34294,61 @@
       <c r="JY37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JZ37" t="n">
+      <c r="JZ37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KA37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KB37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KC37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KD37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KE37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KF37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KG37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KH37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KI37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KJ37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KK37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KL37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KM37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KN37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KO37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KP37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KQ37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KR37" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -33212,7 +35210,61 @@
       <c r="JY38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="JZ38" t="n">
+      <c r="JZ38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KA38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KB38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KC38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KD38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KE38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KF38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KG38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KH38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KI38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KJ38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KK38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KL38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KM38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KN38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KO38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KP38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KQ38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KR38" t="n">
         <v>26.24</v>
       </c>
     </row>
@@ -34074,7 +36126,61 @@
       <c r="JY39" s="2" t="n">
         <v>109.6</v>
       </c>
-      <c r="JZ39" t="n">
+      <c r="JZ39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KA39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KB39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KC39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KD39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KE39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KF39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KG39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KH39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KI39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KJ39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KK39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KL39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KM39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KN39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KO39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KP39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KQ39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KR39" t="n">
         <v>109.6</v>
       </c>
     </row>
@@ -34936,7 +37042,61 @@
       <c r="JY40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JZ40" t="n">
+      <c r="JZ40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35798,7 +37958,61 @@
       <c r="JY41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JZ41" t="n">
+      <c r="JZ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36660,7 +38874,61 @@
       <c r="JY42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JZ42" t="n">
+      <c r="JZ42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37522,7 +39790,61 @@
       <c r="JY43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JZ43" t="n">
+      <c r="JZ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38384,7 +40706,61 @@
       <c r="JY44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="JZ44" t="n">
+      <c r="JZ44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KA44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KB44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KC44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KD44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KE44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KF44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KG44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KH44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KI44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KJ44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KK44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KL44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KM44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KN44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KO44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KP44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KQ44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KR44" t="n">
         <v>134</v>
       </c>
     </row>
@@ -39246,7 +41622,61 @@
       <c r="JY45" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="JZ45" t="n">
+      <c r="JZ45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KA45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KB45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KC45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KD45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KE45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KF45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KG45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KH45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KI45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KJ45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KK45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KL45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KM45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KN45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KO45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KP45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KQ45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KR45" t="n">
         <v>157</v>
       </c>
     </row>
@@ -40108,7 +42538,61 @@
       <c r="JY46" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="JZ46" t="n">
+      <c r="JZ46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KA46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KB46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KC46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KD46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KE46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KF46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KG46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KH46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KI46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KJ46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KK46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KL46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KM46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KN46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KO46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KP46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KQ46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KR46" t="n">
         <v>201</v>
       </c>
     </row>
@@ -40970,7 +43454,61 @@
       <c r="JY47" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="JZ47" t="n">
+      <c r="JZ47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KA47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KB47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KC47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KD47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KE47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KF47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KG47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KH47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KI47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KJ47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KK47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KL47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KM47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KN47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KO47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KP47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KQ47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KR47" t="n">
         <v>66.3</v>
       </c>
     </row>
@@ -41832,7 +44370,61 @@
       <c r="JY48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JZ48" t="n">
+      <c r="JZ48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KI48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KL48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KM48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KN48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KO48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KP48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KQ48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KR48" t="n">
         <v>51</v>
       </c>
     </row>
@@ -42694,7 +45286,61 @@
       <c r="JY49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JZ49" t="n">
+      <c r="JZ49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KG49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KH49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KI49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KJ49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KL49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KN49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KO49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KQ49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KR49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -43556,7 +46202,61 @@
       <c r="JY50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JZ50" t="n">
+      <c r="JZ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -44418,7 +47118,61 @@
       <c r="JY51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JZ51" t="n">
+      <c r="JZ51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KA51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KB51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KC51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KE51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KF51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KG51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KH51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KI51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KJ51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KK51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KL51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KM51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KN51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KO51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KP51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KQ51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KR51" t="n">
         <v>47</v>
       </c>
     </row>
@@ -45280,7 +48034,61 @@
       <c r="JY52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JZ52" t="n">
+      <c r="JZ52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KA52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KB52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KC52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KM52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KN52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KO52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR52" t="n">
         <v>40</v>
       </c>
     </row>
@@ -46142,7 +48950,61 @@
       <c r="JY53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JZ53" t="n">
+      <c r="JZ53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KA53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KB53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KC53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KD53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KE53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KF53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KG53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KI53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KL53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KM53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KN53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KO53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KP53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KQ53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KR53" t="n">
         <v>51</v>
       </c>
     </row>
@@ -47004,7 +49866,61 @@
       <c r="JY54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JZ54" t="n">
+      <c r="JZ54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KG54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KH54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KI54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KL54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KN54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KO54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KP54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KR54" t="n">
         <v>9</v>
       </c>
     </row>
@@ -47866,7 +50782,61 @@
       <c r="JY55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JZ55" t="n">
+      <c r="JZ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -48728,7 +51698,61 @@
       <c r="JY56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JZ56" t="n">
+      <c r="JZ56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KA56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KB56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KC56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KD56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR56" t="n">
         <v>50</v>
       </c>
     </row>
@@ -49590,7 +52614,61 @@
       <c r="JY57" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="JZ57" t="n">
+      <c r="JZ57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KA57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KB57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KC57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KD57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KE57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KF57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KG57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KH57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KI57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KJ57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KK57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KL57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KM57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KN57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KO57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KP57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KQ57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KR57" t="n">
         <v>217</v>
       </c>
     </row>
@@ -50452,7 +53530,61 @@
       <c r="JY58" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JZ58" t="n">
+      <c r="JZ58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KA58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KB58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KC58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KD58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KE58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KF58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KG58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KH58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KI58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KJ58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KK58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KL58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KM58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KN58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KO58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KP58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KQ58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KR58" t="n">
         <v>103</v>
       </c>
     </row>
@@ -51314,7 +54446,61 @@
       <c r="JY59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="JZ59" t="n">
+      <c r="JZ59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KA59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KB59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KC59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KD59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KE59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KF59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KG59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KH59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KI59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KJ59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KK59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KL59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KM59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KN59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KO59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KP59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KQ59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KR59" t="n">
         <v>320</v>
       </c>
     </row>
@@ -52176,7 +55362,61 @@
       <c r="JY60" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="JZ60" t="n">
+      <c r="JZ60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KA60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KB60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KC60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KD60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KE60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KF60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KG60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KH60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KI60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KJ60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KK60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KL60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KM60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KN60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KO60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KP60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KQ60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KR60" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -53038,7 +56278,61 @@
       <c r="JY61" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="JZ61" t="n">
+      <c r="JZ61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KA61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KB61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KC61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KD61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KE61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KF61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KG61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KH61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KI61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KJ61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KK61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KL61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KM61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KN61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KO61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KP61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KQ61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KR61" t="n">
         <v>83</v>
       </c>
     </row>
@@ -53900,7 +57194,61 @@
       <c r="JY62" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JZ62" t="n">
+      <c r="JZ62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KA62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KB62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KC62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KD62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KE62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KF62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KG62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KH62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KI62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KJ62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KK62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KL62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KM62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KN62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KO62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KP62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KQ62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KR62" t="n">
         <v>75</v>
       </c>
     </row>
@@ -54762,7 +58110,61 @@
       <c r="JY63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JZ63" t="n">
+      <c r="JZ63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KA63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KB63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KC63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KD63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KE63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KF63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KG63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KH63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KI63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KJ63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KK63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KL63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KM63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KN63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KO63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KP63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KQ63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KR63" t="n">
         <v>31</v>
       </c>
     </row>
@@ -55624,7 +59026,61 @@
       <c r="JY64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JZ64" t="n">
+      <c r="JZ64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KO64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KP64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR64" t="n">
         <v>15</v>
       </c>
     </row>
@@ -56486,7 +59942,61 @@
       <c r="JY65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JZ65" t="n">
+      <c r="JZ65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KA65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KB65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KC65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KD65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KE65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KF65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KG65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KH65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KI65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KJ65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KK65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KL65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KM65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KN65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KO65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KP65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KQ65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KR65" t="n">
         <v>20</v>
       </c>
     </row>
@@ -57348,7 +60858,61 @@
       <c r="JY66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JZ66" t="n">
+      <c r="JZ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58210,7 +61774,61 @@
       <c r="JY67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JZ67" t="n">
+      <c r="JZ67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -59072,7 +62690,61 @@
       <c r="JY68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JZ68" t="n">
+      <c r="JZ68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KC68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KD68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KE68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KG68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KH68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KI68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KL68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KN68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KO68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KP68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KR68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -59934,7 +63606,61 @@
       <c r="JY69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JZ69" t="n">
+      <c r="JZ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -60796,7 +64522,61 @@
       <c r="JY70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JZ70" t="n">
+      <c r="JZ70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KA70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KB70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KC70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KD70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KE70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KF70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KG70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KH70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KI70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KJ70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KK70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KL70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KM70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KN70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KO70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KP70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KQ70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KR70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -61658,7 +65438,61 @@
       <c r="JY71" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JZ71" t="n">
+      <c r="JZ71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KA71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KB71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KC71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KD71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KE71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KF71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KG71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KH71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KI71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KJ71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KK71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KL71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KM71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KN71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KO71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KP71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KQ71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR71" t="n">
         <v>56</v>
       </c>
     </row>
@@ -62520,7 +66354,61 @@
       <c r="JY72" s="2" t="n">
         <v>22.86</v>
       </c>
-      <c r="JZ72" t="n">
+      <c r="JZ72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KA72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KB72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KC72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KD72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KE72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KF72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KG72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KH72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KI72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KJ72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KK72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KL72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KM72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KN72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KO72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KP72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KQ72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KR72" t="n">
         <v>22.86</v>
       </c>
     </row>
@@ -63382,7 +67270,61 @@
       <c r="JY73" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="JZ73" t="n">
+      <c r="JZ73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KA73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KB73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KC73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KD73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KE73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KF73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KG73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KH73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KI73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KJ73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KK73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KL73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KM73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KN73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KO73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KP73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KQ73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KR73" t="n">
         <v>12.8</v>
       </c>
     </row>
@@ -64244,7 +68186,61 @@
       <c r="JY74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JZ74" t="n">
+      <c r="JZ74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KA74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KB74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KC74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KD74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KE74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KF74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KG74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KH74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KI74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KK74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KL74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KM74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KN74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KO74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KP74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KQ74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KR74" t="n">
         <v>44</v>
       </c>
     </row>
@@ -65106,7 +69102,61 @@
       <c r="JY75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JZ75" t="n">
+      <c r="JZ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KL75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KM75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KN75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KO75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KP75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KQ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KR75" t="n">
         <v>55</v>
       </c>
     </row>
@@ -65968,7 +70018,61 @@
       <c r="JY76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JZ76" t="n">
+      <c r="JZ76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KI76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KL76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KM76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KN76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KO76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KQ76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR76" t="n">
         <v>48</v>
       </c>
     </row>
@@ -66830,7 +70934,61 @@
       <c r="JY77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JZ77" t="n">
+      <c r="JZ77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KA77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KB77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KC77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KD77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KE77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KF77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KG77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KH77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KI77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KJ77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KK77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KL77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KM77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KN77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KO77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KP77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KQ77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR77" t="n">
         <v>56</v>
       </c>
     </row>
@@ -67692,7 +71850,61 @@
       <c r="JY78" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="JZ78" t="n">
+      <c r="JZ78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KA78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KB78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KC78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KD78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KE78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KF78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KG78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KH78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KI78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KJ78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KK78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KL78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KM78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KN78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KO78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KP78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KQ78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KR78" t="n">
         <v>2.24</v>
       </c>
     </row>
@@ -68554,7 +72766,61 @@
       <c r="JY79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JZ79" t="n">
+      <c r="JZ79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -69416,7 +73682,61 @@
       <c r="JY80" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="JZ80" t="n">
+      <c r="JZ80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KA80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KB80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KC80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KD80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KE80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KF80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KG80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KH80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KI80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KJ80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KK80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KL80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KM80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KN80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KO80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KP80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KQ80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KR80" t="n">
         <v>41.1</v>
       </c>
     </row>
@@ -70278,7 +74598,61 @@
       <c r="JY81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JZ81" t="n">
+      <c r="JZ81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KA81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KB81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KC81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KD81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KE81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KF81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KG81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KH81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KI81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KJ81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KK81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KL81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KM81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KN81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KO81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KP81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KQ81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KR81" t="n">
         <v>25</v>
       </c>
     </row>
@@ -71140,7 +75514,61 @@
       <c r="JY82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JZ82" t="n">
+      <c r="JZ82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KA82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KB82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KC82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KD82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KE82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KF82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KG82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KH82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KI82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KJ82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KK82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KL82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KM82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KN82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KO82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KP82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KQ82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KR82" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -72002,7 +76430,61 @@
       <c r="JY83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JZ83" t="n">
+      <c r="JZ83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KA83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KB83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KC83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KD83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KE83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KF83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KG83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KH83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KI83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KJ83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KK83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KL83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KM83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KN83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KO83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KP83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KQ83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KR83" t="n">
         <v>85.8</v>
       </c>
     </row>
@@ -72864,7 +77346,61 @@
       <c r="JY84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="JZ84" t="n">
+      <c r="JZ84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KA84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KB84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KC84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KD84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KE84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KF84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KG84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KH84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KI84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KJ84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KK84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KL84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KM84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KN84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KO84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KP84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KQ84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KR84" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -73726,7 +78262,61 @@
       <c r="JY85" s="2" t="n">
         <v>114.7</v>
       </c>
-      <c r="JZ85" t="n">
+      <c r="JZ85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KA85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KB85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KC85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KD85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KE85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KF85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KG85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KH85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KI85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KJ85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KK85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KL85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KM85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KN85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KO85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KP85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KQ85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KR85" t="n">
         <v>114.7</v>
       </c>
     </row>
@@ -74588,7 +79178,61 @@
       <c r="JY86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JZ86" t="n">
+      <c r="JZ86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -75450,7 +80094,61 @@
       <c r="JY87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JZ87" t="n">
+      <c r="JZ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -76312,7 +81010,61 @@
       <c r="JY88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JZ88" t="n">
+      <c r="JZ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -77174,7 +81926,61 @@
       <c r="JY89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JZ89" t="n">
+      <c r="JZ89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -78036,7 +82842,61 @@
       <c r="JY90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JZ90" t="n">
+      <c r="JZ90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KA90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KB90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KC90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KD90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KE90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KF90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KG90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KH90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KI90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KJ90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KK90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KL90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KM90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KN90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KO90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KP90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KQ90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KR90" t="n">
         <v>144</v>
       </c>
     </row>
@@ -78898,7 +83758,61 @@
       <c r="JY91" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="JZ91" t="n">
+      <c r="JZ91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KA91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KB91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KC91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KD91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KE91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KF91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KG91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KH91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KI91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KJ91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KK91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KL91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KM91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KN91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KO91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KP91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KQ91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KR91" t="n">
         <v>166</v>
       </c>
     </row>
@@ -79760,7 +84674,61 @@
       <c r="JY92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="JZ92" t="n">
+      <c r="JZ92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KA92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KB92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KC92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KD92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KE92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KF92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KG92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KH92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KI92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KJ92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KK92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KL92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KM92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KN92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KO92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KP92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KQ92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KR92" t="n">
         <v>224</v>
       </c>
     </row>
@@ -80622,7 +85590,61 @@
       <c r="JY93" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JZ93" t="n">
+      <c r="JZ93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KA93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KB93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KC93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KD93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KE93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KF93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KG93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KH93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KI93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KJ93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KK93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KL93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KM93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KN93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KO93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KP93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KQ93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KR93" t="n">
         <v>70</v>
       </c>
     </row>
@@ -81484,7 +86506,61 @@
       <c r="JY94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JZ94" t="n">
+      <c r="JZ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KL94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KM94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KN94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KO94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KP94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KQ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KR94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -82346,7 +87422,61 @@
       <c r="JY95" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JZ95" t="n">
+      <c r="JZ95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KA95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KB95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KC95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KD95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KE95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KF95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KG95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KH95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KI95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KJ95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KK95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KL95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KM95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KN95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KO95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KP95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KQ95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KR95" t="n">
         <v>16</v>
       </c>
     </row>
@@ -83208,7 +88338,61 @@
       <c r="JY96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JZ96" t="n">
+      <c r="JZ96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -84070,7 +89254,61 @@
       <c r="JY97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JZ97" t="n">
+      <c r="JZ97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KA97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KB97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KC97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KD97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KE97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KF97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KG97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KH97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KI97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KK97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KL97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KM97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KN97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KO97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KP97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KQ97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KR97" t="n">
         <v>44</v>
       </c>
     </row>
@@ -84932,7 +90170,61 @@
       <c r="JY98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JZ98" t="n">
+      <c r="JZ98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KI98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KL98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KM98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KN98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KO98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KQ98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR98" t="n">
         <v>48</v>
       </c>
     </row>
@@ -85794,7 +91086,61 @@
       <c r="JY99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JZ99" t="n">
+      <c r="JZ99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KA99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KB99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KC99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KD99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KE99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KF99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KG99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KH99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KI99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KJ99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KK99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KL99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KM99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KN99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KO99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KP99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KQ99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KR99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -86656,7 +92002,61 @@
       <c r="JY100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JZ100" t="n">
+      <c r="JZ100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -87518,7 +92918,61 @@
       <c r="JY101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JZ101" t="n">
+      <c r="JZ101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -88380,7 +93834,61 @@
       <c r="JY102" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="JZ102" t="n">
+      <c r="JZ102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KA102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KB102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KC102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KD102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KE102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KF102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KG102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KH102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KI102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KJ102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KK102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KL102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KM102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KN102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KO102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KP102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KQ102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KR102" t="n">
         <v>42.9</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Collingwood_stats.xlsx
+++ b/django_AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KR102"/>
+  <dimension ref="A1:KV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1372,7 +1372,19 @@
       <c r="KQ1" s="2" t="n">
         <v>10749</v>
       </c>
-      <c r="KR1" t="n">
+      <c r="KR1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KS1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KT1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KU1" s="2" t="n">
+        <v>10749</v>
+      </c>
+      <c r="KV1" t="n">
         <v>10749</v>
       </c>
     </row>
@@ -2288,7 +2300,19 @@
       <c r="KQ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KR2" t="n">
+      <c r="KR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KV2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3204,7 +3228,19 @@
       <c r="KQ3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KR3" t="n">
+      <c r="KR3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KS3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KT3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KU3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KV3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4120,7 +4156,19 @@
       <c r="KQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KR4" t="n">
+      <c r="KR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KV4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,7 +5084,19 @@
       <c r="KQ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR5" t="n">
+      <c r="KR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5952,7 +6012,19 @@
       <c r="KQ6" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KR6" t="n">
+      <c r="KR6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KS6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KT6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KU6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KV6" t="n">
         <v>94</v>
       </c>
     </row>
@@ -6868,7 +6940,19 @@
       <c r="KQ7" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KR7" t="n">
+      <c r="KR7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KS7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KT7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KU7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KV7" t="n">
         <v>95</v>
       </c>
     </row>
@@ -7784,7 +7868,19 @@
       <c r="KQ8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="KR8" t="n">
+      <c r="KR8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KS8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KT8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KU8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="KV8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8700,7 +8796,19 @@
       <c r="KQ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KR9" t="n">
+      <c r="KR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9616,7 +9724,19 @@
       <c r="KQ10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR10" t="n">
+      <c r="KR10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KS10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KT10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KU10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KV10" t="n">
         <v>16</v>
       </c>
     </row>
@@ -10532,7 +10652,19 @@
       <c r="KQ11" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="KR11" t="n">
+      <c r="KR11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KS11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KT11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KU11" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="KV11" t="n">
         <v>193</v>
       </c>
     </row>
@@ -11448,7 +11580,19 @@
       <c r="KQ12" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KR12" t="n">
+      <c r="KR12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KS12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KT12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KU12" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KV12" t="n">
         <v>110</v>
       </c>
     </row>
@@ -12364,7 +12508,19 @@
       <c r="KQ13" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="KR13" t="n">
+      <c r="KR13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KS13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KT13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KU13" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="KV13" t="n">
         <v>303</v>
       </c>
     </row>
@@ -13280,7 +13436,19 @@
       <c r="KQ14" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="KR14" t="n">
+      <c r="KR14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KS14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KT14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KU14" s="2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="KV14" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -14196,7 +14364,19 @@
       <c r="KQ15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KR15" t="n">
+      <c r="KR15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KS15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KT15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KU15" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KV15" t="n">
         <v>68</v>
       </c>
     </row>
@@ -15112,7 +15292,19 @@
       <c r="KQ16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KR16" t="n">
+      <c r="KR16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KS16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KT16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KU16" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KV16" t="n">
         <v>80</v>
       </c>
     </row>
@@ -16028,7 +16220,19 @@
       <c r="KQ17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KR17" t="n">
+      <c r="KR17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KS17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KT17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KU17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KV17" t="n">
         <v>39</v>
       </c>
     </row>
@@ -16944,7 +17148,19 @@
       <c r="KQ18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KR18" t="n">
+      <c r="KR18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KS18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KT18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KU18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KV18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17860,7 +18076,19 @@
       <c r="KQ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR19" t="n">
+      <c r="KR19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KV19" t="n">
         <v>15</v>
       </c>
     </row>
@@ -18776,7 +19004,19 @@
       <c r="KQ20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR20" t="n">
+      <c r="KR20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KV20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -19692,7 +19932,19 @@
       <c r="KQ21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR21" t="n">
+      <c r="KR21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20608,7 +20860,19 @@
       <c r="KQ22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR22" t="n">
+      <c r="KR22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -21524,7 +21788,19 @@
       <c r="KQ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR23" t="n">
+      <c r="KR23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -22440,7 +22716,19 @@
       <c r="KQ24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KR24" t="n">
+      <c r="KR24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KS24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KT24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KU24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="KV24" t="n">
         <v>24</v>
       </c>
     </row>
@@ -23356,7 +23644,19 @@
       <c r="KQ25" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="KR25" t="n">
+      <c r="KR25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KS25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KT25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KU25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KV25" t="n">
         <v>58.3</v>
       </c>
     </row>
@@ -24272,7 +24572,19 @@
       <c r="KQ26" s="2" t="n">
         <v>21.64</v>
       </c>
-      <c r="KR26" t="n">
+      <c r="KR26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KS26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KT26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KU26" s="2" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="KV26" t="n">
         <v>21.64</v>
       </c>
     </row>
@@ -25188,7 +25500,19 @@
       <c r="KQ27" s="2" t="n">
         <v>12.62</v>
       </c>
-      <c r="KR27" t="n">
+      <c r="KR27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KS27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KT27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KU27" s="2" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KV27" t="n">
         <v>12.62</v>
       </c>
     </row>
@@ -26104,7 +26428,19 @@
       <c r="KQ28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KR28" t="n">
+      <c r="KR28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KS28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KT28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KU28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KV28" t="n">
         <v>47</v>
       </c>
     </row>
@@ -27020,7 +27356,19 @@
       <c r="KQ29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR29" t="n">
+      <c r="KR29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KS29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KT29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KU29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KV29" t="n">
         <v>51</v>
       </c>
     </row>
@@ -27936,7 +28284,19 @@
       <c r="KQ30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KR30" t="n">
+      <c r="KR30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KT30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KV30" t="n">
         <v>40</v>
       </c>
     </row>
@@ -28852,7 +29212,19 @@
       <c r="KQ31" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KR31" t="n">
+      <c r="KR31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KS31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KT31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KU31" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KV31" t="n">
         <v>62</v>
       </c>
     </row>
@@ -29768,7 +30140,19 @@
       <c r="KQ32" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="KR32" t="n">
+      <c r="KR32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KS32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KT32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KU32" s="2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="KV32" t="n">
         <v>2.58</v>
       </c>
     </row>
@@ -30684,7 +31068,19 @@
       <c r="KQ33" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="KR33" t="n">
+      <c r="KR33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KS33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KT33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KU33" s="2" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="KV33" t="n">
         <v>4.43</v>
       </c>
     </row>
@@ -31600,7 +31996,19 @@
       <c r="KQ34" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="KR34" t="n">
+      <c r="KR34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KS34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KT34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KU34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="KV34" t="n">
         <v>33.9</v>
       </c>
     </row>
@@ -32516,7 +32924,19 @@
       <c r="KQ35" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="KR35" t="n">
+      <c r="KR35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KS35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KT35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KU35" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="KV35" t="n">
         <v>22.6</v>
       </c>
     </row>
@@ -33432,7 +33852,19 @@
       <c r="KQ36" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="KR36" t="n">
+      <c r="KR36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KS36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KT36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KU36" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KV36" t="n">
         <v>189.2</v>
       </c>
     </row>
@@ -34348,7 +34780,19 @@
       <c r="KQ37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KR37" t="n">
+      <c r="KR37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KS37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KT37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KU37" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="KV37" t="n">
         <v>86.40000000000001</v>
       </c>
     </row>
@@ -35264,7 +35708,19 @@
       <c r="KQ38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KR38" t="n">
+      <c r="KR38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KS38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KT38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KU38" s="2" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="KV38" t="n">
         <v>26.24</v>
       </c>
     </row>
@@ -36180,7 +36636,19 @@
       <c r="KQ39" s="2" t="n">
         <v>109.6</v>
       </c>
-      <c r="KR39" t="n">
+      <c r="KR39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KS39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KT39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KU39" s="2" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="KV39" t="n">
         <v>109.6</v>
       </c>
     </row>
@@ -37096,7 +37564,19 @@
       <c r="KQ40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR40" t="n">
+      <c r="KR40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38012,7 +38492,19 @@
       <c r="KQ41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR41" t="n">
+      <c r="KR41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38928,7 +39420,19 @@
       <c r="KQ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KR42" t="n">
+      <c r="KR42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39844,7 +40348,19 @@
       <c r="KQ43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR43" t="n">
+      <c r="KR43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40760,7 +41276,19 @@
       <c r="KQ44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KR44" t="n">
+      <c r="KR44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KS44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KT44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KU44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="KV44" t="n">
         <v>134</v>
       </c>
     </row>
@@ -41676,7 +42204,19 @@
       <c r="KQ45" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KR45" t="n">
+      <c r="KR45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KS45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KT45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KU45" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="KV45" t="n">
         <v>157</v>
       </c>
     </row>
@@ -42592,7 +43132,19 @@
       <c r="KQ46" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KR46" t="n">
+      <c r="KR46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KS46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KT46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KU46" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="KV46" t="n">
         <v>201</v>
       </c>
     </row>
@@ -43508,7 +44060,19 @@
       <c r="KQ47" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="KR47" t="n">
+      <c r="KR47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KS47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KT47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KU47" s="2" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="KV47" t="n">
         <v>66.3</v>
       </c>
     </row>
@@ -44424,7 +44988,19 @@
       <c r="KQ48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR48" t="n">
+      <c r="KR48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KS48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KT48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KU48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KV48" t="n">
         <v>51</v>
       </c>
     </row>
@@ -45340,7 +45916,19 @@
       <c r="KQ49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KR49" t="n">
+      <c r="KR49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KT49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KU49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KV49" t="n">
         <v>10</v>
       </c>
     </row>
@@ -46256,7 +46844,19 @@
       <c r="KQ50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KR50" t="n">
+      <c r="KR50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KV50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -47172,7 +47772,19 @@
       <c r="KQ51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KR51" t="n">
+      <c r="KR51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KS51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KT51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KU51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KV51" t="n">
         <v>47</v>
       </c>
     </row>
@@ -48088,7 +48700,19 @@
       <c r="KQ52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KR52" t="n">
+      <c r="KR52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KT52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KV52" t="n">
         <v>40</v>
       </c>
     </row>
@@ -49004,7 +49628,19 @@
       <c r="KQ53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KR53" t="n">
+      <c r="KR53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KS53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KT53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KU53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KV53" t="n">
         <v>51</v>
       </c>
     </row>
@@ -49920,7 +50556,19 @@
       <c r="KQ54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KR54" t="n">
+      <c r="KR54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KS54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KT54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KU54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KV54" t="n">
         <v>9</v>
       </c>
     </row>
@@ -50836,7 +51484,19 @@
       <c r="KQ55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR55" t="n">
+      <c r="KR55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -51752,7 +52412,19 @@
       <c r="KQ56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KR56" t="n">
+      <c r="KR56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU56" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KV56" t="n">
         <v>50</v>
       </c>
     </row>
@@ -52668,7 +53340,19 @@
       <c r="KQ57" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KR57" t="n">
+      <c r="KR57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KS57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KT57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KU57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KV57" t="n">
         <v>217</v>
       </c>
     </row>
@@ -53584,7 +54268,19 @@
       <c r="KQ58" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KR58" t="n">
+      <c r="KR58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KS58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KT58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KU58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="KV58" t="n">
         <v>103</v>
       </c>
     </row>
@@ -54500,7 +55196,19 @@
       <c r="KQ59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="KR59" t="n">
+      <c r="KR59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KS59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KT59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KU59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="KV59" t="n">
         <v>320</v>
       </c>
     </row>
@@ -55416,7 +56124,19 @@
       <c r="KQ60" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="KR60" t="n">
+      <c r="KR60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KS60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KT60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KU60" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="KV60" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -56332,7 +57052,19 @@
       <c r="KQ61" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KR61" t="n">
+      <c r="KR61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KS61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KT61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KU61" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="KV61" t="n">
         <v>83</v>
       </c>
     </row>
@@ -57248,7 +57980,19 @@
       <c r="KQ62" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KR62" t="n">
+      <c r="KR62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KS62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KT62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KU62" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="KV62" t="n">
         <v>75</v>
       </c>
     </row>
@@ -58164,7 +58908,19 @@
       <c r="KQ63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KR63" t="n">
+      <c r="KR63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KS63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KT63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KU63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KV63" t="n">
         <v>31</v>
       </c>
     </row>
@@ -59080,7 +59836,19 @@
       <c r="KQ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KR64" t="n">
+      <c r="KR64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KV64" t="n">
         <v>15</v>
       </c>
     </row>
@@ -59996,7 +60764,19 @@
       <c r="KQ65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KR65" t="n">
+      <c r="KR65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KS65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KT65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KU65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KV65" t="n">
         <v>20</v>
       </c>
     </row>
@@ -60912,7 +61692,19 @@
       <c r="KQ66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR66" t="n">
+      <c r="KR66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KV66" t="n">
         <v>14</v>
       </c>
     </row>
@@ -61828,7 +62620,19 @@
       <c r="KQ67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR67" t="n">
+      <c r="KR67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -62744,7 +63548,19 @@
       <c r="KQ68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KR68" t="n">
+      <c r="KR68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KS68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KT68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KU68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KV68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -63660,7 +64476,19 @@
       <c r="KQ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KR69" t="n">
+      <c r="KR69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -64576,7 +65404,19 @@
       <c r="KQ70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KR70" t="n">
+      <c r="KR70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KS70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KT70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KU70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KV70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -65492,7 +66332,19 @@
       <c r="KQ71" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KR71" t="n">
+      <c r="KR71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KS71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KT71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KU71" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KV71" t="n">
         <v>56</v>
       </c>
     </row>
@@ -66408,7 +67260,19 @@
       <c r="KQ72" s="2" t="n">
         <v>22.86</v>
       </c>
-      <c r="KR72" t="n">
+      <c r="KR72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KS72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KT72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KU72" s="2" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="KV72" t="n">
         <v>22.86</v>
       </c>
     </row>
@@ -67324,7 +68188,19 @@
       <c r="KQ73" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="KR73" t="n">
+      <c r="KR73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KS73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KT73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KU73" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="KV73" t="n">
         <v>12.8</v>
       </c>
     </row>
@@ -68240,7 +69116,19 @@
       <c r="KQ74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR74" t="n">
+      <c r="KR74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KS74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KT74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KU74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KV74" t="n">
         <v>44</v>
       </c>
     </row>
@@ -69156,7 +70044,19 @@
       <c r="KQ75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KR75" t="n">
+      <c r="KR75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KT75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KV75" t="n">
         <v>55</v>
       </c>
     </row>
@@ -70072,7 +70972,19 @@
       <c r="KQ76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KR76" t="n">
+      <c r="KR76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KS76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KT76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KU76" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KV76" t="n">
         <v>48</v>
       </c>
     </row>
@@ -70988,7 +71900,19 @@
       <c r="KQ77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KR77" t="n">
+      <c r="KR77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KS77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KT77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KU77" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KV77" t="n">
         <v>56</v>
       </c>
     </row>
@@ -71904,7 +72828,19 @@
       <c r="KQ78" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="KR78" t="n">
+      <c r="KR78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KS78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KT78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KU78" s="2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KV78" t="n">
         <v>2.24</v>
       </c>
     </row>
@@ -72820,7 +73756,19 @@
       <c r="KQ79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KR79" t="n">
+      <c r="KR79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KV79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -73736,7 +74684,19 @@
       <c r="KQ80" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="KR80" t="n">
+      <c r="KR80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KS80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KT80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KU80" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KV80" t="n">
         <v>41.1</v>
       </c>
     </row>
@@ -74652,7 +75612,19 @@
       <c r="KQ81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KR81" t="n">
+      <c r="KR81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KS81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KT81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KU81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KV81" t="n">
         <v>25</v>
       </c>
     </row>
@@ -75568,7 +76540,19 @@
       <c r="KQ82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KR82" t="n">
+      <c r="KR82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KS82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KT82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KU82" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KV82" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -76484,7 +77468,19 @@
       <c r="KQ83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KR83" t="n">
+      <c r="KR83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KS83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KT83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KU83" s="2" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="KV83" t="n">
         <v>85.8</v>
       </c>
     </row>
@@ -77400,7 +78396,19 @@
       <c r="KQ84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KR84" t="n">
+      <c r="KR84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KS84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KT84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KU84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KV84" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -78316,7 +79324,19 @@
       <c r="KQ85" s="2" t="n">
         <v>114.7</v>
       </c>
-      <c r="KR85" t="n">
+      <c r="KR85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KS85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KT85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KU85" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="KV85" t="n">
         <v>114.7</v>
       </c>
     </row>
@@ -79232,7 +80252,19 @@
       <c r="KQ86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR86" t="n">
+      <c r="KR86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -80148,7 +81180,19 @@
       <c r="KQ87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KR87" t="n">
+      <c r="KR87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KV87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -81064,7 +82108,19 @@
       <c r="KQ88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR88" t="n">
+      <c r="KR88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -81980,7 +83036,19 @@
       <c r="KQ89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR89" t="n">
+      <c r="KR89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -82896,7 +83964,19 @@
       <c r="KQ90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KR90" t="n">
+      <c r="KR90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KS90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KT90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KU90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="KV90" t="n">
         <v>144</v>
       </c>
     </row>
@@ -83812,7 +84892,19 @@
       <c r="KQ91" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KR91" t="n">
+      <c r="KR91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KS91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KT91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KU91" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="KV91" t="n">
         <v>166</v>
       </c>
     </row>
@@ -84728,7 +85820,19 @@
       <c r="KQ92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KR92" t="n">
+      <c r="KR92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KS92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KT92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KU92" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="KV92" t="n">
         <v>224</v>
       </c>
     </row>
@@ -85644,7 +86748,19 @@
       <c r="KQ93" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KR93" t="n">
+      <c r="KR93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KS93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KT93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KU93" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KV93" t="n">
         <v>70</v>
       </c>
     </row>
@@ -86560,7 +87676,19 @@
       <c r="KQ94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KR94" t="n">
+      <c r="KR94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KT94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KV94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -87476,7 +88604,19 @@
       <c r="KQ95" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KR95" t="n">
+      <c r="KR95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KS95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KT95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KU95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KV95" t="n">
         <v>16</v>
       </c>
     </row>
@@ -88392,7 +89532,19 @@
       <c r="KQ96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KR96" t="n">
+      <c r="KR96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KV96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -89308,7 +90460,19 @@
       <c r="KQ97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KR97" t="n">
+      <c r="KR97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KS97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KT97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KU97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KV97" t="n">
         <v>44</v>
       </c>
     </row>
@@ -90224,7 +91388,19 @@
       <c r="KQ98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KR98" t="n">
+      <c r="KR98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KS98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KT98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KU98" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KV98" t="n">
         <v>48</v>
       </c>
     </row>
@@ -91140,7 +92316,19 @@
       <c r="KQ99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KR99" t="n">
+      <c r="KR99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KS99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KT99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KU99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KV99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -92056,7 +93244,19 @@
       <c r="KQ100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KR100" t="n">
+      <c r="KR100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KV100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -92972,7 +94172,19 @@
       <c r="KQ101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KR101" t="n">
+      <c r="KR101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KV101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -93888,7 +95100,19 @@
       <c r="KQ102" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="KR102" t="n">
+      <c r="KR102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KS102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KT102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KU102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KV102" t="n">
         <v>42.9</v>
       </c>
     </row>
